--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B890"/>
+  <dimension ref="A1:B891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8010500073432922</v>
+        <v>-0.8022173047065735</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.513785839080811</v>
+        <v>-1.516955494880676</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.455098867416382</v>
+        <v>-1.456261515617371</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8664966821670532</v>
+        <v>-0.8684012293815613</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2891691625118256</v>
+        <v>0.2877476215362549</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.638965904712677</v>
+        <v>-0.6399193406105042</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.968174338340759</v>
+        <v>-1.968518495559692</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.183918952941895</v>
+        <v>-2.183809995651245</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.21309494972229</v>
+        <v>-1.213158369064331</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.936784625053406</v>
+        <v>-1.936993002891541</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.811640381813049</v>
+        <v>-1.813068270683289</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9050846695899963</v>
+        <v>-0.9065303802490234</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.852970123291016</v>
+        <v>-2.854491233825684</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.962238073348999</v>
+        <v>-3.970165729522705</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.70298159122467</v>
+        <v>-1.704009532928467</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08040441572666168</v>
+        <v>-0.08271163702011108</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2155112326145172</v>
+        <v>0.2151459753513336</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6499192714691162</v>
+        <v>0.6490770578384399</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9050480127334595</v>
+        <v>-0.9059857726097107</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2316759675741196</v>
+        <v>-0.232040137052536</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6428530216217041</v>
+        <v>-0.6431167125701904</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6988305449485779</v>
+        <v>-0.6985530257225037</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.29390561580658</v>
+        <v>-1.294178009033203</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.536415576934814</v>
+        <v>-2.537234544754028</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.949315309524536</v>
+        <v>-2.950408220291138</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.881912350654602</v>
+        <v>-1.886737585067749</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.011635303497314</v>
+        <v>-2.012089014053345</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.575149416923523</v>
+        <v>-1.575749635696411</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7439267039299011</v>
+        <v>-0.7440433502197266</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.712934136390686</v>
+        <v>-0.7131583690643311</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.630766749382019</v>
+        <v>-1.632318019866943</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329587817192078</v>
+        <v>-1.329566836357117</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2475525885820389</v>
+        <v>-0.2485322654247284</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8704763054847717</v>
+        <v>-0.8697110414505005</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.126641273498535</v>
+        <v>-2.126401424407959</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3598245978355408</v>
+        <v>-0.3606025278568268</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8663593530654907</v>
+        <v>-0.866703987121582</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.411661148071289</v>
+        <v>-1.415667295455933</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.47021210193634</v>
+        <v>-1.471152901649475</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.386113882064819</v>
+        <v>-2.387387037277222</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.612459659576416</v>
+        <v>-1.61450982093811</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.682645797729492</v>
+        <v>-1.683636546134949</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.422435760498047</v>
+        <v>-1.423396110534668</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.542845487594604</v>
+        <v>-1.544855356216431</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.694782495498657</v>
+        <v>-1.696205019950867</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.967441916465759</v>
+        <v>-1.968158364295959</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.411688446998596</v>
+        <v>-1.413002848625183</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.592656254768372</v>
+        <v>-1.594507932662964</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.326993942260742</v>
+        <v>-2.329582452774048</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.249809503555298</v>
+        <v>-1.253637909889221</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.504756927490234</v>
+        <v>-1.506411194801331</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.86052942276001</v>
+        <v>-1.862149477005005</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.181420683860779</v>
+        <v>-1.18287992477417</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5573874115943909</v>
+        <v>-0.5585935115814209</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5446202754974365</v>
+        <v>-0.5458256602287292</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8894659876823425</v>
+        <v>-0.8895916938781738</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.467811465263367</v>
+        <v>-1.469608783721924</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.948091447353363</v>
+        <v>-0.9486876130104065</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.280682325363159</v>
+        <v>-2.281240463256836</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.890927672386169</v>
+        <v>-1.892464637756348</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.805666565895081</v>
+        <v>-1.807044386863708</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.410107016563416</v>
+        <v>-1.414846777915955</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.153570175170898</v>
+        <v>-1.154669404029846</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.88507604598999</v>
+        <v>-1.886561274528503</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.219004273414612</v>
+        <v>-1.220335602760315</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7700219750404358</v>
+        <v>-0.7710490822792053</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.397652387619019</v>
+        <v>-1.399566769599915</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6534492373466492</v>
+        <v>-0.6547152400016785</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3866229355335236</v>
+        <v>-0.3878938555717468</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759106636047363</v>
+        <v>-1.759117960929871</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6069798469543457</v>
+        <v>-0.6087027788162231</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.569848537445068</v>
+        <v>-1.571014046669006</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7145952582359314</v>
+        <v>-0.7151463627815247</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5864951014518738</v>
+        <v>-0.5883818864822388</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.887311935424805</v>
+        <v>-2.888113975524902</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.203000068664551</v>
+        <v>-1.204425692558289</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.004600913263857365</v>
+        <v>-0.005316218361258507</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7307729125022888</v>
+        <v>-0.732268750667572</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8639211654663086</v>
+        <v>-0.8643170595169067</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.07835841178894</v>
+        <v>-2.079140901565552</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.003395421663299203</v>
+        <v>-0.003349822014570236</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6417006850242615</v>
+        <v>-0.6421132683753967</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2713902592658997</v>
+        <v>0.2710785865783691</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.632027983665466</v>
+        <v>-1.631862998008728</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4077189564704895</v>
+        <v>-0.4096252024173737</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5864604711532593</v>
+        <v>-0.5891628861427307</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4885028302669525</v>
+        <v>-0.4887408912181854</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.867679238319397</v>
+        <v>-0.867520809173584</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.967063844203949</v>
+        <v>-0.9674881100654602</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7532777786254883</v>
+        <v>-0.754880428314209</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1819348335266113</v>
+        <v>-0.1818108260631561</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.363383531570435</v>
+        <v>-2.363329887390137</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8101096153259277</v>
+        <v>-0.810225248336792</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.403592586517334</v>
+        <v>-2.403827667236328</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.736940145492554</v>
+        <v>-1.738440632820129</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9973351955413818</v>
+        <v>-0.9971473813056946</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.575747013092041</v>
+        <v>-1.57527756690979</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.576021790504456</v>
+        <v>-1.580564260482788</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.070114731788635</v>
+        <v>-1.071002960205078</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.50757896900177</v>
+        <v>-1.50775146484375</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.173603653907776</v>
+        <v>-1.172804474830627</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1953963935375214</v>
+        <v>0.1953032910823822</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.436222195625305</v>
+        <v>-1.436989426612854</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.401907324790955</v>
+        <v>-1.403313994407654</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.111583948135376</v>
+        <v>-2.112115383148193</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.181841373443604</v>
+        <v>-1.182017207145691</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.40090548992157</v>
+        <v>-1.401461601257324</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.046298503875732</v>
+        <v>-2.047718524932861</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.90926194190979</v>
+        <v>-0.9108878374099731</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.07292366027832</v>
+        <v>-1.076007008552551</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5038098692893982</v>
+        <v>-0.5047078728675842</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9979480504989624</v>
+        <v>-0.9987940788269043</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7378421425819397</v>
+        <v>-0.7399587631225586</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.600616455078125</v>
+        <v>-1.602199077606201</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8457448482513428</v>
+        <v>-0.846912145614624</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9914305210113525</v>
+        <v>-0.9915374517440796</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1022113412618637</v>
+        <v>-0.1026970893144608</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.545151233673096</v>
+        <v>-1.546963453292847</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.597696781158447</v>
+        <v>-1.599542617797852</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.175081133842468</v>
+        <v>-1.177022814750671</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.150880366563797</v>
+        <v>0.1494581699371338</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05045926198363304</v>
+        <v>-0.05187366157770157</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8674570918083191</v>
+        <v>-0.868689239025116</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.055222988128662</v>
+        <v>-1.057855844497681</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7811321020126343</v>
+        <v>-0.7834545969963074</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05761214718222618</v>
+        <v>0.05639389902353287</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.451483488082886</v>
+        <v>-1.452031016349792</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.05895286053419113</v>
+        <v>-0.05993761122226715</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.45619136095047</v>
+        <v>0.4556637108325958</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3855454921722412</v>
+        <v>-0.386321485042572</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2912173867225647</v>
+        <v>0.2904596626758575</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8760660290718079</v>
+        <v>0.8752164840698242</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3523469269275665</v>
+        <v>0.3515686690807343</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1390612721443176</v>
+        <v>-0.1409134864807129</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1370113343000412</v>
+        <v>-0.1377364695072174</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.144521474838257</v>
+        <v>-1.145777583122253</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.649889945983887</v>
+        <v>-1.651347398757935</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.7961660027503967</v>
+        <v>-0.7965444326400757</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8311192989349365</v>
+        <v>-0.8321322798728943</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.083632946014404</v>
+        <v>-1.083743929862976</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02246263436973095</v>
+        <v>0.02170756459236145</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8145570755004883</v>
+        <v>-0.8141704201698303</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6422449946403503</v>
+        <v>0.6414373517036438</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4823522567749023</v>
+        <v>-0.4820001423358917</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.07548519223928452</v>
+        <v>0.07349906861782074</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007004509679973125</v>
+        <v>0.004478130955249071</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3538539111614227</v>
+        <v>0.3526988327503204</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.531190872192383</v>
+        <v>-1.531941533088684</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.625213623046875</v>
+        <v>-1.625288367271423</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02924506738781929</v>
+        <v>0.02868006564676762</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4766108393669128</v>
+        <v>-0.4777878522872925</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.264325499534607</v>
+        <v>-1.264697909355164</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8952441215515137</v>
+        <v>-0.8947745561599731</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1049327030777931</v>
+        <v>-0.1053365096449852</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1278307884931564</v>
+        <v>0.1267383545637131</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01152460090816021</v>
+        <v>0.010386704467237</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2377887964248657</v>
+        <v>-0.2393145710229874</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8702393770217896</v>
+        <v>-0.8747351765632629</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6180558800697327</v>
+        <v>-0.6201639175415039</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7053416967391968</v>
+        <v>-0.7058477401733398</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9425702691078186</v>
+        <v>-0.9441812634468079</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.786801815032959</v>
+        <v>-0.7878361940383911</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.643821120262146</v>
+        <v>-0.6447305083274841</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1318847090005875</v>
+        <v>-0.1315800249576569</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.928234338760376</v>
+        <v>-0.928594708442688</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3845725655555725</v>
+        <v>-0.3852825164794922</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2788211107254028</v>
+        <v>0.2785128057003021</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.077526926994324</v>
+        <v>1.076996564865112</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6748737096786499</v>
+        <v>0.675119161605835</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7704164385795593</v>
+        <v>-0.7740171551704407</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.473745733499527</v>
+        <v>-0.4747553169727325</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.07180380821228027</v>
+        <v>0.07157326489686966</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.531462550163269</v>
+        <v>-0.531716525554657</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.722086310386658</v>
+        <v>-1.723230957984924</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08074426651000977</v>
+        <v>0.08042111992835999</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2349104583263397</v>
+        <v>-0.2354339361190796</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1551711857318878</v>
+        <v>0.1542015820741653</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.030798554420471</v>
+        <v>-1.030439257621765</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.9982335567474365</v>
+        <v>-0.9996407032012939</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5926021337509155</v>
+        <v>0.5918605923652649</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4537023305892944</v>
+        <v>0.4533772766590118</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4843909740447998</v>
+        <v>0.485183447599411</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.04961620643734932</v>
+        <v>-0.05086611583828926</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.125829577445984</v>
+        <v>-1.127096891403198</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.00207531452179</v>
+        <v>-1.002448678016663</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.000581502914429</v>
+        <v>-1.00117015838623</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.53748631477356</v>
+        <v>-1.53752076625824</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.93553638458252</v>
+        <v>-2.935462713241577</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9763082265853882</v>
+        <v>-0.9766227006912231</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.01937612146139145</v>
+        <v>-0.01964348927140236</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2904338836669922</v>
+        <v>-0.2911877036094666</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.02645047754049301</v>
+        <v>-0.0278698205947876</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.173563599586487</v>
+        <v>-1.175279498100281</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.381121039390564</v>
+        <v>-1.384742975234985</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3906343579292297</v>
+        <v>-0.3916794657707214</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7390677928924561</v>
+        <v>-0.7390865087509155</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1432487070560455</v>
+        <v>-0.1446232795715332</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.699898958206177</v>
+        <v>-2.699619054794312</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.704727649688721</v>
+        <v>-2.704926013946533</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.524652361869812</v>
+        <v>-1.525864839553833</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08327164500951767</v>
+        <v>0.08221732825040817</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2494367659091949</v>
+        <v>-0.2496874034404755</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.142122983932495</v>
+        <v>-1.143267035484314</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.260653138160706</v>
+        <v>-1.260865688323975</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8001000285148621</v>
+        <v>-0.8006805181503296</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.028230428695679</v>
+        <v>-3.0356764793396</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9207290410995483</v>
+        <v>-0.9218550324440002</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.588981509208679</v>
+        <v>-1.590007066726685</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.09971809387207</v>
+        <v>-2.100695848464966</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1620405465364456</v>
+        <v>-0.1639344692230225</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.076236963272095</v>
+        <v>-1.077562570571899</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.204575419425964</v>
+        <v>-1.204824566841125</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7756626009941101</v>
+        <v>-0.7764289975166321</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.237539768218994</v>
+        <v>-1.238484501838684</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.05398386344313622</v>
+        <v>0.0522405318915844</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.491363167762756</v>
+        <v>-1.491959810256958</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.02618198283016682</v>
+        <v>-0.02720664069056511</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9704489707946777</v>
+        <v>-0.9747818112373352</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.324779987335205</v>
+        <v>-2.325526714324951</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.192692995071411</v>
+        <v>-1.193880438804626</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.89843738079071</v>
+        <v>-1.899900555610657</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3334658741950989</v>
+        <v>0.3328356444835663</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6893196702003479</v>
+        <v>-0.6904277801513672</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06518251448869705</v>
+        <v>-0.06540180742740631</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4836103022098541</v>
+        <v>-0.4835416376590729</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.06971793621778488</v>
+        <v>0.0703100711107254</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.037147641181946</v>
+        <v>-1.037880897521973</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7153332829475403</v>
+        <v>-0.7156074643135071</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.76183545589447</v>
+        <v>-1.762026071548462</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.5994302034378052</v>
+        <v>-0.6020207405090332</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.124786950647831</v>
+        <v>-0.124754436314106</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.5113739371299744</v>
+        <v>-0.5120933651924133</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4164621233940125</v>
+        <v>-0.4177214503288269</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2601036727428436</v>
+        <v>-0.2597217261791229</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2391253709793091</v>
+        <v>-0.2393797785043716</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1920027136802673</v>
+        <v>0.1915995180606842</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.01223995350301266</v>
+        <v>0.01138317957520485</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.003640822600573301</v>
+        <v>-0.004698706325143576</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.6908847093582153</v>
+        <v>-0.6919835209846497</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4891606271266937</v>
+        <v>-0.4898152351379395</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.6973532438278198</v>
+        <v>-0.6985765695571899</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6819916963577271</v>
+        <v>-0.6843118667602539</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.29157754778862</v>
+        <v>-0.2912916243076324</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.516285538673401</v>
+        <v>-1.516794562339783</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.762727975845337</v>
+        <v>-1.763380646705627</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2939557731151581</v>
+        <v>-0.2943260371685028</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3953646123409271</v>
+        <v>0.3941320180892944</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3909702301025391</v>
+        <v>-0.3923572301864624</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.096274971961975</v>
+        <v>-1.097740173339844</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.226907134056091</v>
+        <v>-1.228031516075134</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.117255091667175</v>
+        <v>-1.119101405143738</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4300952851772308</v>
+        <v>-0.4303805828094482</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.305462121963501</v>
+        <v>-2.306637287139893</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.300395369529724</v>
+        <v>-1.305008292198181</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.01303691044449806</v>
+        <v>0.01210067979991436</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.94740229845047</v>
+        <v>-0.9491568207740784</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2154104709625244</v>
+        <v>-0.2167565524578094</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.446339339017868</v>
+        <v>-0.4476740658283234</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7582223415374756</v>
+        <v>0.7564885020256042</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.5025531053543091</v>
+        <v>0.5019641518592834</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.02167957276105881</v>
+        <v>0.02089265175163746</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6416860818862915</v>
+        <v>-0.6425888538360596</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6111732721328735</v>
+        <v>0.61131352186203</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.009119400754570961</v>
+        <v>0.008469671010971069</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6709481477737427</v>
+        <v>0.6705254316329956</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.347987949848175</v>
+        <v>0.3477201461791992</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.7943072319030762</v>
+        <v>-0.7947039604187012</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2256986647844315</v>
+        <v>-0.227762758731842</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03708111494779587</v>
+        <v>-0.03773509711027145</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4147558808326721</v>
+        <v>0.4143483638763428</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1224415153264999</v>
+        <v>-0.1239078342914581</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.062642693519592</v>
+        <v>1.061893701553345</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4314193725585938</v>
+        <v>-0.4318317174911499</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.038477301597595</v>
+        <v>-1.038628101348877</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1598748117685318</v>
+        <v>0.1607342511415482</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.0704745054245</v>
+        <v>-1.070501327514648</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.072250366210938</v>
+        <v>-1.071681141853333</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4157528579235077</v>
+        <v>-0.4181699156761169</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3493757843971252</v>
+        <v>0.3488952219486237</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5891349315643311</v>
+        <v>-0.588632345199585</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.177592992782593</v>
+        <v>-1.178113102912903</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.308938056230545</v>
+        <v>0.3088622987270355</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8862619400024414</v>
+        <v>-0.8869163990020752</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2365258485078812</v>
+        <v>-0.2360657751560211</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.07056982070207596</v>
+        <v>0.06960329413414001</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.006487290374934673</v>
+        <v>-0.007256229873746634</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3968017995357513</v>
+        <v>-0.3973411619663239</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.173657178878784</v>
+        <v>-1.173730969429016</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.549274682998657</v>
+        <v>-1.549931287765503</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7609302997589111</v>
+        <v>-0.7635195255279541</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.724593460559845</v>
+        <v>-0.7249129414558411</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.237522482872009</v>
+        <v>-1.23893940448761</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2817098796367645</v>
+        <v>-0.2834210097789764</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.017198443412781</v>
+        <v>-1.018786191940308</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7459545135498047</v>
+        <v>-0.7472158670425415</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.279483437538147</v>
+        <v>-1.279997229576111</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.002089684130623937</v>
+        <v>0.0002844962000381202</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2114557027816772</v>
+        <v>0.2108836770057678</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7106000185012817</v>
+        <v>0.7103351354598999</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3569958209991455</v>
+        <v>-0.3585813641548157</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2080406248569489</v>
+        <v>-0.2096519470214844</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3744922578334808</v>
+        <v>0.3744646608829498</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.022777438163757</v>
+        <v>1.021915435791016</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04057645797729492</v>
+        <v>-0.04205339774489403</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8027893304824829</v>
+        <v>-0.8044893145561218</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1608888059854507</v>
+        <v>0.1604805290699005</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.30431267619133</v>
+        <v>0.304762989282608</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6403642296791077</v>
+        <v>0.6408601999282837</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1419909000396729</v>
+        <v>-0.1420892924070358</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08345003426074982</v>
+        <v>0.08413516730070114</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08832185715436935</v>
+        <v>-0.08828617632389069</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.122752904891968</v>
+        <v>1.122697591781616</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3795011043548584</v>
+        <v>-0.3798276782035828</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7896068692207336</v>
+        <v>0.7895615100860596</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6964695453643799</v>
+        <v>0.6964896321296692</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2346926182508469</v>
+        <v>-0.2344008982181549</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.04836157709360123</v>
+        <v>-0.04877518117427826</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7499315738677979</v>
+        <v>-0.7495878934860229</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09230495989322662</v>
+        <v>-0.09319984167814255</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.020659208297729</v>
+        <v>-2.020885705947876</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7113185524940491</v>
+        <v>0.7110211849212646</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5271232724189758</v>
+        <v>-0.5265377759933472</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.359494924545288</v>
+        <v>-1.359090447425842</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.268311977386475</v>
+        <v>-1.268464207649231</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.90157151222229</v>
+        <v>-0.9022459387779236</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.05955688655376434</v>
+        <v>-0.06172413006424904</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1274444162845612</v>
+        <v>-0.1274417787790298</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02316083945333958</v>
+        <v>0.02211781218647957</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.8421700000762939</v>
+        <v>-0.8432821035385132</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1550166457891464</v>
+        <v>-0.1557286828756332</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9668204188346863</v>
+        <v>-0.9676018953323364</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7358054518699646</v>
+        <v>0.7356721162796021</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.297369241714478</v>
+        <v>1.296903848648071</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3398975431919098</v>
+        <v>0.3402344584465027</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08737623691558838</v>
+        <v>0.08664349466562271</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02531862072646618</v>
+        <v>0.02400816604495049</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6105744242668152</v>
+        <v>-0.6113268733024597</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5237984657287598</v>
+        <v>0.523058295249939</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1092530116438866</v>
+        <v>-0.1092053428292274</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.701708197593689</v>
+        <v>0.701377809047699</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.781688392162323</v>
+        <v>0.7797932624816895</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1477206647396088</v>
+        <v>0.1466237157583237</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.003194530727341771</v>
+        <v>-0.005259803961962461</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04668445885181427</v>
+        <v>0.04663299769163132</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06418927013874054</v>
+        <v>-0.06478402018547058</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.5999271273612976</v>
+        <v>-0.6008549928665161</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.898584365844727</v>
+        <v>-1.898895740509033</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.044761657714844</v>
+        <v>-3.046273231506348</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.815518498420715</v>
+        <v>-1.81698477268219</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1110060662031174</v>
+        <v>0.1094198599457741</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1811619251966476</v>
+        <v>-0.1824973672628403</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7510600686073303</v>
+        <v>-0.7528983950614929</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7012484669685364</v>
+        <v>-0.7028017640113831</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5006542801856995</v>
+        <v>-0.5017082691192627</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5348225235939026</v>
+        <v>-0.534976065158844</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6921595335006714</v>
+        <v>-0.6924492120742798</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5428467392921448</v>
+        <v>0.5407666563987732</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3862142264842987</v>
+        <v>0.3839991390705109</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4831086397171021</v>
+        <v>0.4814338088035583</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.08192768692970276</v>
+        <v>-0.08318707346916199</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.062461614608765</v>
+        <v>1.061634063720703</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3037237823009491</v>
+        <v>0.3038226068019867</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2988198101520538</v>
+        <v>0.2979282140731812</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08307408541440964</v>
+        <v>-0.08384955674409866</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.370084136724472</v>
+        <v>-0.37017622590065</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1497880518436432</v>
+        <v>-0.150084063410759</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.540705800056458</v>
+        <v>-1.542328119277954</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.339982748031616</v>
+        <v>1.339199423789978</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8547650575637817</v>
+        <v>0.8538872003555298</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>0.001811410533264279</v>
+        <v>-3.696780186146498e-05</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2078363746404648</v>
+        <v>0.2064034640789032</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3253547847270966</v>
+        <v>0.3246506154537201</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.7024340629577637</v>
+        <v>0.700481116771698</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.6857765913009644</v>
+        <v>0.6851790547370911</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.028722286224365</v>
+        <v>1.028154134750366</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2331339567899704</v>
+        <v>0.2323852181434631</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.224092125892639</v>
+        <v>1.223105311393738</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.810359358787537</v>
+        <v>1.810107469558716</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.848925352096558</v>
+        <v>1.846924543380737</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.09160281717777252</v>
+        <v>0.09003404527902603</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8356616497039795</v>
+        <v>0.8344181180000305</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4938314855098724</v>
+        <v>0.4928096234798431</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.2361666560173035</v>
+        <v>-0.2372018247842789</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1355506479740143</v>
+        <v>-0.1374182254076004</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.0581391230225563</v>
+        <v>0.05710252374410629</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4893415570259094</v>
+        <v>-0.4908061325550079</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7759196162223816</v>
+        <v>-0.7786213159561157</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.171913385391235</v>
+        <v>-1.173461556434631</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4413110017776489</v>
+        <v>0.4397143423557281</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8146559000015259</v>
+        <v>0.8131847977638245</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7772507071495056</v>
+        <v>-0.7782822847366333</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1459848135709763</v>
+        <v>0.1442087888717651</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6167482137680054</v>
+        <v>-0.6187496185302734</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.037205100059509</v>
+        <v>1.036405682563782</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9341199398040771</v>
+        <v>-0.936248242855072</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2151830941438675</v>
+        <v>-0.2163048982620239</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7910915613174438</v>
+        <v>0.7899677753448486</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5973939895629883</v>
+        <v>0.5977874994277954</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6136316061019897</v>
+        <v>-0.6144466996192932</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.047735452651978</v>
+        <v>-1.048920512199402</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.003708548145368695</v>
+        <v>-0.00510655902326107</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2580612599849701</v>
+        <v>0.2579097747802734</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.5990410447120667</v>
+        <v>-0.600300133228302</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.482576489448547</v>
+        <v>-1.48372209072113</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4330673515796661</v>
+        <v>-0.4351971447467804</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1018877923488617</v>
+        <v>-0.1026199534535408</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6981598138809204</v>
+        <v>0.6977700591087341</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.483754277229309</v>
+        <v>1.482468605041504</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07782820612192154</v>
+        <v>0.07621897757053375</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9443180561065674</v>
+        <v>0.9443553686141968</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.73000955581665</v>
+        <v>1.728950977325439</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.44967246055603</v>
+        <v>1.447750926017761</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.409062922000885</v>
+        <v>0.4077068865299225</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8535783886909485</v>
+        <v>0.8531196713447571</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01240267790853977</v>
+        <v>-0.01372095756232738</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.966618537902832</v>
+        <v>0.964560866355896</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.533090591430664</v>
+        <v>1.531213402748108</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.677904486656189</v>
+        <v>-0.6791688203811646</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.05937865376472473</v>
+        <v>-0.06108411401510239</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.191902756690979</v>
+        <v>-1.193241953849792</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4408419132232666</v>
+        <v>-0.4430568814277649</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.07600677013397217</v>
+        <v>0.07540055364370346</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8116247653961182</v>
+        <v>0.8100795149803162</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1251691430807114</v>
+        <v>0.1247385814785957</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1408695578575134</v>
+        <v>0.139528214931488</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1857975572347641</v>
+        <v>0.1852961778640747</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6922475695610046</v>
+        <v>0.6915402412414551</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7477883696556091</v>
+        <v>0.7474523782730103</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1049972921609879</v>
+        <v>-0.1056728661060333</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.12867796421051</v>
+        <v>1.12836754322052</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.082062602043152</v>
+        <v>1.080991625785828</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7736019492149353</v>
+        <v>0.7725403904914856</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.879240870475769</v>
+        <v>-0.879927396774292</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4020130634307861</v>
+        <v>-0.4042504727840424</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3642971813678741</v>
+        <v>0.3641151487827301</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3031333684921265</v>
+        <v>0.3019083440303802</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3014044165611267</v>
+        <v>-0.3018493950366974</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9295212030410767</v>
+        <v>0.9290362000465393</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3571706116199493</v>
+        <v>0.3568013608455658</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4667301774024963</v>
+        <v>-0.4666993021965027</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5069857835769653</v>
+        <v>-0.5072431564331055</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.471412867307663</v>
+        <v>0.4694969952106476</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9171925187110901</v>
+        <v>0.9165117740631104</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.66865348815918</v>
+        <v>-1.668010950088501</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4060268104076385</v>
+        <v>-0.4068663120269775</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.0876258984208107</v>
+        <v>0.08661709725856781</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1865694671869278</v>
+        <v>-0.1868465542793274</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2123220711946487</v>
+        <v>0.2124270498752594</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01794850267469883</v>
+        <v>-0.01836498454213142</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.02512204274535179</v>
+        <v>0.02451144903898239</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.584766507148743</v>
+        <v>1.583485245704651</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9643527269363403</v>
+        <v>0.9645122885704041</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.230018496513367</v>
+        <v>1.229463696479797</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6731360554695129</v>
+        <v>0.6730712056159973</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.593012809753418</v>
+        <v>1.592425227165222</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7938321828842163</v>
+        <v>0.7935867309570312</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5522376298904419</v>
+        <v>0.5518224835395813</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.255828976631165</v>
+        <v>-1.260422825813293</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1150026768445969</v>
+        <v>0.114140510559082</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4134151935577393</v>
+        <v>0.4120268225669861</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.087624669075012</v>
+        <v>-1.088693737983704</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4853936433792114</v>
+        <v>-0.4866659343242645</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2897095084190369</v>
+        <v>0.2879320681095123</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2237324714660645</v>
+        <v>-0.2246382087469101</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.31815779209137</v>
+        <v>1.31657350063324</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4121258556842804</v>
+        <v>0.4115206599235535</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5209561586380005</v>
+        <v>0.5193755030632019</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.453271389007568</v>
+        <v>1.452259302139282</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5402594804763794</v>
+        <v>-0.5413268804550171</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.07493451237678528</v>
+        <v>-0.077067531645298</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.2069250196218491</v>
+        <v>-0.208146795630455</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4475540816783905</v>
+        <v>0.4460670948028564</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3842149376869202</v>
+        <v>0.3840070962905884</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1708634197711945</v>
+        <v>0.1695984899997711</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8141305446624756</v>
+        <v>-0.8159850835800171</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.350404620170593</v>
+        <v>1.349520206451416</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.08711487054824829</v>
+        <v>0.08497089892625809</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6820294857025146</v>
+        <v>0.6816071271896362</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.32800304889679</v>
+        <v>1.327024102210999</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.655451238155365</v>
+        <v>0.6545406579971313</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.227113664150238</v>
+        <v>0.2261715680360794</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6454940438270569</v>
+        <v>0.6452529430389404</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08191408962011337</v>
+        <v>-0.08235934376716614</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4294087588787079</v>
+        <v>0.4287945926189423</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1170689836144447</v>
+        <v>-0.1171189695596695</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.36099973320961</v>
+        <v>-0.361548125743866</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.184047341346741</v>
+        <v>1.183184742927551</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01851559802889824</v>
+        <v>0.01813482493162155</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2406565397977829</v>
+        <v>-0.2404666095972061</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.642998933792114</v>
+        <v>-1.644288897514343</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.14385998249054</v>
+        <v>1.143388867378235</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.097694993019104</v>
+        <v>1.096837043762207</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1975584030151367</v>
+        <v>0.1979269683361053</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5910001993179321</v>
+        <v>0.5906597375869751</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.643720269203186</v>
+        <v>0.6432037353515625</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.156662181019783</v>
+        <v>0.1559771001338959</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.131162881851196</v>
+        <v>2.130237817764282</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.936333656311035</v>
+        <v>1.935625553131104</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.009366750717163</v>
+        <v>1.009168982505798</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.08877324312925339</v>
+        <v>-0.08914399147033691</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.2999693155288696</v>
+        <v>-0.2995140254497528</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6426321268081665</v>
+        <v>0.6419947147369385</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.546212911605835</v>
+        <v>0.5453655123710632</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2656566500663757</v>
+        <v>0.2636350393295288</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3122811317443848</v>
+        <v>0.3111364543437958</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.106868386268616</v>
+        <v>1.109057188034058</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7219014763832092</v>
+        <v>0.7207540273666382</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.330579400062561</v>
+        <v>-1.331633448600769</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6560388803482056</v>
+        <v>-0.6572214961051941</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4521935880184174</v>
+        <v>0.4506950378417969</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4468186795711517</v>
+        <v>-0.4477182328701019</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5699007511138916</v>
+        <v>0.5686176419258118</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.726643323898315</v>
+        <v>1.725365877151489</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.5004408955574036</v>
+        <v>0.4993524253368378</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2774663865566254</v>
+        <v>0.2762526869773865</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1245072260499001</v>
+        <v>0.1227030903100967</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.108438968658447</v>
+        <v>1.106995344161987</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.08554448187351227</v>
+        <v>-0.08723940700292587</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4995007216930389</v>
+        <v>0.4978215396404266</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1475276499986649</v>
+        <v>-0.1488330513238907</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2520072162151337</v>
+        <v>0.2502650916576385</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3518681526184082</v>
+        <v>-0.3539289534091949</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.3972269594669342</v>
+        <v>-0.398121565580368</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9463594555854797</v>
+        <v>0.9446566700935364</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.4756859540939331</v>
+        <v>-0.477231353521347</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1357848793268204</v>
+        <v>0.1338671892881393</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.0345197319984436</v>
+        <v>-0.03626091778278351</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.647911071777344</v>
+        <v>-1.648873805999756</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5784401297569275</v>
+        <v>0.5771353244781494</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5821979641914368</v>
+        <v>-0.5848336219787598</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2616898715496063</v>
+        <v>-0.2644928097724915</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2625336349010468</v>
+        <v>-0.2632540762424469</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9314687252044678</v>
+        <v>-0.9325832724571228</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.313790917396545</v>
+        <v>-1.314532995223999</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4692767560482025</v>
+        <v>0.4682802259922028</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3298990428447723</v>
+        <v>0.3283203840255737</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3655953109264374</v>
+        <v>0.3642691075801849</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2771710157394409</v>
+        <v>-0.278318464756012</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2154122143983841</v>
+        <v>0.2145173251628876</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.1031891107559204</v>
+        <v>0.1019769608974457</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.201347231864929</v>
+        <v>-1.203705072402954</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.359123706817627</v>
+        <v>0.3585851490497589</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.02352133020758629</v>
+        <v>0.02219841629266739</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5328614115715027</v>
+        <v>0.530637800693512</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.305022597312927</v>
+        <v>1.303675413131714</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.644877195358276</v>
+        <v>1.642801642417908</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.565815687179565</v>
+        <v>1.565348029136658</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.192995548248291</v>
+        <v>1.191693544387817</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.15894627571106</v>
+        <v>1.158513903617859</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.11118745803833</v>
+        <v>1.109552621841431</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5719709992408752</v>
+        <v>0.5711892247200012</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.218316555023193</v>
+        <v>1.217122197151184</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.640967071056366</v>
+        <v>0.6395973563194275</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.172297954559326</v>
+        <v>1.171707630157471</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.018528580665588</v>
+        <v>1.016865372657776</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3841438889503479</v>
+        <v>0.3821253478527069</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.466378927230835</v>
+        <v>0.4639645516872406</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8726592659950256</v>
+        <v>-0.8736516237258911</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.500153660774231</v>
+        <v>0.4985145032405853</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.744794726371765</v>
+        <v>1.743784666061401</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.50799959897995</v>
+        <v>-0.5102342963218689</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1281420290470123</v>
+        <v>0.1267540901899338</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.008997389115393162</v>
+        <v>0.007665532641112804</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.329827666282654</v>
+        <v>1.327492237091064</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.366077423095703</v>
+        <v>1.365652084350586</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8168262839317322</v>
+        <v>0.8161104321479797</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1862739324569702</v>
+        <v>0.18536576628685</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2228564321994781</v>
+        <v>0.2222626954317093</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.544090747833252</v>
+        <v>1.542750954627991</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.09725424647331238</v>
+        <v>-0.09850651025772095</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.582198143005371</v>
+        <v>-1.583698272705078</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1750100255012512</v>
+        <v>0.1738328039646149</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.648848414421082</v>
+        <v>1.647847294807434</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3195901215076447</v>
+        <v>-0.320250928401947</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6318751573562622</v>
+        <v>0.6310685276985168</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>1.003399133682251</v>
+        <v>1.002019166946411</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02367885410785675</v>
+        <v>0.02382820285856724</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2518905103206635</v>
+        <v>-0.2553533911705017</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.533735990524292</v>
+        <v>0.5331403613090515</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6128932237625122</v>
+        <v>0.6123631596565247</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.116583704948425</v>
+        <v>1.115221977233887</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1182577908039093</v>
+        <v>0.118146650493145</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2487035691738129</v>
+        <v>-0.2491249293088913</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.826512336730957</v>
+        <v>-0.8276287913322449</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.610849738121033</v>
+        <v>-1.611173391342163</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.114018678665161</v>
+        <v>1.112621784210205</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.233123898506165</v>
+        <v>-1.234707593917847</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.06156350299715996</v>
+        <v>0.0614047572016716</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.8370720744132996</v>
+        <v>0.836587131023407</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4113084971904755</v>
+        <v>0.4097933769226074</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9335818290710449</v>
+        <v>0.9320194721221924</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.2100908756256104</v>
+        <v>0.2073589861392975</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9759062528610229</v>
+        <v>0.9744470715522766</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1840935051441193</v>
+        <v>-0.184551790356636</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.141902565956116</v>
+        <v>1.139737248420715</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6574696898460388</v>
+        <v>0.6555175185203552</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1838151812553406</v>
+        <v>0.1835343986749649</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07899939268827438</v>
+        <v>0.07782644778490067</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.084606885910034</v>
+        <v>-1.086652994155884</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1838580518960953</v>
+        <v>0.1824794560670853</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.086536049842834</v>
+        <v>1.084742546081543</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.681778073310852</v>
+        <v>1.682782649993896</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.074886441230774</v>
+        <v>1.073523879051208</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.292486190795898</v>
+        <v>2.29168438911438</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7121943831443787</v>
+        <v>0.7112558484077454</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.517457008361816</v>
+        <v>1.517475008964539</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.759036183357239</v>
+        <v>1.758033514022827</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.23308789730072</v>
+        <v>1.233104467391968</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8205268979072571</v>
+        <v>0.8194147348403931</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8787771463394165</v>
+        <v>0.8779801726341248</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.157997369766235</v>
+        <v>1.158270597457886</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.394272208213806</v>
+        <v>1.393818497657776</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.010467290878296</v>
+        <v>1.010558843612671</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5620284080505371</v>
+        <v>0.5605069994926453</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2248058021068573</v>
+        <v>0.2250054776668549</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.403997540473938</v>
+        <v>1.403429865837097</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.496786594390869</v>
+        <v>1.496033310890198</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6615937948226929</v>
+        <v>-0.6622061729431152</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7064825892448425</v>
+        <v>0.706055223941803</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5430555939674377</v>
+        <v>0.5419848561286926</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3526129722595215</v>
+        <v>0.3520455956459045</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.982755303382874</v>
+        <v>1.982977509498596</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.179525971412659</v>
+        <v>1.179635763168335</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.551695227622986</v>
+        <v>1.550830483436584</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7171081900596619</v>
+        <v>0.7167866230010986</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.382727026939392</v>
+        <v>1.382972121238708</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.6324096322059631</v>
+        <v>0.6317456364631653</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.746791660785675</v>
+        <v>0.7456620335578918</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.43347156047821</v>
+        <v>1.432975769042969</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6926652193069458</v>
+        <v>0.691795825958252</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007544067222625017</v>
+        <v>-0.007458859123289585</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1172192767262459</v>
+        <v>-0.1174144819378853</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8623349070549011</v>
+        <v>-0.8635737895965576</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.651972234249115</v>
+        <v>0.6506792306900024</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.163901567459106</v>
+        <v>-1.164320230484009</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8635570406913757</v>
+        <v>-0.8648165464401245</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.56904137134552</v>
+        <v>0.5676315426826477</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2480021268129349</v>
+        <v>-0.2501683533191681</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4882142543792725</v>
+        <v>0.4875847697257996</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.21618664264679</v>
+        <v>1.215391993522644</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1175278201699257</v>
+        <v>0.1174646615982056</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.175376892089844</v>
+        <v>1.174347639083862</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.23250812292099</v>
+        <v>-0.2333514392375946</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.009518027305603</v>
+        <v>1.007817149162292</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.157948017120361</v>
+        <v>1.157658100128174</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.882413923740387</v>
+        <v>0.8818758130073547</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.347190380096436</v>
+        <v>1.346908092498779</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6157677173614502</v>
+        <v>0.6148927211761475</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7376900911331177</v>
+        <v>0.7375786900520325</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.284060716629028</v>
+        <v>1.283368945121765</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.8948537111282349</v>
+        <v>-0.8964216709136963</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3439172804355621</v>
+        <v>0.3438989818096161</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.092852830886841</v>
+        <v>-1.094474315643311</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7596741914749146</v>
+        <v>0.7578861117362976</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07761549949645996</v>
+        <v>0.07632555812597275</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.6010972261428833</v>
+        <v>0.5994954109191895</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08977019786834717</v>
+        <v>0.08830758184194565</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.889981031417847</v>
+        <v>-1.891178488731384</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3505197465419769</v>
+        <v>0.3485695719718933</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.276493310928345</v>
+        <v>1.275337219238281</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.02967665530741215</v>
+        <v>-0.03093955852091312</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.016324108466506</v>
+        <v>-0.01801604405045509</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1336294561624527</v>
+        <v>0.1330491155385971</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6923873424530029</v>
+        <v>0.6922716498374939</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9892192482948303</v>
+        <v>0.9884446263313293</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2515044808387756</v>
+        <v>-0.2531534433364868</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.040900111198425</v>
+        <v>1.039910197257996</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5082868933677673</v>
+        <v>0.5075299143791199</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2621170580387115</v>
+        <v>0.2602351307868958</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04531728848814964</v>
+        <v>-0.04652688279747963</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.08174063265323639</v>
+        <v>0.08006774634122849</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1441062390804291</v>
+        <v>-0.1450425386428833</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.021775007247925</v>
+        <v>1.020325064659119</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2465226203203201</v>
+        <v>-0.2478137612342834</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7364606857299805</v>
+        <v>0.7349004149436951</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8713309764862061</v>
+        <v>0.8705338835716248</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.010207176208496</v>
+        <v>1.009666323661804</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.009347915649414</v>
+        <v>2.007402181625366</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.259645938873291</v>
+        <v>1.258153915405273</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2897069752216339</v>
+        <v>0.2884961068630219</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9654875993728638</v>
+        <v>0.9635411500930786</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4780091345310211</v>
+        <v>0.4772889018058777</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1824080497026443</v>
+        <v>0.1811697632074356</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.3975604176521301</v>
+        <v>-0.3985948860645294</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5935595631599426</v>
+        <v>0.5928197503089905</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.091079950332642</v>
+        <v>1.091774582862854</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2677989304065704</v>
+        <v>0.2669056057929993</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.21754515171051</v>
+        <v>1.215445399284363</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3061688840389252</v>
+        <v>0.3046349585056305</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2669894099235535</v>
+        <v>-0.2688566744327545</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6226229071617126</v>
+        <v>0.6212632060050964</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4410883486270905</v>
+        <v>0.4394980072975159</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8322306275367737</v>
+        <v>0.8320662975311279</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3926011919975281</v>
+        <v>0.392740398645401</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09528147429227829</v>
+        <v>0.09409143030643463</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.189120531082153</v>
+        <v>-1.190199971199036</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7318844199180603</v>
+        <v>0.7306311130523682</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2409610003232956</v>
+        <v>0.2394516915082932</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.032763719558716</v>
+        <v>1.031990766525269</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.189718946814537</v>
+        <v>0.1891589611768723</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.327567934989929</v>
+        <v>1.326505303382874</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.214733958244324</v>
+        <v>1.213307976722717</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.030872583389282</v>
+        <v>1.029659271240234</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.681486964225769</v>
+        <v>-0.6824619174003601</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.766718327999115</v>
+        <v>0.7652438282966614</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.624048709869385</v>
+        <v>1.621990561485291</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9470391869544983</v>
+        <v>0.9459921717643738</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.014540076255798</v>
+        <v>1.012769341468811</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4871479868888855</v>
+        <v>0.4862693250179291</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6513780355453491</v>
+        <v>0.650180459022522</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.05988341569900513</v>
+        <v>-0.06056956946849823</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.03868146240711212</v>
+        <v>-0.03971904516220093</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3774781227111816</v>
+        <v>0.3768842816352844</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5286871790885925</v>
+        <v>-0.5293567776679993</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.038313746452332</v>
+        <v>-1.038071870803833</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5425762534141541</v>
+        <v>0.5423258543014526</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3378109335899353</v>
+        <v>0.3375903964042664</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2368178814649582</v>
+        <v>0.2351863831281662</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.08887438476085663</v>
+        <v>-0.08949648588895798</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.406655311584473</v>
+        <v>1.407224535942078</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.303110361099243</v>
+        <v>1.302631735801697</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.092707753181458</v>
+        <v>1.091309785842896</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.103608369827271</v>
+        <v>1.10342264175415</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6288833618164062</v>
+        <v>-0.6289923787117004</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4085488319396973</v>
+        <v>-0.4094068109989166</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.734184145927429</v>
+        <v>1.733168482780457</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3049579560756683</v>
+        <v>0.3038058280944824</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.471621036529541</v>
+        <v>0.4704791605472565</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.2879958152771</v>
+        <v>1.287684559822083</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.915936470031738</v>
+        <v>1.914941906929016</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.209490299224854</v>
+        <v>1.208697915077209</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.898885190486908</v>
+        <v>0.8984271883964539</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.061431527137756</v>
+        <v>1.059777736663818</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9481833577156067</v>
+        <v>0.948498010635376</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7727321982383728</v>
+        <v>0.772085964679718</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4616005420684814</v>
+        <v>0.4609116911888123</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4462066292762756</v>
+        <v>-0.4474786818027496</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.03970866277813911</v>
+        <v>-0.04066868871450424</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.04014839604496956</v>
+        <v>0.03904282674193382</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2191941887140274</v>
+        <v>-0.2209078967571259</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5276459455490112</v>
+        <v>0.5270199775695801</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2558226585388184</v>
+        <v>0.2539607286453247</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.196655988693237</v>
+        <v>-1.198822379112244</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.9000221490859985</v>
+        <v>0.8981859683990479</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06923267990350723</v>
+        <v>0.06782582402229309</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02446207776665688</v>
+        <v>0.02378460019826889</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8608240485191345</v>
+        <v>0.859198272228241</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.124175310134888</v>
+        <v>1.123324155807495</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.171320199966431</v>
+        <v>1.17141854763031</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.340865612030029</v>
+        <v>2.340291500091553</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.346514463424683</v>
+        <v>2.346094608306885</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.406444549560547</v>
+        <v>1.406068325042725</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9938303232192993</v>
+        <v>0.992544949054718</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.181472778320312</v>
+        <v>1.181481719017029</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379050374031067</v>
+        <v>1.379180192947388</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1009205207228661</v>
+        <v>0.1010125651955605</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1278476715087891</v>
+        <v>0.1279406696557999</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.043204188346863</v>
+        <v>1.045034646987915</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.05171529576182365</v>
+        <v>0.05131176114082336</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2178565412759781</v>
+        <v>0.2166101783514023</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.183610320091248</v>
+        <v>1.182685017585754</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2049868106842041</v>
+        <v>0.2042617052793503</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3767187297344208</v>
+        <v>-0.3779028058052063</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3040654361248016</v>
+        <v>-0.3043347001075745</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2224297225475311</v>
+        <v>-0.223874568939209</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.002955604577437043</v>
+        <v>0.003485213965177536</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09597953408956528</v>
+        <v>-0.09770218282938004</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.678953289985657</v>
+        <v>1.679375529289246</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.327201128005981</v>
+        <v>1.326247692108154</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.2707186043262482</v>
+        <v>-0.2738766074180603</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4204562902450562</v>
+        <v>0.4200859665870667</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.995982825756073</v>
+        <v>0.9953635334968567</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8693581223487854</v>
+        <v>0.8676583766937256</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4847546517848969</v>
+        <v>0.4833553731441498</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.165503025054932</v>
+        <v>1.164827227592468</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7340567111968994</v>
+        <v>0.7330365777015686</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9826771020889282</v>
+        <v>0.9816352128982544</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4206189513206482</v>
+        <v>0.4189434349536896</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.4920866787433624</v>
+        <v>-0.4932642877101898</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1463260501623154</v>
+        <v>-0.1470771580934525</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7548784613609314</v>
+        <v>0.7533119320869446</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9573410749435425</v>
+        <v>0.9581535458564758</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.636300325393677</v>
+        <v>1.635700821876526</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.7244157791137695</v>
+        <v>0.7238569855690002</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8476897478103638</v>
+        <v>0.8472014665603638</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1193511709570885</v>
+        <v>0.1190105378627777</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.070971131324768</v>
+        <v>1.070197463035583</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7036048769950867</v>
+        <v>-0.7047892808914185</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7567805647850037</v>
+        <v>-0.7576845288276672</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1918108910322189</v>
+        <v>0.1898122131824493</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3889434337615967</v>
+        <v>0.388698935508728</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.498793751001358</v>
+        <v>0.4978605508804321</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1360846608877182</v>
+        <v>0.1340981423854828</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4632677435874939</v>
+        <v>0.4620369374752045</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.950954258441925</v>
+        <v>0.9495391845703125</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9890521168708801</v>
+        <v>0.9885382652282715</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.006880795583128929</v>
+        <v>0.005838934797793627</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9665050506591797</v>
+        <v>0.9655301570892334</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6264165639877319</v>
+        <v>0.6243997812271118</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2591545283794403</v>
+        <v>0.2580311298370361</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3304839432239532</v>
+        <v>-0.3316742777824402</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.6000372767448425</v>
+        <v>0.5979201197624207</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4983196258544922</v>
+        <v>0.4962485432624817</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.450213193893433</v>
+        <v>1.449384689331055</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6138464212417603</v>
+        <v>0.6133208274841309</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.685784816741943</v>
+        <v>1.687856912612915</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.90688157081604</v>
+        <v>0.9051976203918457</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.285729289054871</v>
+        <v>1.284505724906921</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.455339670181274</v>
+        <v>1.453343868255615</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.43737256526947</v>
+        <v>1.435387015342712</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.641705870628357</v>
+        <v>1.639234781265259</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.847933828830719</v>
+        <v>0.8466248512268066</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.825806200504303</v>
+        <v>0.8246686458587646</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7049418687820435</v>
+        <v>0.7034991979598999</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.124733448028564</v>
+        <v>1.123715043067932</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.555730402469635</v>
+        <v>0.5538386702537537</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.65058159828186</v>
+        <v>1.649647831916809</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.139499068260193</v>
+        <v>1.140838980674744</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.371670961380005</v>
+        <v>2.370555877685547</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.157845973968506</v>
+        <v>1.156391024589539</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9664732217788696</v>
+        <v>0.9647507667541504</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.741079568862915</v>
+        <v>2.740975618362427</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.939881443977356</v>
+        <v>0.9380100965499878</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1070604994893074</v>
+        <v>0.1066668629646301</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.03174614906311</v>
+        <v>2.031192064285278</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.04167824611067772</v>
+        <v>0.04040116816759109</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.427897036075592</v>
+        <v>-0.4291421473026276</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1453120857477188</v>
+        <v>-0.1468387842178345</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1902100443840027</v>
+        <v>-0.1931043565273285</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6063802242279053</v>
+        <v>0.6067447662353516</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6978477835655212</v>
+        <v>0.6978301405906677</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.38401985168457</v>
+        <v>1.382933616638184</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.711686015129089</v>
+        <v>1.711264967918396</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.265931963920593</v>
+        <v>1.265015482902527</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.18075966835022</v>
+        <v>1.179366946220398</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9597717523574829</v>
+        <v>0.9587459564208984</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.50584864616394</v>
+        <v>1.504097938537598</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04862643033266068</v>
+        <v>0.04763445630669594</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7638132572174072</v>
+        <v>0.7641756534576416</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8485854864120483</v>
+        <v>0.8474215269088745</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.178029537200928</v>
+        <v>1.177637338638306</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8572508096694946</v>
+        <v>0.8573734760284424</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3541407883167267</v>
+        <v>0.3536970317363739</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1288264989852905</v>
+        <v>-0.1306513100862503</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7977208495140076</v>
+        <v>0.7963082194328308</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4748256802558899</v>
+        <v>0.4749997556209564</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8997023105621338</v>
+        <v>0.8985990285873413</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1439784467220306</v>
+        <v>0.1427507400512695</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.176073670387268</v>
+        <v>1.174567103385925</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7628610134124756</v>
+        <v>0.7625923156738281</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.392595410346985</v>
+        <v>1.391095757484436</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.101871132850647</v>
+        <v>1.10138463973999</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.415258288383484</v>
+        <v>1.413023829460144</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.02840576693415642</v>
+        <v>-0.02984026446938515</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.277339816093445</v>
+        <v>1.276782631874084</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.9043424129486084</v>
+        <v>0.9031950831413269</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9771214127540588</v>
+        <v>0.9761181473731995</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.026260137557983</v>
+        <v>2.025119304656982</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1239709556102753</v>
+        <v>0.1232527419924736</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3379577398300171</v>
+        <v>0.3363065123558044</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.199046492576599</v>
+        <v>1.197829961776733</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3306186497211456</v>
+        <v>-0.331443190574646</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.112307667732239</v>
+        <v>-1.113733291625977</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2750177681446075</v>
+        <v>-0.2762386500835419</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4464036524295807</v>
+        <v>0.4454851150512695</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.086407899856567</v>
+        <v>1.086192488670349</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.507949590682983</v>
+        <v>1.506802082061768</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2569282650947571</v>
+        <v>0.2555858492851257</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.373574376106262</v>
+        <v>1.372941970825195</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.317989587783813</v>
+        <v>1.317291975021362</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1078383848071098</v>
+        <v>0.10795958340168</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.38536736369133</v>
+        <v>-0.3855882883071899</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6962438821792603</v>
+        <v>0.6954287886619568</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.257163882255554</v>
+        <v>1.25741720199585</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.299553036689758</v>
+        <v>1.298975706100464</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.542312383651733</v>
+        <v>1.54173731803894</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.079066514968872</v>
+        <v>1.079058408737183</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9674105048179626</v>
+        <v>0.9656177759170532</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1418461948633194</v>
+        <v>-0.1413897573947906</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.435681223869324</v>
+        <v>1.433850169181824</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8588800430297852</v>
+        <v>0.8586487770080566</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.280089974403381</v>
+        <v>1.280156373977661</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4585252702236176</v>
+        <v>0.4578132629394531</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6819794178009033</v>
+        <v>0.6806960701942444</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.674883365631104</v>
+        <v>1.67416512966156</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.5044500827789307</v>
+        <v>0.5050764679908752</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.342251420021057</v>
+        <v>1.342469811439514</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929429650306702</v>
+        <v>1.929001808166504</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,15 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.033137559890747</v>
+        <v>1.033262372016907</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B891" t="n">
+        <v>0.8596912026405334</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B519"/>
+  <dimension ref="A1:B891"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,4152 +443,7128 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Monthly SAM index from NCEP2 Z</t>
+          <t>Monthly SAM index from NCEP1 Z</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>28856</v>
+        <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1867756992578506</v>
+        <v>-0.8022173047065735</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>28887</v>
+        <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1925991326570511</v>
+        <v>-1.516955494880676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>28915</v>
+        <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>1.018924832344055</v>
+        <v>-1.456261515617371</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>28946</v>
+        <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.01352747995406389</v>
+        <v>-0.8684012293815613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>28976</v>
+        <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8224867582321167</v>
+        <v>0.2877476215362549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29007</v>
+        <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>1.33735990524292</v>
+        <v>-0.6399193406105042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>29037</v>
+        <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>1.655961036682129</v>
+        <v>-1.968518495559692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>29068</v>
+        <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03071155399084091</v>
+        <v>-2.183809995651245</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>29099</v>
+        <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5960609912872314</v>
+        <v>-1.213158369064331</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>29129</v>
+        <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02387207932770252</v>
+        <v>-1.936993002891541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>29160</v>
+        <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.8531427383422852</v>
+        <v>-1.813068270683289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>29190</v>
+        <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9105257391929626</v>
+        <v>-0.9065303802490234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>29221</v>
+        <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.442530632019043</v>
+        <v>-2.854491233825684</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>29252</v>
+        <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9869005084037781</v>
+        <v>-3.970165729522705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>29281</v>
+        <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.862806797027588</v>
+        <v>-1.704009532928467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>29312</v>
+        <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.217151880264282</v>
+        <v>-0.08271163702011108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>29342</v>
+        <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2419914752244949</v>
+        <v>0.2151459753513336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>29373</v>
+        <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.462171196937561</v>
+        <v>0.6490770578384399</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>29403</v>
+        <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.472135663032532</v>
+        <v>-0.9059857726097107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>29434</v>
+        <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.913317084312439</v>
+        <v>-0.232040137052536</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>29465</v>
+        <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.368013262748718</v>
+        <v>-0.6431167125701904</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>29495</v>
+        <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>0.485751748085022</v>
+        <v>-0.6985530257225037</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>29526</v>
+        <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.853266000747681</v>
+        <v>-1.294178009033203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>29556</v>
+        <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.9788021445274353</v>
+        <v>-2.537234544754028</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>29587</v>
+        <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3731077313423157</v>
+        <v>-2.950408220291138</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>29618</v>
+        <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2182402759790421</v>
+        <v>-1.886737585067749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>29646</v>
+        <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.441399455070496</v>
+        <v>-2.012089014053345</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>29677</v>
+        <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.792869091033936</v>
+        <v>-1.575749635696411</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>29707</v>
+        <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.3472933769226074</v>
+        <v>-0.7440433502197266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>29738</v>
+        <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04558529704809189</v>
+        <v>-0.7131583690643311</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>29768</v>
+        <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.056687951087952</v>
+        <v>-1.632318019866943</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>29799</v>
+        <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-2.275947570800781</v>
+        <v>-1.329566836357117</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>29830</v>
+        <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.271645784378052</v>
+        <v>-0.2485322654247284</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>29860</v>
+        <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.9822314381599426</v>
+        <v>-0.8697110414505005</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>29891</v>
+        <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5549191236495972</v>
+        <v>-2.126401424407959</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>29921</v>
+        <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>1.360292434692383</v>
+        <v>-0.3606025278568268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>29952</v>
+        <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.594648003578186</v>
+        <v>-0.866703987121582</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>29983</v>
+        <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5192428827285767</v>
+        <v>-1.415667295455933</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30011</v>
+        <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>1.946506857872009</v>
+        <v>-1.471152901649475</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>30042</v>
+        <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>1.601513981819153</v>
+        <v>-2.387387037277222</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>30072</v>
+        <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0157424695789814</v>
+        <v>-1.61450982093811</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>30103</v>
+        <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>0.520931601524353</v>
+        <v>-1.683636546134949</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>30133</v>
+        <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.7226709127426147</v>
+        <v>-1.423396110534668</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>30164</v>
+        <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2494030743837357</v>
+        <v>-1.544855356216431</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>30195</v>
+        <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>1.160173773765564</v>
+        <v>-1.696205019950867</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>30225</v>
+        <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.327043294906616</v>
+        <v>-1.968158364295959</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>30256</v>
+        <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.7992002964019775</v>
+        <v>-1.413002848625183</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>30286</v>
+        <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-2.115624666213989</v>
+        <v>-1.594507932662964</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>30317</v>
+        <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.616891384124756</v>
+        <v>-2.329582452774048</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>30348</v>
+        <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.989848256111145</v>
+        <v>-1.253637909889221</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>30376</v>
+        <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2314664125442505</v>
+        <v>-1.506411194801331</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>30407</v>
+        <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.2906435132026672</v>
+        <v>-1.862149477005005</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>30437</v>
+        <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.6489115357398987</v>
+        <v>-1.18287992477417</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>30468</v>
+        <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.3372272849082947</v>
+        <v>-0.5585935115814209</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>30498</v>
+        <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>0.4792991578578949</v>
+        <v>-0.5458256602287292</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>30529</v>
+        <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2486938089132309</v>
+        <v>-0.8895916938781738</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>30560</v>
+        <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.9217073321342468</v>
+        <v>-1.469608783721924</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>30590</v>
+        <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9520106315612793</v>
+        <v>-0.9486876130104065</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>30621</v>
+        <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9944936037063599</v>
+        <v>-2.281240463256836</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>30651</v>
+        <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>0.220088467001915</v>
+        <v>-1.892464637756348</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>30682</v>
+        <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.900279998779297</v>
+        <v>-1.807044386863708</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>30713</v>
+        <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.030225515365601</v>
+        <v>-1.414846777915955</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>30742</v>
+        <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>0.006137392017990351</v>
+        <v>-1.154669404029846</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>30773</v>
+        <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.3163264095783234</v>
+        <v>-1.886561274528503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>30803</v>
+        <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.187345743179321</v>
+        <v>-1.220335602760315</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>30834</v>
+        <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4930220246315002</v>
+        <v>-0.7710490822792053</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>30864</v>
+        <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08773814141750336</v>
+        <v>-1.399566769599915</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>30895</v>
+        <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9264271259307861</v>
+        <v>-0.6547152400016785</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>30926</v>
+        <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.4324359595775604</v>
+        <v>-0.3878938555717468</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>30956</v>
+        <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.09582345932722092</v>
+        <v>-1.759117960929871</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>30987</v>
+        <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>0.3356639742851257</v>
+        <v>-0.6087027788162231</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31017</v>
+        <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.23443341255188</v>
+        <v>-1.571014046669006</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>31048</v>
+        <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.092915296554565</v>
+        <v>-0.7151463627815247</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>31079</v>
+        <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.2992918193340302</v>
+        <v>-0.5883818864822388</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>31107</v>
+        <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.8251014351844788</v>
+        <v>-2.888113975524902</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>31138</v>
+        <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.1193420737981796</v>
+        <v>-1.204425692558289</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>31168</v>
+        <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.4013270437717438</v>
+        <v>-0.005316218361258507</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>31199</v>
+        <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.442320317029953</v>
+        <v>-0.732268750667572</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>31229</v>
+        <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>1.492750644683838</v>
+        <v>-0.8643170595169067</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>31260</v>
+        <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4518811404705048</v>
+        <v>-2.079140901565552</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>31291</v>
+        <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>1.10247266292572</v>
+        <v>-0.003349822014570236</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>31321</v>
+        <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2679424583911896</v>
+        <v>-0.6421132683753967</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>31352</v>
+        <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>1.362166047096252</v>
+        <v>0.2710785865783691</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>31382</v>
+        <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5535451173782349</v>
+        <v>-1.631862998008728</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>31413</v>
+        <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1342539638280869</v>
+        <v>-0.4096252024173737</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>31444</v>
+        <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.271955966949463</v>
+        <v>-0.5891628861427307</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>31472</v>
+        <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.8111951947212219</v>
+        <v>-0.4887408912181854</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>31503</v>
+        <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.09327886253595352</v>
+        <v>-0.867520809173584</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>31533</v>
+        <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.009085893630981</v>
+        <v>-0.9674881100654602</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>31564</v>
+        <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.5835344791412354</v>
+        <v>-0.754880428314209</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>31594</v>
+        <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.2433031797409058</v>
+        <v>-0.1818108260631561</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>31625</v>
+        <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.5060001015663147</v>
+        <v>-2.363329887390137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>31656</v>
+        <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>1.004035234451294</v>
+        <v>-0.810225248336792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>31686</v>
+        <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>0.03075523115694523</v>
+        <v>-2.403827667236328</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>31717</v>
+        <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.1884129047393799</v>
+        <v>-1.738440632820129</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>31747</v>
+        <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9436464905738831</v>
+        <v>-0.9971473813056946</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>31778</v>
+        <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.535730481147766</v>
+        <v>-1.57527756690979</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>31809</v>
+        <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.8171106576919556</v>
+        <v>-1.580564260482788</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>31837</v>
+        <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.7324753999710083</v>
+        <v>-1.071002960205078</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>31868</v>
+        <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.2824167013168335</v>
+        <v>-1.50775146484375</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>31898</v>
+        <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.1987345963716507</v>
+        <v>-1.172804474830627</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>31929</v>
+        <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.5533628463745117</v>
+        <v>0.1953032910823822</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>31959</v>
+        <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.533774733543396</v>
+        <v>-1.436989426612854</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>31990</v>
+        <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>1.220504522323608</v>
+        <v>-1.403313994407654</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32021</v>
+        <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.7196575999259949</v>
+        <v>-2.112115383148193</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>32051</v>
+        <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1686064451932907</v>
+        <v>-1.182017207145691</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>32082</v>
+        <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>1.02278459072113</v>
+        <v>-1.401461601257324</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>32112</v>
+        <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>0.07828045636415482</v>
+        <v>-2.047718524932861</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>32143</v>
+        <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.748537540435791</v>
+        <v>-0.9108878374099731</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>32174</v>
+        <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5330055356025696</v>
+        <v>-1.076007008552551</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>32203</v>
+        <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.6348949074745178</v>
+        <v>-0.5047078728675842</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>32234</v>
+        <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>0.00617665983736515</v>
+        <v>-0.9987940788269043</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>32264</v>
+        <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.8743695020675659</v>
+        <v>-0.7399587631225586</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>32295</v>
+        <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.222372889518738</v>
+        <v>-1.602199077606201</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>32325</v>
+        <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7909613847732544</v>
+        <v>-0.846912145614624</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>32356</v>
+        <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.8061510920524597</v>
+        <v>-0.9915374517440796</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>32387</v>
+        <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-1.030383348464966</v>
+        <v>-0.1026970893144608</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>32417</v>
+        <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-2.875019550323486</v>
+        <v>-1.546963453292847</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>32448</v>
+        <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8452230095863342</v>
+        <v>-1.599542617797852</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>32478</v>
+        <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9164792895317078</v>
+        <v>-1.177022814750671</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>32509</v>
+        <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.05471616983413696</v>
+        <v>0.1494581699371338</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>32540</v>
+        <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>0.326324850320816</v>
+        <v>-0.05187366157770157</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>32568</v>
+        <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3699568510055542</v>
+        <v>-0.868689239025116</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>32599</v>
+        <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.5477917194366455</v>
+        <v>-1.057855844497681</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>32629</v>
+        <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>2.333518266677856</v>
+        <v>-0.7834545969963074</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>32660</v>
+        <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>1.743095874786377</v>
+        <v>0.05639389902353287</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>32690</v>
+        <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8688789010047913</v>
+        <v>-1.452031016349792</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>32721</v>
+        <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.7126196026802063</v>
+        <v>-0.05993761122226715</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>32752</v>
+        <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.6513133645057678</v>
+        <v>0.4556637108325958</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>32782</v>
+        <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1477685123682022</v>
+        <v>-0.386321485042572</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>32813</v>
+        <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.1937772482633591</v>
+        <v>0.2904596626758575</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>32843</v>
+        <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.4517838060855865</v>
+        <v>0.8752164840698242</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>32874</v>
+        <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3908119201660156</v>
+        <v>0.3515686690807343</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>32905</v>
+        <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>1.000693559646606</v>
+        <v>-0.1409134864807129</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>32933</v>
+        <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2289398610591888</v>
+        <v>-0.1377364695072174</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>32964</v>
+        <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-2.415708780288696</v>
+        <v>-1.145777583122253</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>32994</v>
+        <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.568179607391357</v>
+        <v>-1.651347398757935</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>33025</v>
+        <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1237122416496277</v>
+        <v>-0.7965444326400757</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>33055</v>
+        <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.110821604728699</v>
+        <v>-0.8321322798728943</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>33086</v>
+        <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>0.197201743721962</v>
+        <v>-1.083743929862976</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>33117</v>
+        <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>1.37065577507019</v>
+        <v>0.02170756459236145</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>33147</v>
+        <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.08284544944763184</v>
+        <v>-0.8141704201698303</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>33178</v>
+        <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.3354990482330322</v>
+        <v>0.6414373517036438</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>33208</v>
+        <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4968441426753998</v>
+        <v>-0.4820001423358917</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>33239</v>
+        <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>1.026228547096252</v>
+        <v>0.07349906861782074</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>33270</v>
+        <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.8230229020118713</v>
+        <v>0.004478130955249071</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>33298</v>
+        <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2441801726818085</v>
+        <v>0.3526988327503204</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>33329</v>
+        <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-0.8873871564865112</v>
+        <v>-1.531941533088684</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>33359</v>
+        <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.4286101162433624</v>
+        <v>-1.625288367271423</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>33390</v>
+        <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.9941756129264832</v>
+        <v>0.02868006564676762</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>33420</v>
+        <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-1.052916169166565</v>
+        <v>-0.4777878522872925</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>33451</v>
+        <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>0.568462610244751</v>
+        <v>-1.264697909355164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>33482</v>
+        <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.096551418304443</v>
+        <v>-0.8947745561599731</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>33512</v>
+        <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.5183278918266296</v>
+        <v>-0.1053365096449852</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>33543</v>
+        <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.7572610974311829</v>
+        <v>0.1267383545637131</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>33573</v>
+        <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.6977219581604</v>
+        <v>0.010386704467237</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>33604</v>
+        <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2866939008235931</v>
+        <v>-0.2393145710229874</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>33635</v>
+        <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-1.637308716773987</v>
+        <v>-0.8747351765632629</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>33664</v>
+        <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.120742440223694</v>
+        <v>-0.6201639175415039</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>33695</v>
+        <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.9458169341087341</v>
+        <v>-0.7058477401733398</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>33725</v>
+        <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.825562596321106</v>
+        <v>-0.9441812634468079</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>33756</v>
+        <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.96579921245575</v>
+        <v>-0.7878361940383911</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>33786</v>
+        <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.2273563742637634</v>
+        <v>-0.6447305083274841</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>33817</v>
+        <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.01783671975135803</v>
+        <v>-0.1315800249576569</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>33848</v>
+        <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>0.141241267323494</v>
+        <v>-0.928594708442688</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>33878</v>
+        <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8502421975135803</v>
+        <v>-0.3852825164794922</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>33909</v>
+        <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.0667976438999176</v>
+        <v>0.2785128057003021</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>33939</v>
+        <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.2731920182704926</v>
+        <v>1.076996564865112</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>33970</v>
+        <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>-2.589993000030518</v>
+        <v>0.675119161605835</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34001</v>
+        <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>0.1896035671234131</v>
+        <v>-0.7740171551704407</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>34029</v>
+        <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.697927713394165</v>
+        <v>-0.4747553169727325</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>34060</v>
+        <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.1689125150442123</v>
+        <v>0.07157326489686966</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>34090</v>
+        <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>1.093101382255554</v>
+        <v>-0.531716525554657</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>34121</v>
+        <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>1.254985213279724</v>
+        <v>-1.723230957984924</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>34151</v>
+        <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>1.276333212852478</v>
+        <v>0.08042111992835999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>34182</v>
+        <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>0.6897569894790649</v>
+        <v>-0.2354339361190796</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>34213</v>
+        <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4671139717102051</v>
+        <v>0.1542015820741653</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>34243</v>
+        <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5437896847724915</v>
+        <v>-1.030439257621765</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>34274</v>
+        <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.06146112456917763</v>
+        <v>-0.9996407032012939</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>34304</v>
+        <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.6310833096504211</v>
+        <v>0.5918605923652649</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>34335</v>
+        <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.2751362323760986</v>
+        <v>0.4533772766590118</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>34366</v>
+        <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.9295766949653625</v>
+        <v>0.485183447599411</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>34394</v>
+        <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>0.5756608843803406</v>
+        <v>-0.05086611583828926</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>34425</v>
+        <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.343772679567337</v>
+        <v>-1.127096891403198</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>34455</v>
+        <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.2760091423988342</v>
+        <v>-1.002448678016663</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>34486</v>
+        <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.780911445617676</v>
+        <v>-1.00117015838623</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>34516</v>
+        <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.3266667127609253</v>
+        <v>-1.53752076625824</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>34547</v>
+        <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>1.599847674369812</v>
+        <v>-2.935462713241577</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>34578</v>
+        <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.202453851699829</v>
+        <v>-0.9766227006912231</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>34608</v>
+        <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.6247469186782837</v>
+        <v>-0.01964348927140236</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>34639</v>
+        <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.7346658706665039</v>
+        <v>-0.2911877036094666</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>34669</v>
+        <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5999132990837097</v>
+        <v>-0.0278698205947876</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>34700</v>
+        <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>1.195752501487732</v>
+        <v>-1.175279498100281</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>34731</v>
+        <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>0.437657505273819</v>
+        <v>-1.384742975234985</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>34759</v>
+        <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.4091345369815826</v>
+        <v>-0.3916794657707214</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>34790</v>
+        <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>0.3015582263469696</v>
+        <v>-0.7390865087509155</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>34820</v>
+        <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>1.373432755470276</v>
+        <v>-0.1446232795715332</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>34851</v>
+        <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-0.7851734757423401</v>
+        <v>-2.699619054794312</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>34881</v>
+        <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.637545108795166</v>
+        <v>-2.704926013946533</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>34912</v>
+        <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.7910324931144714</v>
+        <v>-1.525864839553833</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>34943</v>
+        <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>1.229660391807556</v>
+        <v>0.08221732825040817</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>34973</v>
+        <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.7110493779182434</v>
+        <v>-0.2496874034404755</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35004</v>
+        <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>0.08753354102373123</v>
+        <v>-1.143267035484314</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>35034</v>
+        <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>1.038748741149902</v>
+        <v>-1.260865688323975</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>35065</v>
+        <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.3128148019313812</v>
+        <v>-0.8006805181503296</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>35096</v>
+        <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.9045018553733826</v>
+        <v>-3.0356764793396</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>35125</v>
+        <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.3832799196243286</v>
+        <v>-0.9218550324440002</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>35156</v>
+        <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>0.1239335611462593</v>
+        <v>-1.590007066726685</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>35186</v>
+        <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>0.6261597871780396</v>
+        <v>-2.100695848464966</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>35217</v>
+        <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.4942170381546021</v>
+        <v>-0.1639344692230225</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>35247</v>
+        <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-0.6577876210212708</v>
+        <v>-1.077562570571899</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>35278</v>
+        <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.7072913646698</v>
+        <v>-1.204824566841125</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>35309</v>
+        <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.913354635238647</v>
+        <v>-0.7764289975166321</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>35339</v>
+        <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>0.8384218811988831</v>
+        <v>-1.238484501838684</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>35370</v>
+        <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.973856925964355</v>
+        <v>0.0522405318915844</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>35400</v>
+        <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.468153327703476</v>
+        <v>-1.491959810256958</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>35431</v>
+        <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>0.5591967701911926</v>
+        <v>-0.02720664069056511</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>35462</v>
+        <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>0.008897768333554268</v>
+        <v>-0.9747818112373352</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>35490</v>
+        <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8123010993003845</v>
+        <v>-2.325526714324951</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>35521</v>
+        <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.6960774660110474</v>
+        <v>-1.193880438804626</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>35551</v>
+        <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>0.6864758729934692</v>
+        <v>-1.899900555610657</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>35582</v>
+        <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.7780548334121704</v>
+        <v>0.3328356444835663</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>35612</v>
+        <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>0.491216242313385</v>
+        <v>-0.6904277801513672</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>35643</v>
+        <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>0.2291845083236694</v>
+        <v>-0.06540180742740631</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>35674</v>
+        <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.6092059016227722</v>
+        <v>-0.4835416376590729</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>35704</v>
+        <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.8671765327453613</v>
+        <v>0.0703100711107254</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>35735</v>
+        <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.990906000137329</v>
+        <v>-1.037880897521973</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>35765</v>
+        <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7583175897598267</v>
+        <v>-0.7156074643135071</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>35796</v>
+        <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>0.4857036471366882</v>
+        <v>-1.762026071548462</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>35827</v>
+        <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>1.115327119827271</v>
+        <v>-0.6020207405090332</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>35855</v>
+        <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>0.613181471824646</v>
+        <v>-0.124754436314106</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>35886</v>
+        <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>2.463603258132935</v>
+        <v>-0.5120933651924133</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>35916</v>
+        <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>0.02798267267644405</v>
+        <v>-0.4177214503288269</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>35947</v>
+        <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>1.066342949867249</v>
+        <v>-0.2597217261791229</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>35977</v>
+        <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>1.548279166221619</v>
+        <v>-0.2393797785043716</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36008</v>
+        <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.8122730851173401</v>
+        <v>0.1915995180606842</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>36039</v>
+        <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.2655690014362335</v>
+        <v>0.01138317957520485</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>36069</v>
+        <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>0.4544423222541809</v>
+        <v>-0.004698706325143576</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>36100</v>
+        <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>0.8707934021949768</v>
+        <v>-0.6919835209846497</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>36130</v>
+        <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>1.054860472679138</v>
+        <v>-0.4898152351379395</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>36161</v>
+        <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>0.8988557457923889</v>
+        <v>-0.6985765695571899</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>36192</v>
+        <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>0.1091480031609535</v>
+        <v>-0.6843118667602539</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>36220</v>
+        <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2329559326171875</v>
+        <v>-0.2912916243076324</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>36251</v>
+        <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>1.163504600524902</v>
+        <v>-1.516794562339783</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>36281</v>
+        <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>1.339209794998169</v>
+        <v>-1.763380646705627</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>36312</v>
+        <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-1.530882954597473</v>
+        <v>-0.2943260371685028</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>36342</v>
+        <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.2018939405679703</v>
+        <v>0.3941320180892944</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>36373</v>
+        <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.1529310047626495</v>
+        <v>-0.3923572301864624</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>36404</v>
+        <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.2452120929956436</v>
+        <v>-1.097740173339844</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>36434</v>
+        <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>1.744743585586548</v>
+        <v>-1.228031516075134</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>36465</v>
+        <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>0.8955996632575989</v>
+        <v>-1.119101405143738</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>36495</v>
+        <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>1.519265413284302</v>
+        <v>-0.4303805828094482</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>36526</v>
+        <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>0.8649887442588806</v>
+        <v>-2.306637287139893</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>36557</v>
+        <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>1.241127252578735</v>
+        <v>-1.305008292198181</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>36586</v>
+        <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.2849471867084503</v>
+        <v>0.01210067979991436</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>36617</v>
+        <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>0.4100321233272552</v>
+        <v>-0.9491568207740784</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>36647</v>
+        <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>1.275808572769165</v>
+        <v>-0.2167565524578094</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>36678</v>
+        <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>0.1641501188278198</v>
+        <v>-0.4476740658283234</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>36708</v>
+        <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.3192696571350098</v>
+        <v>0.7564885020256042</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>36739</v>
+        <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.8989540338516235</v>
+        <v>0.5019641518592834</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>36770</v>
+        <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.684930443763733</v>
+        <v>0.02089265175163746</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>36800</v>
+        <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>0.2923729717731476</v>
+        <v>-0.6425888538360596</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>36831</v>
+        <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>-1.932496428489685</v>
+        <v>0.61131352186203</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>36861</v>
+        <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.915298342704773</v>
+        <v>0.008469671010971069</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>36892</v>
+        <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.1313910782337189</v>
+        <v>0.6705254316329956</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>36923</v>
+        <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.9937134385108948</v>
+        <v>0.3477201461791992</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>36951</v>
+        <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.048734150826931</v>
+        <v>-0.7947039604187012</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>36982</v>
+        <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>0.8350381851196289</v>
+        <v>-0.227762758731842</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37012</v>
+        <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.2925460934638977</v>
+        <v>-0.03773509711027145</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>37043</v>
+        <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.6754010319709778</v>
+        <v>0.4143483638763428</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>37073</v>
+        <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.974428117275238</v>
+        <v>-0.1239078342914581</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>37104</v>
+        <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>0.7822938561439514</v>
+        <v>1.061893701553345</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>37135</v>
+        <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>0.8743434548377991</v>
+        <v>-0.4318317174911499</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>37165</v>
+        <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>1.061139345169067</v>
+        <v>-1.038628101348877</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>37196</v>
+        <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>1.263656377792358</v>
+        <v>0.1607342511415482</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>37226</v>
+        <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>0.6941862106323242</v>
+        <v>-1.070501327514648</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>37257</v>
+        <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>0.7641744017601013</v>
+        <v>-1.071681141853333</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>37288</v>
+        <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>1.291317224502563</v>
+        <v>-0.4181699156761169</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>37316</v>
+        <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>-2.261472940444946</v>
+        <v>0.3488952219486237</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>37347</v>
+        <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.1551666408777237</v>
+        <v>-0.588632345199585</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>37377</v>
+        <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-2.401477098464966</v>
+        <v>-1.178113102912903</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>37408</v>
+        <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.03323753178119659</v>
+        <v>0.3088622987270355</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>37438</v>
+        <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.6905911564826965</v>
+        <v>-0.8869163990020752</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>37469</v>
+        <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.06963607668876648</v>
+        <v>-0.2360657751560211</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>37500</v>
+        <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.5504870414733887</v>
+        <v>0.06960329413414001</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>37530</v>
+        <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-3.262355327606201</v>
+        <v>-0.007256229873746634</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>37561</v>
+        <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.6263669729232788</v>
+        <v>-0.3973411619663239</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>37591</v>
+        <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>0.9419443011283875</v>
+        <v>-1.173730969429016</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>37622</v>
+        <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.243903756141663</v>
+        <v>-1.549931287765503</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>37653</v>
+        <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7858514189720154</v>
+        <v>-0.7635195255279541</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>37681</v>
+        <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.4810395240783691</v>
+        <v>-0.7249129414558411</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>37712</v>
+        <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>0.2259954661130905</v>
+        <v>-1.23893940448761</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>37742</v>
+        <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>0.4601582586765289</v>
+        <v>-0.2834210097789764</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>37773</v>
+        <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-0.7095659375190735</v>
+        <v>-1.018786191940308</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>37803</v>
+        <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>0.5073549747467041</v>
+        <v>-0.7472158670425415</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>37834</v>
+        <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>0.4069081246852875</v>
+        <v>-1.279997229576111</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>37865</v>
+        <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.1151006370782852</v>
+        <v>0.0002844962000381202</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>37895</v>
+        <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.3114905655384064</v>
+        <v>0.2108836770057678</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>37926</v>
+        <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.669908881187439</v>
+        <v>0.7103351354598999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>37956</v>
+        <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-1.054333925247192</v>
+        <v>-0.3585813641548157</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>37987</v>
+        <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>1.186277985572815</v>
+        <v>-0.2096519470214844</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38018</v>
+        <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>-1.211937785148621</v>
+        <v>0.3744646608829498</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>38047</v>
+        <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>0.4234735369682312</v>
+        <v>1.021915435791016</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>38078</v>
+        <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>0.2664332985877991</v>
+        <v>-0.04205339774489403</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>38108</v>
+        <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.5410476326942444</v>
+        <v>-0.8044893145561218</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>38139</v>
+        <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>1.493827342987061</v>
+        <v>0.1604805290699005</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>38169</v>
+        <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>1.193563938140869</v>
+        <v>0.304762989282608</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>38200</v>
+        <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.1256294101476669</v>
+        <v>0.6408601999282837</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>38231</v>
+        <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>0.3419032096862793</v>
+        <v>-0.1420892924070358</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>38261</v>
+        <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.1698625087738037</v>
+        <v>0.08413516730070114</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>38292</v>
+        <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.4213152527809143</v>
+        <v>-0.08828617632389069</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>38322</v>
+        <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.315422415733337</v>
+        <v>1.122697591781616</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>38353</v>
+        <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.01784251071512699</v>
+        <v>-0.3798276782035828</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>38384</v>
+        <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>1.069001197814941</v>
+        <v>0.7895615100860596</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>38412</v>
+        <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.2508856356143951</v>
+        <v>0.6964896321296692</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>38443</v>
+        <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>0.6742269992828369</v>
+        <v>-0.2344008982181549</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>38473</v>
+        <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.2062566429376602</v>
+        <v>-0.04877518117427826</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>38504</v>
+        <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7415341734886169</v>
+        <v>-0.7495878934860229</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>38534</v>
+        <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.00599103607237339</v>
+        <v>-0.09319984167814255</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>38565</v>
+        <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>0.1033884510397911</v>
+        <v>-2.020885705947876</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>38596</v>
+        <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3731178641319275</v>
+        <v>0.7110211849212646</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>38626</v>
+        <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1934405714273453</v>
+        <v>-0.5265377759933472</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>38657</v>
+        <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.5777503848075867</v>
+        <v>-1.359090447425842</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>38687</v>
+        <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-2.268549203872681</v>
+        <v>-1.268464207649231</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>38718</v>
+        <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>0.35576331615448</v>
+        <v>-0.9022459387779236</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>38749</v>
+        <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.4957217872142792</v>
+        <v>-0.06172413006424904</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>38777</v>
+        <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>0.6358128190040588</v>
+        <v>-0.1274417787790298</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>38808</v>
+        <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.03583019226789474</v>
+        <v>0.02211781218647957</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>38838</v>
+        <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>1.467965602874756</v>
+        <v>-0.8432821035385132</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>38869</v>
+        <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>0.7330867052078247</v>
+        <v>-0.1557286828756332</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>38899</v>
+        <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>0.6535319685935974</v>
+        <v>-0.9676018953323364</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>38930</v>
+        <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.866021275520325</v>
+        <v>0.7356721162796021</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>38961</v>
+        <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>-0.008911502547562122</v>
+        <v>1.296903848648071</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>38991</v>
+        <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>1.220738053321838</v>
+        <v>0.3402344584465027</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39022</v>
+        <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3620063960552216</v>
+        <v>0.08664349466562271</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>39052</v>
+        <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.4931674003601074</v>
+        <v>0.02400816604495049</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>39083</v>
+        <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.2857269644737244</v>
+        <v>-0.6113268733024597</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>39114</v>
+        <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.1032837554812431</v>
+        <v>0.523058295249939</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>39142</v>
+        <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.8501745462417603</v>
+        <v>-0.1092053428292274</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>39173</v>
+        <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.9314711093902588</v>
+        <v>0.701377809047699</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>39203</v>
+        <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.2945923507213593</v>
+        <v>0.7797932624816895</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>39234</v>
+        <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>-1.129263639450073</v>
+        <v>0.1466237157583237</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>39264</v>
+        <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-2.216874599456787</v>
+        <v>-0.005259803961962461</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>39295</v>
+        <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.01170388422906399</v>
+        <v>0.04663299769163132</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>39326</v>
+        <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.2489269077777863</v>
+        <v>-0.06478402018547058</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>39356</v>
+        <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.3502907156944275</v>
+        <v>-0.6008549928665161</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>39387</v>
+        <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-0.837196946144104</v>
+        <v>-1.898895740509033</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>39417</v>
+        <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>1.341621398925781</v>
+        <v>-3.046273231506348</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>39448</v>
+        <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>1.249203324317932</v>
+        <v>-1.81698477268219</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>39479</v>
+        <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>1.100823640823364</v>
+        <v>0.1094198599457741</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>39508</v>
+        <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>0.707965075969696</v>
+        <v>-0.1824973672628403</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>39539</v>
+        <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.342736721038818</v>
+        <v>-0.7528983950614929</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>39569</v>
+        <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.9359853267669678</v>
+        <v>-0.7028017640113831</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>39600</v>
+        <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>1.388260006904602</v>
+        <v>-0.5017082691192627</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>39630</v>
+        <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>0.04138395190238953</v>
+        <v>-0.534976065158844</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>39661</v>
+        <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>0.1921985745429993</v>
+        <v>-0.6924492120742798</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>39692</v>
+        <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>1.151721239089966</v>
+        <v>0.5407666563987732</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>39722</v>
+        <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>1.51679539680481</v>
+        <v>0.3839991390705109</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>39753</v>
+        <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>1.04544985294342</v>
+        <v>0.4814338088035583</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>39783</v>
+        <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>0.6662643551826477</v>
+        <v>-0.08318707346916199</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>39814</v>
+        <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9559126496315002</v>
+        <v>1.061634063720703</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>39845</v>
+        <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.4345152676105499</v>
+        <v>0.3038226068019867</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>39873</v>
+        <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.4064124524593353</v>
+        <v>0.2979282140731812</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>39904</v>
+        <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>0.001969709293916821</v>
+        <v>-0.08384955674409866</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>39934</v>
+        <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-1.01725447177887</v>
+        <v>-0.37017622590065</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>39965</v>
+        <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.4665125906467438</v>
+        <v>-0.150084063410759</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>39995</v>
+        <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-0.6988170742988586</v>
+        <v>-1.542328119277954</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>40026</v>
+        <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.9235385060310364</v>
+        <v>1.339199423789978</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>40057</v>
+        <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.02755055204033852</v>
+        <v>0.8538872003555298</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>40087</v>
+        <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.008043906651437283</v>
+        <v>-3.696780186146498e-05</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>40118</v>
+        <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>-1.954640626907349</v>
+        <v>0.2064034640789032</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>40148</v>
+        <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.4699054062366486</v>
+        <v>0.3246506154537201</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>40179</v>
+        <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.77032470703125</v>
+        <v>0.700481116771698</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>40210</v>
+        <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>-1.042579531669617</v>
+        <v>0.6851790547370911</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>40238</v>
+        <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>0.252633661031723</v>
+        <v>1.028154134750366</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>40269</v>
+        <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.6162821054458618</v>
+        <v>0.2323852181434631</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>40299</v>
+        <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.029141664505005</v>
+        <v>1.223105311393738</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>40330</v>
+        <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>2.17046594619751</v>
+        <v>1.810107469558716</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>40360</v>
+        <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>2.167035579681396</v>
+        <v>1.846924543380737</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>40391</v>
+        <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>1.364442586898804</v>
+        <v>0.09003404527902603</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>40422</v>
+        <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.5174368023872375</v>
+        <v>0.8344181180000305</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>40452</v>
+        <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>1.31518280506134</v>
+        <v>0.4928096234798431</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>40483</v>
+        <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>1.418388962745667</v>
+        <v>-0.2372018247842789</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>40513</v>
+        <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1489000469446182</v>
+        <v>-0.1374182254076004</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>40544</v>
+        <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.3037708401679993</v>
+        <v>0.05710252374410629</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>40575</v>
+        <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>1.288881540298462</v>
+        <v>-0.4908061325550079</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>40603</v>
+        <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.4062193930149078</v>
+        <v>-0.7786213159561157</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>40634</v>
+        <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.3473965227603912</v>
+        <v>-1.173461556434631</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>40664</v>
+        <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>1.17836594581604</v>
+        <v>0.4397143423557281</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>40695</v>
+        <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.1204773932695389</v>
+        <v>0.8131847977638245</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>40725</v>
+        <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.9455586075782776</v>
+        <v>-0.7782822847366333</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>40756</v>
+        <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>-1.280243158340454</v>
+        <v>0.1442087888717651</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>40787</v>
+        <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.960264265537262</v>
+        <v>-0.6187496185302734</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>40817</v>
+        <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.1893628984689713</v>
+        <v>1.036405682563782</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>40848</v>
+        <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.747171938419342</v>
+        <v>-0.936248242855072</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>40878</v>
+        <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>1.795408964157104</v>
+        <v>-0.2163048982620239</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>40909</v>
+        <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>1.389930725097656</v>
+        <v>0.7899677753448486</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>40940</v>
+        <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.8348360061645508</v>
+        <v>0.5977874994277954</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>40969</v>
+        <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>0.03695683553814888</v>
+        <v>-0.6144466996192932</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41000</v>
+        <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>0.7132728695869446</v>
+        <v>-1.048920512199402</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>41030</v>
+        <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>0.3972945809364319</v>
+        <v>-0.00510655902326107</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>41061</v>
+        <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.1198403164744377</v>
+        <v>0.2579097747802734</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>41091</v>
+        <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>0.9536736607551575</v>
+        <v>-0.600300133228302</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>41122</v>
+        <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>0.3778764009475708</v>
+        <v>-1.48372209072113</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>41153</v>
+        <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4372735619544983</v>
+        <v>-0.4351971447467804</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>41183</v>
+        <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1776734590530396</v>
+        <v>-0.1026199534535408</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>41214</v>
+        <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>-1.495627164840698</v>
+        <v>0.6977700591087341</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>41244</v>
+        <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.268933653831482</v>
+        <v>1.482468605041504</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>41275</v>
+        <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.2718307971954346</v>
+        <v>0.07621897757053375</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>41306</v>
+        <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.6177461743354797</v>
+        <v>0.9443553686141968</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>41334</v>
+        <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.564943313598633</v>
+        <v>1.728950977325439</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>41365</v>
+        <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>0.5434011816978455</v>
+        <v>1.447750926017761</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>41395</v>
+        <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.431113600730896</v>
+        <v>0.4077068865299225</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>41426</v>
+        <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.2479674965143204</v>
+        <v>0.8531196713447571</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>41456</v>
+        <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>0.7078030705451965</v>
+        <v>-0.01372095756232738</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>41487</v>
+        <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>-1.545263171195984</v>
+        <v>0.964560866355896</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>41518</v>
+        <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.532562613487244</v>
+        <v>1.531213402748108</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>41548</v>
+        <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.469537764787674</v>
+        <v>-0.6791688203811646</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>41579</v>
+        <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>0.09737265110015869</v>
+        <v>-0.06108411401510239</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>41609</v>
+        <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.1688687056303024</v>
+        <v>-1.193241953849792</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>41640</v>
+        <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.874941885471344</v>
+        <v>-0.4430568814277649</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>41671</v>
+        <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.1307930499315262</v>
+        <v>0.07540055364370346</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>41699</v>
+        <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.5785499215126038</v>
+        <v>0.8100795149803162</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>41730</v>
+        <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.9749764204025269</v>
+        <v>0.1247385814785957</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>41760</v>
+        <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.6496044397354126</v>
+        <v>0.139528214931488</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>41791</v>
+        <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.6819330453872681</v>
+        <v>0.1852961778640747</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>41821</v>
+        <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.24306520819664</v>
+        <v>0.6915402412414551</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>41852</v>
+        <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.4560060501098633</v>
+        <v>0.7474523782730103</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>41883</v>
+        <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-1.1906898021698</v>
+        <v>-0.1056728661060333</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>41913</v>
+        <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.04719065502285957</v>
+        <v>1.12836754322052</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>41944</v>
+        <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>-0.1875941008329391</v>
+        <v>1.080991625785828</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>41974</v>
+        <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>1.083091378211975</v>
+        <v>0.7725403904914856</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42005</v>
+        <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>0.2573820650577545</v>
+        <v>-0.879927396774292</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>42036</v>
+        <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>1.59354567527771</v>
+        <v>-0.4042504727840424</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>42064</v>
+        <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.7960623502731323</v>
+        <v>0.3641151487827301</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>42095</v>
+        <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>1.174025654792786</v>
+        <v>0.3019083440303802</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>42125</v>
+        <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>1.043186664581299</v>
+        <v>-0.3018493950366974</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>42156</v>
+        <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.8852702379226685</v>
+        <v>0.9290362000465393</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>42186</v>
+        <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>1.558433771133423</v>
+        <v>0.3568013608455658</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>42217</v>
+        <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>0.7002685070037842</v>
+        <v>-0.4666993021965027</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>42248</v>
+        <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>0.2266329675912857</v>
+        <v>-0.5072431564331055</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>42278</v>
+        <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.2818636894226074</v>
+        <v>0.4694969952106476</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>42309</v>
+        <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.7550692558288574</v>
+        <v>0.9165117740631104</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>42339</v>
+        <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.2556741833686829</v>
+        <v>-1.668010950088501</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>42370</v>
+        <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>1.59511661529541</v>
+        <v>-0.4068663120269775</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>42401</v>
+        <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.7817017436027527</v>
+        <v>0.08661709725856781</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>42430</v>
+        <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>2.560309648513794</v>
+        <v>-0.1868465542793274</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>42461</v>
+        <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.5871003866195679</v>
+        <v>0.2124270498752594</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>42491</v>
+        <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>0.358793318271637</v>
+        <v>-0.01836498454213142</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>42522</v>
+        <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>2.674948692321777</v>
+        <v>0.02451144903898239</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>42552</v>
+        <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>0.5682582855224609</v>
+        <v>1.583485245704651</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>42583</v>
+        <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.7005831599235535</v>
+        <v>0.9645122885704041</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>42614</v>
+        <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>2.121249914169312</v>
+        <v>1.229463696479797</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>42644</v>
+        <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.4166500568389893</v>
+        <v>0.6730712056159973</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>42675</v>
+        <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.397613883018494</v>
+        <v>1.592425227165222</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>42705</v>
+        <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>-1.155393600463867</v>
+        <v>0.7935867309570312</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>42736</v>
+        <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>-1.153429269790649</v>
+        <v>0.5518224835395813</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>42767</v>
+        <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>0.1452317386865616</v>
+        <v>-1.260422825813293</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>42795</v>
+        <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.02525430172681808</v>
+        <v>0.114140510559082</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>42826</v>
+        <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>1.138999700546265</v>
+        <v>0.4120268225669861</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>42856</v>
+        <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>1.465071439743042</v>
+        <v>-1.088693737983704</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>42887</v>
+        <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>0.8792427182197571</v>
+        <v>-0.4866659343242645</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>42917</v>
+        <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.8383061289787292</v>
+        <v>0.2879320681095123</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>42948</v>
+        <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>0.8555558323860168</v>
+        <v>-0.2246382087469101</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>42979</v>
+        <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.253774285316467</v>
+        <v>1.31657350063324</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43009</v>
+        <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.758651077747345</v>
+        <v>0.4115206599235535</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>43040</v>
+        <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.4287048876285553</v>
+        <v>0.5193755030632019</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>43070</v>
+        <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>0.4663632214069366</v>
+        <v>1.452259302139282</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>43101</v>
+        <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>1.093539953231812</v>
+        <v>-0.5413268804550171</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>43132</v>
+        <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>0.7258806824684143</v>
+        <v>-0.077067531645298</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>43160</v>
+        <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.04334531351923943</v>
+        <v>-0.208146795630455</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>43191</v>
+        <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.9051336646080017</v>
+        <v>0.4460670948028564</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>43221</v>
+        <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.1740317940711975</v>
+        <v>0.3840070962905884</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>43252</v>
+        <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.1653145551681519</v>
+        <v>0.1695984899997711</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>43282</v>
+        <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>0.4651212990283966</v>
+        <v>-0.8159850835800171</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>43313</v>
+        <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.1609822362661362</v>
+        <v>1.349520206451416</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>43344</v>
+        <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>1.053565621376038</v>
+        <v>0.08497089892625809</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>43374</v>
+        <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.237943634390831</v>
+        <v>0.6816071271896362</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>43405</v>
+        <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>0.9210220575332642</v>
+        <v>1.327024102210999</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>43435</v>
+        <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.4898983538150787</v>
+        <v>0.6545406579971313</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>43466</v>
+        <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.9752684831619263</v>
+        <v>0.2261715680360794</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>43497</v>
+        <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.9507565498352051</v>
+        <v>0.6452529430389404</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>43525</v>
+        <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>0.9751876592636108</v>
+        <v>-0.08235934376716614</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>43556</v>
+        <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.3528037965297699</v>
+        <v>0.4287945926189423</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>43586</v>
+        <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>0.3737230002880096</v>
+        <v>-0.1171189695596695</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>43617</v>
+        <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>1.632627367973328</v>
+        <v>-0.361548125743866</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>43647</v>
+        <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.4085029363632202</v>
+        <v>1.183184742927551</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>43678</v>
+        <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.5844810009002686</v>
+        <v>0.01813482493162155</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>43709</v>
+        <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>0.5966002941131592</v>
+        <v>-0.2404666095972061</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>43739</v>
+        <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.097467064857483</v>
+        <v>-1.644288897514343</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>43770</v>
+        <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.933542251586914</v>
+        <v>1.143388867378235</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>43800</v>
+        <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.227130770683289</v>
+        <v>1.096837043762207</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>43831</v>
+        <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.2345307618379593</v>
+        <v>0.1979269683361053</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>43862</v>
+        <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.6421851515769958</v>
+        <v>0.5906597375869751</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>43891</v>
+        <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>1.467431426048279</v>
+        <v>0.6432037353515625</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>43922</v>
+        <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.469564825296402</v>
+        <v>0.1559771001338959</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>43952</v>
+        <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>0.6987276673316956</v>
+        <v>2.130237817764282</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>43983</v>
+        <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>0.8172246813774109</v>
+        <v>1.935625553131104</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
-        <v>44013</v>
+        <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.6334365010261536</v>
+        <v>1.009168982505798</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
-        <v>44044</v>
+        <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.065619349479675</v>
+        <v>-0.08914399147033691</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
-        <v>44075</v>
+        <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.04526149481534958</v>
+        <v>-0.2995140254497528</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
-        <v>44105</v>
+        <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.7929185628890991</v>
+        <v>0.6419947147369385</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
-        <v>44136</v>
+        <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.8940842151641846</v>
+        <v>0.5453655123710632</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
-        <v>44166</v>
+        <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>1.330359220504761</v>
+        <v>0.2636350393295288</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
-        <v>44197</v>
+        <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>1.024150013923645</v>
+        <v>0.3111364543437958</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
-        <v>44228</v>
+        <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.063864469528198</v>
+        <v>1.109057188034058</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
-        <v>44256</v>
+        <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.6322919726371765</v>
+        <v>0.7207540273666382</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
-        <v>44287</v>
+        <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>1.273184657096863</v>
+        <v>-1.331633448600769</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
-        <v>44317</v>
+        <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>0.5127543807029724</v>
+        <v>-0.6572214961051941</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
-        <v>44348</v>
+        <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>1.210060954093933</v>
+        <v>0.4506950378417969</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
-        <v>44378</v>
+        <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.07143500447273254</v>
+        <v>-0.4477182328701019</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
-        <v>44409</v>
+        <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.109233632683754</v>
+        <v>0.5686176419258118</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
-        <v>44440</v>
+        <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.506837248802185</v>
+        <v>1.725365877151489</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
-        <v>44470</v>
+        <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.1532018929719925</v>
+        <v>0.4993524253368378</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
-        <v>44501</v>
+        <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>1.334070801734924</v>
+        <v>0.2762526869773865</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
-        <v>44531</v>
+        <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>1.994750499725342</v>
+        <v>0.1227030903100967</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
-        <v>44562</v>
+        <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>0.7467514872550964</v>
+        <v>1.106995344161987</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
+        <v>33270</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.08723940700292587</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>33298</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.4978215396404266</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>33329</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.1488330513238907</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>33359</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.2502650916576385</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>33390</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.3539289534091949</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>33420</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.398121565580368</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>33451</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.9446566700935364</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>33482</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.477231353521347</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>33512</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.1338671892881393</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>33543</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.03626091778278351</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>33573</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-1.648873805999756</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>33604</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.5771353244781494</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>33635</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.5848336219787598</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>33664</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.2644928097724915</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>33695</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.2632540762424469</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>33725</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-0.9325832724571228</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>33756</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-1.314532995223999</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>33786</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.4682802259922028</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>33817</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.3283203840255737</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>33848</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.3642691075801849</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>33878</v>
+      </c>
+      <c r="B539" t="n">
+        <v>-0.278318464756012</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>33909</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.2145173251628876</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>33939</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.1019769608974457</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>33970</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-1.203705072402954</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>34001</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.3585851490497589</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>34029</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.02219841629266739</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>34060</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.530637800693512</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>34090</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1.303675413131714</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>34121</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1.642801642417908</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>34151</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1.565348029136658</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>34182</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1.191693544387817</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>34213</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1.158513903617859</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>34243</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1.109552621841431</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>34274</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.5711892247200012</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>34304</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1.217122197151184</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>34335</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.6395973563194275</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>34366</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1.171707630157471</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>34394</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1.016865372657776</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>34425</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.3821253478527069</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>34455</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.4639645516872406</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>34486</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.8736516237258911</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>34516</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.4985145032405853</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>34547</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1.743784666061401</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>34578</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.5102342963218689</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>34608</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.1267540901899338</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>34639</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.007665532641112804</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>34669</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1.327492237091064</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1.365652084350586</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>34731</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.8161104321479797</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>34759</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.18536576628685</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>34790</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.2222626954317093</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>34820</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1.542750954627991</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>34851</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.09850651025772095</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>34881</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-1.583698272705078</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>34912</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.1738328039646149</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>34943</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1.647847294807434</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>34973</v>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.320250928401947</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>35004</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.6310685276985168</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>35034</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1.002019166946411</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>35065</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.02382820285856724</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>35096</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.2553533911705017</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>35125</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.5331403613090515</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>35156</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.6123631596565247</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>35186</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1.115221977233887</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>35217</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.118146650493145</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>35247</v>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.2491249293088913</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>35278</v>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.8276287913322449</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>35309</v>
+      </c>
+      <c r="B586" t="n">
+        <v>-1.611173391342163</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>35339</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1.112621784210205</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>35370</v>
+      </c>
+      <c r="B588" t="n">
+        <v>-1.234707593917847</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>35400</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.0614047572016716</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>35431</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0.836587131023407</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>35462</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0.4097933769226074</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>35490</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.9320194721221924</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>35521</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0.2073589861392975</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>35551</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.9744470715522766</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>35582</v>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.184551790356636</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1.139737248420715</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>35643</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0.6555175185203552</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>35674</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.1835343986749649</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>35704</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0.07782644778490067</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>35735</v>
+      </c>
+      <c r="B600" t="n">
+        <v>-1.086652994155884</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>35765</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0.1824794560670853</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>35796</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1.084742546081543</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>35827</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1.682782649993896</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>35855</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1.073523879051208</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>35886</v>
+      </c>
+      <c r="B605" t="n">
+        <v>2.29168438911438</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>35916</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.7112558484077454</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>35947</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1.517475008964539</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>35977</v>
+      </c>
+      <c r="B608" t="n">
+        <v>1.758033514022827</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>36008</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1.233104467391968</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>36039</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.8194147348403931</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>36069</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.8779801726341248</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>36100</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.158270597457886</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>36130</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1.393818497657776</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.010558843612671</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.5605069994926453</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>36220</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.2250054776668549</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>36251</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1.403429865837097</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>36281</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1.496033310890198</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>36312</v>
+      </c>
+      <c r="B619" t="n">
+        <v>-0.6622061729431152</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>36342</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.706055223941803</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>36373</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.5419848561286926</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>36404</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.3520455956459045</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>36434</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1.982977509498596</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>36465</v>
+      </c>
+      <c r="B624" t="n">
+        <v>1.179635763168335</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>36495</v>
+      </c>
+      <c r="B625" t="n">
+        <v>1.550830483436584</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>36526</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.7167866230010986</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>36557</v>
+      </c>
+      <c r="B627" t="n">
+        <v>1.382972121238708</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>36586</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0.6317456364631653</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>36617</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0.7456620335578918</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>36647</v>
+      </c>
+      <c r="B630" t="n">
+        <v>1.432975769042969</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>36678</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0.691795825958252</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>36708</v>
+      </c>
+      <c r="B632" t="n">
+        <v>-0.007458859123289585</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>36739</v>
+      </c>
+      <c r="B633" t="n">
+        <v>-0.1174144819378853</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>36770</v>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.8635737895965576</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>36800</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.6506792306900024</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>36831</v>
+      </c>
+      <c r="B636" t="n">
+        <v>-1.164320230484009</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>36861</v>
+      </c>
+      <c r="B637" t="n">
+        <v>-0.8648165464401245</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>36892</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.5676315426826477</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>36923</v>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.2501683533191681</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>36951</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.4875847697257996</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>36982</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1.215391993522644</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>37012</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.1174646615982056</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1.174347639083862</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>37073</v>
+      </c>
+      <c r="B644" t="n">
+        <v>-0.2333514392375946</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>37104</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1.007817149162292</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>37135</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1.157658100128174</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>37165</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.8818758130073547</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>37196</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1.346908092498779</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>37226</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.6148927211761475</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>37257</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.7375786900520325</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>37288</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1.283368945121765</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>37316</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.8964216709136963</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>37347</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.3438989818096161</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>37377</v>
+      </c>
+      <c r="B654" t="n">
+        <v>-1.094474315643311</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>37408</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.7578861117362976</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>37438</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.07632555812597275</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>37469</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.5994954109191895</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>37500</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.08830758184194565</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>37530</v>
+      </c>
+      <c r="B659" t="n">
+        <v>-1.891178488731384</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>37561</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.3485695719718933</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>37591</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1.275337219238281</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>37622</v>
+      </c>
+      <c r="B662" t="n">
+        <v>-0.03093955852091312</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B663" t="n">
+        <v>-0.01801604405045509</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="2" t="n">
+        <v>37681</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.1330491155385971</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="2" t="n">
+        <v>37712</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.6922716498374939</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="2" t="n">
+        <v>37742</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.9884446263313293</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="2" t="n">
+        <v>37773</v>
+      </c>
+      <c r="B667" t="n">
+        <v>-0.2531534433364868</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="2" t="n">
+        <v>37803</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1.039910197257996</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="2" t="n">
+        <v>37834</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.5075299143791199</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="2" t="n">
+        <v>37865</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.2602351307868958</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="2" t="n">
+        <v>37895</v>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.04652688279747963</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="2" t="n">
+        <v>37926</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.08006774634122849</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="2" t="n">
+        <v>37956</v>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.1450425386428833</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="2" t="n">
+        <v>37987</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1.020325064659119</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="2" t="n">
+        <v>38018</v>
+      </c>
+      <c r="B675" t="n">
+        <v>-0.2478137612342834</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="2" t="n">
+        <v>38047</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.7349004149436951</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="2" t="n">
+        <v>38078</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.8705338835716248</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="2" t="n">
+        <v>38108</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1.009666323661804</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="2" t="n">
+        <v>38139</v>
+      </c>
+      <c r="B679" t="n">
+        <v>2.007402181625366</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="2" t="n">
+        <v>38169</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1.258153915405273</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="2" t="n">
+        <v>38200</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.2884961068630219</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="2" t="n">
+        <v>38231</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.9635411500930786</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="2" t="n">
+        <v>38261</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.4772889018058777</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="2" t="n">
+        <v>38292</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.1811697632074356</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="2" t="n">
+        <v>38322</v>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.3985948860645294</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="2" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.5928197503089905</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="2" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B687" t="n">
+        <v>1.091774582862854</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="2" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.2669056057929993</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="2" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1.215445399284363</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="2" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.3046349585056305</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="2" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.2688566744327545</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="2" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0.6212632060050964</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="2" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.4394980072975159</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="2" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.8320662975311279</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="2" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0.392740398645401</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="2" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0.09409143030643463</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="2" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B697" t="n">
+        <v>-1.190199971199036</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="2" t="n">
+        <v>38718</v>
+      </c>
+      <c r="B698" t="n">
+        <v>0.7306311130523682</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="2" t="n">
+        <v>38749</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.2394516915082932</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="2" t="n">
+        <v>38777</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1.031990766525269</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="2" t="n">
+        <v>38808</v>
+      </c>
+      <c r="B701" t="n">
+        <v>0.1891589611768723</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="2" t="n">
+        <v>38838</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1.326505303382874</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="2" t="n">
+        <v>38869</v>
+      </c>
+      <c r="B703" t="n">
+        <v>1.213307976722717</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="2" t="n">
+        <v>38899</v>
+      </c>
+      <c r="B704" t="n">
+        <v>1.029659271240234</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="2" t="n">
+        <v>38930</v>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.6824619174003601</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="2" t="n">
+        <v>38961</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.7652438282966614</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="2" t="n">
+        <v>38991</v>
+      </c>
+      <c r="B707" t="n">
+        <v>1.621990561485291</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="2" t="n">
+        <v>39022</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0.9459921717643738</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="2" t="n">
+        <v>39052</v>
+      </c>
+      <c r="B709" t="n">
+        <v>1.012769341468811</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="2" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B710" t="n">
+        <v>0.4862693250179291</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="2" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0.650180459022522</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="2" t="n">
+        <v>39142</v>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.06056956946849823</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="2" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.03971904516220093</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="2" t="n">
+        <v>39203</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0.3768842816352844</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="2" t="n">
+        <v>39234</v>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.5293567776679993</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="2" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B716" t="n">
+        <v>-1.038071870803833</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="2" t="n">
+        <v>39295</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0.5423258543014526</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="2" t="n">
+        <v>39326</v>
+      </c>
+      <c r="B718" t="n">
+        <v>0.3375903964042664</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="2" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0.2351863831281662</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="2" t="n">
+        <v>39387</v>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.08949648588895798</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="2" t="n">
+        <v>39417</v>
+      </c>
+      <c r="B721" t="n">
+        <v>1.407224535942078</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="2" t="n">
+        <v>39448</v>
+      </c>
+      <c r="B722" t="n">
+        <v>1.302631735801697</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="2" t="n">
+        <v>39479</v>
+      </c>
+      <c r="B723" t="n">
+        <v>1.091309785842896</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="2" t="n">
+        <v>39508</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1.10342264175415</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="2" t="n">
+        <v>39539</v>
+      </c>
+      <c r="B725" t="n">
+        <v>-0.6289923787117004</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="2" t="n">
+        <v>39569</v>
+      </c>
+      <c r="B726" t="n">
+        <v>-0.4094068109989166</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="2" t="n">
+        <v>39600</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.733168482780457</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="2" t="n">
+        <v>39630</v>
+      </c>
+      <c r="B728" t="n">
+        <v>0.3038058280944824</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="2" t="n">
+        <v>39661</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0.4704791605472565</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="2" t="n">
+        <v>39692</v>
+      </c>
+      <c r="B730" t="n">
+        <v>1.287684559822083</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="2" t="n">
+        <v>39722</v>
+      </c>
+      <c r="B731" t="n">
+        <v>1.914941906929016</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="2" t="n">
+        <v>39753</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1.208697915077209</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="2" t="n">
+        <v>39783</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0.8984271883964539</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="2" t="n">
+        <v>39814</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1.059777736663818</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="2" t="n">
+        <v>39845</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0.948498010635376</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="2" t="n">
+        <v>39873</v>
+      </c>
+      <c r="B736" t="n">
+        <v>0.772085964679718</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="2" t="n">
+        <v>39904</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0.4609116911888123</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="2" t="n">
+        <v>39934</v>
+      </c>
+      <c r="B738" t="n">
+        <v>-0.4474786818027496</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="2" t="n">
+        <v>39965</v>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.04066868871450424</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="2" t="n">
+        <v>39995</v>
+      </c>
+      <c r="B740" t="n">
+        <v>0.03904282674193382</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="2" t="n">
+        <v>40026</v>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.2209078967571259</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="2" t="n">
+        <v>40057</v>
+      </c>
+      <c r="B742" t="n">
+        <v>0.5270199775695801</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="2" t="n">
+        <v>40087</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0.2539607286453247</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="2" t="n">
+        <v>40118</v>
+      </c>
+      <c r="B744" t="n">
+        <v>-1.198822379112244</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="2" t="n">
+        <v>40148</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.8981859683990479</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="2" t="n">
+        <v>40179</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.06782582402229309</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="2" t="n">
+        <v>40210</v>
+      </c>
+      <c r="B747" t="n">
+        <v>0.02378460019826889</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="2" t="n">
+        <v>40238</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.859198272228241</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="2" t="n">
+        <v>40269</v>
+      </c>
+      <c r="B749" t="n">
+        <v>1.123324155807495</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="2" t="n">
+        <v>40299</v>
+      </c>
+      <c r="B750" t="n">
+        <v>1.17141854763031</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="2" t="n">
+        <v>40330</v>
+      </c>
+      <c r="B751" t="n">
+        <v>2.340291500091553</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="2" t="n">
+        <v>40360</v>
+      </c>
+      <c r="B752" t="n">
+        <v>2.346094608306885</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="2" t="n">
+        <v>40391</v>
+      </c>
+      <c r="B753" t="n">
+        <v>1.406068325042725</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="2" t="n">
+        <v>40422</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.992544949054718</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="2" t="n">
+        <v>40452</v>
+      </c>
+      <c r="B755" t="n">
+        <v>1.181481719017029</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="2" t="n">
+        <v>40483</v>
+      </c>
+      <c r="B756" t="n">
+        <v>1.379180192947388</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="2" t="n">
+        <v>40513</v>
+      </c>
+      <c r="B757" t="n">
+        <v>0.1010125651955605</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="2" t="n">
+        <v>40544</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0.1279406696557999</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="2" t="n">
+        <v>40575</v>
+      </c>
+      <c r="B759" t="n">
+        <v>1.045034646987915</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="2" t="n">
+        <v>40603</v>
+      </c>
+      <c r="B760" t="n">
+        <v>0.05131176114082336</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="2" t="n">
+        <v>40634</v>
+      </c>
+      <c r="B761" t="n">
+        <v>0.2166101783514023</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="2" t="n">
+        <v>40664</v>
+      </c>
+      <c r="B762" t="n">
+        <v>1.182685017585754</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="2" t="n">
+        <v>40695</v>
+      </c>
+      <c r="B763" t="n">
+        <v>0.2042617052793503</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="2" t="n">
+        <v>40725</v>
+      </c>
+      <c r="B764" t="n">
+        <v>-0.3779028058052063</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="2" t="n">
+        <v>40756</v>
+      </c>
+      <c r="B765" t="n">
+        <v>-0.3043347001075745</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="2" t="n">
+        <v>40787</v>
+      </c>
+      <c r="B766" t="n">
+        <v>-0.223874568939209</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="2" t="n">
+        <v>40817</v>
+      </c>
+      <c r="B767" t="n">
+        <v>0.003485213965177536</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="2" t="n">
+        <v>40848</v>
+      </c>
+      <c r="B768" t="n">
+        <v>-0.09770218282938004</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="2" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B769" t="n">
+        <v>1.679375529289246</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="2" t="n">
+        <v>40909</v>
+      </c>
+      <c r="B770" t="n">
+        <v>1.326247692108154</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="2" t="n">
+        <v>40940</v>
+      </c>
+      <c r="B771" t="n">
+        <v>-0.2738766074180603</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="2" t="n">
+        <v>40969</v>
+      </c>
+      <c r="B772" t="n">
+        <v>0.4200859665870667</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="2" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0.9953635334968567</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="2" t="n">
+        <v>41030</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0.8676583766937256</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="2" t="n">
+        <v>41061</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0.4833553731441498</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="2" t="n">
+        <v>41091</v>
+      </c>
+      <c r="B776" t="n">
+        <v>1.164827227592468</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="2" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0.7330365777015686</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="2" t="n">
+        <v>41153</v>
+      </c>
+      <c r="B778" t="n">
+        <v>0.9816352128982544</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="2" t="n">
+        <v>41183</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0.4189434349536896</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="2" t="n">
+        <v>41214</v>
+      </c>
+      <c r="B780" t="n">
+        <v>-0.4932642877101898</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="B781" t="n">
+        <v>-0.1470771580934525</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="2" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0.7533119320869446</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="2" t="n">
+        <v>41306</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.9581535458564758</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1.635700821876526</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="2" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B785" t="n">
+        <v>0.7238569855690002</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="2" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.8472014665603638</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="B787" t="n">
+        <v>0.1190105378627777</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="2" t="n">
+        <v>41456</v>
+      </c>
+      <c r="B788" t="n">
+        <v>1.070197463035583</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="2" t="n">
+        <v>41487</v>
+      </c>
+      <c r="B789" t="n">
+        <v>-0.7047892808914185</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="B790" t="n">
+        <v>-0.7576845288276672</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="2" t="n">
+        <v>41548</v>
+      </c>
+      <c r="B791" t="n">
+        <v>0.1898122131824493</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="2" t="n">
+        <v>41579</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0.388698935508728</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="2" t="n">
+        <v>41609</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0.4978605508804321</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="2" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.1340981423854828</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="2" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B795" t="n">
+        <v>0.4620369374752045</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="2" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0.9495391845703125</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="2" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.9885382652282715</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="2" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B798" t="n">
+        <v>0.005838934797793627</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B799" t="n">
+        <v>0.9655301570892334</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="2" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B800" t="n">
+        <v>0.6243997812271118</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="2" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.2580311298370361</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="2" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B802" t="n">
+        <v>-0.3316742777824402</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="2" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B803" t="n">
+        <v>0.5979201197624207</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="2" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B804" t="n">
+        <v>0.4962485432624817</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1.449384689331055</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="2" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0.6133208274841309</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="2" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B807" t="n">
+        <v>1.687856912612915</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0.9051976203918457</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="2" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1.284505724906921</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="2" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1.453343868255615</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B811" t="n">
+        <v>1.435387015342712</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="2" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B812" t="n">
+        <v>1.639234781265259</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="2" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B813" t="n">
+        <v>0.8466248512268066</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="2" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B814" t="n">
+        <v>0.8246686458587646</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="2" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B815" t="n">
+        <v>0.7034991979598999</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="2" t="n">
+        <v>42309</v>
+      </c>
+      <c r="B816" t="n">
+        <v>1.123715043067932</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0.5538386702537537</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B818" t="n">
+        <v>1.649647831916809</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B819" t="n">
+        <v>1.140838980674744</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B820" t="n">
+        <v>2.370555877685547</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1.156391024589539</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0.9647507667541504</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B823" t="n">
+        <v>2.740975618362427</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0.9380100965499878</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B825" t="n">
+        <v>0.1066668629646301</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B826" t="n">
+        <v>2.031192064285278</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B827" t="n">
+        <v>0.04040116816759109</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B828" t="n">
+        <v>-0.4291421473026276</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B829" t="n">
+        <v>-0.1468387842178345</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B830" t="n">
+        <v>-0.1931043565273285</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0.6067447662353516</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0.6978301405906677</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1.382933616638184</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1.711264967918396</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.265015482902527</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.179366946220398</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0.9587459564208984</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1.504097938537598</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0.04763445630669594</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0.7641756534576416</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0.8474215269088745</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1.177637338638306</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="2" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0.8573734760284424</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0.3536970317363739</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="2" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B845" t="n">
+        <v>-0.1306513100862503</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="2" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0.7963082194328308</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="2" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0.4749997556209564</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="2" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0.8985990285873413</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="2" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0.1427507400512695</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1.174567103385925</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="2" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0.7625923156738281</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="2" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1.391095757484436</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1.10138463973999</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1.413023829460144</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="2" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B855" t="n">
+        <v>-0.02984026446938515</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B856" t="n">
+        <v>1.276782631874084</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="2" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0.9031950831413269</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0.9761181473731995</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B859" t="n">
+        <v>2.025119304656982</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0.1232527419924736</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0.3363065123558044</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B862" t="n">
+        <v>1.197829961776733</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B863" t="n">
+        <v>-0.331443190574646</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B864" t="n">
+        <v>-1.113733291625977</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B865" t="n">
+        <v>-0.2762386500835419</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B866" t="n">
+        <v>0.4454851150512695</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="2" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B867" t="n">
+        <v>1.086192488670349</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B868" t="n">
+        <v>1.506802082061768</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="2" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B869" t="n">
+        <v>0.2555858492851257</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B870" t="n">
+        <v>1.372941970825195</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B871" t="n">
+        <v>1.317291975021362</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="2" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B872" t="n">
+        <v>0.10795958340168</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="2" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B873" t="n">
+        <v>-0.3855882883071899</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B874" t="n">
+        <v>0.6954287886619568</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B875" t="n">
+        <v>1.25741720199585</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="2" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B876" t="n">
+        <v>1.298975706100464</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B877" t="n">
+        <v>1.54173731803894</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B878" t="n">
+        <v>1.079058408737183</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B879" t="n">
+        <v>0.9656177759170532</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B880" t="n">
+        <v>-0.1413897573947906</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B881" t="n">
+        <v>1.433850169181824</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="2" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B882" t="n">
+        <v>0.8586487770080566</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B883" t="n">
+        <v>1.280156373977661</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="2" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B884" t="n">
+        <v>0.4578132629394531</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="2" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B885" t="n">
+        <v>0.6806960701942444</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B886" t="n">
+        <v>1.67416512966156</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="2" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B887" t="n">
+        <v>0.5050764679908752</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B888" t="n">
+        <v>1.342469811439514</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B889" t="n">
+        <v>1.929001808166504</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B890" t="n">
+        <v>1.033262372016907</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B519" t="n">
-        <v>0.6634699106216431</v>
+      <c r="B891" t="n">
+        <v>0.8596912026405334</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B891"/>
+  <dimension ref="A1:B892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8022173047065735</v>
+        <v>-0.8033578991889954</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.516955494880676</v>
+        <v>-1.518385171890259</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.456261515617371</v>
+        <v>-1.463327050209045</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8684012293815613</v>
+        <v>-0.8696451783180237</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2877476215362549</v>
+        <v>0.2875491082668304</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6399193406105042</v>
+        <v>-0.6406043171882629</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.968518495559692</v>
+        <v>-1.969021797180176</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.183809995651245</v>
+        <v>-2.184397459030151</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.213158369064331</v>
+        <v>-1.21327531337738</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.936993002891541</v>
+        <v>-1.937605738639832</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.813068270683289</v>
+        <v>-1.814310669898987</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9065303802490234</v>
+        <v>-0.9078928232192993</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.854491233825684</v>
+        <v>-2.856463670730591</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.970165729522705</v>
+        <v>-3.97214937210083</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.704009532928467</v>
+        <v>-1.710851073265076</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08271163702011108</v>
+        <v>-0.0838111937046051</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2151459753513336</v>
+        <v>0.2148040235042572</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6490770578384399</v>
+        <v>0.6488178968429565</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9059857726097107</v>
+        <v>-0.9067482352256775</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.232040137052536</v>
+        <v>-0.2322040498256683</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6431167125701904</v>
+        <v>-0.643165647983551</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6985530257225037</v>
+        <v>-0.6984971165657043</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.294178009033203</v>
+        <v>-1.294348478317261</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.537234544754028</v>
+        <v>-2.538318395614624</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.950408220291138</v>
+        <v>-2.951805353164673</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.886737585067749</v>
+        <v>-1.887581348419189</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.012089014053345</v>
+        <v>-2.021432638168335</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.575749635696411</v>
+        <v>-1.576471924781799</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7440433502197266</v>
+        <v>-0.7437804937362671</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7131583690643311</v>
+        <v>-0.7133877277374268</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.632318019866943</v>
+        <v>-1.634144186973572</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329566836357117</v>
+        <v>-1.329922199249268</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2485322654247284</v>
+        <v>-0.2489455491304398</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8697110414505005</v>
+        <v>-0.8696189522743225</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.126401424407959</v>
+        <v>-2.126430988311768</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3606025278568268</v>
+        <v>-0.3611054122447968</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.866703987121582</v>
+        <v>-0.8665193915367126</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.415667295455933</v>
+        <v>-1.415936589241028</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.471152901649475</v>
+        <v>-1.475178003311157</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.387387037277222</v>
+        <v>-2.388041257858276</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.61450982093811</v>
+        <v>-1.615891814231873</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.683636546134949</v>
+        <v>-1.684024333953857</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.423396110534668</v>
+        <v>-1.424374341964722</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.544855356216431</v>
+        <v>-1.545538425445557</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.696205019950867</v>
+        <v>-1.697588801383972</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.968158364295959</v>
+        <v>-1.969175100326538</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.413002848625183</v>
+        <v>-1.413896203041077</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.594507932662964</v>
+        <v>-1.596428275108337</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.329582452774048</v>
+        <v>-2.331954717636108</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.253637909889221</v>
+        <v>-1.254552125930786</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.506411194801331</v>
+        <v>-1.511243224143982</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.862149477005005</v>
+        <v>-1.863268136978149</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.18287992477417</v>
+        <v>-1.183477282524109</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5585935115814209</v>
+        <v>-0.5588828325271606</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5458256602287292</v>
+        <v>-0.5464551448822021</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8895916938781738</v>
+        <v>-0.8895422220230103</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.469608783721924</v>
+        <v>-1.470323324203491</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9486876130104065</v>
+        <v>-0.9490784406661987</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.281240463256836</v>
+        <v>-2.281829595565796</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.892464637756348</v>
+        <v>-1.893569469451904</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.807044386863708</v>
+        <v>-1.808397769927979</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.414846777915955</v>
+        <v>-1.416339039802551</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.154669404029846</v>
+        <v>-1.161843776702881</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.886561274528503</v>
+        <v>-1.887777209281921</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.220335602760315</v>
+        <v>-1.220933675765991</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7710490822792053</v>
+        <v>-0.771115243434906</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.399566769599915</v>
+        <v>-1.400673508644104</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6547152400016785</v>
+        <v>-0.6550841331481934</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3878938555717468</v>
+        <v>-0.388726681470871</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759117960929871</v>
+        <v>-1.759576201438904</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6087027788162231</v>
+        <v>-0.6097023487091064</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.571014046669006</v>
+        <v>-1.572380542755127</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7151463627815247</v>
+        <v>-0.7153740525245667</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5883818864822388</v>
+        <v>-0.5888655781745911</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.888113975524902</v>
+        <v>-2.900820732116699</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.204425692558289</v>
+        <v>-1.205061554908752</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.005316218361258507</v>
+        <v>-0.005294143687933683</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.732268750667572</v>
+        <v>-0.7332773208618164</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8643170595169067</v>
+        <v>-0.8646934628486633</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.079140901565552</v>
+        <v>-2.080406188964844</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.003349822014570236</v>
+        <v>-0.003192495787516236</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6421132683753967</v>
+        <v>-0.6422759294509888</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2710785865783691</v>
+        <v>0.2711890935897827</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.631862998008728</v>
+        <v>-1.632305979728699</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4096252024173737</v>
+        <v>-0.4104946255683899</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5891628861427307</v>
+        <v>-0.5893316268920898</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4887408912181854</v>
+        <v>-0.4902030527591705</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.867520809173584</v>
+        <v>-0.8674265742301941</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9674881100654602</v>
+        <v>-0.9679297208786011</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.754880428314209</v>
+        <v>-0.7554020285606384</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1818108260631561</v>
+        <v>-0.181398332118988</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.363329887390137</v>
+        <v>-2.363325119018555</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.810225248336792</v>
+        <v>-0.8107199668884277</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.403827667236328</v>
+        <v>-2.404196739196777</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.738440632820129</v>
+        <v>-1.739624500274658</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9971473813056946</v>
+        <v>-0.9973954558372498</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.57527756690979</v>
+        <v>-1.575666666030884</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.580564260482788</v>
+        <v>-1.580683350563049</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.071002960205078</v>
+        <v>-1.076940774917603</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.50775146484375</v>
+        <v>-1.507759809494019</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.172804474830627</v>
+        <v>-1.171700239181519</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1953032910823822</v>
+        <v>0.1960434168577194</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.436989426612854</v>
+        <v>-1.436887979507446</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.403313994407654</v>
+        <v>-1.403473258018494</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.112115383148193</v>
+        <v>-2.11228346824646</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.182017207145691</v>
+        <v>-1.181551694869995</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.401461601257324</v>
+        <v>-1.401763319969177</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.047718524932861</v>
+        <v>-2.048542022705078</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9108878374099731</v>
+        <v>-0.91188645362854</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.076007008552551</v>
+        <v>-1.076323747634888</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5047078728675842</v>
+        <v>-0.5064439177513123</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9987940788269043</v>
+        <v>-0.9994381666183472</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7399587631225586</v>
+        <v>-0.7411049008369446</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.602199077606201</v>
+        <v>-1.603429079055786</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.846912145614624</v>
+        <v>-0.8475479483604431</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9915374517440796</v>
+        <v>-0.9916865229606628</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1026970893144608</v>
+        <v>-0.1028351783752441</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.546963453292847</v>
+        <v>-1.548091292381287</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.599542617797852</v>
+        <v>-1.601273536682129</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.177022814750671</v>
+        <v>-1.178619980812073</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1494581699371338</v>
+        <v>0.1485508382320404</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05187366157770157</v>
+        <v>-0.05234647169709206</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.868689239025116</v>
+        <v>-0.8710141777992249</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.057855844497681</v>
+        <v>-1.059812545776367</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7834545969963074</v>
+        <v>-0.7845149636268616</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05639389902353287</v>
+        <v>0.05596047267317772</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.452031016349792</v>
+        <v>-1.452116370201111</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.05993761122226715</v>
+        <v>-0.06026582419872284</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4556637108325958</v>
+        <v>0.4562573432922363</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.386321485042572</v>
+        <v>-0.3862291872501373</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2904596626758575</v>
+        <v>0.2900305092334747</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8752164840698242</v>
+        <v>0.8750183582305908</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3515686690807343</v>
+        <v>0.3517242968082428</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1409134864807129</v>
+        <v>-0.1415092647075653</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1377364695072174</v>
+        <v>-0.1399193406105042</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.145777583122253</v>
+        <v>-1.146660685539246</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.651347398757935</v>
+        <v>-1.652148485183716</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.7965444326400757</v>
+        <v>-0.7978652715682983</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8321322798728943</v>
+        <v>-0.8330637812614441</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.083743929862976</v>
+        <v>-1.08433735370636</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02170756459236145</v>
+        <v>0.02136161923408508</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8141704201698303</v>
+        <v>-0.8138646483421326</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6414373517036438</v>
+        <v>0.641084611415863</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4820001423358917</v>
+        <v>-0.4814511239528656</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.07349906861782074</v>
+        <v>0.0723719447851181</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.004478130955249071</v>
+        <v>0.003932910971343517</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3526988327503204</v>
+        <v>0.3560662567615509</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.531941533088684</v>
+        <v>-1.532391548156738</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.625288367271423</v>
+        <v>-1.625775218009949</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02868006564676762</v>
+        <v>0.02847211062908173</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4777878522872925</v>
+        <v>-0.4780129194259644</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.264697909355164</v>
+        <v>-1.265076398849487</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8947745561599731</v>
+        <v>-0.8944624066352844</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1053365096449852</v>
+        <v>-0.105293482542038</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1267383545637131</v>
+        <v>0.1264879256486893</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.010386704467237</v>
+        <v>0.01024860423058271</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2393145710229874</v>
+        <v>-0.2397573590278625</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8747351765632629</v>
+        <v>-0.8754568696022034</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6201639175415039</v>
+        <v>-0.6210522055625916</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7058477401733398</v>
+        <v>-0.7058724761009216</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9441812634468079</v>
+        <v>-0.9450076818466187</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7878361940383911</v>
+        <v>-0.7887440323829651</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6447305083274841</v>
+        <v>-0.6452876329421997</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1315800249576569</v>
+        <v>-0.1314879655838013</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.928594708442688</v>
+        <v>-0.9289760589599609</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3852825164794922</v>
+        <v>-0.3858469724655151</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2785128057003021</v>
+        <v>0.2782253324985504</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.076996564865112</v>
+        <v>1.077356219291687</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.675119161605835</v>
+        <v>0.6756070852279663</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7740171551704407</v>
+        <v>-0.7743410468101501</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4747553169727325</v>
+        <v>-0.4762207865715027</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.07157326489686966</v>
+        <v>0.07165748625993729</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.531716525554657</v>
+        <v>-0.5314808487892151</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.723230957984924</v>
+        <v>-1.724100470542908</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08042111992835999</v>
+        <v>0.08024028688669205</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2354339361190796</v>
+        <v>-0.2357131093740463</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1542015820741653</v>
+        <v>0.1543736755847931</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.030439257621765</v>
+        <v>-1.030452013015747</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.9996407032012939</v>
+        <v>-1.00058925151825</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5918605923652649</v>
+        <v>0.5914766788482666</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4533772766590118</v>
+        <v>0.4536215364933014</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.485183447599411</v>
+        <v>0.4846509695053101</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05086611583828926</v>
+        <v>-0.05024247989058495</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.127096891403198</v>
+        <v>-1.127925515174866</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.002448678016663</v>
+        <v>-1.002248048782349</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.00117015838623</v>
+        <v>-1.001453876495361</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.53752076625824</v>
+        <v>-1.537266135215759</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.935462713241577</v>
+        <v>-2.936587572097778</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9766227006912231</v>
+        <v>-0.9769394397735596</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.01964348927140236</v>
+        <v>-0.02059401199221611</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2911877036094666</v>
+        <v>-0.2922818064689636</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.0278698205947876</v>
+        <v>-0.02877525053918362</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.175279498100281</v>
+        <v>-1.176763296127319</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.384742975234985</v>
+        <v>-1.385173201560974</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3916794657707214</v>
+        <v>-0.3955535590648651</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7390865087509155</v>
+        <v>-0.7393699884414673</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1446232795715332</v>
+        <v>-0.1453009098768234</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.699619054794312</v>
+        <v>-2.699955224990845</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.704926013946533</v>
+        <v>-2.70568323135376</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.525864839553833</v>
+        <v>-1.526494264602661</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08221732825040817</v>
+        <v>0.08208096027374268</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2496874034404755</v>
+        <v>-0.2491655796766281</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.143267035484314</v>
+        <v>-1.144343852996826</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.260865688323975</v>
+        <v>-1.261316776275635</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8006805181503296</v>
+        <v>-0.8007249236106873</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.0356764793396</v>
+        <v>-3.03715705871582</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9218550324440002</v>
+        <v>-0.9243482351303101</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.590007066726685</v>
+        <v>-1.591118216514587</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.100695848464966</v>
+        <v>-2.101869106292725</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1639344692230225</v>
+        <v>-0.16502845287323</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.077562570571899</v>
+        <v>-1.078723669052124</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.204824566841125</v>
+        <v>-1.205039143562317</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7764289975166321</v>
+        <v>-0.7771828174591064</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.238484501838684</v>
+        <v>-1.239480257034302</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0522405318915844</v>
+        <v>0.05134745687246323</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.491959810256958</v>
+        <v>-1.493102431297302</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.02720664069056511</v>
+        <v>-0.02815640158951283</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9747818112373352</v>
+        <v>-0.9752360582351685</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.325526714324951</v>
+        <v>-2.335875272750854</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.193880438804626</v>
+        <v>-1.195148944854736</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.899900555610657</v>
+        <v>-1.90108585357666</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3328356444835663</v>
+        <v>0.3329248428344727</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6904277801513672</v>
+        <v>-0.6907185912132263</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06540180742740631</v>
+        <v>-0.06557958573102951</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4835416376590729</v>
+        <v>-0.4833740293979645</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0703100711107254</v>
+        <v>0.07065345346927643</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.037880897521973</v>
+        <v>-1.038562893867493</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7156074643135071</v>
+        <v>-0.7162812352180481</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.762026071548462</v>
+        <v>-1.762574791908264</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6020207405090332</v>
+        <v>-0.6029160022735596</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.124754436314106</v>
+        <v>-0.1277915835380554</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.5120933651924133</v>
+        <v>-0.5127701163291931</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4177214503288269</v>
+        <v>-0.4185711145401001</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2597217261791229</v>
+        <v>-0.2600912153720856</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2393797785043716</v>
+        <v>-0.2399089634418488</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1915995180606842</v>
+        <v>0.191747635602951</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.01138317957520485</v>
+        <v>0.01105920877307653</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.004698706325143576</v>
+        <v>-0.005511380732059479</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.6919835209846497</v>
+        <v>-0.693045437335968</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4898152351379395</v>
+        <v>-0.4904078543186188</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.6985765695571899</v>
+        <v>-0.6987931132316589</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6843118667602539</v>
+        <v>-0.6854628920555115</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2912916243076324</v>
+        <v>-0.2981788218021393</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.516794562339783</v>
+        <v>-1.51673436164856</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.763380646705627</v>
+        <v>-1.763919234275818</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2943260371685028</v>
+        <v>-0.2942786514759064</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3941320180892944</v>
+        <v>0.3937619030475616</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3923572301864624</v>
+        <v>-0.3927313983440399</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.097740173339844</v>
+        <v>-1.099168062210083</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.228031516075134</v>
+        <v>-1.229074597358704</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.119101405143738</v>
+        <v>-1.120621919631958</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4303805828094482</v>
+        <v>-0.4309029281139374</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.306637287139893</v>
+        <v>-2.308076620101929</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.305008292198181</v>
+        <v>-1.305410385131836</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.01210067979991436</v>
+        <v>0.008555463515222073</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9491568207740784</v>
+        <v>-0.9501535296440125</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2167565524578094</v>
+        <v>-0.2175672054290771</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4476740658283234</v>
+        <v>-0.448184609413147</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7564885020256042</v>
+        <v>0.7550397515296936</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.5019641518592834</v>
+        <v>0.5013238191604614</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.02089265175163746</v>
+        <v>0.02119848318397999</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6425888538360596</v>
+        <v>-0.643580436706543</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.61131352186203</v>
+        <v>0.6110858917236328</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.008469671010971069</v>
+        <v>0.008052974939346313</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6705254316329956</v>
+        <v>0.6700104475021362</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3477201461791992</v>
+        <v>0.3471862971782684</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.7947039604187012</v>
+        <v>-0.7981217503547668</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.227762758731842</v>
+        <v>-0.2287950217723846</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03773509711027145</v>
+        <v>-0.03749234229326248</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4143483638763428</v>
+        <v>0.4144487977027893</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1239078342914581</v>
+        <v>-0.1247191652655602</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.061893701553345</v>
+        <v>1.062411189079285</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4318317174911499</v>
+        <v>-0.4314806163311005</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.038628101348877</v>
+        <v>-1.039410829544067</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1607342511415482</v>
+        <v>0.160687580704689</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.070501327514648</v>
+        <v>-1.070644736289978</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.071681141853333</v>
+        <v>-1.071326494216919</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4181699156761169</v>
+        <v>-0.4176965951919556</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3488952219486237</v>
+        <v>0.3477111756801605</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.588632345199585</v>
+        <v>-0.5883758664131165</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.178113102912903</v>
+        <v>-1.178286194801331</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3088622987270355</v>
+        <v>0.3089479207992554</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8869163990020752</v>
+        <v>-0.8870687484741211</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2360657751560211</v>
+        <v>-0.2354428172111511</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.06960329413414001</v>
+        <v>0.06975096464157104</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.007256229873746634</v>
+        <v>-0.007633311673998833</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3973411619663239</v>
+        <v>-0.3967982530593872</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.173730969429016</v>
+        <v>-1.173758745193481</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.549931287765503</v>
+        <v>-1.550723314285278</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7635195255279541</v>
+        <v>-0.7643749117851257</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7249129414558411</v>
+        <v>-0.7288443446159363</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.23893940448761</v>
+        <v>-1.240510821342468</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2834210097789764</v>
+        <v>-0.2847023010253906</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.018786191940308</v>
+        <v>-1.019917488098145</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7472158670425415</v>
+        <v>-0.7476804852485657</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.279997229576111</v>
+        <v>-1.280467391014099</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.0002844962000381202</v>
+        <v>-0.0006531842518597841</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2108836770057678</v>
+        <v>0.2103935331106186</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7103351354598999</v>
+        <v>0.7096736431121826</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3585813641548157</v>
+        <v>-0.36012864112854</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2096519470214844</v>
+        <v>-0.2108241021633148</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3744646608829498</v>
+        <v>0.3737710118293762</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.021915435791016</v>
+        <v>1.022827982902527</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04205339774489403</v>
+        <v>-0.04267510399222374</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8044893145561218</v>
+        <v>-0.8057007193565369</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1604805290699005</v>
+        <v>0.1608548760414124</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.304762989282608</v>
+        <v>0.3047907650470734</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6408601999282837</v>
+        <v>0.641622006893158</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1420892924070358</v>
+        <v>-0.142190232872963</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08413516730070114</v>
+        <v>0.08399222046136856</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08828617632389069</v>
+        <v>-0.08852950483560562</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.122697591781616</v>
+        <v>1.122980356216431</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3798276782035828</v>
+        <v>-0.3794146180152893</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7895615100860596</v>
+        <v>0.7902225255966187</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6964896321296692</v>
+        <v>0.6958669424057007</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2344008982181549</v>
+        <v>-0.233936607837677</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.04877518117427826</v>
+        <v>-0.048995241522789</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7495878934860229</v>
+        <v>-0.7491498589515686</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09319984167814255</v>
+        <v>-0.09274932742118835</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.020885705947876</v>
+        <v>-2.020873308181763</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7110211849212646</v>
+        <v>0.7118154764175415</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5265377759933472</v>
+        <v>-0.5263839364051819</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.359090447425842</v>
+        <v>-1.359237790107727</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.268464207649231</v>
+        <v>-1.268950581550598</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9022459387779236</v>
+        <v>-0.9025759696960449</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06172413006424904</v>
+        <v>-0.06206008419394493</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1274417787790298</v>
+        <v>-0.1303206384181976</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02211781218647957</v>
+        <v>0.02165766432881355</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.8432821035385132</v>
+        <v>-0.8441682457923889</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1557286828756332</v>
+        <v>-0.1561440080404282</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9676018953323364</v>
+        <v>-0.9681195616722107</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7356721162796021</v>
+        <v>0.7365033626556396</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.296903848648071</v>
+        <v>1.297214508056641</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3402344584465027</v>
+        <v>0.3412056863307953</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08664349466562271</v>
+        <v>0.08638358116149902</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02400816604495049</v>
+        <v>0.02352480031549931</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6113268733024597</v>
+        <v>-0.6113815307617188</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.523058295249939</v>
+        <v>0.5229696035385132</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1092053428292274</v>
+        <v>-0.1103100627660751</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.701377809047699</v>
+        <v>0.7017626762390137</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7797932624816895</v>
+        <v>0.7787376046180725</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1466237157583237</v>
+        <v>0.1462337821722031</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.005259803961962461</v>
+        <v>-0.006329135503619909</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04663299769163132</v>
+        <v>0.04659338667988777</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06478402018547058</v>
+        <v>-0.06491120159626007</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6008549928665161</v>
+        <v>-0.6006937623023987</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.898895740509033</v>
+        <v>-1.898971080780029</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.046273231506348</v>
+        <v>-3.048234224319458</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.81698477268219</v>
+        <v>-1.818432331085205</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1094198599457741</v>
+        <v>0.1085117682814598</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1824973672628403</v>
+        <v>-0.1826221197843552</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7528983950614929</v>
+        <v>-0.7539920210838318</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7028017640113831</v>
+        <v>-0.7029426097869873</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5017082691192627</v>
+        <v>-0.5020912289619446</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.534976065158844</v>
+        <v>-0.5351464748382568</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6924492120742798</v>
+        <v>-0.6929339170455933</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5407666563987732</v>
+        <v>0.5404847860336304</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3839991390705109</v>
+        <v>0.3828691840171814</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4814338088035583</v>
+        <v>0.4806216657161713</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.08318707346916199</v>
+        <v>-0.08452041447162628</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.061634063720703</v>
+        <v>1.060992121696472</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3038226068019867</v>
+        <v>0.3026124835014343</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2979282140731812</v>
+        <v>0.2952857315540314</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08384955674409866</v>
+        <v>-0.08407143503427505</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.37017622590065</v>
+        <v>-0.3703197538852692</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.150084063410759</v>
+        <v>-0.1496671140193939</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.542328119277954</v>
+        <v>-1.542760610580444</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.339199423789978</v>
+        <v>1.339367389678955</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8538872003555298</v>
+        <v>0.8541302084922791</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-3.696780186146498e-05</v>
+        <v>-0.0009661217336542904</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2064034640789032</v>
+        <v>0.2050497829914093</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3246506154537201</v>
+        <v>0.3246505558490753</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.700481116771698</v>
+        <v>0.6993523836135864</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.6851790547370911</v>
+        <v>0.684634804725647</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.028154134750366</v>
+        <v>1.030267238616943</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2323852181434631</v>
+        <v>0.2320923805236816</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.223105311393738</v>
+        <v>1.222999572753906</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.810107469558716</v>
+        <v>1.809962153434753</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.846924543380737</v>
+        <v>1.846246600151062</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.09003404527902603</v>
+        <v>0.09005074948072433</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8344181180000305</v>
+        <v>0.8342154026031494</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4928096234798431</v>
+        <v>0.4927582442760468</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.2372018247842789</v>
+        <v>-0.23819200694561</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1374182254076004</v>
+        <v>-0.1391367018222809</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05710252374410629</v>
+        <v>0.05679182335734367</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4908061325550079</v>
+        <v>-0.4913679361343384</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7786213159561157</v>
+        <v>-0.7816101312637329</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.173461556434631</v>
+        <v>-1.175151824951172</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4397143423557281</v>
+        <v>0.4388113915920258</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8131847977638245</v>
+        <v>0.8129489421844482</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7782822847366333</v>
+        <v>-0.7793799042701721</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1442087888717651</v>
+        <v>0.1425803899765015</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6187496185302734</v>
+        <v>-0.620202362537384</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.036405682563782</v>
+        <v>1.036126017570496</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.936248242855072</v>
+        <v>-0.9377371072769165</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2163048982620239</v>
+        <v>-0.2172296941280365</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7899677753448486</v>
+        <v>0.7893676161766052</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5977874994277954</v>
+        <v>0.5977748036384583</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6144466996192932</v>
+        <v>-0.6195078492164612</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.048920512199402</v>
+        <v>-1.05043625831604</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.00510655902326107</v>
+        <v>-0.00540402065962553</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2579097747802734</v>
+        <v>0.2589122354984283</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.600300133228302</v>
+        <v>-0.6008859276771545</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.48372209072113</v>
+        <v>-1.484155774116516</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4351971447467804</v>
+        <v>-0.4365191757678986</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1026199534535408</v>
+        <v>-0.1035814955830574</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6977700591087341</v>
+        <v>0.6984901428222656</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.482468605041504</v>
+        <v>1.48250675201416</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07621897757053375</v>
+        <v>0.07517778128385544</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9443553686141968</v>
+        <v>0.9439453482627869</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.728950977325439</v>
+        <v>1.732581257820129</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.447750926017761</v>
+        <v>1.447528600692749</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4077068865299225</v>
+        <v>0.4068243503570557</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8531196713447571</v>
+        <v>0.8532008528709412</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01372095756232738</v>
+        <v>-0.01479437761008739</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.964560866355896</v>
+        <v>0.9631863236427307</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.531213402748108</v>
+        <v>1.53039288520813</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6791688203811646</v>
+        <v>-0.6800149083137512</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.06108411401510239</v>
+        <v>-0.06273617595434189</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.193241953849792</v>
+        <v>-1.194771647453308</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4430568814277649</v>
+        <v>-0.4451308846473694</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.07540055364370346</v>
+        <v>0.0735054686665535</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8100795149803162</v>
+        <v>0.8123729825019836</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1247385814785957</v>
+        <v>0.1243694871664047</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.139528214931488</v>
+        <v>0.138667955994606</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1852961778640747</v>
+        <v>0.1850578784942627</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6915402412414551</v>
+        <v>0.691753089427948</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7474523782730103</v>
+        <v>0.7469578385353088</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1056728661060333</v>
+        <v>-0.1059676110744476</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.12836754322052</v>
+        <v>1.128636717796326</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.080991625785828</v>
+        <v>1.080919623374939</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7725403904914856</v>
+        <v>0.7717249393463135</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.879927396774292</v>
+        <v>-0.8806069493293762</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4042504727840424</v>
+        <v>-0.4045712649822235</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3641151487827301</v>
+        <v>0.3622743189334869</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3019083440303802</v>
+        <v>0.3014888167381287</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3018493950366974</v>
+        <v>-0.3019709587097168</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9290362000465393</v>
+        <v>0.9282218813896179</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3568013608455658</v>
+        <v>0.3570578992366791</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4666993021965027</v>
+        <v>-0.4664171934127808</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5072431564331055</v>
+        <v>-0.506893515586853</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4694969952106476</v>
+        <v>0.4688957333564758</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9165117740631104</v>
+        <v>0.9157801270484924</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.668010950088501</v>
+        <v>-1.667827010154724</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4068663120269775</v>
+        <v>-0.4078865051269531</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08661709725856781</v>
+        <v>0.08680976182222366</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1868465542793274</v>
+        <v>-0.1891446113586426</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2124270498752594</v>
+        <v>0.2130643874406815</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01836498454213142</v>
+        <v>-0.01832284405827522</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.02451144903898239</v>
+        <v>0.02376734279096127</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.583485245704651</v>
+        <v>1.583411455154419</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9645122885704041</v>
+        <v>0.9646479487419128</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.229463696479797</v>
+        <v>1.229652047157288</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6730712056159973</v>
+        <v>0.6730479001998901</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.592425227165222</v>
+        <v>1.592678070068359</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7935867309570312</v>
+        <v>0.7938950657844543</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5518224835395813</v>
+        <v>0.5518943071365356</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.260422825813293</v>
+        <v>-1.261126637458801</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.114140510559082</v>
+        <v>0.1098858937621117</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4120268225669861</v>
+        <v>0.4112622141838074</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.088693737983704</v>
+        <v>-1.089807391166687</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4866659343242645</v>
+        <v>-0.4867069125175476</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2879320681095123</v>
+        <v>0.2873381078243256</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2246382087469101</v>
+        <v>-0.2246409505605698</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.31657350063324</v>
+        <v>1.316364765167236</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4115206599235535</v>
+        <v>0.4113799929618835</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5193755030632019</v>
+        <v>0.5189116597175598</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.452259302139282</v>
+        <v>1.451754450798035</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5413268804550171</v>
+        <v>-0.5421886444091797</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.077067531645298</v>
+        <v>-0.07847802340984344</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.208146795630455</v>
+        <v>-0.2086203843355179</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4460670948028564</v>
+        <v>0.4448180794715881</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3840070962905884</v>
+        <v>0.3831667006015778</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1695984899997711</v>
+        <v>0.1688192486763</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8159850835800171</v>
+        <v>-0.8175663352012634</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.349520206451416</v>
+        <v>1.348910093307495</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.08497089892625809</v>
+        <v>0.08320431411266327</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6816071271896362</v>
+        <v>0.6813381910324097</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.327024102210999</v>
+        <v>1.327294707298279</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6545406579971313</v>
+        <v>0.6537528038024902</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2261715680360794</v>
+        <v>0.2250751703977585</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6452529430389404</v>
+        <v>0.6449954509735107</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08235934376716614</v>
+        <v>-0.08486004918813705</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4287945926189423</v>
+        <v>0.4287190437316895</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1171189695596695</v>
+        <v>-0.1176387071609497</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.361548125743866</v>
+        <v>-0.3624691665172577</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.183184742927551</v>
+        <v>1.182727098464966</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01813482493162155</v>
+        <v>0.01755004934966564</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2404666095972061</v>
+        <v>-0.2405165284872055</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.644288897514343</v>
+        <v>-1.645364999771118</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143388867378235</v>
+        <v>1.143599033355713</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.096837043762207</v>
+        <v>1.096916437149048</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1979269683361053</v>
+        <v>0.1983090192079544</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5906597375869751</v>
+        <v>0.5909815430641174</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.6432037353515625</v>
+        <v>0.6418145895004272</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1559771001338959</v>
+        <v>0.1556104123592377</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.130237817764282</v>
+        <v>2.130991697311401</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.935625553131104</v>
+        <v>1.936032056808472</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.009168982505798</v>
+        <v>1.009654879570007</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.08914399147033691</v>
+        <v>-0.08908174186944962</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.2995140254497528</v>
+        <v>-0.2992801070213318</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6419947147369385</v>
+        <v>0.6422049999237061</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5453655123710632</v>
+        <v>0.5451929569244385</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2636350393295288</v>
+        <v>0.2624917328357697</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3111364543437958</v>
+        <v>0.3107240796089172</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.109057188034058</v>
+        <v>1.108386158943176</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7207540273666382</v>
+        <v>0.720997154712677</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.331633448600769</v>
+        <v>-1.332320690155029</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6572214961051941</v>
+        <v>-0.6581430435180664</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4506950378417969</v>
+        <v>0.4504722952842712</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4477182328701019</v>
+        <v>-0.4481558799743652</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5686176419258118</v>
+        <v>0.568595290184021</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.725365877151489</v>
+        <v>1.724797248840332</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4993524253368378</v>
+        <v>0.4990499913692474</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2762526869773865</v>
+        <v>0.2756985425949097</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1227030903100967</v>
+        <v>0.1218236014246941</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.106995344161987</v>
+        <v>1.106846451759338</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.08723940700292587</v>
+        <v>-0.08789801597595215</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4978215396404266</v>
+        <v>0.4998223781585693</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1488330513238907</v>
+        <v>-0.1492924690246582</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2502650916576385</v>
+        <v>0.2491588741540909</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3539289534091949</v>
+        <v>-0.3546239137649536</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.398121565580368</v>
+        <v>-0.3985472023487091</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9446566700935364</v>
+        <v>0.9441835284233093</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.477231353521347</v>
+        <v>-0.477780818939209</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1338671892881393</v>
+        <v>0.1330612599849701</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.03626091778278351</v>
+        <v>-0.03750565275549889</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.648873805999756</v>
+        <v>-1.649798035621643</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5771353244781494</v>
+        <v>0.5762227773666382</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5848336219787598</v>
+        <v>-0.5859630107879639</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2644928097724915</v>
+        <v>-0.2631640434265137</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2632540762424469</v>
+        <v>-0.2638676464557648</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9325832724571228</v>
+        <v>-0.9332530498504639</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.314532995223999</v>
+        <v>-1.315029144287109</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4682802259922028</v>
+        <v>0.4670402407646179</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3283203840255737</v>
+        <v>0.3278719186782837</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3642691075801849</v>
+        <v>0.3647924661636353</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.278318464756012</v>
+        <v>-0.2786802649497986</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2145173251628876</v>
+        <v>0.2141853123903275</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.1019769608974457</v>
+        <v>0.1015733629465103</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.203705072402954</v>
+        <v>-1.205814599990845</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3585851490497589</v>
+        <v>0.3582503497600555</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.02219841629266739</v>
+        <v>0.02297907322645187</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.530637800693512</v>
+        <v>0.5293101072311401</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.303675413131714</v>
+        <v>1.303327798843384</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.642801642417908</v>
+        <v>1.642137885093689</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.565348029136658</v>
+        <v>1.565477132797241</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.191693544387817</v>
+        <v>1.190989017486572</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.158513903617859</v>
+        <v>1.158216714859009</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.109552621841431</v>
+        <v>1.108722329139709</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5711892247200012</v>
+        <v>0.5711295008659363</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.217122197151184</v>
+        <v>1.216972947120667</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6395973563194275</v>
+        <v>0.6390952467918396</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.171707630157471</v>
+        <v>1.17217743396759</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.016865372657776</v>
+        <v>1.020004153251648</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3821253478527069</v>
+        <v>0.3808749616146088</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4639645516872406</v>
+        <v>0.4630695283412933</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8736516237258911</v>
+        <v>-0.874430775642395</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4985145032405853</v>
+        <v>0.4973462522029877</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.743784666061401</v>
+        <v>1.743303298950195</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.5102342963218689</v>
+        <v>-0.5114990472793579</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1267540901899338</v>
+        <v>0.1261468678712845</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.007665532641112804</v>
+        <v>0.006479684729129076</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.327492237091064</v>
+        <v>1.326267600059509</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.365652084350586</v>
+        <v>1.365661859512329</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8161104321479797</v>
+        <v>0.8155552744865417</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.18536576628685</v>
+        <v>0.1874789595603943</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2222626954317093</v>
+        <v>0.222750261425972</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.542750954627991</v>
+        <v>1.54273796081543</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.09850651025772095</v>
+        <v>-0.09912832081317902</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.583698272705078</v>
+        <v>-1.584269165992737</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1738328039646149</v>
+        <v>0.1727693527936935</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.647847294807434</v>
+        <v>1.648130536079407</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.320250928401947</v>
+        <v>-0.3204784691333771</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6310685276985168</v>
+        <v>0.6306576132774353</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>1.002019166946411</v>
+        <v>1.001930356025696</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02382820285856724</v>
+        <v>0.02451086789369583</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2553533911705017</v>
+        <v>-0.255344957113266</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5331403613090515</v>
+        <v>0.5315228700637817</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6123631596565247</v>
+        <v>0.6123999357223511</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.115221977233887</v>
+        <v>1.11459743976593</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.118146650493145</v>
+        <v>0.1180992126464844</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2491249293088913</v>
+        <v>-0.2488816231489182</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.8276287913322449</v>
+        <v>-0.8283268809318542</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.611173391342163</v>
+        <v>-1.610844731330872</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.112621784210205</v>
+        <v>1.112302780151367</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.234707593917847</v>
+        <v>-1.235556840896606</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.0614047572016716</v>
+        <v>0.06131498515605927</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.836587131023407</v>
+        <v>0.8365243077278137</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4097933769226074</v>
+        <v>0.4098084270954132</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9320194721221924</v>
+        <v>0.9364132285118103</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.2073589861392975</v>
+        <v>0.2059962600469589</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9744470715522766</v>
+        <v>0.9741708040237427</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.184551790356636</v>
+        <v>-0.1855103224515915</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.139737248420715</v>
+        <v>1.13862681388855</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6555175185203552</v>
+        <v>0.6545817255973816</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1835343986749649</v>
+        <v>0.1829178929328918</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07782644778490067</v>
+        <v>0.07644184678792953</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.086652994155884</v>
+        <v>-1.088962912559509</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1824794560670853</v>
+        <v>0.1811427026987076</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.084742546081543</v>
+        <v>1.084012746810913</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.682782649993896</v>
+        <v>1.680888652801514</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.073523879051208</v>
+        <v>1.074893593788147</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.29168438911438</v>
+        <v>2.291492700576782</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7112558484077454</v>
+        <v>0.7103937268257141</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.517475008964539</v>
+        <v>1.517542362213135</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.758033514022827</v>
+        <v>1.758342266082764</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.233104467391968</v>
+        <v>1.233185529708862</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8194147348403931</v>
+        <v>0.8185939788818359</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8779801726341248</v>
+        <v>0.8777989149093628</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.158270597457886</v>
+        <v>1.158790588378906</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.393818497657776</v>
+        <v>1.394092559814453</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.010558843612671</v>
+        <v>1.011297702789307</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5605069994926453</v>
+        <v>0.5608376860618591</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2250054776668549</v>
+        <v>0.2216489613056183</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.403429865837097</v>
+        <v>1.403515100479126</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.496033310890198</v>
+        <v>1.496200799942017</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6622061729431152</v>
+        <v>-0.6633283495903015</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.706055223941803</v>
+        <v>0.7059362530708313</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5419848561286926</v>
+        <v>0.5409595370292664</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3520455956459045</v>
+        <v>0.3516343235969543</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.982977509498596</v>
+        <v>1.98328959941864</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.179635763168335</v>
+        <v>1.179990768432617</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.550830483436584</v>
+        <v>1.551283836364746</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7167866230010986</v>
+        <v>0.7174841165542603</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.382972121238708</v>
+        <v>1.382768392562866</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.6317456364631653</v>
+        <v>0.629513680934906</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7456620335578918</v>
+        <v>0.7453548908233643</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.432975769042969</v>
+        <v>1.432785153388977</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.691795825958252</v>
+        <v>0.6912065148353577</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007458859123289585</v>
+        <v>-0.007012802641838789</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1174144819378853</v>
+        <v>-0.1174899041652679</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8635737895965576</v>
+        <v>-0.8646867871284485</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6506792306900024</v>
+        <v>0.6503635048866272</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.164320230484009</v>
+        <v>-1.16448974609375</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8648165464401245</v>
+        <v>-0.8656967878341675</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5676315426826477</v>
+        <v>0.5671344399452209</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2501683533191681</v>
+        <v>-0.2506307065486908</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4875847697257996</v>
+        <v>0.4861216843128204</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.215391993522644</v>
+        <v>1.215294241905212</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1174646615982056</v>
+        <v>0.1176824793219566</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.174347639083862</v>
+        <v>1.173948764801025</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2333514392375946</v>
+        <v>-0.2340942919254303</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.007817149162292</v>
+        <v>1.007828712463379</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.157658100128174</v>
+        <v>1.157706499099731</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8818758130073547</v>
+        <v>0.8823708295822144</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.346908092498779</v>
+        <v>1.347572207450867</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6148927211761475</v>
+        <v>0.6153480410575867</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7375786900520325</v>
+        <v>0.7383125424385071</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.283368945121765</v>
+        <v>1.283704996109009</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.8964216709136963</v>
+        <v>-0.9003251194953918</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3438989818096161</v>
+        <v>0.3441041707992554</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.094474315643311</v>
+        <v>-1.095849752426147</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7578861117362976</v>
+        <v>0.7571834325790405</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07632555812597275</v>
+        <v>0.07541418075561523</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5994954109191895</v>
+        <v>0.5986565351486206</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08830758184194565</v>
+        <v>0.08723054081201553</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.891178488731384</v>
+        <v>-1.892608523368835</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3485695719718933</v>
+        <v>0.3474807739257812</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.275337219238281</v>
+        <v>1.274771451950073</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03093955852091312</v>
+        <v>-0.03187699988484383</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.01801604405045509</v>
+        <v>-0.01810160838067532</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1330491155385971</v>
+        <v>0.1320821046829224</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6922716498374939</v>
+        <v>0.6923155784606934</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9884446263313293</v>
+        <v>0.9880978465080261</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2531534433364868</v>
+        <v>-0.2539704144001007</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.039910197257996</v>
+        <v>1.03951895236969</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5075299143791199</v>
+        <v>0.5077912211418152</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2602351307868958</v>
+        <v>0.260015994310379</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04652688279747963</v>
+        <v>-0.04674215987324715</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.08006774634122849</v>
+        <v>0.07903361320495605</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1450425386428833</v>
+        <v>-0.1456206440925598</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.020325064659119</v>
+        <v>1.020304918289185</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2478137612342834</v>
+        <v>-0.2488621324300766</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7349004149436951</v>
+        <v>0.7383743524551392</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8705338835716248</v>
+        <v>0.8702645301818848</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.009666323661804</v>
+        <v>1.009461164474487</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.007402181625366</v>
+        <v>2.006929397583008</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.258153915405273</v>
+        <v>1.258079528808594</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2884961068630219</v>
+        <v>0.2882339060306549</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9635411500930786</v>
+        <v>0.9627847075462341</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4772889018058777</v>
+        <v>0.4768578410148621</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1811697632074356</v>
+        <v>0.1802259236574173</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.3985948860645294</v>
+        <v>-0.3993706107139587</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5928197503089905</v>
+        <v>0.5924723148345947</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.091774582862854</v>
+        <v>1.091301083564758</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2669056057929993</v>
+        <v>0.2647044956684113</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.215445399284363</v>
+        <v>1.214647650718689</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3046349585056305</v>
+        <v>0.304471343755722</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2688566744327545</v>
+        <v>-0.2695491909980774</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6212632060050964</v>
+        <v>0.620100200176239</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4394980072975159</v>
+        <v>0.4389474391937256</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8320662975311279</v>
+        <v>0.8320704102516174</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.392740398645401</v>
+        <v>0.393158495426178</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09409143030643463</v>
+        <v>0.09339820593595505</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.190199971199036</v>
+        <v>-1.191552519798279</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7306311130523682</v>
+        <v>0.7304384708404541</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2394516915082932</v>
+        <v>0.2386350035667419</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.031990766525269</v>
+        <v>1.03268837928772</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1891589611768723</v>
+        <v>0.1894022822380066</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.326505303382874</v>
+        <v>1.326601028442383</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.213307976722717</v>
+        <v>1.212460398674011</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.029659271240234</v>
+        <v>1.029338359832764</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.6824619174003601</v>
+        <v>-0.6837736964225769</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7652438282966614</v>
+        <v>0.7639787793159485</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.621990561485291</v>
+        <v>1.620914220809937</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9459921717643738</v>
+        <v>0.9453197717666626</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.012769341468811</v>
+        <v>1.012096285820007</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4862693250179291</v>
+        <v>0.4857313930988312</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.650180459022522</v>
+        <v>0.649914026260376</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.06056956946849823</v>
+        <v>-0.06356187164783478</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.03971904516220093</v>
+        <v>-0.04038774222135544</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3768842816352844</v>
+        <v>0.3762143552303314</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5293567776679993</v>
+        <v>-0.529054582118988</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.038071870803833</v>
+        <v>-1.038600444793701</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5423258543014526</v>
+        <v>0.5420824289321899</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3375903964042664</v>
+        <v>0.3373405933380127</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2351863831281662</v>
+        <v>0.2346263229846954</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.08949648588895798</v>
+        <v>-0.08975348621606827</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.407224535942078</v>
+        <v>1.40821635723114</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.302631735801697</v>
+        <v>1.302799105644226</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.091309785842896</v>
+        <v>1.091981530189514</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.10342264175415</v>
+        <v>1.102586388587952</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6289923787117004</v>
+        <v>-0.6289734840393066</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4094068109989166</v>
+        <v>-0.4097677767276764</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.733168482780457</v>
+        <v>1.732929825782776</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3038058280944824</v>
+        <v>0.3035694658756256</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4704791605472565</v>
+        <v>0.4703985452651978</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.287684559822083</v>
+        <v>1.287835955619812</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.914941906929016</v>
+        <v>1.914535880088806</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.208697915077209</v>
+        <v>1.209215879440308</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8984271883964539</v>
+        <v>0.8986112475395203</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.059777736663818</v>
+        <v>1.05951452255249</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.948498010635376</v>
+        <v>0.9487618803977966</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.772085964679718</v>
+        <v>0.772472620010376</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4609116911888123</v>
+        <v>0.4606292545795441</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4474786818027496</v>
+        <v>-0.447600245475769</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04066868871450424</v>
+        <v>-0.04080135375261307</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.03904282674193382</v>
+        <v>0.03832086175680161</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2209078967571259</v>
+        <v>-0.2213371247053146</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5270199775695801</v>
+        <v>0.5271747708320618</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2539607286453247</v>
+        <v>0.2534607350826263</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.198822379112244</v>
+        <v>-1.199959635734558</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.8981859683990479</v>
+        <v>0.8973305821418762</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06782582402229309</v>
+        <v>0.06758109480142593</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02378460019826889</v>
+        <v>0.02297648042440414</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.859198272228241</v>
+        <v>0.8589270710945129</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.123324155807495</v>
+        <v>1.123056411743164</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.17141854763031</v>
+        <v>1.172119498252869</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.340291500091553</v>
+        <v>2.340660572052002</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.346094608306885</v>
+        <v>2.346732616424561</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.406068325042725</v>
+        <v>1.406571507453918</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.992544949054718</v>
+        <v>0.9921431541442871</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.181481719017029</v>
+        <v>1.181841731071472</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379180192947388</v>
+        <v>1.379895806312561</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1010125651955605</v>
+        <v>0.1017944365739822</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1279406696557999</v>
+        <v>0.1285935491323471</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.045034646987915</v>
+        <v>1.045309066772461</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.05131176114082336</v>
+        <v>0.04646238684654236</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2166101783514023</v>
+        <v>0.2163596004247665</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.182685017585754</v>
+        <v>1.182894349098206</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2042617052793503</v>
+        <v>0.2040885835886002</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3779028058052063</v>
+        <v>-0.3787781596183777</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3043347001075745</v>
+        <v>-0.3050861954689026</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.223874568939209</v>
+        <v>-0.2250967770814896</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.003485213965177536</v>
+        <v>0.004058423452079296</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09770218282938004</v>
+        <v>-0.09881459176540375</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.679375529289246</v>
+        <v>1.68058168888092</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.326247692108154</v>
+        <v>1.326613903045654</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.2738766074180603</v>
+        <v>-0.2740350961685181</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4200859665870667</v>
+        <v>0.4214995801448822</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9953635334968567</v>
+        <v>0.9955678582191467</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8676583766937256</v>
+        <v>0.8670408129692078</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4833553731441498</v>
+        <v>0.4834021925926208</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.164827227592468</v>
+        <v>1.165278911590576</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7330365777015686</v>
+        <v>0.7329498529434204</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9816352128982544</v>
+        <v>0.9814766049385071</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4189434349536896</v>
+        <v>0.4182155132293701</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.4932642877101898</v>
+        <v>-0.4946148097515106</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1470771580934525</v>
+        <v>-0.1479565352201462</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7533119320869446</v>
+        <v>0.7528106570243835</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9581535458564758</v>
+        <v>0.9580534696578979</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.635700821876526</v>
+        <v>1.640003085136414</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.7238569855690002</v>
+        <v>0.7238419055938721</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8472014665603638</v>
+        <v>0.847133457660675</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1190105378627777</v>
+        <v>0.1191430911421776</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.070197463035583</v>
+        <v>1.069854140281677</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7047892808914185</v>
+        <v>-0.7052628397941589</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7576845288276672</v>
+        <v>-0.7584397196769714</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1898122131824493</v>
+        <v>0.1886056214570999</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.388698935508728</v>
+        <v>0.3892067074775696</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4978605508804321</v>
+        <v>0.4974690973758698</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1340981423854828</v>
+        <v>0.1335032284259796</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4620369374752045</v>
+        <v>0.4623955190181732</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9495391845703125</v>
+        <v>0.9486217498779297</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9885382652282715</v>
+        <v>0.9891324043273926</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.005838934797793627</v>
+        <v>0.005153883248567581</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9655301570892334</v>
+        <v>0.9654168486595154</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6243997812271118</v>
+        <v>0.6236008405685425</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2580311298370361</v>
+        <v>0.256990373134613</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3316742777824402</v>
+        <v>-0.3324993848800659</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5979201197624207</v>
+        <v>0.5969283580780029</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4962485432624817</v>
+        <v>0.4952687323093414</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.449384689331055</v>
+        <v>1.449549794197083</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6133208274841309</v>
+        <v>0.6137946844100952</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.687856912612915</v>
+        <v>1.687808275222778</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9051976203918457</v>
+        <v>0.9082897305488586</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.284505724906921</v>
+        <v>1.284262657165527</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.453343868255615</v>
+        <v>1.452506542205811</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.435387015342712</v>
+        <v>1.43488597869873</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.639234781265259</v>
+        <v>1.638811469078064</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8466248512268066</v>
+        <v>0.8462392687797546</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8246686458587646</v>
+        <v>0.8240963220596313</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7034991979598999</v>
+        <v>0.7015786170959473</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.123715043067932</v>
+        <v>1.1233811378479</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5538386702537537</v>
+        <v>0.5527536273002625</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.649647831916809</v>
+        <v>1.649313926696777</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.140838980674744</v>
+        <v>1.140513896942139</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.370555877685547</v>
+        <v>2.374057054519653</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.156391024589539</v>
+        <v>1.155441522598267</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9647507667541504</v>
+        <v>0.963713526725769</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.740975618362427</v>
+        <v>2.741663932800293</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9380100965499878</v>
+        <v>0.9370824098587036</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1066668629646301</v>
+        <v>0.1060775145888329</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.031192064285278</v>
+        <v>2.031925916671753</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.04040116816759109</v>
+        <v>0.03977995365858078</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4291421473026276</v>
+        <v>-0.4304288923740387</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1468387842178345</v>
+        <v>-0.1476912945508957</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1931043565273285</v>
+        <v>-0.1940913945436478</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6067447662353516</v>
+        <v>0.6060147285461426</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6978301405906677</v>
+        <v>0.6946018934249878</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.382933616638184</v>
+        <v>1.382495045661926</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.711264967918396</v>
+        <v>1.711044907569885</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.265015482902527</v>
+        <v>1.264830708503723</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.179366946220398</v>
+        <v>1.179125189781189</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9587459564208984</v>
+        <v>0.9588826894760132</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.504097938537598</v>
+        <v>1.504331111907959</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04763445630669594</v>
+        <v>0.04736226052045822</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7641756534576416</v>
+        <v>0.7644872665405273</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8474215269088745</v>
+        <v>0.8472452759742737</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.177637338638306</v>
+        <v>1.178161025047302</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8573734760284424</v>
+        <v>0.8574370145797729</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3536970317363739</v>
+        <v>0.3512288331985474</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1306513100862503</v>
+        <v>-0.1314250975847244</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7963082194328308</v>
+        <v>0.7953835129737854</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4749997556209564</v>
+        <v>0.474937230348587</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8985990285873413</v>
+        <v>0.898129403591156</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1427507400512695</v>
+        <v>0.1423622071743011</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.174567103385925</v>
+        <v>1.174380779266357</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7625923156738281</v>
+        <v>0.7622776031494141</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.391095757484436</v>
+        <v>1.391120076179504</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.10138463973999</v>
+        <v>1.101369261741638</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.413023829460144</v>
+        <v>1.412394404411316</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.02984026446938515</v>
+        <v>-0.03081225603818893</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.276782631874084</v>
+        <v>1.276373744010925</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.9031950831413269</v>
+        <v>0.9026293158531189</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9761181473731995</v>
+        <v>0.9751759767532349</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.025119304656982</v>
+        <v>2.025315284729004</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1232527419924736</v>
+        <v>0.1226473301649094</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3363065123558044</v>
+        <v>0.3351758718490601</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.197829961776733</v>
+        <v>1.197261810302734</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.331443190574646</v>
+        <v>-0.3322279453277588</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.113733291625977</v>
+        <v>-1.115484118461609</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2762386500835419</v>
+        <v>-0.2774878144264221</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4454851150512695</v>
+        <v>0.4451630413532257</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.086192488670349</v>
+        <v>1.086161017417908</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.506802082061768</v>
+        <v>1.509660243988037</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2555858492851257</v>
+        <v>0.2548287808895111</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.372941970825195</v>
+        <v>1.372591853141785</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.317291975021362</v>
+        <v>1.31702709197998</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.10795958340168</v>
+        <v>0.1076474562287331</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3855882883071899</v>
+        <v>-0.3855291903018951</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6954287886619568</v>
+        <v>0.6949544548988342</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.25741720199585</v>
+        <v>1.257428050041199</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.298975706100464</v>
+        <v>1.298787117004395</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.54173731803894</v>
+        <v>1.541966915130615</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.079058408737183</v>
+        <v>1.079682946205139</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9656177759170532</v>
+        <v>0.966370165348053</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1413897573947906</v>
+        <v>-0.1466330289840698</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.433850169181824</v>
+        <v>1.433318495750427</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8586487770080566</v>
+        <v>0.8584775328636169</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.280156373977661</v>
+        <v>1.280547022819519</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4578132629394531</v>
+        <v>0.4579991698265076</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6806960701942444</v>
+        <v>0.6799471974372864</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.67416512966156</v>
+        <v>1.674217820167542</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.5050764679908752</v>
+        <v>0.5058158040046692</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.342469811439514</v>
+        <v>1.343096733093262</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929001808166504</v>
+        <v>1.929261326789856</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.033262372016907</v>
+        <v>1.03390896320343</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,15 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8596912026405334</v>
+        <v>0.8602923154830933</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B892" t="n">
+        <v>0.4718576967716217</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B892"/>
+  <dimension ref="A1:B893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8033578991889954</v>
+        <v>-0.8057187795639038</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.518385171890259</v>
+        <v>-1.5207279920578</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.463327050209045</v>
+        <v>-1.463623404502869</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8696451783180237</v>
+        <v>-0.8695083260536194</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2875491082668304</v>
+        <v>0.2871738374233246</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6406043171882629</v>
+        <v>-0.6431848406791687</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.969021797180176</v>
+        <v>-1.969216823577881</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.184397459030151</v>
+        <v>-2.183206081390381</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.21327531337738</v>
+        <v>-1.21358847618103</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.937605738639832</v>
+        <v>-1.935586094856262</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.814310669898987</v>
+        <v>-1.814808368682861</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9078928232192993</v>
+        <v>-0.9094530940055847</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.856463670730591</v>
+        <v>-2.860430717468262</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.97214937210083</v>
+        <v>-3.972187042236328</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.710851073265076</v>
+        <v>-1.709768176078796</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0838111937046051</v>
+        <v>-0.08197771012783051</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2148040235042572</v>
+        <v>0.2132420241832733</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6488178968429565</v>
+        <v>0.6484711766242981</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9067482352256775</v>
+        <v>-0.9063669443130493</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2322040498256683</v>
+        <v>-0.2336057424545288</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.643165647983551</v>
+        <v>-0.6423850059509277</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6984971165657043</v>
+        <v>-0.6996971964836121</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.294348478317261</v>
+        <v>-1.293953657150269</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.538318395614624</v>
+        <v>-2.539505004882812</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.951805353164673</v>
+        <v>-2.953849792480469</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.887581348419189</v>
+        <v>-1.88602888584137</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.021432638168335</v>
+        <v>-2.01910924911499</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.576471924781799</v>
+        <v>-1.578034520149231</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7437804937362671</v>
+        <v>-0.7433061003684998</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7133877277374268</v>
+        <v>-0.7142497301101685</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.634144186973572</v>
+        <v>-1.633686423301697</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329922199249268</v>
+        <v>-1.328921794891357</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2489455491304398</v>
+        <v>-0.2512145638465881</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8696189522743225</v>
+        <v>-0.8706607818603516</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.126430988311768</v>
+        <v>-2.125377655029297</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3611054122447968</v>
+        <v>-0.360927015542984</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8665193915367126</v>
+        <v>-0.8655231595039368</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.415936589241028</v>
+        <v>-1.414961576461792</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.475178003311157</v>
+        <v>-1.475375056266785</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.388041257858276</v>
+        <v>-2.387067556381226</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.615891814231873</v>
+        <v>-1.617437481880188</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.684024333953857</v>
+        <v>-1.68543803691864</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.424374341964722</v>
+        <v>-1.423864483833313</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.545538425445557</v>
+        <v>-1.546226024627686</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.697588801383972</v>
+        <v>-1.69821298122406</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.969175100326538</v>
+        <v>-1.971370935440063</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.413896203041077</v>
+        <v>-1.416242718696594</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.596428275108337</v>
+        <v>-1.598440051078796</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.331954717636108</v>
+        <v>-2.33307933807373</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.254552125930786</v>
+        <v>-1.255406379699707</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.511243224143982</v>
+        <v>-1.512442231178284</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.863268136978149</v>
+        <v>-1.862568974494934</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.183477282524109</v>
+        <v>-1.184599280357361</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5588828325271606</v>
+        <v>-0.5595058798789978</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5464551448822021</v>
+        <v>-0.5464636087417603</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8895422220230103</v>
+        <v>-0.8907305002212524</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.470323324203491</v>
+        <v>-1.471604943275452</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9490784406661987</v>
+        <v>-0.94998699426651</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.281829595565796</v>
+        <v>-2.281929016113281</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.893569469451904</v>
+        <v>-1.894188165664673</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.808397769927979</v>
+        <v>-1.810488820075989</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.416339039802551</v>
+        <v>-1.419111490249634</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.161843776702881</v>
+        <v>-1.162675261497498</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.887777209281921</v>
+        <v>-1.88965892791748</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.220933675765991</v>
+        <v>-1.221774697303772</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.771115243434906</v>
+        <v>-0.7719486355781555</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.400673508644104</v>
+        <v>-1.402170300483704</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6550841331481934</v>
+        <v>-0.6568155884742737</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.388726681470871</v>
+        <v>-0.3905858397483826</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759576201438904</v>
+        <v>-1.759385108947754</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6097023487091064</v>
+        <v>-0.6109148263931274</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.572380542755127</v>
+        <v>-1.573607325553894</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7153740525245667</v>
+        <v>-0.7145178318023682</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5888655781745911</v>
+        <v>-0.588310718536377</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.900820732116699</v>
+        <v>-2.902108907699585</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.205061554908752</v>
+        <v>-1.205073118209839</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.005294143687933683</v>
+        <v>-0.00590958446264267</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7332773208618164</v>
+        <v>-0.7360286712646484</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8646934628486633</v>
+        <v>-0.8636450171470642</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.080406188964844</v>
+        <v>-2.081067085266113</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.003192495787516236</v>
+        <v>-0.003739492036402225</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6422759294509888</v>
+        <v>-0.6427031755447388</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2711890935897827</v>
+        <v>0.2715891599655151</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.632305979728699</v>
+        <v>-1.631542086601257</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4104946255683899</v>
+        <v>-0.4123944342136383</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5893316268920898</v>
+        <v>-0.5885350704193115</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4902030527591705</v>
+        <v>-0.4891258776187897</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8674265742301941</v>
+        <v>-0.8700200915336609</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9679297208786011</v>
+        <v>-0.9690568447113037</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7554020285606384</v>
+        <v>-0.7569047808647156</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.181398332118988</v>
+        <v>-0.1801206171512604</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.363325119018555</v>
+        <v>-2.361392974853516</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8107199668884277</v>
+        <v>-0.8101727366447449</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.404196739196777</v>
+        <v>-2.404574394226074</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.739624500274658</v>
+        <v>-1.742100715637207</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9973954558372498</v>
+        <v>-0.9980899095535278</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.575666666030884</v>
+        <v>-1.575612783432007</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.580683350563049</v>
+        <v>-1.57937479019165</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.076940774917603</v>
+        <v>-1.074996948242188</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.507759809494019</v>
+        <v>-1.509438395500183</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.171700239181519</v>
+        <v>-1.168785095214844</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1960434168577194</v>
+        <v>0.1971982419490814</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.436887979507446</v>
+        <v>-1.436718821525574</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.403473258018494</v>
+        <v>-1.403413891792297</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.11228346824646</v>
+        <v>-2.11108922958374</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.181551694869995</v>
+        <v>-1.181228876113892</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.401763319969177</v>
+        <v>-1.403549313545227</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.048542022705078</v>
+        <v>-2.050580024719238</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.91188645362854</v>
+        <v>-0.9161902070045471</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.076323747634888</v>
+        <v>-1.077893495559692</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5064439177513123</v>
+        <v>-0.5088918209075928</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9994381666183472</v>
+        <v>-0.999506413936615</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7411049008369446</v>
+        <v>-0.7441147565841675</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.603429079055786</v>
+        <v>-1.604840755462646</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8475479483604431</v>
+        <v>-0.8500033020973206</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9916865229606628</v>
+        <v>-0.9937514066696167</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1028351783752441</v>
+        <v>-0.1036351844668388</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.548091292381287</v>
+        <v>-1.55120062828064</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.601273536682129</v>
+        <v>-1.606175661087036</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.178619980812073</v>
+        <v>-1.181374669075012</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1485508382320404</v>
+        <v>0.1452816128730774</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05234647169709206</v>
+        <v>-0.05331957340240479</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8710141777992249</v>
+        <v>-0.8727723360061646</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.059812545776367</v>
+        <v>-1.058239698410034</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7845149636268616</v>
+        <v>-0.7869554162025452</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05596047267317772</v>
+        <v>0.05575976893305779</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.452116370201111</v>
+        <v>-1.452993750572205</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.06026582419872284</v>
+        <v>-0.06086579710245132</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4562573432922363</v>
+        <v>0.4565552473068237</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3862291872501373</v>
+        <v>-0.3873226344585419</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2900305092334747</v>
+        <v>0.2877056002616882</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8750183582305908</v>
+        <v>0.871461808681488</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3517242968082428</v>
+        <v>0.3511817157268524</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1415092647075653</v>
+        <v>-0.1443209201097488</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1399193406105042</v>
+        <v>-0.1413461416959763</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.146660685539246</v>
+        <v>-1.14739978313446</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.652148485183716</v>
+        <v>-1.654226422309875</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.7978652715682983</v>
+        <v>-0.8003416061401367</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8330637812614441</v>
+        <v>-0.8362586498260498</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.08433735370636</v>
+        <v>-1.084159016609192</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02136161923408508</v>
+        <v>0.01963547989726067</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8138646483421326</v>
+        <v>-0.8149047493934631</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.641084611415863</v>
+        <v>0.6392341256141663</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4814511239528656</v>
+        <v>-0.4818550944328308</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0723719447851181</v>
+        <v>0.0704575777053833</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.003932910971343517</v>
+        <v>0.001196466153487563</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3560662567615509</v>
+        <v>0.3529779314994812</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.532391548156738</v>
+        <v>-1.53310763835907</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.625775218009949</v>
+        <v>-1.627221822738647</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02847211062908173</v>
+        <v>0.02659676596522331</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4780129194259644</v>
+        <v>-0.4785252511501312</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.265076398849487</v>
+        <v>-1.264875650405884</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8944624066352844</v>
+        <v>-0.8929890394210815</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.105293482542038</v>
+        <v>-0.1069239675998688</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1264879256486893</v>
+        <v>0.1246093064546585</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.01024860423058271</v>
+        <v>0.007070592604577541</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2397573590278625</v>
+        <v>-0.2404376864433289</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8754568696022034</v>
+        <v>-0.8754108548164368</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6210522055625916</v>
+        <v>-0.6224959492683411</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7058724761009216</v>
+        <v>-0.7091188430786133</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9450076818466187</v>
+        <v>-0.947567880153656</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7887440323829651</v>
+        <v>-0.7902783155441284</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6452876329421997</v>
+        <v>-0.6477183699607849</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1314879655838013</v>
+        <v>-0.1330006122589111</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9289760589599609</v>
+        <v>-0.9290300607681274</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3858469724655151</v>
+        <v>-0.3865813016891479</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2782253324985504</v>
+        <v>0.2785247266292572</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.077356219291687</v>
+        <v>1.076740741729736</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6756070852279663</v>
+        <v>0.6760275959968567</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7743410468101501</v>
+        <v>-0.7767924070358276</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4762207865715027</v>
+        <v>-0.4786971807479858</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.07165748625993729</v>
+        <v>0.06915256381034851</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5314808487892151</v>
+        <v>-0.5316645503044128</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.724100470542908</v>
+        <v>-1.725762128829956</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.08024028688669205</v>
+        <v>0.07827751338481903</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2357131093740463</v>
+        <v>-0.2369832247495651</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1543736755847931</v>
+        <v>0.153850182890892</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.030452013015747</v>
+        <v>-1.030559420585632</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.00058925151825</v>
+        <v>-1.002956628799438</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5914766788482666</v>
+        <v>0.5885719656944275</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4536215364933014</v>
+        <v>0.4536081552505493</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4846509695053101</v>
+        <v>0.4825974404811859</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05024247989058495</v>
+        <v>-0.05013430491089821</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.127925515174866</v>
+        <v>-1.127565860748291</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.002248048782349</v>
+        <v>-1.00264835357666</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.001453876495361</v>
+        <v>-1.002662062644958</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.537266135215759</v>
+        <v>-1.536234021186829</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.936587572097778</v>
+        <v>-2.936843872070312</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9769394397735596</v>
+        <v>-0.9783179759979248</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.02059401199221611</v>
+        <v>-0.02307770773768425</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2922818064689636</v>
+        <v>-0.2935538589954376</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.02877525053918362</v>
+        <v>-0.0314369797706604</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.176763296127319</v>
+        <v>-1.179227113723755</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.385173201560974</v>
+        <v>-1.384855031967163</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3955535590648651</v>
+        <v>-0.3962348997592926</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7393699884414673</v>
+        <v>-0.7442709803581238</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1453009098768234</v>
+        <v>-0.1467697024345398</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.699955224990845</v>
+        <v>-2.698340892791748</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.70568323135376</v>
+        <v>-2.705852508544922</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.526494264602661</v>
+        <v>-1.52471399307251</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08208096027374268</v>
+        <v>0.08275685459375381</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2491655796766281</v>
+        <v>-0.2505895495414734</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.144343852996826</v>
+        <v>-1.146438360214233</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.261316776275635</v>
+        <v>-1.263372540473938</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8007249236106873</v>
+        <v>-0.8023403882980347</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.03715705871582</v>
+        <v>-3.038173198699951</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9243482351303101</v>
+        <v>-0.9272454380989075</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.591118216514587</v>
+        <v>-1.592673420906067</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.101869106292725</v>
+        <v>-2.101717472076416</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.16502845287323</v>
+        <v>-0.1673614680767059</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.078723669052124</v>
+        <v>-1.081027388572693</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.205039143562317</v>
+        <v>-1.205504536628723</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7771828174591064</v>
+        <v>-0.7770686149597168</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.239480257034302</v>
+        <v>-1.238176822662354</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.05134745687246323</v>
+        <v>0.0484798401594162</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.493102431297302</v>
+        <v>-1.494471192359924</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.02815640158951283</v>
+        <v>-0.02986558526754379</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9752360582351685</v>
+        <v>-0.9751330018043518</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.335875272750854</v>
+        <v>-2.336857795715332</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.195148944854736</v>
+        <v>-1.195278525352478</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.90108585357666</v>
+        <v>-1.903073072433472</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3329248428344727</v>
+        <v>0.332872211933136</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6907185912132263</v>
+        <v>-0.6921982765197754</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06557958573102951</v>
+        <v>-0.06590434163808823</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4833740293979645</v>
+        <v>-0.4825136661529541</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.07065345346927643</v>
+        <v>0.06969522684812546</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.038562893867493</v>
+        <v>-1.041011571884155</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7162812352180481</v>
+        <v>-0.7179933190345764</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.762574791908264</v>
+        <v>-1.764164686203003</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6029160022735596</v>
+        <v>-0.6021881699562073</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1277915835380554</v>
+        <v>-0.1277592480182648</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.5127701163291931</v>
+        <v>-0.517275869846344</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4185711145401001</v>
+        <v>-0.4197025299072266</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2600912153720856</v>
+        <v>-0.259954035282135</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2399089634418488</v>
+        <v>-0.2389292269945145</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.191747635602951</v>
+        <v>0.1922841966152191</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.01105920877307653</v>
+        <v>0.01107536442577839</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.005511380732059479</v>
+        <v>-0.00813658069819212</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.693045437335968</v>
+        <v>-0.6952035427093506</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4904078543186188</v>
+        <v>-0.4940925240516663</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.6987931132316589</v>
+        <v>-0.7000904679298401</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6854628920555115</v>
+        <v>-0.6855109930038452</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2981788218021393</v>
+        <v>-0.2965286374092102</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.51673436164856</v>
+        <v>-1.516722798347473</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.763919234275818</v>
+        <v>-1.764318108558655</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2942786514759064</v>
+        <v>-0.2936305999755859</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3937619030475616</v>
+        <v>0.3930719792842865</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3927313983440399</v>
+        <v>-0.3929971158504486</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.099168062210083</v>
+        <v>-1.101458191871643</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.229074597358704</v>
+        <v>-1.230545997619629</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.120621919631958</v>
+        <v>-1.122789859771729</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4309029281139374</v>
+        <v>-0.4340766072273254</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.308076620101929</v>
+        <v>-2.311021089553833</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.305410385131836</v>
+        <v>-1.305758357048035</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.008555463515222073</v>
+        <v>0.007013858761638403</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9501535296440125</v>
+        <v>-0.9519356489181519</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2175672054290771</v>
+        <v>-0.2186399400234222</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.448184609413147</v>
+        <v>-0.4476290345191956</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7550397515296936</v>
+        <v>0.7515740990638733</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.5013238191604614</v>
+        <v>0.4998119175434113</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.02119848318397999</v>
+        <v>0.02124813571572304</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.643580436706543</v>
+        <v>-0.644802987575531</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6110858917236328</v>
+        <v>0.6104525923728943</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.008052974939346313</v>
+        <v>0.006105177570134401</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6700104475021362</v>
+        <v>0.668117344379425</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3471862971782684</v>
+        <v>0.3441712260246277</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.7981217503547668</v>
+        <v>-0.8010988235473633</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2287950217723846</v>
+        <v>-0.2286935448646545</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03749234229326248</v>
+        <v>-0.03822052106261253</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4144487977027893</v>
+        <v>0.4147710800170898</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1247191652655602</v>
+        <v>-0.1257725805044174</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.062411189079285</v>
+        <v>1.062388896942139</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4314806163311005</v>
+        <v>-0.4287316203117371</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.039410829544067</v>
+        <v>-1.039628982543945</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.160687580704689</v>
+        <v>0.1606974452733994</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.070644736289978</v>
+        <v>-1.070438027381897</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.071326494216919</v>
+        <v>-1.070904135704041</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4176965951919556</v>
+        <v>-0.4160965979099274</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3477111756801605</v>
+        <v>0.3481312990188599</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5883758664131165</v>
+        <v>-0.5918880105018616</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.178286194801331</v>
+        <v>-1.179310202598572</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3089479207992554</v>
+        <v>0.3088820576667786</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8870687484741211</v>
+        <v>-0.8882470726966858</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2354428172111511</v>
+        <v>-0.2339444756507874</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.06975096464157104</v>
+        <v>0.0705673024058342</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.007633311673998833</v>
+        <v>-0.009448316879570484</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3967982530593872</v>
+        <v>-0.3968105912208557</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.173758745193481</v>
+        <v>-1.174030423164368</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.550723314285278</v>
+        <v>-1.554795742034912</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7643749117851257</v>
+        <v>-0.7651684880256653</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7288443446159363</v>
+        <v>-0.7287482023239136</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.240510821342468</v>
+        <v>-1.243513822555542</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2847023010253906</v>
+        <v>-0.2866041958332062</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.019917488098145</v>
+        <v>-1.022762537002563</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7476804852485657</v>
+        <v>-0.7471869587898254</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.280467391014099</v>
+        <v>-1.280714750289917</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.0006531842518597841</v>
+        <v>-0.001782030216418207</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2103935331106186</v>
+        <v>0.208356961607933</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7096736431121826</v>
+        <v>0.7064544558525085</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.36012864112854</v>
+        <v>-0.3647575974464417</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2108241021633148</v>
+        <v>-0.2124499678611755</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3737710118293762</v>
+        <v>0.372453510761261</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.022827982902527</v>
+        <v>1.021463751792908</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04267510399222374</v>
+        <v>-0.04163422808051109</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8057007193565369</v>
+        <v>-0.8061596751213074</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1608548760414124</v>
+        <v>0.1607292145490646</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3047907650470734</v>
+        <v>0.3039991855621338</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.641622006893158</v>
+        <v>0.6415098309516907</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.142190232872963</v>
+        <v>-0.1428632736206055</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08399222046136856</v>
+        <v>0.08502104878425598</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08852950483560562</v>
+        <v>-0.08932600915431976</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.122980356216431</v>
+        <v>1.12221097946167</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3794146180152893</v>
+        <v>-0.3772546947002411</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7902225255966187</v>
+        <v>0.791032612323761</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6958669424057007</v>
+        <v>0.6966906189918518</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.233936607837677</v>
+        <v>-0.2348325252532959</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.048995241522789</v>
+        <v>-0.04995110258460045</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7491498589515686</v>
+        <v>-0.7475969195365906</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09274932742118835</v>
+        <v>-0.09272123128175735</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.020873308181763</v>
+        <v>-2.020079374313354</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7118154764175415</v>
+        <v>0.7102290391921997</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5263839364051819</v>
+        <v>-0.5265963673591614</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.359237790107727</v>
+        <v>-1.35834264755249</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.268950581550598</v>
+        <v>-1.271354079246521</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9025759696960449</v>
+        <v>-0.9049369096755981</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06206008419394493</v>
+        <v>-0.06238279119133949</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1303206384181976</v>
+        <v>-0.1297432780265808</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02165766432881355</v>
+        <v>0.02216244302690029</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.8441682457923889</v>
+        <v>-0.8456986546516418</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1561440080404282</v>
+        <v>-0.1574800610542297</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9681195616722107</v>
+        <v>-0.9672310352325439</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7365033626556396</v>
+        <v>0.7371959686279297</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.297214508056641</v>
+        <v>1.298071265220642</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3412056863307953</v>
+        <v>0.3423669040203094</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08638358116149902</v>
+        <v>0.08452030271291733</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02352480031549931</v>
+        <v>0.02392475120723248</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6113815307617188</v>
+        <v>-0.6119672656059265</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5229696035385132</v>
+        <v>0.5228742957115173</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1103100627660751</v>
+        <v>-0.1096745282411575</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7017626762390137</v>
+        <v>0.7008812427520752</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7787376046180725</v>
+        <v>0.7768350839614868</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1462337821722031</v>
+        <v>0.1443516910076141</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.006329135503619909</v>
+        <v>-0.007568091154098511</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04659338667988777</v>
+        <v>0.04592860862612724</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06491120159626007</v>
+        <v>-0.06720359623432159</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6006937623023987</v>
+        <v>-0.6019693613052368</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.898971080780029</v>
+        <v>-1.900059938430786</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.048234224319458</v>
+        <v>-3.05211067199707</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.818432331085205</v>
+        <v>-1.821397304534912</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1085117682814598</v>
+        <v>0.1070128828287125</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1826221197843552</v>
+        <v>-0.1833587735891342</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7539920210838318</v>
+        <v>-0.7517926692962646</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7029426097869873</v>
+        <v>-0.7031410932540894</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5020912289619446</v>
+        <v>-0.5038666129112244</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5351464748382568</v>
+        <v>-0.5354787707328796</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6929339170455933</v>
+        <v>-0.6931971311569214</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5404847860336304</v>
+        <v>0.5380949974060059</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3828691840171814</v>
+        <v>0.3794408142566681</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4806216657161713</v>
+        <v>0.4784870743751526</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.08452041447162628</v>
+        <v>-0.08954214304685593</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.060992121696472</v>
+        <v>1.059682488441467</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3026124835014343</v>
+        <v>0.3001847863197327</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2952857315540314</v>
+        <v>0.2934045493602753</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08407143503427505</v>
+        <v>-0.08503203839063644</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.3703197538852692</v>
+        <v>-0.370902419090271</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1496671140193939</v>
+        <v>-0.1490176916122437</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.542760610580444</v>
+        <v>-1.543096899986267</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.339367389678955</v>
+        <v>1.338647603988647</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8541302084922791</v>
+        <v>0.8532124757766724</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.0009661217336542904</v>
+        <v>-0.003174782497808337</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2050497829914093</v>
+        <v>0.2014695852994919</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3246505558490753</v>
+        <v>0.3218417167663574</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6993523836135864</v>
+        <v>0.6966555714607239</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.684634804725647</v>
+        <v>0.682800829410553</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.030267238616943</v>
+        <v>1.027913451194763</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2320923805236816</v>
+        <v>0.2366975545883179</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.222999572753906</v>
+        <v>1.220930695533752</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.809962153434753</v>
+        <v>1.807499051094055</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.846246600151062</v>
+        <v>1.842133045196533</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.09005074948072433</v>
+        <v>0.08932357281446457</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8342154026031494</v>
+        <v>0.8334535360336304</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4927582442760468</v>
+        <v>0.4914582669734955</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.23819200694561</v>
+        <v>-0.2421634048223495</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1391367018222809</v>
+        <v>-0.1438771039247513</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05679182335734367</v>
+        <v>0.0548473447561264</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4913679361343384</v>
+        <v>-0.4920942187309265</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7816101312637329</v>
+        <v>-0.786516547203064</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.175151824951172</v>
+        <v>-1.176168203353882</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4388113915920258</v>
+        <v>0.4363660514354706</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8129489421844482</v>
+        <v>0.8107214570045471</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7793799042701721</v>
+        <v>-0.7813447713851929</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1425803899765015</v>
+        <v>0.1404339969158173</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.620202362537384</v>
+        <v>-0.6227006912231445</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.036126017570496</v>
+        <v>1.034516930580139</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9377371072769165</v>
+        <v>-0.9386642575263977</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2172296941280365</v>
+        <v>-0.2209067940711975</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7893676161766052</v>
+        <v>0.7901791930198669</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5977748036384583</v>
+        <v>0.5984745025634766</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6195078492164612</v>
+        <v>-0.6211534738540649</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.05043625831604</v>
+        <v>-1.053951740264893</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.00540402065962553</v>
+        <v>-0.006378982216119766</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2589122354984283</v>
+        <v>0.2587629854679108</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.6008859276771545</v>
+        <v>-0.6032093167304993</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.484155774116516</v>
+        <v>-1.48328685760498</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4365191757678986</v>
+        <v>-0.4394505620002747</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1035814955830574</v>
+        <v>-0.1063864231109619</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6984901428222656</v>
+        <v>0.699052631855011</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.48250675201416</v>
+        <v>1.481949687004089</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07517778128385544</v>
+        <v>0.07355819642543793</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9439453482627869</v>
+        <v>0.9435020089149475</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.732581257820129</v>
+        <v>1.732444167137146</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.447528600692749</v>
+        <v>1.448747396469116</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4068243503570557</v>
+        <v>0.4035733044147491</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8532008528709412</v>
+        <v>0.8505402207374573</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01479437761008739</v>
+        <v>-0.01665215007960796</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9631863236427307</v>
+        <v>0.9598531126976013</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.53039288520813</v>
+        <v>1.526216864585876</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6800149083137512</v>
+        <v>-0.6821473836898804</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.06273617595434189</v>
+        <v>-0.06541374325752258</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.194771647453308</v>
+        <v>-1.198695659637451</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4451308846473694</v>
+        <v>-0.4510260820388794</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.0735054686665535</v>
+        <v>0.0706150233745575</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8123729825019836</v>
+        <v>0.8110266923904419</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1243694871664047</v>
+        <v>0.1238872855901718</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.138667955994606</v>
+        <v>0.1375539600849152</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1850578784942627</v>
+        <v>0.1837144792079926</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.691753089427948</v>
+        <v>0.6922751665115356</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7469578385353088</v>
+        <v>0.7450951933860779</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1059676110744476</v>
+        <v>-0.1083545833826065</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.128636717796326</v>
+        <v>1.126936554908752</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.080919623374939</v>
+        <v>1.079860210418701</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7717249393463135</v>
+        <v>0.7673285007476807</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.8806069493293762</v>
+        <v>-0.8839356303215027</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4045712649822235</v>
+        <v>-0.406629353761673</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3622743189334869</v>
+        <v>0.3595485389232635</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3014888167381287</v>
+        <v>0.3004837334156036</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3019709587097168</v>
+        <v>-0.3018949031829834</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9282218813896179</v>
+        <v>0.9263811111450195</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3570578992366791</v>
+        <v>0.3566046953201294</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4664171934127808</v>
+        <v>-0.4667368531227112</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.506893515586853</v>
+        <v>-0.5089558959007263</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4688957333564758</v>
+        <v>0.4668354094028473</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9157801270484924</v>
+        <v>0.9143421053886414</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.667827010154724</v>
+        <v>-1.668718218803406</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4078865051269531</v>
+        <v>-0.4110931158065796</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08680976182222366</v>
+        <v>0.08495821803808212</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1891446113586426</v>
+        <v>-0.1891424357891083</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2130643874406815</v>
+        <v>0.210303470492363</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01832284405827522</v>
+        <v>-0.01950854808092117</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.02376734279096127</v>
+        <v>0.01880621537566185</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.583411455154419</v>
+        <v>1.580080032348633</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9646479487419128</v>
+        <v>0.9636987447738647</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.229652047157288</v>
+        <v>1.228249192237854</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6730479001998901</v>
+        <v>0.669965922832489</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.592678070068359</v>
+        <v>1.588624000549316</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7938950657844543</v>
+        <v>0.7922930121421814</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5518943071365356</v>
+        <v>0.5498713850975037</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.261126637458801</v>
+        <v>-1.263385415077209</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1098858937621117</v>
+        <v>0.1083281561732292</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4112622141838074</v>
+        <v>0.4108182787895203</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.089807391166687</v>
+        <v>-1.091801047325134</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4867069125175476</v>
+        <v>-0.4873680770397186</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2873381078243256</v>
+        <v>0.2836464047431946</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2246409505605698</v>
+        <v>-0.2251219749450684</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.316364765167236</v>
+        <v>1.312722444534302</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4113799929618835</v>
+        <v>0.4077539145946503</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5189116597175598</v>
+        <v>0.5152641534805298</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.451754450798035</v>
+        <v>1.449265956878662</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5421886444091797</v>
+        <v>-0.5444774031639099</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.07847802340984344</v>
+        <v>-0.08331560343503952</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.2086203843355179</v>
+        <v>-0.2131327837705612</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4448180794715881</v>
+        <v>0.4428431391716003</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3831667006015778</v>
+        <v>0.3815841376781464</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1688192486763</v>
+        <v>0.165849894285202</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8175663352012634</v>
+        <v>-0.8197227120399475</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.348910093307495</v>
+        <v>1.345431566238403</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.08320431411266327</v>
+        <v>0.07987619936466217</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6813381910324097</v>
+        <v>0.6785444021224976</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.327294707298279</v>
+        <v>1.324402213096619</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6537528038024902</v>
+        <v>0.6517279744148254</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2250751703977585</v>
+        <v>0.2231322526931763</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6449954509735107</v>
+        <v>0.6423929929733276</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08486004918813705</v>
+        <v>-0.08742950111627579</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4287190437316895</v>
+        <v>0.4244007170200348</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1176387071609497</v>
+        <v>-0.117812491953373</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.3624691665172577</v>
+        <v>-0.3626513183116913</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.182727098464966</v>
+        <v>1.180959224700928</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01755004934966564</v>
+        <v>0.01710552722215652</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2405165284872055</v>
+        <v>-0.2405513823032379</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.645364999771118</v>
+        <v>-1.644825100898743</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143599033355713</v>
+        <v>1.143622040748596</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.096916437149048</v>
+        <v>1.09712827205658</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1983090192079544</v>
+        <v>0.1973052322864532</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5909815430641174</v>
+        <v>0.5891016721725464</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.6418145895004272</v>
+        <v>0.642315685749054</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1556104123592377</v>
+        <v>0.151999831199646</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.130991697311401</v>
+        <v>2.128907203674316</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.936032056808472</v>
+        <v>1.935897588729858</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.009654879570007</v>
+        <v>1.008215546607971</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.08908174186944962</v>
+        <v>-0.09130854904651642</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.2992801070213318</v>
+        <v>-0.2996818125247955</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6422049999237061</v>
+        <v>0.6411833763122559</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5451929569244385</v>
+        <v>0.5432591438293457</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2624917328357697</v>
+        <v>0.2604368329048157</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3107240796089172</v>
+        <v>0.3093943893909454</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.108386158943176</v>
+        <v>1.1058509349823</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.720997154712677</v>
+        <v>0.7210399508476257</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.332320690155029</v>
+        <v>-1.333558201789856</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6581430435180664</v>
+        <v>-0.6582313179969788</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4504722952842712</v>
+        <v>0.4493961334228516</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4481558799743652</v>
+        <v>-0.4503866136074066</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.568595290184021</v>
+        <v>0.5669090747833252</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.724797248840332</v>
+        <v>1.722265720367432</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4990499913692474</v>
+        <v>0.4984120726585388</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2756985425949097</v>
+        <v>0.2745222151279449</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1218236014246941</v>
+        <v>0.1201436296105385</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.106846451759338</v>
+        <v>1.105518937110901</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.08789801597595215</v>
+        <v>-0.08974163979291916</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4998223781585693</v>
+        <v>0.4966199100017548</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1492924690246582</v>
+        <v>-0.1477897167205811</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2491588741540909</v>
+        <v>0.2455901503562927</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3546239137649536</v>
+        <v>-0.3566425144672394</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.3985472023487091</v>
+        <v>-0.3989332020282745</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9441835284233093</v>
+        <v>0.9429120421409607</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.477780818939209</v>
+        <v>-0.4807914197444916</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1330612599849701</v>
+        <v>0.1295432448387146</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.03750565275549889</v>
+        <v>-0.04027892649173737</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.649798035621643</v>
+        <v>-1.653447389602661</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5762227773666382</v>
+        <v>0.5730252265930176</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5859630107879639</v>
+        <v>-0.5886026620864868</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2631640434265137</v>
+        <v>-0.2670731246471405</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2638676464557648</v>
+        <v>-0.2638257741928101</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9332530498504639</v>
+        <v>-0.9335814118385315</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.315029144287109</v>
+        <v>-1.316186904907227</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4670402407646179</v>
+        <v>0.4639324545860291</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3278719186782837</v>
+        <v>0.327198326587677</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3647924661636353</v>
+        <v>0.3641969859600067</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2786802649497986</v>
+        <v>-0.2793786823749542</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2141853123903275</v>
+        <v>0.2106634825468063</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.1015733629465103</v>
+        <v>0.09903363883495331</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.205814599990845</v>
+        <v>-1.209871053695679</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3582503497600555</v>
+        <v>0.3536731898784637</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.02297907322645187</v>
+        <v>0.01876360364258289</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5293101072311401</v>
+        <v>0.5310919880867004</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.303327798843384</v>
+        <v>1.302501916885376</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.642137885093689</v>
+        <v>1.639131307601929</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.565477132797241</v>
+        <v>1.562555909156799</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.190989017486572</v>
+        <v>1.186885356903076</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.158216714859009</v>
+        <v>1.154412269592285</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.108722329139709</v>
+        <v>1.104068398475647</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5711295008659363</v>
+        <v>0.5690240859985352</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.216972947120667</v>
+        <v>1.214498519897461</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6390952467918396</v>
+        <v>0.6363858580589294</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.17217743396759</v>
+        <v>1.171366691589355</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.020004153251648</v>
+        <v>1.01489531993866</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3808749616146088</v>
+        <v>0.38091841340065</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4630695283412933</v>
+        <v>0.4598046839237213</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.874430775642395</v>
+        <v>-0.876014232635498</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4973462522029877</v>
+        <v>0.4943821132183075</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.743303298950195</v>
+        <v>1.742516040802002</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.5114990472793579</v>
+        <v>-0.5149948596954346</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1261468678712845</v>
+        <v>0.1224393993616104</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.006479684729129076</v>
+        <v>0.004766184370964766</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.326267600059509</v>
+        <v>1.322214007377625</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.365661859512329</v>
+        <v>1.363075256347656</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8155552744865417</v>
+        <v>0.8129417896270752</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1874789595603943</v>
+        <v>0.1861816048622131</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.222750261425972</v>
+        <v>0.2228651344776154</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.54273796081543</v>
+        <v>1.540833473205566</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.09912832081317902</v>
+        <v>-0.1001259386539459</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.584269165992737</v>
+        <v>-1.583714842796326</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1727693527936935</v>
+        <v>0.1707222312688828</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.648130536079407</v>
+        <v>1.646625399589539</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3204784691333771</v>
+        <v>-0.3219104111194611</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6306576132774353</v>
+        <v>0.6299941539764404</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>1.001930356025696</v>
+        <v>0.9997842311859131</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02451086789369583</v>
+        <v>0.02455400303006172</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.255344957113266</v>
+        <v>-0.2549102902412415</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5315228700637817</v>
+        <v>0.5318160653114319</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6123999357223511</v>
+        <v>0.6071356534957886</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.11459743976593</v>
+        <v>1.112615823745728</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1180992126464844</v>
+        <v>0.1150490120053291</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2488816231489182</v>
+        <v>-0.2504400908946991</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.8283268809318542</v>
+        <v>-0.8298230171203613</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.610844731330872</v>
+        <v>-1.610939383506775</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.112302780151367</v>
+        <v>1.111312627792358</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.235556840896606</v>
+        <v>-1.237102866172791</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.06131498515605927</v>
+        <v>0.0612863302230835</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.8365243077278137</v>
+        <v>0.8370117545127869</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4098084270954132</v>
+        <v>0.4110917150974274</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9364132285118103</v>
+        <v>0.9331513047218323</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.2059962600469589</v>
+        <v>0.205918624997139</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9741708040237427</v>
+        <v>0.9710278511047363</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1855103224515915</v>
+        <v>-0.1864304542541504</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.13862681388855</v>
+        <v>1.135598540306091</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6545817255973816</v>
+        <v>0.6504623293876648</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1829178929328918</v>
+        <v>0.1809816360473633</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07644184678792953</v>
+        <v>0.07408922165632248</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.088962912559509</v>
+        <v>-1.090204000473022</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1811427026987076</v>
+        <v>0.1790172457695007</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.084012746810913</v>
+        <v>1.082874178886414</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.680888652801514</v>
+        <v>1.676875710487366</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.074893593788147</v>
+        <v>1.072527885437012</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.291492700576782</v>
+        <v>2.290568590164185</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7103937268257141</v>
+        <v>0.7063848376274109</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.517542362213135</v>
+        <v>1.515716314315796</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.758342266082764</v>
+        <v>1.759631872177124</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.233185529708862</v>
+        <v>1.234561920166016</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8185939788818359</v>
+        <v>0.8184778094291687</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8777989149093628</v>
+        <v>0.8781005144119263</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.158790588378906</v>
+        <v>1.157959580421448</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.394092559814453</v>
+        <v>1.39328932762146</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.011297702789307</v>
+        <v>1.010939598083496</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5608376860618591</v>
+        <v>0.5616549253463745</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2216489613056183</v>
+        <v>0.2204996049404144</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.403515100479126</v>
+        <v>1.402871489524841</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.496200799942017</v>
+        <v>1.494596123695374</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6633283495903015</v>
+        <v>-0.6655858159065247</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7059362530708313</v>
+        <v>0.7033012509346008</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5409595370292664</v>
+        <v>0.5372568368911743</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3516343235969543</v>
+        <v>0.3511306345462799</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.98328959941864</v>
+        <v>1.981618762016296</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.179990768432617</v>
+        <v>1.177454113960266</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.551283836364746</v>
+        <v>1.549973130226135</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7174841165542603</v>
+        <v>0.716358482837677</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.382768392562866</v>
+        <v>1.383194208145142</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.629513680934906</v>
+        <v>0.6312004923820496</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7453548908233643</v>
+        <v>0.7425805926322937</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.432785153388977</v>
+        <v>1.431755065917969</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6912065148353577</v>
+        <v>0.6889861822128296</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007012802641838789</v>
+        <v>-0.007389374077320099</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1174899041652679</v>
+        <v>-0.1185468584299088</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8646867871284485</v>
+        <v>-0.8659352660179138</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6503635048866272</v>
+        <v>0.6482241153717041</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.16448974609375</v>
+        <v>-1.16567850112915</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8656967878341675</v>
+        <v>-0.8670253157615662</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5671344399452209</v>
+        <v>0.5663409829139709</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2506307065486908</v>
+        <v>-0.2501306533813477</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4861216843128204</v>
+        <v>0.4848223924636841</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.215294241905212</v>
+        <v>1.211942315101624</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1176824793219566</v>
+        <v>0.117199718952179</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.173948764801025</v>
+        <v>1.171519637107849</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2340942919254303</v>
+        <v>-0.2360043674707413</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.007828712463379</v>
+        <v>1.00549852848053</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.157706499099731</v>
+        <v>1.157155752182007</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8823708295822144</v>
+        <v>0.8815532922744751</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.347572207450867</v>
+        <v>1.348388433456421</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6153480410575867</v>
+        <v>0.6133047938346863</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7383125424385071</v>
+        <v>0.7374414801597595</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.283704996109009</v>
+        <v>1.282164335250854</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.9003251194953918</v>
+        <v>-0.9033050537109375</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3441041707992554</v>
+        <v>0.3411454260349274</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.095849752426147</v>
+        <v>-1.097871899604797</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7571834325790405</v>
+        <v>0.7557054162025452</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07541418075561523</v>
+        <v>0.07241712510585785</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5986565351486206</v>
+        <v>0.5959939360618591</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08723054081201553</v>
+        <v>0.08701682835817337</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.892608523368835</v>
+        <v>-1.895061492919922</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3474807739257812</v>
+        <v>0.3444198369979858</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.274771451950073</v>
+        <v>1.271298408508301</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03187699988484383</v>
+        <v>-0.03374375402927399</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.01810160838067532</v>
+        <v>-0.01972656883299351</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1320821046829224</v>
+        <v>0.1289626508951187</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6923155784606934</v>
+        <v>0.6897431015968323</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9880978465080261</v>
+        <v>0.987172544002533</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2539704144001007</v>
+        <v>-0.2549052536487579</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.03951895236969</v>
+        <v>1.038309574127197</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5077912211418152</v>
+        <v>0.5046266913414001</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.260015994310379</v>
+        <v>0.2590076625347137</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04674215987324715</v>
+        <v>-0.04787304252386093</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07903361320495605</v>
+        <v>0.07604870945215225</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1456206440925598</v>
+        <v>-0.1451728492975235</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.020304918289185</v>
+        <v>1.018434882164001</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2488621324300766</v>
+        <v>-0.2513191998004913</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7383743524551392</v>
+        <v>0.7359877228736877</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8702645301818848</v>
+        <v>0.8686783313751221</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.009461164474487</v>
+        <v>1.006938815116882</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.006929397583008</v>
+        <v>2.003781795501709</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.258079528808594</v>
+        <v>1.257167458534241</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2882339060306549</v>
+        <v>0.2850415408611298</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9627847075462341</v>
+        <v>0.9606899619102478</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4768578410148621</v>
+        <v>0.4764884114265442</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1802259236574173</v>
+        <v>0.1757925450801849</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.3993706107139587</v>
+        <v>-0.4020255208015442</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5924723148345947</v>
+        <v>0.5928719043731689</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.091301083564758</v>
+        <v>1.086899995803833</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2647044956684113</v>
+        <v>0.2627799212932587</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.214647650718689</v>
+        <v>1.214501619338989</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.304471343755722</v>
+        <v>0.3034346401691437</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2695491909980774</v>
+        <v>-0.2710971832275391</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.620100200176239</v>
+        <v>0.6166731119155884</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4389474391937256</v>
+        <v>0.4359005093574524</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8320704102516174</v>
+        <v>0.8307842016220093</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.393158495426178</v>
+        <v>0.3912963569164276</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09339820593595505</v>
+        <v>0.09147877246141434</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.191552519798279</v>
+        <v>-1.192738652229309</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7304384708404541</v>
+        <v>0.7293753027915955</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2386350035667419</v>
+        <v>0.2348924279212952</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.03268837928772</v>
+        <v>1.033723473548889</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1894022822380066</v>
+        <v>0.1871548295021057</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.326601028442383</v>
+        <v>1.323090791702271</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.212460398674011</v>
+        <v>1.20872700214386</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.029338359832764</v>
+        <v>1.026504039764404</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.6837736964225769</v>
+        <v>-0.6858568787574768</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7639787793159485</v>
+        <v>0.7616927623748779</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.620914220809937</v>
+        <v>1.618660807609558</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9453197717666626</v>
+        <v>0.9436222314834595</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.012096285820007</v>
+        <v>1.009337663650513</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4857313930988312</v>
+        <v>0.4835770726203918</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.649914026260376</v>
+        <v>0.6484565138816833</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.06356187164783478</v>
+        <v>-0.06381942331790924</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04038774222135544</v>
+        <v>-0.04451026394963264</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3762143552303314</v>
+        <v>0.375444084405899</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.529054582118988</v>
+        <v>-0.5287367105484009</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.038600444793701</v>
+        <v>-1.039749264717102</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5420824289321899</v>
+        <v>0.5422735214233398</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3373405933380127</v>
+        <v>0.3356766104698181</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2346263229846954</v>
+        <v>0.2346204966306686</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.08975348621606827</v>
+        <v>-0.09056258201599121</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.40821635723114</v>
+        <v>1.407654166221619</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.302799105644226</v>
+        <v>1.301809072494507</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.091981530189514</v>
+        <v>1.090967059135437</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.102586388587952</v>
+        <v>1.102025985717773</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6289734840393066</v>
+        <v>-0.6301020383834839</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4097677767276764</v>
+        <v>-0.4134869277477264</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.732929825782776</v>
+        <v>1.731742858886719</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3035694658756256</v>
+        <v>0.3013502657413483</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4703985452651978</v>
+        <v>0.4704938530921936</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.287835955619812</v>
+        <v>1.285564064979553</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.914535880088806</v>
+        <v>1.913185954093933</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.209215879440308</v>
+        <v>1.209462404251099</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8986112475395203</v>
+        <v>0.8967636823654175</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.05951452255249</v>
+        <v>1.057523727416992</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9487618803977966</v>
+        <v>0.9492436647415161</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.772472620010376</v>
+        <v>0.7710148692131042</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4606292545795441</v>
+        <v>0.4573905169963837</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.447600245475769</v>
+        <v>-0.4495055079460144</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04080135375261307</v>
+        <v>-0.04183157533407211</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.03832086175680161</v>
+        <v>0.03816022351384163</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2213371247053146</v>
+        <v>-0.2235214412212372</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5271747708320618</v>
+        <v>0.5268140435218811</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2534607350826263</v>
+        <v>0.2525562047958374</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.199959635734558</v>
+        <v>-1.200881958007812</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.8973305821418762</v>
+        <v>0.8957077860832214</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06758109480142593</v>
+        <v>0.06543298065662384</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02297648042440414</v>
+        <v>0.02128322795033455</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8589270710945129</v>
+        <v>0.8572116494178772</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.123056411743164</v>
+        <v>1.117594242095947</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.172119498252869</v>
+        <v>1.171902298927307</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.340660572052002</v>
+        <v>2.339703798294067</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.346732616424561</v>
+        <v>2.346270799636841</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.406571507453918</v>
+        <v>1.40559983253479</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9921431541442871</v>
+        <v>0.991944432258606</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.181841731071472</v>
+        <v>1.182024955749512</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379895806312561</v>
+        <v>1.379931211471558</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1017944365739822</v>
+        <v>0.1062184721231461</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1285935491323471</v>
+        <v>0.1301719099283218</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.045309066772461</v>
+        <v>1.046077609062195</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04646238684654236</v>
+        <v>0.04778933525085449</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2163596004247665</v>
+        <v>0.2095158249139786</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.182894349098206</v>
+        <v>1.183236598968506</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2040885835886002</v>
+        <v>0.2054209560155869</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3787781596183777</v>
+        <v>-0.3768354654312134</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3050861954689026</v>
+        <v>-0.3064379394054413</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2250967770814896</v>
+        <v>-0.2264889180660248</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.004058423452079296</v>
+        <v>0.005013851914554834</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09881459176540375</v>
+        <v>-0.09862940013408661</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.68058168888092</v>
+        <v>1.679476737976074</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.326613903045654</v>
+        <v>1.322970390319824</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.2740350961685181</v>
+        <v>-0.2767277956008911</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4214995801448822</v>
+        <v>0.4203528463840485</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9955678582191467</v>
+        <v>0.9903663396835327</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8670408129692078</v>
+        <v>0.8643713593482971</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4834021925926208</v>
+        <v>0.4838907420635223</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.165278911590576</v>
+        <v>1.165530920028687</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7329498529434204</v>
+        <v>0.7304311990737915</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9814766049385071</v>
+        <v>0.9805212020874023</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4182155132293701</v>
+        <v>0.4183232188224792</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.4946148097515106</v>
+        <v>-0.4975064396858215</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1479565352201462</v>
+        <v>-0.1498845219612122</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7528106570243835</v>
+        <v>0.7496544122695923</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9580534696578979</v>
+        <v>0.9556834101676941</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.640003085136414</v>
+        <v>1.63874626159668</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.7238419055938721</v>
+        <v>0.721316397190094</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.847133457660675</v>
+        <v>0.8480109572410583</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1191430911421776</v>
+        <v>0.1201224848628044</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.069854140281677</v>
+        <v>1.069504499435425</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7052628397941589</v>
+        <v>-0.7070242762565613</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7584397196769714</v>
+        <v>-0.7595035433769226</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1886056214570999</v>
+        <v>0.1877137124538422</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3892067074775696</v>
+        <v>0.3890388309955597</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4974690973758698</v>
+        <v>0.4952704608440399</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1335032284259796</v>
+        <v>0.1317317932844162</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4623955190181732</v>
+        <v>0.4611074030399323</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9486217498779297</v>
+        <v>0.9477924704551697</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9891324043273926</v>
+        <v>0.9855475425720215</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.005153883248567581</v>
+        <v>0.003943439107388258</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9654168486595154</v>
+        <v>0.9641304612159729</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6236008405685425</v>
+        <v>0.621752917766571</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.256990373134613</v>
+        <v>0.2543579638004303</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3324993848800659</v>
+        <v>-0.3323381245136261</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5969283580780029</v>
+        <v>0.5948063135147095</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4952687323093414</v>
+        <v>0.4943009316921234</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.449549794197083</v>
+        <v>1.447889566421509</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6137946844100952</v>
+        <v>0.609649121761322</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.687808275222778</v>
+        <v>1.687222838401794</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9082897305488586</v>
+        <v>0.9043843746185303</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.284262657165527</v>
+        <v>1.283412218093872</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.452506542205811</v>
+        <v>1.450046181678772</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.43488597869873</v>
+        <v>1.433927655220032</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.638811469078064</v>
+        <v>1.63821268081665</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8462392687797546</v>
+        <v>0.8434893488883972</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8240963220596313</v>
+        <v>0.8207475543022156</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7015786170959473</v>
+        <v>0.6978487372398376</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.1233811378479</v>
+        <v>1.122602581977844</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5527536273002625</v>
+        <v>0.5489265322685242</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.649313926696777</v>
+        <v>1.646331787109375</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.140513896942139</v>
+        <v>1.139106154441833</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.374057054519653</v>
+        <v>2.372444152832031</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.155441522598267</v>
+        <v>1.154095053672791</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.963713526725769</v>
+        <v>0.9594089984893799</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.741663932800293</v>
+        <v>2.739919185638428</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9370824098587036</v>
+        <v>0.9355347752571106</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1060775145888329</v>
+        <v>0.1041203141212463</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.031925916671753</v>
+        <v>2.030313968658447</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.03977995365858078</v>
+        <v>0.03651554882526398</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4304288923740387</v>
+        <v>-0.4321842789649963</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1476912945508957</v>
+        <v>-0.1506620198488235</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1940913945436478</v>
+        <v>-0.1961006224155426</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6060147285461426</v>
+        <v>0.6043727397918701</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6946018934249878</v>
+        <v>0.6944100856781006</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.382495045661926</v>
+        <v>1.381461024284363</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.711044907569885</v>
+        <v>1.710569620132446</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.264830708503723</v>
+        <v>1.262459397315979</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.179125189781189</v>
+        <v>1.177580833435059</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9588826894760132</v>
+        <v>0.959602952003479</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.504331111907959</v>
+        <v>1.502748131752014</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04736226052045822</v>
+        <v>0.04735028743743896</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7644872665405273</v>
+        <v>0.7642439603805542</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8472452759742737</v>
+        <v>0.8453478217124939</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.178161025047302</v>
+        <v>1.177292227745056</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8574370145797729</v>
+        <v>0.8555684685707092</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3512288331985474</v>
+        <v>0.3518275618553162</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1314250975847244</v>
+        <v>-0.1359374821186066</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7953835129737854</v>
+        <v>0.7923628091812134</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.474937230348587</v>
+        <v>0.4731700420379639</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.898129403591156</v>
+        <v>0.8968182802200317</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1423622071743011</v>
+        <v>0.1417803466320038</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.174380779266357</v>
+        <v>1.174000978469849</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7622776031494141</v>
+        <v>0.7615811228752136</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.391120076179504</v>
+        <v>1.388535499572754</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.101369261741638</v>
+        <v>1.098566651344299</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.412394404411316</v>
+        <v>1.410753965377808</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.03081225603818893</v>
+        <v>-0.03541257232427597</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.276373744010925</v>
+        <v>1.27474319934845</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.9026293158531189</v>
+        <v>0.8992101550102234</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9751759767532349</v>
+        <v>0.9739238619804382</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.025315284729004</v>
+        <v>2.023388385772705</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1226473301649094</v>
+        <v>0.1212813183665276</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3351758718490601</v>
+        <v>0.3326977491378784</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.197261810302734</v>
+        <v>1.196796298027039</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3322279453277588</v>
+        <v>-0.3350837826728821</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.115484118461609</v>
+        <v>-1.117953300476074</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2774878144264221</v>
+        <v>-0.2808724641799927</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4451630413532257</v>
+        <v>0.4441722631454468</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.086161017417908</v>
+        <v>1.085643768310547</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.509660243988037</v>
+        <v>1.506338477134705</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2548287808895111</v>
+        <v>0.2527395486831665</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.372591853141785</v>
+        <v>1.370086789131165</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.31702709197998</v>
+        <v>1.315680146217346</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1076474562287331</v>
+        <v>0.1060787364840508</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3855291903018951</v>
+        <v>-0.3831523656845093</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6949544548988342</v>
+        <v>0.6955695748329163</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.257428050041199</v>
+        <v>1.256774544715881</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.298787117004395</v>
+        <v>1.297117233276367</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.541966915130615</v>
+        <v>1.541338920593262</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.079682946205139</v>
+        <v>1.07844865322113</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.966370165348053</v>
+        <v>0.9648525714874268</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1466330289840698</v>
+        <v>-0.1481161117553711</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.433318495750427</v>
+        <v>1.432329177856445</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8584775328636169</v>
+        <v>0.8567034602165222</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.280547022819519</v>
+        <v>1.279977083206177</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4579991698265076</v>
+        <v>0.4581645429134369</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6799471974372864</v>
+        <v>0.6782882213592529</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.674217820167542</v>
+        <v>1.674273729324341</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.5058158040046692</v>
+        <v>0.50736403465271</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.343096733093262</v>
+        <v>1.343549609184265</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929261326789856</v>
+        <v>1.929179430007935</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.03390896320343</v>
+        <v>1.032647013664246</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8602923154830933</v>
+        <v>0.8595195412635803</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,15 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>0.4718576967716217</v>
+        <v>0.4724299013614655</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B893" t="n">
+        <v>1.193197846412659</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B893"/>
+  <dimension ref="A1:B894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8057187795639038</v>
+        <v>-0.8072771430015564</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.5207279920578</v>
+        <v>-1.521509051322937</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.463623404502869</v>
+        <v>-1.464016556739807</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8695083260536194</v>
+        <v>-0.8710129261016846</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2871738374233246</v>
+        <v>0.2864990234375</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6431848406791687</v>
+        <v>-0.6442676186561584</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.969216823577881</v>
+        <v>-1.969792127609253</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.183206081390381</v>
+        <v>-2.182216882705688</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.21358847618103</v>
+        <v>-1.213690638542175</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.935586094856262</v>
+        <v>-1.93510115146637</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.814808368682861</v>
+        <v>-1.815382361412048</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9094530940055847</v>
+        <v>-0.910056471824646</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.860430717468262</v>
+        <v>-2.861471891403198</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.972187042236328</v>
+        <v>-3.971840620040894</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.709768176078796</v>
+        <v>-1.710096478462219</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08197771012783051</v>
+        <v>-0.08418215066194534</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2132420241832733</v>
+        <v>0.2123130112886429</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6484711766242981</v>
+        <v>0.6471428871154785</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9063669443130493</v>
+        <v>-0.9072701930999756</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2336057424545288</v>
+        <v>-0.2349031120538712</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6423850059509277</v>
+        <v>-0.6432346701622009</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6996971964836121</v>
+        <v>-0.6993289589881897</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.293953657150269</v>
+        <v>-1.293952584266663</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.539505004882812</v>
+        <v>-2.540115118026733</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.953849792480469</v>
+        <v>-2.954645872116089</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.88602888584137</v>
+        <v>-1.886396765708923</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.01910924911499</v>
+        <v>-2.018703699111938</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.578034520149231</v>
+        <v>-1.578763008117676</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7433061003684998</v>
+        <v>-0.7476605772972107</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7142497301101685</v>
+        <v>-0.7150242924690247</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.633686423301697</v>
+        <v>-1.634470343589783</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.328921794891357</v>
+        <v>-1.329071760177612</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2512145638465881</v>
+        <v>-0.2520657777786255</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8706607818603516</v>
+        <v>-0.8702133893966675</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.125377655029297</v>
+        <v>-2.12495493888855</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.360927015542984</v>
+        <v>-0.3610589206218719</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8655231595039368</v>
+        <v>-0.8663087487220764</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.414961576461792</v>
+        <v>-1.415671467781067</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.475375056266785</v>
+        <v>-1.476264953613281</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.387067556381226</v>
+        <v>-2.387655973434448</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.617437481880188</v>
+        <v>-1.623823404312134</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.68543803691864</v>
+        <v>-1.686423301696777</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.423864483833313</v>
+        <v>-1.424110770225525</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.546226024627686</v>
+        <v>-1.547576546669006</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.69821298122406</v>
+        <v>-1.699290156364441</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.971370935440063</v>
+        <v>-1.972134232521057</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.416242718696594</v>
+        <v>-1.417454838752747</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.598440051078796</v>
+        <v>-1.599268317222595</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.33307933807373</v>
+        <v>-2.334234237670898</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.255406379699707</v>
+        <v>-1.256159424781799</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.512442231178284</v>
+        <v>-1.51404881477356</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.862568974494934</v>
+        <v>-1.862917184829712</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.184599280357361</v>
+        <v>-1.19037926197052</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5595058798789978</v>
+        <v>-0.5598067045211792</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5464636087417603</v>
+        <v>-0.5473941564559937</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8907305002212524</v>
+        <v>-0.8908102512359619</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.471604943275452</v>
+        <v>-1.473124265670776</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.94998699426651</v>
+        <v>-0.9499337077140808</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.281929016113281</v>
+        <v>-2.281848192214966</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.894188165664673</v>
+        <v>-1.895042538642883</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.810488820075989</v>
+        <v>-1.811704277992249</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.419111490249634</v>
+        <v>-1.421470046043396</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.162675261497498</v>
+        <v>-1.163702130317688</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.88965892791748</v>
+        <v>-1.890208601951599</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.221774697303772</v>
+        <v>-1.228253483772278</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7719486355781555</v>
+        <v>-0.7723045349121094</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.402170300483704</v>
+        <v>-1.403297781944275</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6568155884742737</v>
+        <v>-0.6583693623542786</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3905858397483826</v>
+        <v>-0.3921831548213959</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759385108947754</v>
+        <v>-1.759201765060425</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6109148263931274</v>
+        <v>-0.6116361618041992</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.573607325553894</v>
+        <v>-1.573969602584839</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7145178318023682</v>
+        <v>-0.7156528830528259</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.588310718536377</v>
+        <v>-0.5888909697532654</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.902108907699585</v>
+        <v>-2.901900053024292</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.205073118209839</v>
+        <v>-1.205765604972839</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.00590958446264267</v>
+        <v>-0.007904834114015102</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7360286712646484</v>
+        <v>-0.7376554012298584</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8636450171470642</v>
+        <v>-0.8638598918914795</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.081067085266113</v>
+        <v>-2.081478118896484</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.003739492036402225</v>
+        <v>-0.004431485198438168</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6427031755447388</v>
+        <v>-0.6431578397750854</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2715891599655151</v>
+        <v>0.2716608643531799</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.631542086601257</v>
+        <v>-1.631259560585022</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4123944342136383</v>
+        <v>-0.4137564301490784</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5885350704193115</v>
+        <v>-0.5891065001487732</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4891258776187897</v>
+        <v>-0.4899251759052277</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8700200915336609</v>
+        <v>-0.8700134754180908</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9690568447113037</v>
+        <v>-0.9742108583450317</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7569047808647156</v>
+        <v>-0.7584890723228455</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1801206171512604</v>
+        <v>-0.1808007508516312</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.361392974853516</v>
+        <v>-2.360743522644043</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8101727366447449</v>
+        <v>-0.8103087544441223</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.404574394226074</v>
+        <v>-2.403797626495361</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.742100715637207</v>
+        <v>-1.743050813674927</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9980899095535278</v>
+        <v>-0.9983948469161987</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.575612783432007</v>
+        <v>-1.575824856758118</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.57937479019165</v>
+        <v>-1.579147934913635</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.074996948242188</v>
+        <v>-1.075316667556763</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.509438395500183</v>
+        <v>-1.509268641471863</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.168785095214844</v>
+        <v>-1.174925327301025</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1971982419490814</v>
+        <v>0.1971516311168671</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.436718821525574</v>
+        <v>-1.437053203582764</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.403413891792297</v>
+        <v>-1.404802083969116</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.11108922958374</v>
+        <v>-2.112119436264038</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.181228876113892</v>
+        <v>-1.181166887283325</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.403549313545227</v>
+        <v>-1.404238939285278</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.050580024719238</v>
+        <v>-2.051278352737427</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9161902070045471</v>
+        <v>-0.9180663228034973</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.077893495559692</v>
+        <v>-1.078038811683655</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5088918209075928</v>
+        <v>-0.5098648071289062</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.999506413936615</v>
+        <v>-0.9996387958526611</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7441147565841675</v>
+        <v>-0.7460098266601562</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.604840755462646</v>
+        <v>-1.605695486068726</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8500033020973206</v>
+        <v>-0.8516002893447876</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9937514066696167</v>
+        <v>-0.994567334651947</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1036351844668388</v>
+        <v>-0.1046500951051712</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.55120062828064</v>
+        <v>-1.553165197372437</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.606175661087036</v>
+        <v>-1.607901573181152</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.181374669075012</v>
+        <v>-1.1829993724823</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1452816128730774</v>
+        <v>0.1431637406349182</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05331957340240479</v>
+        <v>-0.05358093231916428</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8727723360061646</v>
+        <v>-0.8733077049255371</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.058239698410034</v>
+        <v>-1.060086369514465</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7869554162025452</v>
+        <v>-0.790336549282074</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05575976893305779</v>
+        <v>0.05454495921730995</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.452993750572205</v>
+        <v>-1.453574299812317</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.06086579710245132</v>
+        <v>-0.06192400678992271</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4565552473068237</v>
+        <v>0.4550316631793976</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3873226344585419</v>
+        <v>-0.3881186842918396</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2877056002616882</v>
+        <v>0.2865228056907654</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.871461808681488</v>
+        <v>0.8696266412734985</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3511817157268524</v>
+        <v>0.3502500057220459</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1443209201097488</v>
+        <v>-0.1464999467134476</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1413461416959763</v>
+        <v>-0.1422566771507263</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.14739978313446</v>
+        <v>-1.148958563804626</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.654226422309875</v>
+        <v>-1.659217715263367</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.8003416061401367</v>
+        <v>-0.8006241917610168</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8362586498260498</v>
+        <v>-0.8376904726028442</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.084159016609192</v>
+        <v>-1.084804534912109</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01963547989726067</v>
+        <v>0.01820195093750954</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8149047493934631</v>
+        <v>-0.8155032992362976</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6392341256141663</v>
+        <v>0.6379358768463135</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4818550944328308</v>
+        <v>-0.4817565083503723</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0704575777053833</v>
+        <v>0.06896372139453888</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.001196466153487563</v>
+        <v>0.0001767117355484515</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3529779314994812</v>
+        <v>0.3510835468769073</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.53310763835907</v>
+        <v>-1.533504366874695</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.627221822738647</v>
+        <v>-1.635155916213989</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02659676596522331</v>
+        <v>0.02580667845904827</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4785252511501312</v>
+        <v>-0.4795749187469482</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.264875650405884</v>
+        <v>-1.265118956565857</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8929890394210815</v>
+        <v>-0.8927203416824341</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1069239675998688</v>
+        <v>-0.1078876778483391</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1246093064546585</v>
+        <v>0.1232493296265602</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.007070592604577541</v>
+        <v>0.00521426647901535</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2404376864433289</v>
+        <v>-0.2427951991558075</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8754108548164368</v>
+        <v>-0.875859797000885</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6224959492683411</v>
+        <v>-0.6239154934883118</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7091188430786133</v>
+        <v>-0.7090847492218018</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.947567880153656</v>
+        <v>-0.9526681900024414</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7902783155441284</v>
+        <v>-0.7913177013397217</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6477183699607849</v>
+        <v>-0.6492213010787964</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1330006122589111</v>
+        <v>-0.1336766183376312</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9290300607681274</v>
+        <v>-0.9297754764556885</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3865813016891479</v>
+        <v>-0.3874818980693817</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2785247266292572</v>
+        <v>0.2779371440410614</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.076740741729736</v>
+        <v>1.075788259506226</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6760275959968567</v>
+        <v>0.6756017804145813</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7767924070358276</v>
+        <v>-0.778031051158905</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4786971807479858</v>
+        <v>-0.4803754985332489</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06915256381034851</v>
+        <v>0.06822235137224197</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5316645503044128</v>
+        <v>-0.5363964438438416</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.725762128829956</v>
+        <v>-1.726947665214539</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07827751338481903</v>
+        <v>0.07752488553524017</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2369832247495651</v>
+        <v>-0.2381198853254318</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.153850182890892</v>
+        <v>0.1525028795003891</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.030559420585632</v>
+        <v>-1.029545426368713</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.002956628799438</v>
+        <v>-1.004006147384644</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5885719656944275</v>
+        <v>0.5871154069900513</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4536081552505493</v>
+        <v>0.4520386457443237</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4825974404811859</v>
+        <v>0.4814620614051819</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05013430491089821</v>
+        <v>-0.05184472352266312</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.127565860748291</v>
+        <v>-1.129374146461487</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.00264835357666</v>
+        <v>-1.006224393844604</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.002662062644958</v>
+        <v>-1.003622174263</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.536234021186829</v>
+        <v>-1.536880016326904</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.936843872070312</v>
+        <v>-2.937051773071289</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9783179759979248</v>
+        <v>-0.9794154167175293</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.02307770773768425</v>
+        <v>-0.0245574489235878</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2935538589954376</v>
+        <v>-0.2949784100055695</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.0314369797706604</v>
+        <v>-0.03341881185770035</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.179227113723755</v>
+        <v>-1.180204272270203</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.384855031967163</v>
+        <v>-1.386139631271362</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3962348997592926</v>
+        <v>-0.3968318998813629</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7442709803581238</v>
+        <v>-0.7443878054618835</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1467697024345398</v>
+        <v>-0.1484107971191406</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.698340892791748</v>
+        <v>-2.697559356689453</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.705852508544922</v>
+        <v>-2.705154418945312</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.52471399307251</v>
+        <v>-1.525498390197754</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08275685459375381</v>
+        <v>0.08250640332698822</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2505895495414734</v>
+        <v>-0.2512790262699127</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.146438360214233</v>
+        <v>-1.147101640701294</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.263372540473938</v>
+        <v>-1.264546394348145</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8023403882980347</v>
+        <v>-0.8039801120758057</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.038173198699951</v>
+        <v>-3.039610862731934</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9272454380989075</v>
+        <v>-0.9276248216629028</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.592673420906067</v>
+        <v>-1.593897938728333</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.101717472076416</v>
+        <v>-2.111076593399048</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1673614680767059</v>
+        <v>-0.1696197241544724</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.081027388572693</v>
+        <v>-1.082859873771667</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.205504536628723</v>
+        <v>-1.206182956695557</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7770686149597168</v>
+        <v>-0.7777953147888184</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.238176822662354</v>
+        <v>-1.238814473152161</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0484798401594162</v>
+        <v>0.04667381942272186</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.494471192359924</v>
+        <v>-1.495244741439819</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.02986558526754379</v>
+        <v>-0.03140599653124809</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9751330018043518</v>
+        <v>-0.9752752780914307</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.336857795715332</v>
+        <v>-2.337194919586182</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.195278525352478</v>
+        <v>-1.196690917015076</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.903073072433472</v>
+        <v>-1.911958813667297</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.332872211933136</v>
+        <v>0.3318607807159424</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6921982765197754</v>
+        <v>-0.6934659481048584</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06590434163808823</v>
+        <v>-0.06664618849754333</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4825136661529541</v>
+        <v>-0.4826374053955078</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.06969522684812546</v>
+        <v>0.06900128722190857</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.041011571884155</v>
+        <v>-1.042044878005981</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7179933190345764</v>
+        <v>-0.7193493247032166</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.764164686203003</v>
+        <v>-1.764298677444458</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6021881699562073</v>
+        <v>-0.6022656559944153</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1277592480182648</v>
+        <v>-0.1276915967464447</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.517275869846344</v>
+        <v>-0.5179644823074341</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4197025299072266</v>
+        <v>-0.4241108000278473</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.259954035282135</v>
+        <v>-0.2596027255058289</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2389292269945145</v>
+        <v>-0.2391245514154434</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1922841966152191</v>
+        <v>0.1924356073141098</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.01107536442577839</v>
+        <v>0.009869935922324657</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.00813658069819212</v>
+        <v>-0.009186973795294762</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.6952035427093506</v>
+        <v>-0.6963142156600952</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4940925240516663</v>
+        <v>-0.4954701662063599</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.7000904679298401</v>
+        <v>-0.7009343504905701</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6855109930038452</v>
+        <v>-0.6866713166236877</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2965286374092102</v>
+        <v>-0.2956319451332092</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.516722798347473</v>
+        <v>-1.516958117485046</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.764318108558655</v>
+        <v>-1.77225935459137</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2936305999755859</v>
+        <v>-0.2941088080406189</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3930719792842865</v>
+        <v>0.3920750916004181</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3929971158504486</v>
+        <v>-0.3935925662517548</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.101458191871643</v>
+        <v>-1.103114366531372</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.230545997619629</v>
+        <v>-1.231409192085266</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.122789859771729</v>
+        <v>-1.124112248420715</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4340766072273254</v>
+        <v>-0.4353868663311005</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.311021089553833</v>
+        <v>-2.312134265899658</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.305758357048035</v>
+        <v>-1.306884407997131</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.007013858761638403</v>
+        <v>0.006221982650458813</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9519356489181519</v>
+        <v>-0.9530505537986755</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2186399400234222</v>
+        <v>-0.2218458354473114</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4476290345191956</v>
+        <v>-0.4487373232841492</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7515740990638733</v>
+        <v>0.7499597668647766</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4998119175434113</v>
+        <v>0.4989903569221497</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.02124813571572304</v>
+        <v>0.01963861845433712</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.644802987575531</v>
+        <v>-0.6462794542312622</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6104525923728943</v>
+        <v>0.6100528836250305</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.006105177570134401</v>
+        <v>0.005430947989225388</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.668117344379425</v>
+        <v>0.6673620939254761</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3441712260246277</v>
+        <v>0.3420317471027374</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.8010988235473633</v>
+        <v>-0.8019730448722839</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2286935448646545</v>
+        <v>-0.2298185527324677</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.03822052106261253</v>
+        <v>-0.04016752913594246</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4147710800170898</v>
+        <v>0.4148067533969879</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1257725805044174</v>
+        <v>-0.1269582957029343</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.062388896942139</v>
+        <v>1.061793565750122</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4287316203117371</v>
+        <v>-0.4285236001014709</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.039628982543945</v>
+        <v>-1.039817929267883</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1606974452733994</v>
+        <v>0.1615875512361526</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.070438027381897</v>
+        <v>-1.070768117904663</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.070904135704041</v>
+        <v>-1.071266651153564</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4160965979099274</v>
+        <v>-0.4164340794086456</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3481312990188599</v>
+        <v>0.3472962379455566</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5918880105018616</v>
+        <v>-0.5915956497192383</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.179310202598572</v>
+        <v>-1.185726404190063</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3088820576667786</v>
+        <v>0.308375358581543</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8882470726966858</v>
+        <v>-0.8891603350639343</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2339444756507874</v>
+        <v>-0.2337467521429062</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.0705673024058342</v>
+        <v>0.07005318254232407</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.009448316879570484</v>
+        <v>-0.00951406080275774</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3968105912208557</v>
+        <v>-0.3973238468170166</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.174030423164368</v>
+        <v>-1.174615979194641</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.554795742034912</v>
+        <v>-1.556559920310974</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7651684880256653</v>
+        <v>-0.7666067481040955</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7287482023239136</v>
+        <v>-0.7288668155670166</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.243513822555542</v>
+        <v>-1.24468982219696</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2866041958332062</v>
+        <v>-0.2882785797119141</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.022762537002563</v>
+        <v>-1.025025844573975</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7471869587898254</v>
+        <v>-0.7480555176734924</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.280714750289917</v>
+        <v>-1.281159043312073</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.001782030216418207</v>
+        <v>-0.003534499322995543</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.208356961607933</v>
+        <v>0.2073147296905518</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7064544558525085</v>
+        <v>0.7050639390945435</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3647575974464417</v>
+        <v>-0.3664276003837585</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2124499678611755</v>
+        <v>-0.2134343385696411</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.372453510761261</v>
+        <v>0.3715010583400726</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.021463751792908</v>
+        <v>1.020424723625183</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04163422808051109</v>
+        <v>-0.04303960129618645</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8061596751213074</v>
+        <v>-0.8111157417297363</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1607292145490646</v>
+        <v>0.1607101410627365</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3039991855621338</v>
+        <v>0.3039388656616211</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6415098309516907</v>
+        <v>0.6416753530502319</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1428632736206055</v>
+        <v>-0.1431339830160141</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08502104878425598</v>
+        <v>0.08561064302921295</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08932600915431976</v>
+        <v>-0.08914782106876373</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.12221097946167</v>
+        <v>1.121606349945068</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3772546947002411</v>
+        <v>-0.3771148324012756</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.791032612323761</v>
+        <v>0.79076087474823</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6966906189918518</v>
+        <v>0.6962078213691711</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2348325252532959</v>
+        <v>-0.2352185845375061</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.04995110258460045</v>
+        <v>-0.05266859009861946</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7475969195365906</v>
+        <v>-0.7480248808860779</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09272123128175735</v>
+        <v>-0.09319275617599487</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.020079374313354</v>
+        <v>-2.020446062088013</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7102290391921997</v>
+        <v>0.7088643312454224</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5265963673591614</v>
+        <v>-0.5258869528770447</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.35834264755249</v>
+        <v>-1.357828617095947</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.271354079246521</v>
+        <v>-1.271974325180054</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9049369096755981</v>
+        <v>-0.9057375192642212</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06238279119133949</v>
+        <v>-0.06359383463859558</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1297432780265808</v>
+        <v>-0.1293705254793167</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02216244302690029</v>
+        <v>0.02114146761596203</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.8456986546516418</v>
+        <v>-0.8497803211212158</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1574800610542297</v>
+        <v>-0.1583160609006882</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9672310352325439</v>
+        <v>-0.9672415256500244</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7371959686279297</v>
+        <v>0.7369676232337952</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.298071265220642</v>
+        <v>1.297484755516052</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3423669040203094</v>
+        <v>0.3422155380249023</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08452030271291733</v>
+        <v>0.08360613882541656</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02392475120723248</v>
+        <v>0.02302132360637188</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6119672656059265</v>
+        <v>-0.6128818988800049</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5228742957115173</v>
+        <v>0.5222551822662354</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1096745282411575</v>
+        <v>-0.1095970198512077</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7008812427520752</v>
+        <v>0.6996378898620605</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7768350839614868</v>
+        <v>0.7783549427986145</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1443516910076141</v>
+        <v>0.1427398920059204</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.007568091154098511</v>
+        <v>-0.009730036370456219</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04592860862612724</v>
+        <v>0.04504486173391342</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06720359623432159</v>
+        <v>-0.06935020536184311</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6019693613052368</v>
+        <v>-0.6035386323928833</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.900059938430786</v>
+        <v>-1.899923205375671</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.05211067199707</v>
+        <v>-3.053296327590942</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.821397304534912</v>
+        <v>-1.822713255882263</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1070128828287125</v>
+        <v>0.1059445887804031</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1833587735891342</v>
+        <v>-0.1836417317390442</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7517926692962646</v>
+        <v>-0.7537854313850403</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7031410932540894</v>
+        <v>-0.707483172416687</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5038666129112244</v>
+        <v>-0.5052857398986816</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5354787707328796</v>
+        <v>-0.5363006591796875</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6931971311569214</v>
+        <v>-0.6937977075576782</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5380949974060059</v>
+        <v>0.535132884979248</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3794408142566681</v>
+        <v>0.3770654201507568</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4784870743751526</v>
+        <v>0.4771242141723633</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.08954214304685593</v>
+        <v>-0.09109622240066528</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.059682488441467</v>
+        <v>1.058715105056763</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.3001847863197327</v>
+        <v>0.2988763451576233</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2934045493602753</v>
+        <v>0.2929596304893494</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08503203839063644</v>
+        <v>-0.0856265053153038</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.370902419090271</v>
+        <v>-0.375333160161972</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1490176916122437</v>
+        <v>-0.1496424227952957</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.543096899986267</v>
+        <v>-1.544188618659973</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.338647603988647</v>
+        <v>1.337575078010559</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8532124757766724</v>
+        <v>0.8522509932518005</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.003174782497808337</v>
+        <v>-0.005059859249740839</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2014695852994919</v>
+        <v>0.2002928853034973</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3218417167663574</v>
+        <v>0.3207187652587891</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6966555714607239</v>
+        <v>0.6956634521484375</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.682800829410553</v>
+        <v>0.681904673576355</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.027913451194763</v>
+        <v>1.027673006057739</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2366975545883179</v>
+        <v>0.2355563044548035</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.220930695533752</v>
+        <v>1.223617315292358</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.807499051094055</v>
+        <v>1.80678391456604</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.842133045196533</v>
+        <v>1.839772701263428</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08932357281446457</v>
+        <v>0.08726566284894943</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8334535360336304</v>
+        <v>0.8323961496353149</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4914582669734955</v>
+        <v>0.4901177585124969</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.2421634048223495</v>
+        <v>-0.2433332204818726</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1438771039247513</v>
+        <v>-0.1455351412296295</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.0548473447561264</v>
+        <v>0.05408278480172157</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4920942187309265</v>
+        <v>-0.4928301870822906</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.786516547203064</v>
+        <v>-0.7889230251312256</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.176168203353882</v>
+        <v>-1.176870822906494</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4363660514354706</v>
+        <v>0.43430495262146</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8107214570045471</v>
+        <v>0.8091943860054016</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7813447713851929</v>
+        <v>-0.7823212742805481</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1404339969158173</v>
+        <v>0.1395642310380936</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6227006912231445</v>
+        <v>-0.6239292025566101</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.034516930580139</v>
+        <v>1.034427404403687</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9386642575263977</v>
+        <v>-0.9395987391471863</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2209067940711975</v>
+        <v>-0.2221747636795044</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7901791930198669</v>
+        <v>0.7895910143852234</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5984745025634766</v>
+        <v>0.5976459980010986</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6211534738540649</v>
+        <v>-0.621508002281189</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.053951740264893</v>
+        <v>-1.054575204849243</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.006378982216119766</v>
+        <v>-0.008566071279346943</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2587629854679108</v>
+        <v>0.2590415775775909</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.6032093167304993</v>
+        <v>-0.6040464043617249</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.48328685760498</v>
+        <v>-1.484088659286499</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4394505620002747</v>
+        <v>-0.4410729110240936</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1063864231109619</v>
+        <v>-0.107407808303833</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.699052631855011</v>
+        <v>0.698594868183136</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.481949687004089</v>
+        <v>1.481104850769043</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07355819642543793</v>
+        <v>0.07307641208171844</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9435020089149475</v>
+        <v>0.9430305361747742</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.732444167137146</v>
+        <v>1.73152756690979</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.448747396469116</v>
+        <v>1.446387052536011</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4035733044147491</v>
+        <v>0.4033966064453125</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8505402207374573</v>
+        <v>0.8495136499404907</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01665215007960796</v>
+        <v>-0.01806062273681164</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9598531126976013</v>
+        <v>0.9580618739128113</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.526216864585876</v>
+        <v>1.523844003677368</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6821473836898804</v>
+        <v>-0.6841068863868713</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.06541374325752258</v>
+        <v>-0.0669429749250412</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.198695659637451</v>
+        <v>-1.199615955352783</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4510260820388794</v>
+        <v>-0.4530231058597565</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.0706150233745575</v>
+        <v>0.06899169087409973</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8110266923904419</v>
+        <v>0.8103722929954529</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1238872855901718</v>
+        <v>0.1235305666923523</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1375539600849152</v>
+        <v>0.1352055817842484</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1837144792079926</v>
+        <v>0.1830881834030151</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6922751665115356</v>
+        <v>0.69111168384552</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7450951933860779</v>
+        <v>0.744817852973938</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1083545833826065</v>
+        <v>-0.1089678928256035</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.126936554908752</v>
+        <v>1.126161336898804</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.079860210418701</v>
+        <v>1.079211831092834</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7673285007476807</v>
+        <v>0.7657623291015625</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.8839356303215027</v>
+        <v>-0.8852846026420593</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.406629353761673</v>
+        <v>-0.4081732928752899</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3595485389232635</v>
+        <v>0.359300285577774</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.3004837334156036</v>
+        <v>0.299363374710083</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3018949031829834</v>
+        <v>-0.3056706488132477</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9263811111450195</v>
+        <v>0.9257329702377319</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3566046953201294</v>
+        <v>0.3559475243091583</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4667368531227112</v>
+        <v>-0.4664024710655212</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5089558959007263</v>
+        <v>-0.5101154446601868</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4668354094028473</v>
+        <v>0.4651816189289093</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9143421053886414</v>
+        <v>0.913999080657959</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.668718218803406</v>
+        <v>-1.667914032936096</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4110931158065796</v>
+        <v>-0.4119402170181274</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08495821803808212</v>
+        <v>0.0836561918258667</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1891424357891083</v>
+        <v>-0.1899196803569794</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.210303470492363</v>
+        <v>0.2101997435092926</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.01950854808092117</v>
+        <v>-0.02282183058559895</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.01880621537566185</v>
+        <v>0.01792985387146473</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.580080032348633</v>
+        <v>1.578021049499512</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9636987447738647</v>
+        <v>0.9641691446304321</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.228249192237854</v>
+        <v>1.226933360099792</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.669965922832489</v>
+        <v>0.6695346236228943</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.588624000549316</v>
+        <v>1.587068438529968</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7922930121421814</v>
+        <v>0.7917017340660095</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5498713850975037</v>
+        <v>0.5490869879722595</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.263385415077209</v>
+        <v>-1.264092445373535</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1083281561732292</v>
+        <v>0.1081966236233711</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4108182787895203</v>
+        <v>0.409461498260498</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.091801047325134</v>
+        <v>-1.097243309020996</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4873680770397186</v>
+        <v>-0.4891297817230225</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2836464047431946</v>
+        <v>0.2819201350212097</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2251219749450684</v>
+        <v>-0.2265587151050568</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.312722444534302</v>
+        <v>1.310785889625549</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4077539145946503</v>
+        <v>0.4071868062019348</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5152641534805298</v>
+        <v>0.5132086873054504</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.449265956878662</v>
+        <v>1.448264360427856</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5444774031639099</v>
+        <v>-0.5446394681930542</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.08331560343503952</v>
+        <v>-0.08506505936384201</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.2131327837705612</v>
+        <v>-0.2152419537305832</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4428431391716003</v>
+        <v>0.4418768286705017</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3815841376781464</v>
+        <v>0.3794058859348297</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.165849894285202</v>
+        <v>0.1647135615348816</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8197227120399475</v>
+        <v>-0.8218711018562317</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.345431566238403</v>
+        <v>1.344117403030396</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.07987619936466217</v>
+        <v>0.07777336984872818</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6785444021224976</v>
+        <v>0.6777514219284058</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.324402213096619</v>
+        <v>1.323564410209656</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6517279744148254</v>
+        <v>0.6510752439498901</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2231322526931763</v>
+        <v>0.2224330306053162</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6423929929733276</v>
+        <v>0.6406654119491577</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08742950111627579</v>
+        <v>-0.08879952877759933</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4244007170200348</v>
+        <v>0.4240522980690002</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.117812491953373</v>
+        <v>-0.1211734041571617</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.3626513183116913</v>
+        <v>-0.3627090752124786</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.180959224700928</v>
+        <v>1.180687665939331</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01710552722215652</v>
+        <v>0.01663109473884106</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2405513823032379</v>
+        <v>-0.2399402558803558</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.644825100898743</v>
+        <v>-1.644054055213928</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143622040748596</v>
+        <v>1.143655300140381</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.09712827205658</v>
+        <v>1.096226811408997</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1973052322864532</v>
+        <v>0.196219265460968</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5891016721725464</v>
+        <v>0.5876800417900085</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.642315685749054</v>
+        <v>0.6419076323509216</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.151999831199646</v>
+        <v>0.1519096195697784</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.128907203674316</v>
+        <v>2.135030746459961</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.935897588729858</v>
+        <v>1.935166478157043</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.008215546607971</v>
+        <v>1.008013486862183</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.09130854904651642</v>
+        <v>-0.09177496284246445</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.2996818125247955</v>
+        <v>-0.3000723123550415</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6411833763122559</v>
+        <v>0.6412166357040405</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5432591438293457</v>
+        <v>0.5420342087745667</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2604368329048157</v>
+        <v>0.2590895891189575</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3093943893909454</v>
+        <v>0.3086727857589722</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.1058509349823</v>
+        <v>1.104381322860718</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7210399508476257</v>
+        <v>0.720170795917511</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.333558201789856</v>
+        <v>-1.3342524766922</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6582313179969788</v>
+        <v>-0.6633020639419556</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4493961334228516</v>
+        <v>0.4482949078083038</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4503866136074066</v>
+        <v>-0.4505177736282349</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5669090747833252</v>
+        <v>0.5657686591148376</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.722265720367432</v>
+        <v>1.720171570777893</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4984120726585388</v>
+        <v>0.4975910782814026</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2745222151279449</v>
+        <v>0.2730692923069</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1201436296105385</v>
+        <v>0.1190611869096756</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.105518937110901</v>
+        <v>1.104787826538086</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.08974163979291916</v>
+        <v>-0.0901075005531311</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4966199100017548</v>
+        <v>0.4948525726795197</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1477897167205811</v>
+        <v>-0.1488912105560303</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2455901503562927</v>
+        <v>0.2452304065227509</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3566425144672394</v>
+        <v>-0.3583172559738159</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.3989332020282745</v>
+        <v>-0.3993062973022461</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9429120421409607</v>
+        <v>0.9422499537467957</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.4807914197444916</v>
+        <v>-0.4820959866046906</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1295432448387146</v>
+        <v>0.1273938715457916</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.04027892649173737</v>
+        <v>-0.04146146774291992</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.653447389602661</v>
+        <v>-1.655125617980957</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5730252265930176</v>
+        <v>0.5715299844741821</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5886026620864868</v>
+        <v>-0.5895479321479797</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2670731246471405</v>
+        <v>-0.2696845233440399</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2638257741928101</v>
+        <v>-0.2645000219345093</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9335814118385315</v>
+        <v>-0.9392216205596924</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.316186904907227</v>
+        <v>-1.316609025001526</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4639324545860291</v>
+        <v>0.463242769241333</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.327198326587677</v>
+        <v>0.3266076147556305</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3641969859600067</v>
+        <v>0.362816333770752</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2793786823749542</v>
+        <v>-0.2807710766792297</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2106634825468063</v>
+        <v>0.2097658962011337</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.09903363883495331</v>
+        <v>0.09780274331569672</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.209871053695679</v>
+        <v>-1.211513161659241</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3536731898784637</v>
+        <v>0.352037250995636</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.01876360364258289</v>
+        <v>0.01682648994028568</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5310919880867004</v>
+        <v>0.5288617610931396</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.302501916885376</v>
+        <v>1.305364847183228</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.639131307601929</v>
+        <v>1.637058973312378</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.562555909156799</v>
+        <v>1.561862111091614</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.186885356903076</v>
+        <v>1.185068845748901</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.154412269592285</v>
+        <v>1.15278947353363</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.104068398475647</v>
+        <v>1.102427840232849</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5690240859985352</v>
+        <v>0.5676895380020142</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.214498519897461</v>
+        <v>1.213232517242432</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6363858580589294</v>
+        <v>0.635304868221283</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.171366691589355</v>
+        <v>1.17051374912262</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.01489531993866</v>
+        <v>1.012251377105713</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.38091841340065</v>
+        <v>0.3789577782154083</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4598046839237213</v>
+        <v>0.4587041735649109</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.876014232635498</v>
+        <v>-0.8764185905456543</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4943821132183075</v>
+        <v>0.4930509030818939</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.742516040802002</v>
+        <v>1.741405129432678</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.5149948596954346</v>
+        <v>-0.5178935527801514</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1224393993616104</v>
+        <v>0.1205848902463913</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.004766184370964766</v>
+        <v>0.004404006991535425</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.322214007377625</v>
+        <v>1.320018887519836</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.363075256347656</v>
+        <v>1.362098813056946</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8129417896270752</v>
+        <v>0.8119577169418335</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1861816048622131</v>
+        <v>0.185072049498558</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2228651344776154</v>
+        <v>0.2221427112817764</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.540833473205566</v>
+        <v>1.544191837310791</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.1001259386539459</v>
+        <v>-0.1016886457800865</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.583714842796326</v>
+        <v>-1.584206700325012</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1707222312688828</v>
+        <v>0.1694656163454056</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.646625399589539</v>
+        <v>1.64569354057312</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3219104111194611</v>
+        <v>-0.3225001394748688</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6299941539764404</v>
+        <v>0.6298812627792358</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>0.9997842311859131</v>
+        <v>0.9981527328491211</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02455400303006172</v>
+        <v>0.02412769384682178</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2549102902412415</v>
+        <v>-0.2556300163269043</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5318160653114319</v>
+        <v>0.5310245752334595</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6071356534957886</v>
+        <v>0.606702446937561</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.112615823745728</v>
+        <v>1.114948153495789</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1150490120053291</v>
+        <v>0.1148310750722885</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2504400908946991</v>
+        <v>-0.2507135570049286</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.8298230171203613</v>
+        <v>-0.8308606147766113</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.610939383506775</v>
+        <v>-1.6103276014328</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.111312627792358</v>
+        <v>1.110236644744873</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.237102866172791</v>
+        <v>-1.238465189933777</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.0612863302230835</v>
+        <v>0.06110389158129692</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.8370117545127869</v>
+        <v>0.8363384008407593</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4110917150974274</v>
+        <v>0.4110227227210999</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9331513047218323</v>
+        <v>0.9316548705101013</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.205918624997139</v>
+        <v>0.203526183962822</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9710278511047363</v>
+        <v>0.9717282652854919</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1864304542541504</v>
+        <v>-0.1874309927225113</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.135598540306091</v>
+        <v>1.13313615322113</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6504623293876648</v>
+        <v>0.648592472076416</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1809816360473633</v>
+        <v>0.1793607771396637</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07408922165632248</v>
+        <v>0.07252547144889832</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.090204000473022</v>
+        <v>-1.09136962890625</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1790172457695007</v>
+        <v>0.1780888736248016</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.082874178886414</v>
+        <v>1.081633567810059</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.676875710487366</v>
+        <v>1.675792813301086</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.072527885437012</v>
+        <v>1.071373462677002</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.290568590164185</v>
+        <v>2.2895827293396</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7063848376274109</v>
+        <v>0.7053183317184448</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.515716314315796</v>
+        <v>1.51595664024353</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.759631872177124</v>
+        <v>1.759466409683228</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.234561920166016</v>
+        <v>1.234548926353455</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8184778094291687</v>
+        <v>0.8183807134628296</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8781005144119263</v>
+        <v>0.8782827854156494</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.157959580421448</v>
+        <v>1.157878637313843</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.39328932762146</v>
+        <v>1.392542243003845</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.010939598083496</v>
+        <v>1.010894775390625</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5616549253463745</v>
+        <v>0.5615565180778503</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2204996049404144</v>
+        <v>0.2207162082195282</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.402871489524841</v>
+        <v>1.401333332061768</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.494596123695374</v>
+        <v>1.496974229812622</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6655858159065247</v>
+        <v>-0.6662236452102661</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7033012509346008</v>
+        <v>0.7023298740386963</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5372568368911743</v>
+        <v>0.5355962514877319</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3511306345462799</v>
+        <v>0.3505281507968903</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.981618762016296</v>
+        <v>1.9812331199646</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.177454113960266</v>
+        <v>1.176910638809204</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.549973130226135</v>
+        <v>1.548413395881653</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.716358482837677</v>
+        <v>0.7144986391067505</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.383194208145142</v>
+        <v>1.383054971694946</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.6312004923820496</v>
+        <v>0.6318330764770508</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7425805926322937</v>
+        <v>0.7421806454658508</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.431755065917969</v>
+        <v>1.433396816253662</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6889861822128296</v>
+        <v>0.6876957416534424</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007389374077320099</v>
+        <v>-0.007111361250281334</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1185468584299088</v>
+        <v>-0.1188879460096359</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8659352660179138</v>
+        <v>-0.8663808703422546</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6482241153717041</v>
+        <v>0.6469892859458923</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.16567850112915</v>
+        <v>-1.166243553161621</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8670253157615662</v>
+        <v>-0.8675007224082947</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5663409829139709</v>
+        <v>0.5651525259017944</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2501306533813477</v>
+        <v>-0.2506571114063263</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4848223924636841</v>
+        <v>0.4845357239246368</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.211942315101624</v>
+        <v>1.210678458213806</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.117199718952179</v>
+        <v>0.1156822219491005</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.171519637107849</v>
+        <v>1.170318484306335</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2360043674707413</v>
+        <v>-0.2376562654972076</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.00549852848053</v>
+        <v>1.004120826721191</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.157155752182007</v>
+        <v>1.156841039657593</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8815532922744751</v>
+        <v>0.8807482719421387</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.348388433456421</v>
+        <v>1.347896218299866</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6133047938346863</v>
+        <v>0.6122233867645264</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7374414801597595</v>
+        <v>0.7365658283233643</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.282164335250854</v>
+        <v>1.28102695941925</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.9033050537109375</v>
+        <v>-0.9046710133552551</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3411454260349274</v>
+        <v>0.3401495814323425</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.097871899604797</v>
+        <v>-1.105504274368286</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7557054162025452</v>
+        <v>0.7549583911895752</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07241712510585785</v>
+        <v>0.07156721502542496</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5959939360618591</v>
+        <v>0.5944496393203735</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08701682835817337</v>
+        <v>0.086668960750103</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.895061492919922</v>
+        <v>-1.896036267280579</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3444198369979858</v>
+        <v>0.3428233861923218</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.271298408508301</v>
+        <v>1.269428133964539</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03374375402927399</v>
+        <v>-0.03460466489195824</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.01972656883299351</v>
+        <v>-0.02045453898608685</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1289626508951187</v>
+        <v>0.1281271278858185</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6897431015968323</v>
+        <v>0.6889753937721252</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.987172544002533</v>
+        <v>0.9856914877891541</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2549052536487579</v>
+        <v>-0.2557612061500549</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.038309574127197</v>
+        <v>1.037536978721619</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5046266913414001</v>
+        <v>0.5036044120788574</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2590076625347137</v>
+        <v>0.2582130134105682</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04787304252386093</v>
+        <v>-0.04913655668497086</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07604870945215225</v>
+        <v>0.07423411309719086</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1451728492975235</v>
+        <v>-0.1448370665311813</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.018434882164001</v>
+        <v>1.017171144485474</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2513191998004913</v>
+        <v>-0.2514533698558807</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7359877228736877</v>
+        <v>0.7349180579185486</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8686783313751221</v>
+        <v>0.8677641749382019</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.006938815116882</v>
+        <v>1.007351756095886</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.003781795501709</v>
+        <v>2.00245475769043</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.257167458534241</v>
+        <v>1.255712509155273</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2850415408611298</v>
+        <v>0.283931702375412</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9606899619102478</v>
+        <v>0.9585766196250916</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4764884114265442</v>
+        <v>0.4760227501392365</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1757925450801849</v>
+        <v>0.1750628054141998</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.4020255208015442</v>
+        <v>-0.4032584726810455</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5928719043731689</v>
+        <v>0.5924397706985474</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.086899995803833</v>
+        <v>1.085426449775696</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2627799212932587</v>
+        <v>0.2614997327327728</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.214501619338989</v>
+        <v>1.212494373321533</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3034346401691437</v>
+        <v>0.3019965589046478</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2710971832275391</v>
+        <v>-0.2719280123710632</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6166731119155884</v>
+        <v>0.6156399250030518</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4359005093574524</v>
+        <v>0.434512197971344</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8307842016220093</v>
+        <v>0.8312252759933472</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3912963569164276</v>
+        <v>0.3916634619235992</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09147877246141434</v>
+        <v>0.09035808593034744</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.192738652229309</v>
+        <v>-1.192468523979187</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7293753027915955</v>
+        <v>0.7289102673530579</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2348924279212952</v>
+        <v>0.2339666187763214</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.033723473548889</v>
+        <v>1.033417105674744</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1871548295021057</v>
+        <v>0.187223881483078</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.323090791702271</v>
+        <v>1.327803373336792</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.20872700214386</v>
+        <v>1.206682801246643</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.026504039764404</v>
+        <v>1.02471649646759</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.6858568787574768</v>
+        <v>-0.6866618990898132</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7616927623748779</v>
+        <v>0.7605688571929932</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.618660807609558</v>
+        <v>1.616950035095215</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9436222314834595</v>
+        <v>0.9427284598350525</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.009337663650513</v>
+        <v>1.007290720939636</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4835770726203918</v>
+        <v>0.4832490086555481</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6484565138816833</v>
+        <v>0.6470510959625244</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.06381942331790924</v>
+        <v>-0.0638180673122406</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04451026394963264</v>
+        <v>-0.04517544433474541</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.375444084405899</v>
+        <v>0.3730423152446747</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5287367105484009</v>
+        <v>-0.5297884345054626</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.039749264717102</v>
+        <v>-1.039268016815186</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5422735214233398</v>
+        <v>0.5421638488769531</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3356766104698181</v>
+        <v>0.335920125246048</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2346204966306686</v>
+        <v>0.2340339869260788</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.09056258201599121</v>
+        <v>-0.09116289019584656</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.407654166221619</v>
+        <v>1.4071946144104</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.301809072494507</v>
+        <v>1.301213145256042</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.090967059135437</v>
+        <v>1.090389251708984</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.102025985717773</v>
+        <v>1.102061748504639</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6301020383834839</v>
+        <v>-0.6304665803909302</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4134869277477264</v>
+        <v>-0.4144974052906036</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.731742858886719</v>
+        <v>1.730529546737671</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3013502657413483</v>
+        <v>0.2999581098556519</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4704938530921936</v>
+        <v>0.4686018526554108</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.285564064979553</v>
+        <v>1.285755038261414</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.913185954093933</v>
+        <v>1.912564873695374</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.209462404251099</v>
+        <v>1.209200501441956</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8967636823654175</v>
+        <v>0.8962082266807556</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.057523727416992</v>
+        <v>1.055943131446838</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9492436647415161</v>
+        <v>0.9489632248878479</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7710148692131042</v>
+        <v>0.77022784948349</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4573905169963837</v>
+        <v>0.4569790661334991</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4495055079460144</v>
+        <v>-0.4522319138050079</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04183157533407211</v>
+        <v>-0.04235883429646492</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.03816022351384163</v>
+        <v>0.03753223270177841</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2235214412212372</v>
+        <v>-0.2241963148117065</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5268140435218811</v>
+        <v>0.5272472500801086</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2525562047958374</v>
+        <v>0.2501508593559265</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.200881958007812</v>
+        <v>-1.203075766563416</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.8957077860832214</v>
+        <v>0.8942608833312988</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06543298065662384</v>
+        <v>0.06426011770963669</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02128322795033455</v>
+        <v>0.0205597747117281</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8572116494178772</v>
+        <v>0.8559570908546448</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.117594242095947</v>
+        <v>1.117723822593689</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.171902298927307</v>
+        <v>1.173957109451294</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.339703798294067</v>
+        <v>2.338581323623657</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.346270799636841</v>
+        <v>2.34548807144165</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.40559983253479</v>
+        <v>1.40513026714325</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.991944432258606</v>
+        <v>0.9909687042236328</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.182024955749512</v>
+        <v>1.181761980056763</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379931211471558</v>
+        <v>1.379663467407227</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1062184721231461</v>
+        <v>0.1066541373729706</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1301719099283218</v>
+        <v>0.1304204016923904</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.046077609062195</v>
+        <v>1.045536875724792</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04778933525085449</v>
+        <v>0.04814433306455612</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2095158249139786</v>
+        <v>0.2089789062738419</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.183236598968506</v>
+        <v>1.184502959251404</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2054209560155869</v>
+        <v>0.2047902196645737</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3768354654312134</v>
+        <v>-0.3775957822799683</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3064379394054413</v>
+        <v>-0.3068778514862061</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2264889180660248</v>
+        <v>-0.2272233068943024</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.005013851914554834</v>
+        <v>0.004954139236360788</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09862940013408661</v>
+        <v>-0.09852936118841171</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.679476737976074</v>
+        <v>1.679053068161011</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.322970390319824</v>
+        <v>1.321231245994568</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.2767277956008911</v>
+        <v>-0.278514951467514</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4203528463840485</v>
+        <v>0.4204336702823639</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9903663396835327</v>
+        <v>0.9902435541152954</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8643713593482971</v>
+        <v>0.8637775778770447</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4838907420635223</v>
+        <v>0.4828203320503235</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.165530920028687</v>
+        <v>1.164595365524292</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7304311990737915</v>
+        <v>0.7294617891311646</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9805212020874023</v>
+        <v>0.9803543090820312</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4183232188224792</v>
+        <v>0.4171153008937836</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.4975064396858215</v>
+        <v>-0.498193770647049</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1498845219612122</v>
+        <v>-0.1511339247226715</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7496544122695923</v>
+        <v>0.748843789100647</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9556834101676941</v>
+        <v>0.9542402029037476</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.63874626159668</v>
+        <v>1.638755559921265</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.721316397190094</v>
+        <v>0.7205758690834045</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8480109572410583</v>
+        <v>0.846940815448761</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1201224848628044</v>
+        <v>0.1196974813938141</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.069504499435425</v>
+        <v>1.069204807281494</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7070242762565613</v>
+        <v>-0.7074918746948242</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7595035433769226</v>
+        <v>-0.7589513063430786</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1877137124538422</v>
+        <v>0.1869646161794662</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3890388309955597</v>
+        <v>0.388077586889267</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4952704608440399</v>
+        <v>0.4939236640930176</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1317317932844162</v>
+        <v>0.1302100867033005</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4611074030399323</v>
+        <v>0.4600833356380463</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9477924704551697</v>
+        <v>0.9467727541923523</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9855475425720215</v>
+        <v>0.9854871034622192</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.003943439107388258</v>
+        <v>1.84723630809458e-05</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9641304612159729</v>
+        <v>0.9635482430458069</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.621752917766571</v>
+        <v>0.6205403208732605</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2543579638004303</v>
+        <v>0.2522249817848206</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3323381245136261</v>
+        <v>-0.3329029977321625</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5948063135147095</v>
+        <v>0.5931292176246643</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4943009316921234</v>
+        <v>0.4930616915225983</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.447889566421509</v>
+        <v>1.447027683258057</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.609649121761322</v>
+        <v>0.6085759997367859</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.687222838401794</v>
+        <v>1.685834646224976</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9043843746185303</v>
+        <v>0.9026670455932617</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.283412218093872</v>
+        <v>1.281894326210022</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.450046181678772</v>
+        <v>1.451217412948608</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.433927655220032</v>
+        <v>1.432311654090881</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.63821268081665</v>
+        <v>1.636185526847839</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8434893488883972</v>
+        <v>0.8412450551986694</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8207475543022156</v>
+        <v>0.8180023431777954</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.6978487372398376</v>
+        <v>0.697018027305603</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.122602581977844</v>
+        <v>1.121797561645508</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5489265322685242</v>
+        <v>0.5470818281173706</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.646331787109375</v>
+        <v>1.644581317901611</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.139106154441833</v>
+        <v>1.137348532676697</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.372444152832031</v>
+        <v>2.37186861038208</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.154095053672791</v>
+        <v>1.152856707572937</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9594089984893799</v>
+        <v>0.9596776962280273</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.739919185638428</v>
+        <v>2.740443706512451</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9355347752571106</v>
+        <v>0.9345481395721436</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1041203141212463</v>
+        <v>0.1039563789963722</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.030313968658447</v>
+        <v>2.03002142906189</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.03651554882526398</v>
+        <v>0.03550586104393005</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4321842789649963</v>
+        <v>-0.4326415359973907</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1506620198488235</v>
+        <v>-0.1513168811798096</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1961006224155426</v>
+        <v>-0.1973962783813477</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6043727397918701</v>
+        <v>0.603685736656189</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6944100856781006</v>
+        <v>0.6957257390022278</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.381461024284363</v>
+        <v>1.380059361457825</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.710569620132446</v>
+        <v>1.71186363697052</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.262459397315979</v>
+        <v>1.260903477668762</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.177580833435059</v>
+        <v>1.176685214042664</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.959602952003479</v>
+        <v>0.9587545394897461</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.502748131752014</v>
+        <v>1.501046419143677</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04735028743743896</v>
+        <v>0.04712784662842751</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7642439603805542</v>
+        <v>0.7636721730232239</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8453478217124939</v>
+        <v>0.8441202044487</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.177292227745056</v>
+        <v>1.176501274108887</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8555684685707092</v>
+        <v>0.8548635244369507</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3518275618553162</v>
+        <v>0.351505845785141</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1359374821186066</v>
+        <v>-0.1367603987455368</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7923628091812134</v>
+        <v>0.7917433381080627</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4731700420379639</v>
+        <v>0.4730291366577148</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8968182802200317</v>
+        <v>0.8964394927024841</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1417803466320038</v>
+        <v>0.1414730846881866</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.174000978469849</v>
+        <v>1.172433018684387</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7615811228752136</v>
+        <v>0.7611385583877563</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.388535499572754</v>
+        <v>1.387292146682739</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.098566651344299</v>
+        <v>1.097824454307556</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.410753965377808</v>
+        <v>1.409402132034302</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.03541257232427597</v>
+        <v>-0.03666948899626732</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.27474319934845</v>
+        <v>1.275040626525879</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.8992101550102234</v>
+        <v>0.8985298871994019</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9739238619804382</v>
+        <v>0.9729067087173462</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.023388385772705</v>
+        <v>2.022150278091431</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1212813183665276</v>
+        <v>0.1207017228007317</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3326977491378784</v>
+        <v>0.3318464756011963</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.196796298027039</v>
+        <v>1.195225596427917</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3350837826728821</v>
+        <v>-0.3360163271427155</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.117953300476074</v>
+        <v>-1.118881821632385</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2808724641799927</v>
+        <v>-0.2820082008838654</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4441722631454468</v>
+        <v>0.4438854157924652</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.085643768310547</v>
+        <v>1.085741996765137</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.506338477134705</v>
+        <v>1.505000352859497</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2527395486831665</v>
+        <v>0.2524048388004303</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.370086789131165</v>
+        <v>1.368485927581787</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.315680146217346</v>
+        <v>1.31489098072052</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1060787364840508</v>
+        <v>0.1055679172277451</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3831523656845093</v>
+        <v>-0.3826203346252441</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6955695748329163</v>
+        <v>0.6951994299888611</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.256774544715881</v>
+        <v>1.256639003753662</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.297117233276367</v>
+        <v>1.296701669692993</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.541338920593262</v>
+        <v>1.540705680847168</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.07844865322113</v>
+        <v>1.077520847320557</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9648525714874268</v>
+        <v>0.9646338224411011</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1481161117553711</v>
+        <v>-0.1483778655529022</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.432329177856445</v>
+        <v>1.430937886238098</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8567034602165222</v>
+        <v>0.8564097285270691</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.279977083206177</v>
+        <v>1.280030131340027</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4581645429134369</v>
+        <v>0.4592661261558533</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6782882213592529</v>
+        <v>0.6772609353065491</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.674273729324341</v>
+        <v>1.673362255096436</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.50736403465271</v>
+        <v>0.508260190486908</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.343549609184265</v>
+        <v>1.343719244003296</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929179430007935</v>
+        <v>1.928528070449829</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.032647013664246</v>
+        <v>1.031757831573486</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8595195412635803</v>
+        <v>0.8592965602874756</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>0.4724299013614655</v>
+        <v>0.4724223911762238</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,15 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>1.193197846412659</v>
+        <v>1.193242430686951</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B894" t="n">
+        <v>0.8607470989227295</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B894"/>
+  <dimension ref="A1:B895"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8072771430015564</v>
+        <v>-0.8071804046630859</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.521509051322937</v>
+        <v>-1.52178692817688</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.464016556739807</v>
+        <v>-1.464308977127075</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8710129261016846</v>
+        <v>-0.8710979223251343</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2864990234375</v>
+        <v>0.2867491841316223</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6442676186561584</v>
+        <v>-0.6456372737884521</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.969792127609253</v>
+        <v>-1.970499277114868</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.182216882705688</v>
+        <v>-2.183298587799072</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.213690638542175</v>
+        <v>-1.214242577552795</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.93510115146637</v>
+        <v>-1.936282515525818</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.815382361412048</v>
+        <v>-1.815810441970825</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.910056471824646</v>
+        <v>-0.9102442860603333</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.861471891403198</v>
+        <v>-2.862187623977661</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.971840620040894</v>
+        <v>-3.973559141159058</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.710096478462219</v>
+        <v>-1.710662245750427</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08418215066194534</v>
+        <v>-0.08376075327396393</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2123130112886429</v>
+        <v>0.2128668576478958</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6471428871154785</v>
+        <v>0.6483749747276306</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9072701930999756</v>
+        <v>-0.9077186584472656</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2349031120538712</v>
+        <v>-0.2348948270082474</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6432346701622009</v>
+        <v>-0.6436441540718079</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6993289589881897</v>
+        <v>-0.699720561504364</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.293952584266663</v>
+        <v>-1.294458627700806</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.540115118026733</v>
+        <v>-2.540942668914795</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.954645872116089</v>
+        <v>-2.955630779266357</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.886396765708923</v>
+        <v>-1.887406945228577</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.018703699111938</v>
+        <v>-2.019680023193359</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.578763008117676</v>
+        <v>-1.579317331314087</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7476605772972107</v>
+        <v>-0.7481938600540161</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7150242924690247</v>
+        <v>-0.7179293036460876</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.634470343589783</v>
+        <v>-1.634993672370911</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329071760177612</v>
+        <v>-1.329874753952026</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2520657777786255</v>
+        <v>-0.2519154250621796</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8702133893966675</v>
+        <v>-0.8705273866653442</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.12495493888855</v>
+        <v>-2.126006364822388</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3610589206218719</v>
+        <v>-0.3610726594924927</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8663087487220764</v>
+        <v>-0.8665933609008789</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.415671467781067</v>
+        <v>-1.416243314743042</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.476264953613281</v>
+        <v>-1.476168036460876</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.387655973434448</v>
+        <v>-2.388374090194702</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.623823404312134</v>
+        <v>-1.623805999755859</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.686423301696777</v>
+        <v>-1.691163301467896</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.424110770225525</v>
+        <v>-1.424558043479919</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.547576546669006</v>
+        <v>-1.547795176506042</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.699290156364441</v>
+        <v>-1.699605464935303</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.972134232521057</v>
+        <v>-1.97258734703064</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.417454838752747</v>
+        <v>-1.417875528335571</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.599268317222595</v>
+        <v>-1.599669575691223</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.334234237670898</v>
+        <v>-2.33481240272522</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.256159424781799</v>
+        <v>-1.256425499916077</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.51404881477356</v>
+        <v>-1.514605522155762</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.862917184829712</v>
+        <v>-1.863201975822449</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.19037926197052</v>
+        <v>-1.190991401672363</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5598067045211792</v>
+        <v>-0.5634071230888367</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5473941564559937</v>
+        <v>-0.5476071238517761</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8908102512359619</v>
+        <v>-0.8909401893615723</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.473124265670776</v>
+        <v>-1.47321343421936</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9499337077140808</v>
+        <v>-0.9503061771392822</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.281848192214966</v>
+        <v>-2.28284764289856</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.895042538642883</v>
+        <v>-1.895407319068909</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.811704277992249</v>
+        <v>-1.812098383903503</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.421470046043396</v>
+        <v>-1.421442151069641</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.163702130317688</v>
+        <v>-1.164102435112</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.890208601951599</v>
+        <v>-1.891029119491577</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.228253483772278</v>
+        <v>-1.228686809539795</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7723045349121094</v>
+        <v>-0.776153564453125</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.403297781944275</v>
+        <v>-1.403713345527649</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6583693623542786</v>
+        <v>-0.6582753658294678</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3921831548213959</v>
+        <v>-0.39182248711586</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759201765060425</v>
+        <v>-1.760069727897644</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6116361618041992</v>
+        <v>-0.6117738485336304</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.573969602584839</v>
+        <v>-1.574493408203125</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7156528830528259</v>
+        <v>-0.7159618139266968</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5888909697532654</v>
+        <v>-0.5891249179840088</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.901900053024292</v>
+        <v>-2.903219699859619</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.205765604972839</v>
+        <v>-1.20623254776001</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.007904834114015102</v>
+        <v>-0.007740659639239311</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7376554012298584</v>
+        <v>-0.7393088340759277</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8638598918914795</v>
+        <v>-0.8643507361412048</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.081478118896484</v>
+        <v>-2.082223415374756</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.004431485198438168</v>
+        <v>-0.004489018581807613</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6431578397750854</v>
+        <v>-0.6431763172149658</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2716608643531799</v>
+        <v>0.2718580365180969</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.631259560585022</v>
+        <v>-1.632060050964355</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4137564301490784</v>
+        <v>-0.4135213196277618</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5891065001487732</v>
+        <v>-0.5895275473594666</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4899251759052277</v>
+        <v>-0.4901463091373444</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8700134754180908</v>
+        <v>-0.8704069852828979</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9742108583450317</v>
+        <v>-0.9747807383537292</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7584890723228455</v>
+        <v>-0.7609342932701111</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1808007508516312</v>
+        <v>-0.1810103207826614</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.360743522644043</v>
+        <v>-2.362372398376465</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8103087544441223</v>
+        <v>-0.810863196849823</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.403797626495361</v>
+        <v>-2.404858350753784</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.743050813674927</v>
+        <v>-1.743510484695435</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9983948469161987</v>
+        <v>-0.9989214539527893</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.575824856758118</v>
+        <v>-1.576388597488403</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.579147934913635</v>
+        <v>-1.579823136329651</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.075316667556763</v>
+        <v>-1.075839161872864</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.509268641471863</v>
+        <v>-1.510082483291626</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.174925327301025</v>
+        <v>-1.175693392753601</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1971516311168671</v>
+        <v>0.1989750415086746</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.437053203582764</v>
+        <v>-1.437525868415833</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.404802083969116</v>
+        <v>-1.405022859573364</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.112119436264038</v>
+        <v>-2.113090753555298</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.181166887283325</v>
+        <v>-1.181943535804749</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.404238939285278</v>
+        <v>-1.404763579368591</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.051278352737427</v>
+        <v>-2.051784992218018</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9180663228034973</v>
+        <v>-0.917881190776825</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.078038811683655</v>
+        <v>-1.077986717224121</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5098648071289062</v>
+        <v>-0.5098081827163696</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9996387958526611</v>
+        <v>-0.9997690916061401</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7460098266601562</v>
+        <v>-0.7458372712135315</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.605695486068726</v>
+        <v>-1.61051607131958</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8516002893447876</v>
+        <v>-0.8511760234832764</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.994567334651947</v>
+        <v>-0.9942620396614075</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1046500951051712</v>
+        <v>-0.1042712479829788</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.553165197372437</v>
+        <v>-1.553416728973389</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.607901573181152</v>
+        <v>-1.607760310173035</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.1829993724823</v>
+        <v>-1.183175206184387</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1431637406349182</v>
+        <v>0.1435845941305161</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05358093231916428</v>
+        <v>-0.05342071130871773</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8733077049255371</v>
+        <v>-0.8735436797142029</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.060086369514465</v>
+        <v>-1.059743165969849</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.790336549282074</v>
+        <v>-0.7904295921325684</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05454495921730995</v>
+        <v>0.05357161164283752</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.453574299812317</v>
+        <v>-1.454056262969971</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.06192400678992271</v>
+        <v>-0.06196003407239914</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4550316631793976</v>
+        <v>0.4554322361946106</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3881186842918396</v>
+        <v>-0.3881983757019043</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2865228056907654</v>
+        <v>0.2872563898563385</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8696266412734985</v>
+        <v>0.8705075979232788</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3502500057220459</v>
+        <v>0.3506737053394318</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1464999467134476</v>
+        <v>-0.1460420042276382</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1422566771507263</v>
+        <v>-0.1422693729400635</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.148958563804626</v>
+        <v>-1.148908972740173</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.659217715263367</v>
+        <v>-1.659417867660522</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.8006241917610168</v>
+        <v>-0.8007674813270569</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8376904726028442</v>
+        <v>-0.8377277255058289</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.084804534912109</v>
+        <v>-1.085237383842468</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01820195093750954</v>
+        <v>0.01855871453881264</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8155032992362976</v>
+        <v>-0.8158248066902161</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6379358768463135</v>
+        <v>0.6385617256164551</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4817565083503723</v>
+        <v>-0.4818071722984314</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.06896372139453888</v>
+        <v>0.06944126635789871</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0001767117355484515</v>
+        <v>0.0005781480576843023</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3510835468769073</v>
+        <v>0.3518434166908264</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.533504366874695</v>
+        <v>-1.533910989761353</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.635155916213989</v>
+        <v>-1.63578736782074</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02580667845904827</v>
+        <v>0.02615155279636383</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4795749187469482</v>
+        <v>-0.4799218475818634</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.265118956565857</v>
+        <v>-1.265800714492798</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8927203416824341</v>
+        <v>-0.8931856155395508</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1078876778483391</v>
+        <v>-0.1078099682927132</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1232493296265602</v>
+        <v>0.1233839020133018</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.00521426647901535</v>
+        <v>0.005681000649929047</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2427951991558075</v>
+        <v>-0.2422856241464615</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.875859797000885</v>
+        <v>-0.8763549327850342</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6239154934883118</v>
+        <v>-0.6235073804855347</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7090847492218018</v>
+        <v>-0.7094346880912781</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9526681900024414</v>
+        <v>-0.9527089595794678</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7913177013397217</v>
+        <v>-0.7945313453674316</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6492213010787964</v>
+        <v>-0.6491370797157288</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1336766183376312</v>
+        <v>-0.1335027515888214</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9297754764556885</v>
+        <v>-0.9302100539207458</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3874818980693817</v>
+        <v>-0.3875846266746521</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2779371440410614</v>
+        <v>0.2780000567436218</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.075788259506226</v>
+        <v>1.076340436935425</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6756017804145813</v>
+        <v>0.6759290099143982</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.778031051158905</v>
+        <v>-0.7778037190437317</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4803754985332489</v>
+        <v>-0.4800669252872467</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06822235137224197</v>
+        <v>0.0682217925786972</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5363964438438416</v>
+        <v>-0.5368012189865112</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.726947665214539</v>
+        <v>-1.729090213775635</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07752488553524017</v>
+        <v>0.07776240259408951</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2381198853254318</v>
+        <v>-0.2380522787570953</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1525028795003891</v>
+        <v>0.1526089012622833</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.029545426368713</v>
+        <v>-1.030222177505493</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.004006147384644</v>
+        <v>-1.00393009185791</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5871154069900513</v>
+        <v>0.5878608226776123</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4520386457443237</v>
+        <v>0.4522449672222137</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4814620614051819</v>
+        <v>0.4819016754627228</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05184472352266312</v>
+        <v>-0.05183552950620651</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.129374146461487</v>
+        <v>-1.129302382469177</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.006224393844604</v>
+        <v>-1.006678938865662</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.003622174263</v>
+        <v>-1.006195068359375</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.536880016326904</v>
+        <v>-1.537485480308533</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.937051773071289</v>
+        <v>-2.938222885131836</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9794154167175293</v>
+        <v>-0.9794319868087769</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.0245574489235878</v>
+        <v>-0.02396508492529392</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2949784100055695</v>
+        <v>-0.2948081493377686</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.03341881185770035</v>
+        <v>-0.03294900804758072</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.180204272270203</v>
+        <v>-1.180494904518127</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.386139631271362</v>
+        <v>-1.38637113571167</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3968318998813629</v>
+        <v>-0.3969331979751587</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7443878054618835</v>
+        <v>-0.7449504137039185</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1484107971191406</v>
+        <v>-0.1482735574245453</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.697559356689453</v>
+        <v>-2.705152750015259</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.705154418945312</v>
+        <v>-2.706618785858154</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.525498390197754</v>
+        <v>-1.526657819747925</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08250640332698822</v>
+        <v>0.08225426077842712</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2512790262699127</v>
+        <v>-0.2512443959712982</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.147101640701294</v>
+        <v>-1.147140979766846</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.264546394348145</v>
+        <v>-1.264530062675476</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8039801120758057</v>
+        <v>-0.8037889003753662</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.039610862731934</v>
+        <v>-3.040414810180664</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9276248216629028</v>
+        <v>-0.9278314113616943</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.593897938728333</v>
+        <v>-1.594247817993164</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.111076593399048</v>
+        <v>-2.112042665481567</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1696197241544724</v>
+        <v>-0.1719939559698105</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.082859873771667</v>
+        <v>-1.082396984100342</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.206182956695557</v>
+        <v>-1.206360816955566</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7777953147888184</v>
+        <v>-0.7779775857925415</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.238814473152161</v>
+        <v>-1.239461064338684</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04667381942272186</v>
+        <v>0.04746945574879646</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.495244741439819</v>
+        <v>-1.495645761489868</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.03140599653124809</v>
+        <v>-0.03085842542350292</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9752752780914307</v>
+        <v>-0.9754325747489929</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.337194919586182</v>
+        <v>-2.338038444519043</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.196690917015076</v>
+        <v>-1.196908831596375</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.911958813667297</v>
+        <v>-1.91260552406311</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3318607807159424</v>
+        <v>0.3296870589256287</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6934659481048584</v>
+        <v>-0.6935072541236877</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06664618849754333</v>
+        <v>-0.06648100167512894</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4826374053955078</v>
+        <v>-0.4829580783843994</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.06900128722190857</v>
+        <v>0.06916683167219162</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.042044878005981</v>
+        <v>-1.042372703552246</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7193493247032166</v>
+        <v>-0.719373881816864</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.764298677444458</v>
+        <v>-1.764946699142456</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6022656559944153</v>
+        <v>-0.6027073264122009</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1276915967464447</v>
+        <v>-0.1278068423271179</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.5179644823074341</v>
+        <v>-0.5181950926780701</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4241108000278473</v>
+        <v>-0.4243433773517609</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2596027255058289</v>
+        <v>-0.2625745534896851</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2391245514154434</v>
+        <v>-0.2393963634967804</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1924356073141098</v>
+        <v>0.1920315027236938</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.009869935922324657</v>
+        <v>0.009640445001423359</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.009186973795294762</v>
+        <v>-0.00922101829200983</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.6963142156600952</v>
+        <v>-0.696519136428833</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4954701662063599</v>
+        <v>-0.4954461455345154</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.7009343504905701</v>
+        <v>-0.7010627388954163</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6866713166236877</v>
+        <v>-0.686393141746521</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2956319451332092</v>
+        <v>-0.2963092625141144</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.516958117485046</v>
+        <v>-1.517419815063477</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.77225935459137</v>
+        <v>-1.773279428482056</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2941088080406189</v>
+        <v>-0.2974970638751984</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3920750916004181</v>
+        <v>0.3921830058097839</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3935925662517548</v>
+        <v>-0.3935284018516541</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.103114366531372</v>
+        <v>-1.10321581363678</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.231409192085266</v>
+        <v>-1.231878280639648</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.124112248420715</v>
+        <v>-1.124471306800842</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4353868663311005</v>
+        <v>-0.435143381357193</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.312134265899658</v>
+        <v>-2.312291622161865</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.306884407997131</v>
+        <v>-1.307185649871826</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.006221982650458813</v>
+        <v>0.006206987891346216</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9530505537986755</v>
+        <v>-0.9534244537353516</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2218458354473114</v>
+        <v>-0.2215394675731659</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4487373232841492</v>
+        <v>-0.4519082009792328</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7499597668647766</v>
+        <v>0.7509695887565613</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4989903569221497</v>
+        <v>0.4994041323661804</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.01963861845433712</v>
+        <v>0.01997258700430393</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6462794542312622</v>
+        <v>-0.6462758779525757</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6100528836250305</v>
+        <v>0.6104376316070557</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.005430947989225388</v>
+        <v>0.005495660006999969</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6673620939254761</v>
+        <v>0.667863667011261</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3420317471027374</v>
+        <v>0.3425940573215485</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.8019730448722839</v>
+        <v>-0.8024098873138428</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2298185527324677</v>
+        <v>-0.2297275066375732</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.04016752913594246</v>
+        <v>-0.04017321765422821</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4148067533969879</v>
+        <v>0.4114934206008911</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1269582957029343</v>
+        <v>-0.1269646286964417</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.061793565750122</v>
+        <v>1.062167644500732</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4285236001014709</v>
+        <v>-0.4291137456893921</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.039817929267883</v>
+        <v>-1.04038679599762</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1615875512361526</v>
+        <v>0.1615859270095825</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.070768117904663</v>
+        <v>-1.071281671524048</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.071266651153564</v>
+        <v>-1.071773886680603</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4164340794086456</v>
+        <v>-0.4168975055217743</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3472962379455566</v>
+        <v>0.3472380340099335</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5915956497192383</v>
+        <v>-0.5919396281242371</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.185726404190063</v>
+        <v>-1.186278223991394</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.308375358581543</v>
+        <v>0.3070342242717743</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8891603350639343</v>
+        <v>-0.8893165588378906</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2337467521429062</v>
+        <v>-0.2344297170639038</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.07005318254232407</v>
+        <v>0.06954240053892136</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.00951406080275774</v>
+        <v>-0.009745682589709759</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3973238468170166</v>
+        <v>-0.3975630700588226</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.174615979194641</v>
+        <v>-1.174893736839294</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.556559920310974</v>
+        <v>-1.556551814079285</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7666067481040955</v>
+        <v>-0.7666802406311035</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7288668155670166</v>
+        <v>-0.7292056679725647</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.24468982219696</v>
+        <v>-1.245058655738831</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2882785797119141</v>
+        <v>-0.2876956462860107</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.025025844573975</v>
+        <v>-1.028546810150146</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7480555176734924</v>
+        <v>-0.7480002045631409</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.281159043312073</v>
+        <v>-1.281597495079041</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.003534499322995543</v>
+        <v>-0.003288498381152749</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2073147296905518</v>
+        <v>0.2077553123235703</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7050639390945435</v>
+        <v>0.7053728103637695</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3664276003837585</v>
+        <v>-0.3661986887454987</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2134343385696411</v>
+        <v>-0.2134805023670197</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3715010583400726</v>
+        <v>0.3719233572483063</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.020424723625183</v>
+        <v>1.020999550819397</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04303960129618645</v>
+        <v>-0.04318329691886902</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8111157417297363</v>
+        <v>-0.8115222454071045</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1607101410627365</v>
+        <v>0.1565525531768799</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3039388656616211</v>
+        <v>0.3040490448474884</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6416753530502319</v>
+        <v>0.6415315866470337</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1431339830160141</v>
+        <v>-0.1436720639467239</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08561064302921295</v>
+        <v>0.08534795790910721</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08914782106876373</v>
+        <v>-0.08923516422510147</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.121606349945068</v>
+        <v>1.121863842010498</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3771148324012756</v>
+        <v>-0.377530425786972</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.79076087474823</v>
+        <v>0.791115403175354</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6962078213691711</v>
+        <v>0.6963527798652649</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2352185845375061</v>
+        <v>-0.2353578507900238</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.05266859009861946</v>
+        <v>-0.05294754356145859</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7480248808860779</v>
+        <v>-0.7509025931358337</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09319275617599487</v>
+        <v>-0.09382319450378418</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.020446062088013</v>
+        <v>-2.021385431289673</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7088643312454224</v>
+        <v>0.7088568210601807</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5258869528770447</v>
+        <v>-0.5263697504997253</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.357828617095947</v>
+        <v>-1.358312606811523</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.271974325180054</v>
+        <v>-1.272168397903442</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9057375192642212</v>
+        <v>-0.9057261943817139</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06359383463859558</v>
+        <v>-0.063611701130867</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1293705254793167</v>
+        <v>-0.1300831139087677</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02114146761596203</v>
+        <v>0.02159672603011131</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.8497803211212158</v>
+        <v>-0.850127637386322</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1583160609006882</v>
+        <v>-0.160011813044548</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9672415256500244</v>
+        <v>-0.9678119421005249</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7369676232337952</v>
+        <v>0.7367412447929382</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.297484755516052</v>
+        <v>1.297688722610474</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3422155380249023</v>
+        <v>0.3417910635471344</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08360613882541656</v>
+        <v>0.08398362994194031</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02302132360637188</v>
+        <v>0.02288974076509476</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6128818988800049</v>
+        <v>-0.6132102012634277</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5222551822662354</v>
+        <v>0.5224823355674744</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1095970198512077</v>
+        <v>-0.1096086055040359</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.6996378898620605</v>
+        <v>0.7000019550323486</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7783549427986145</v>
+        <v>0.7790507674217224</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1427398920059204</v>
+        <v>0.144484743475914</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.009730036370456219</v>
+        <v>-0.009343180805444717</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04504486173391342</v>
+        <v>0.04505657032132149</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06935020536184311</v>
+        <v>-0.06883382052183151</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6035386323928833</v>
+        <v>-0.6032199263572693</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.899923205375671</v>
+        <v>-1.900468468666077</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.053296327590942</v>
+        <v>-3.053854942321777</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.822713255882263</v>
+        <v>-1.823028206825256</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1059445887804031</v>
+        <v>0.1060689613223076</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1836417317390442</v>
+        <v>-0.1833411157131195</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7537854313850403</v>
+        <v>-0.7536844611167908</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.707483172416687</v>
+        <v>-0.7077836394309998</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5052857398986816</v>
+        <v>-0.5064591765403748</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5363006591796875</v>
+        <v>-0.5364105105400085</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6937977075576782</v>
+        <v>-0.6941405534744263</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.535132884979248</v>
+        <v>0.5359023213386536</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3770654201507568</v>
+        <v>0.3776383697986603</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4771242141723633</v>
+        <v>0.4776901006698608</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.09109622240066528</v>
+        <v>-0.09073253720998764</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.058715105056763</v>
+        <v>1.059283971786499</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2988763451576233</v>
+        <v>0.2996032238006592</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2929596304893494</v>
+        <v>0.2931664288043976</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.0856265053153038</v>
+        <v>-0.08541315793991089</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.375333160161972</v>
+        <v>-0.3753829300403595</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1496424227952957</v>
+        <v>-0.1517585963010788</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.544188618659973</v>
+        <v>-1.544786930084229</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.337575078010559</v>
+        <v>1.33836841583252</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8522509932518005</v>
+        <v>0.8527820110321045</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.005059859249740839</v>
+        <v>-0.004286353942006826</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2002928853034973</v>
+        <v>0.2007778882980347</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3207187652587891</v>
+        <v>0.3207496702671051</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6956634521484375</v>
+        <v>0.6965327858924866</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.681904673576355</v>
+        <v>0.682158887386322</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.027673006057739</v>
+        <v>1.028273820877075</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2355563044548035</v>
+        <v>0.2361234426498413</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.223617315292358</v>
+        <v>1.224520444869995</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.80678391456604</v>
+        <v>1.810562252998352</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.839772701263428</v>
+        <v>1.841206789016724</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08726566284894943</v>
+        <v>0.08776386082172394</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8323961496353149</v>
+        <v>0.8329628109931946</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4901177585124969</v>
+        <v>0.4904246628284454</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.2433332204818726</v>
+        <v>-0.2429971545934677</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1455351412296295</v>
+        <v>-0.1451108008623123</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05408278480172157</v>
+        <v>0.05411433801054955</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4928301870822906</v>
+        <v>-0.4926516711711884</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7889230251312256</v>
+        <v>-0.7887402772903442</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.176870822906494</v>
+        <v>-1.176676869392395</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.43430495262146</v>
+        <v>0.4347573816776276</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8091943860054016</v>
+        <v>0.8110983967781067</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7823212742805481</v>
+        <v>-0.7822921276092529</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1395642310380936</v>
+        <v>0.139629140496254</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6239292025566101</v>
+        <v>-0.6238865256309509</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.034427404403687</v>
+        <v>1.035019636154175</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9395987391471863</v>
+        <v>-0.9396785497665405</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2221747636795044</v>
+        <v>-0.2215152233839035</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7895910143852234</v>
+        <v>0.7900065779685974</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5976459980010986</v>
+        <v>0.5978372693061829</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.621508002281189</v>
+        <v>-0.6213828325271606</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.054575204849243</v>
+        <v>-1.054845929145813</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.008566071279346943</v>
+        <v>-0.008557557128369808</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2590415775775909</v>
+        <v>0.2557379305362701</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.6040464043617249</v>
+        <v>-0.604330837726593</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.484088659286499</v>
+        <v>-1.484855175018311</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4410729110240936</v>
+        <v>-0.4410177171230316</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.107407808303833</v>
+        <v>-0.1071530729532242</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.698594868183136</v>
+        <v>0.6987577080726624</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.481104850769043</v>
+        <v>1.481664538383484</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07307641208171844</v>
+        <v>0.07320953160524368</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9430305361747742</v>
+        <v>0.943597137928009</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.73152756690979</v>
+        <v>1.732391119003296</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.446387052536011</v>
+        <v>1.447478890419006</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4033966064453125</v>
+        <v>0.4039647579193115</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8495136499404907</v>
+        <v>0.8519203066825867</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01806062273681164</v>
+        <v>-0.017610689625144</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9580618739128113</v>
+        <v>0.9591639041900635</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.523844003677368</v>
+        <v>1.525168418884277</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6841068863868713</v>
+        <v>-0.6838049292564392</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.0669429749250412</v>
+        <v>-0.06661457568407059</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.199615955352783</v>
+        <v>-1.199835658073425</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4530231058597565</v>
+        <v>-0.4523110091686249</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.06899169087409973</v>
+        <v>0.06953631341457367</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8103722929954529</v>
+        <v>0.8108315467834473</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1235305666923523</v>
+        <v>0.1238089501857758</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1352055817842484</v>
+        <v>0.135297417640686</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1830881834030151</v>
+        <v>0.1832726746797562</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.69111168384552</v>
+        <v>0.6915791034698486</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.744817852973938</v>
+        <v>0.7449391484260559</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1089678928256035</v>
+        <v>-0.1091459020972252</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.126161336898804</v>
+        <v>1.126287460327148</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.079211831092834</v>
+        <v>1.07934582233429</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7657623291015625</v>
+        <v>0.7663136720657349</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.8852846026420593</v>
+        <v>-0.8854961395263672</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4081732928752899</v>
+        <v>-0.4080688953399658</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.359300285577774</v>
+        <v>0.3597186207771301</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.299363374710083</v>
+        <v>0.2995696365833282</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3056706488132477</v>
+        <v>-0.3058503568172455</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9257329702377319</v>
+        <v>0.928840160369873</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3559475243091583</v>
+        <v>0.356090635061264</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4664024710655212</v>
+        <v>-0.4667868912220001</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5101154446601868</v>
+        <v>-0.5099736452102661</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4651816189289093</v>
+        <v>0.4658446311950684</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.913999080657959</v>
+        <v>0.9142424464225769</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.667914032936096</v>
+        <v>-1.668499231338501</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4119402170181274</v>
+        <v>-0.411728709936142</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.0836561918258667</v>
+        <v>0.08357057720422745</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1899196803569794</v>
+        <v>-0.1896560490131378</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2101997435092926</v>
+        <v>0.2101169377565384</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.02282183058559895</v>
+        <v>-0.02258620783686638</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.01792985387146473</v>
+        <v>0.0199114978313446</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.578021049499512</v>
+        <v>1.579055547714233</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9641691446304321</v>
+        <v>0.9644003510475159</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.226933360099792</v>
+        <v>1.227738499641418</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6695346236228943</v>
+        <v>0.6702612042427063</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.587068438529968</v>
+        <v>1.588050723075867</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7917017340660095</v>
+        <v>0.7921629548072815</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5490869879722595</v>
+        <v>0.5493072867393494</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.264092445373535</v>
+        <v>-1.264413952827454</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1081966236233711</v>
+        <v>0.1083523631095886</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.409461498260498</v>
+        <v>0.4100059270858765</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.097243309020996</v>
+        <v>-1.097433090209961</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4891297817230225</v>
+        <v>-0.4916526079177856</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2819201350212097</v>
+        <v>0.2825527191162109</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2265587151050568</v>
+        <v>-0.2262946516275406</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.310785889625549</v>
+        <v>1.311877131462097</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4071868062019348</v>
+        <v>0.4074793756008148</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5132086873054504</v>
+        <v>0.5141333341598511</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.448264360427856</v>
+        <v>1.449211597442627</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5446394681930542</v>
+        <v>-0.5448058843612671</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.08506505936384201</v>
+        <v>-0.08437132090330124</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.2152419537305832</v>
+        <v>-0.2148545235395432</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4418768286705017</v>
+        <v>0.4422557353973389</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3794058859348297</v>
+        <v>0.3798971772193909</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1647135615348816</v>
+        <v>0.1651911586523056</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8218711018562317</v>
+        <v>-0.8213611841201782</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.344117403030396</v>
+        <v>1.34549343585968</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.07777336984872818</v>
+        <v>0.0784352570772171</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6777514219284058</v>
+        <v>0.6781409382820129</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.323564410209656</v>
+        <v>1.324369072914124</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6510752439498901</v>
+        <v>0.651466965675354</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2224330306053162</v>
+        <v>0.2226754575967789</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6406654119491577</v>
+        <v>0.6413127779960632</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08879952877759933</v>
+        <v>-0.08875908702611923</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4240522980690002</v>
+        <v>0.4245287477970123</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1211734041571617</v>
+        <v>-0.1216419264674187</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.3627090752124786</v>
+        <v>-0.3645510375499725</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.180687665939331</v>
+        <v>1.181134104728699</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01663109473884106</v>
+        <v>0.0163868609815836</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2399402558803558</v>
+        <v>-0.2407893240451813</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.644054055213928</v>
+        <v>-1.645007491111755</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143655300140381</v>
+        <v>1.143894791603088</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.096226811408997</v>
+        <v>1.096861839294434</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.196219265460968</v>
+        <v>0.1961161196231842</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5876800417900085</v>
+        <v>0.5878393650054932</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.6419076323509216</v>
+        <v>0.6420009732246399</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1519096195697784</v>
+        <v>0.1518632173538208</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.135030746459961</v>
+        <v>2.136082887649536</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.935166478157043</v>
+        <v>1.938448429107666</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.008013486862183</v>
+        <v>1.008777141571045</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.09177496284246445</v>
+        <v>-0.09135020524263382</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.3000723123550415</v>
+        <v>-0.3000520765781403</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6412166357040405</v>
+        <v>0.6412569284439087</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5420342087745667</v>
+        <v>0.5423955917358398</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2590895891189575</v>
+        <v>0.2594093680381775</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3086727857589722</v>
+        <v>0.3087066411972046</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.104381322860718</v>
+        <v>1.105320453643799</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.720170795917511</v>
+        <v>0.7203524708747864</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.3342524766922</v>
+        <v>-1.334844708442688</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6633020639419556</v>
+        <v>-0.6639516949653625</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4482949078083038</v>
+        <v>0.449343353509903</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4505177736282349</v>
+        <v>-0.450705498456955</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5657686591148376</v>
+        <v>0.5661146640777588</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.720171570777893</v>
+        <v>1.721559166908264</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4975910782814026</v>
+        <v>0.4974874258041382</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2730692923069</v>
+        <v>0.2733127176761627</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1190611869096756</v>
+        <v>0.1192272827029228</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.104787826538086</v>
+        <v>1.105302453041077</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.0901075005531311</v>
+        <v>-0.09006041288375854</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4948525726795197</v>
+        <v>0.4957234561443329</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1488912105560303</v>
+        <v>-0.1485735923051834</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2452304065227509</v>
+        <v>0.2460439950227737</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3583172559738159</v>
+        <v>-0.3609144687652588</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.3993062973022461</v>
+        <v>-0.3996222615242004</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9422499537467957</v>
+        <v>0.9424712657928467</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.4820959866046906</v>
+        <v>-0.4817762076854706</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1273938715457916</v>
+        <v>0.1280602216720581</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.04146146774291992</v>
+        <v>-0.04114881157875061</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.655125617980957</v>
+        <v>-1.655382633209229</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5715299844741821</v>
+        <v>0.5722336173057556</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5895479321479797</v>
+        <v>-0.5898206830024719</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2696845233440399</v>
+        <v>-0.2691945433616638</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2645000219345093</v>
+        <v>-0.2641420066356659</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9392216205596924</v>
+        <v>-0.9393996000289917</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.316609025001526</v>
+        <v>-1.320895671844482</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.463242769241333</v>
+        <v>0.463547021150589</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3266076147556305</v>
+        <v>0.3267458081245422</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.362816333770752</v>
+        <v>0.3633789122104645</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2807710766792297</v>
+        <v>-0.2802117168903351</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2097658962011337</v>
+        <v>0.2105842232704163</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.09780274331569672</v>
+        <v>0.09858759492635727</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.211513161659241</v>
+        <v>-1.211469054222107</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.352037250995636</v>
+        <v>0.3529435396194458</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.01682648994028568</v>
+        <v>0.01731647923588753</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5288617610931396</v>
+        <v>0.529884934425354</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.305364847183228</v>
+        <v>1.306368589401245</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.637058973312378</v>
+        <v>1.641434907913208</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.561862111091614</v>
+        <v>1.562981963157654</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.185068845748901</v>
+        <v>1.186280727386475</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.15278947353363</v>
+        <v>1.153739333152771</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.102427840232849</v>
+        <v>1.103586912155151</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5676895380020142</v>
+        <v>0.5680889487266541</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.213232517242432</v>
+        <v>1.214128732681274</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.635304868221283</v>
+        <v>0.6359888911247253</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.17051374912262</v>
+        <v>1.171045660972595</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.012251377105713</v>
+        <v>1.013495326042175</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3789577782154083</v>
+        <v>0.3797093033790588</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4587041735649109</v>
+        <v>0.4592715203762054</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8764185905456543</v>
+        <v>-0.8792325854301453</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4930509030818939</v>
+        <v>0.4937261939048767</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.741405129432678</v>
+        <v>1.742347598075867</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.5178935527801514</v>
+        <v>-0.517423689365387</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1205848902463913</v>
+        <v>0.121225893497467</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.004404006991535425</v>
+        <v>0.004587313625961542</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.320018887519836</v>
+        <v>1.321310758590698</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.362098813056946</v>
+        <v>1.362997889518738</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8119577169418335</v>
+        <v>0.8124893307685852</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.185072049498558</v>
+        <v>0.1851999461650848</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2221427112817764</v>
+        <v>0.2224618941545486</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.544191837310791</v>
+        <v>1.54508364200592</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.1016886457800865</v>
+        <v>-0.1031007841229439</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.584206700325012</v>
+        <v>-1.584993481636047</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1694656163454056</v>
+        <v>0.1696649193763733</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.64569354057312</v>
+        <v>1.64637553691864</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3225001394748688</v>
+        <v>-0.3223960995674133</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6298812627792358</v>
+        <v>0.6299324631690979</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>0.9981527328491211</v>
+        <v>0.9988247156143188</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02412769384682178</v>
+        <v>0.0242623221129179</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2556300163269043</v>
+        <v>-0.2557991445064545</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5310245752334595</v>
+        <v>0.5310894846916199</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.606702446937561</v>
+        <v>0.6065826416015625</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.114948153495789</v>
+        <v>1.115568518638611</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1148310750722885</v>
+        <v>0.1138022392988205</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2507135570049286</v>
+        <v>-0.25099977850914</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.8308606147766113</v>
+        <v>-0.831062376499176</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.6103276014328</v>
+        <v>-1.611528754234314</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.110236644744873</v>
+        <v>1.110852122306824</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.238465189933777</v>
+        <v>-1.238761901855469</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.06110389158129692</v>
+        <v>0.06099215149879456</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.8363384008407593</v>
+        <v>0.8365998864173889</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4110227227210999</v>
+        <v>0.4109549522399902</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9316548705101013</v>
+        <v>0.9327686429023743</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.203526183962822</v>
+        <v>0.2041504383087158</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9717282652854919</v>
+        <v>0.9728193879127502</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1874309927225113</v>
+        <v>-0.183598592877388</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.13313615322113</v>
+        <v>1.134196758270264</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.648592472076416</v>
+        <v>0.6496790647506714</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1793607771396637</v>
+        <v>0.1798743456602097</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07252547144889832</v>
+        <v>0.07309375703334808</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.09136962890625</v>
+        <v>-1.091726303100586</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1780888736248016</v>
+        <v>0.1783555299043655</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.081633567810059</v>
+        <v>1.082573533058167</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.675792813301086</v>
+        <v>1.676941633224487</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.071373462677002</v>
+        <v>1.072154879570007</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.2895827293396</v>
+        <v>2.290735006332397</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7053183317184448</v>
+        <v>0.7059723734855652</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.51595664024353</v>
+        <v>1.519031524658203</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.759466409683228</v>
+        <v>1.759679079055786</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.234548926353455</v>
+        <v>1.234490990638733</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8183807134628296</v>
+        <v>0.8185431957244873</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8782827854156494</v>
+        <v>0.8782239556312561</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.157878637313843</v>
+        <v>1.158435583114624</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.392542243003845</v>
+        <v>1.393227338790894</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.010894775390625</v>
+        <v>1.011103272438049</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5615565180778503</v>
+        <v>0.5618377327919006</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2207162082195282</v>
+        <v>0.2206327617168427</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.401333332061768</v>
+        <v>1.402233123779297</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.496974229812622</v>
+        <v>1.497671484947205</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6662236452102661</v>
+        <v>-0.6672697067260742</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7023298740386963</v>
+        <v>0.7026341557502747</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5355962514877319</v>
+        <v>0.5362336039543152</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3505281507968903</v>
+        <v>0.3507027328014374</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.9812331199646</v>
+        <v>1.981784343719482</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.176910638809204</v>
+        <v>1.177342891693115</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.548413395881653</v>
+        <v>1.549226999282837</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7144986391067505</v>
+        <v>0.7149800658226013</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.383054971694946</v>
+        <v>1.383634686470032</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.6318330764770508</v>
+        <v>0.6320410966873169</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7421806454658508</v>
+        <v>0.7423056364059448</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.433396816253662</v>
+        <v>1.434186577796936</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6876957416534424</v>
+        <v>0.6897231340408325</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007111361250281334</v>
+        <v>-0.007009013555943966</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1188879460096359</v>
+        <v>-0.1190565899014473</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8663808703422546</v>
+        <v>-0.8666684627532959</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6469892859458923</v>
+        <v>0.6476807594299316</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.166243553161621</v>
+        <v>-1.166842699050903</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8675007224082947</v>
+        <v>-0.8674637079238892</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5651525259017944</v>
+        <v>0.5652536153793335</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2506571114063263</v>
+        <v>-0.2507491409778595</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4845357239246368</v>
+        <v>0.4848742187023163</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.210678458213806</v>
+        <v>1.211176991462708</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1156822219491005</v>
+        <v>0.1156798154115677</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.170318484306335</v>
+        <v>1.171764612197876</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2376562654972076</v>
+        <v>-0.2374474406242371</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.004120826721191</v>
+        <v>1.004836916923523</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.156841039657593</v>
+        <v>1.157473087310791</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8807482719421387</v>
+        <v>0.8811864852905273</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.347896218299866</v>
+        <v>1.348121047019958</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6122233867645264</v>
+        <v>0.6125914454460144</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7365658283233643</v>
+        <v>0.7367444634437561</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.28102695941925</v>
+        <v>1.281682133674622</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.9046710133552551</v>
+        <v>-0.9049330949783325</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3401495814323425</v>
+        <v>0.340131551027298</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.105504274368286</v>
+        <v>-1.105819702148438</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7549583911895752</v>
+        <v>0.7533382773399353</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07156721502542496</v>
+        <v>0.07198556512594223</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5944496393203735</v>
+        <v>0.5953530669212341</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.086668960750103</v>
+        <v>0.08683984726667404</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.896036267280579</v>
+        <v>-1.896618485450745</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3428233861923218</v>
+        <v>0.3434814214706421</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.269428133964539</v>
+        <v>1.270120978355408</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03460466489195824</v>
+        <v>-0.03432005643844604</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.02045453898608685</v>
+        <v>-0.02043703012168407</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1281271278858185</v>
+        <v>0.1286470144987106</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6889753937721252</v>
+        <v>0.6894419193267822</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9856914877891541</v>
+        <v>0.9859364628791809</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2557612061500549</v>
+        <v>-0.2580107152462006</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.037536978721619</v>
+        <v>1.037731528282166</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5036044120788574</v>
+        <v>0.5043246746063232</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2582130134105682</v>
+        <v>0.2584827840328217</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04913655668497086</v>
+        <v>-0.04889857769012451</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07423411309719086</v>
+        <v>0.07476434111595154</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1448370665311813</v>
+        <v>-0.1450730413198471</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.017171144485474</v>
+        <v>1.017868757247925</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2514533698558807</v>
+        <v>-0.2519051432609558</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7349180579185486</v>
+        <v>0.7356095314025879</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8677641749382019</v>
+        <v>0.8683656454086304</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.007351756095886</v>
+        <v>1.007455945014954</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.00245475769043</v>
+        <v>2.004901885986328</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.255712509155273</v>
+        <v>1.256604194641113</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.283931702375412</v>
+        <v>0.2845197021961212</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9585766196250916</v>
+        <v>0.959470272064209</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4760227501392365</v>
+        <v>0.47602179646492</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1750628054141998</v>
+        <v>0.1757941842079163</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.4032584726810455</v>
+        <v>-0.403357207775116</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5924397706985474</v>
+        <v>0.5927601456642151</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.085426449775696</v>
+        <v>1.08654248714447</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2614997327327728</v>
+        <v>0.2614282965660095</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.212494373321533</v>
+        <v>1.213442921638489</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3019965589046478</v>
+        <v>0.3020761907100677</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2719280123710632</v>
+        <v>-0.2738068401813507</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6156399250030518</v>
+        <v>0.6160521507263184</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.434512197971344</v>
+        <v>0.4352644085884094</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8312252759933472</v>
+        <v>0.8315716981887817</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3916634619235992</v>
+        <v>0.3915667235851288</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09035808593034744</v>
+        <v>0.09099563211202621</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.192468523979187</v>
+        <v>-1.192900776863098</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7289102673530579</v>
+        <v>0.729326069355011</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2339666187763214</v>
+        <v>0.2349177002906799</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.033417105674744</v>
+        <v>1.033432722091675</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.187223881483078</v>
+        <v>0.1871870756149292</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.327803373336792</v>
+        <v>1.328925609588623</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.206682801246643</v>
+        <v>1.210898518562317</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.02471649646759</v>
+        <v>1.025829553604126</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.6866618990898132</v>
+        <v>-0.6870160698890686</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7605688571929932</v>
+        <v>0.7610581517219543</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.616950035095215</v>
+        <v>1.618161678314209</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9427284598350525</v>
+        <v>0.9430791139602661</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.007290720939636</v>
+        <v>1.00822901725769</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4832490086555481</v>
+        <v>0.4837097227573395</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6470510959625244</v>
+        <v>0.6476883292198181</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.0638180673122406</v>
+        <v>-0.06409115344285965</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04517544433474541</v>
+        <v>-0.04516415670514107</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3730423152446747</v>
+        <v>0.3732182085514069</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5297884345054626</v>
+        <v>-0.5330667495727539</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.039268016815186</v>
+        <v>-1.039820432662964</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5421638488769531</v>
+        <v>0.5418684482574463</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.335920125246048</v>
+        <v>0.3358584642410278</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2340339869260788</v>
+        <v>0.2338650524616241</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.09116289019584656</v>
+        <v>-0.09086158871650696</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.4071946144104</v>
+        <v>1.407559871673584</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.301213145256042</v>
+        <v>1.301889300346375</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.090389251708984</v>
+        <v>1.090506672859192</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.102061748504639</v>
+        <v>1.102005124092102</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6304665803909302</v>
+        <v>-0.6308432817459106</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4144974052906036</v>
+        <v>-0.4141770005226135</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.730529546737671</v>
+        <v>1.733562231063843</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.2999581098556519</v>
+        <v>0.3002821207046509</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4686018526554108</v>
+        <v>0.4688386917114258</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.285755038261414</v>
+        <v>1.286373257637024</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.912564873695374</v>
+        <v>1.913335800170898</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.209200501441956</v>
+        <v>1.209307909011841</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8962082266807556</v>
+        <v>0.8963995575904846</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.055943131446838</v>
+        <v>1.056569695472717</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9489632248878479</v>
+        <v>0.9490441083908081</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.77022784948349</v>
+        <v>0.7706132531166077</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4569790661334991</v>
+        <v>0.4572773575782776</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4522319138050079</v>
+        <v>-0.4521118402481079</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04235883429646492</v>
+        <v>-0.04410219565033913</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.03753223270177841</v>
+        <v>0.0375661626458168</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2241963148117065</v>
+        <v>-0.2241528928279877</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5272472500801086</v>
+        <v>0.5272653102874756</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2501508593559265</v>
+        <v>0.2508420050144196</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.203075766563416</v>
+        <v>-1.203133344650269</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.8942608833312988</v>
+        <v>0.89511638879776</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06426011770963669</v>
+        <v>0.06423061341047287</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.0205597747117281</v>
+        <v>0.02066306583583355</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8559570908546448</v>
+        <v>0.8564643859863281</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.117723822593689</v>
+        <v>1.117987036705017</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.173957109451294</v>
+        <v>1.174288272857666</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.338581323623657</v>
+        <v>2.343355894088745</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.34548807144165</v>
+        <v>2.346169233322144</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.40513026714325</v>
+        <v>1.405431628227234</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9909687042236328</v>
+        <v>0.9908771514892578</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.181761980056763</v>
+        <v>1.182117223739624</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379663467407227</v>
+        <v>1.380344748497009</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1066541373729706</v>
+        <v>0.1057954505085945</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1304204016923904</v>
+        <v>0.1298029869794846</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.045536875724792</v>
+        <v>1.045190095901489</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04814433306455612</v>
+        <v>0.04777318984270096</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2089789062738419</v>
+        <v>0.208745613694191</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.184502959251404</v>
+        <v>1.184819936752319</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2047902196645737</v>
+        <v>0.2032329589128494</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3775957822799683</v>
+        <v>-0.3782577514648438</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3068778514862061</v>
+        <v>-0.3070651888847351</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2272233068943024</v>
+        <v>-0.2271440923213959</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.004954139236360788</v>
+        <v>0.004405961837619543</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09852936118841171</v>
+        <v>-0.09878966212272644</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.679053068161011</v>
+        <v>1.679548025131226</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.321231245994568</v>
+        <v>1.322074413299561</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.278514951467514</v>
+        <v>-0.278145045042038</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4204336702823639</v>
+        <v>0.420581579208374</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9902435541152954</v>
+        <v>0.9906228184700012</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8637775778770447</v>
+        <v>0.8645297884941101</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4828203320503235</v>
+        <v>0.4818383157253265</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.164595365524292</v>
+        <v>1.16531765460968</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7294617891311646</v>
+        <v>0.7298755049705505</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9803543090820312</v>
+        <v>0.980675995349884</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4171153008937836</v>
+        <v>0.4172124266624451</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.498193770647049</v>
+        <v>-0.4982658922672272</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1511339247226715</v>
+        <v>-0.15117247402668</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.748843789100647</v>
+        <v>0.7495719790458679</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9542402029037476</v>
+        <v>0.9550560116767883</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.638755559921265</v>
+        <v>1.639536619186401</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.7205758690834045</v>
+        <v>0.7209355235099792</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.846940815448761</v>
+        <v>0.8470430374145508</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1196974813938141</v>
+        <v>0.1182453334331512</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.069204807281494</v>
+        <v>1.069288372993469</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7074918746948242</v>
+        <v>-0.7078012228012085</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7589513063430786</v>
+        <v>-0.7595429420471191</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1869646161794662</v>
+        <v>0.1869166791439056</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.388077586889267</v>
+        <v>0.3878018856048584</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4939236640930176</v>
+        <v>0.4940796792507172</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1302100867033005</v>
+        <v>0.1302106231451035</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4600833356380463</v>
+        <v>0.4603331089019775</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9467727541923523</v>
+        <v>0.9474533796310425</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9854871034622192</v>
+        <v>0.9857444167137146</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>1.84723630809458e-05</v>
+        <v>-0.0001359946181764826</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9635482430458069</v>
+        <v>0.9658783674240112</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6205403208732605</v>
+        <v>0.6212555766105652</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2522249817848206</v>
+        <v>0.252687007188797</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3329029977321625</v>
+        <v>-0.3331827223300934</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5931292176246643</v>
+        <v>0.5934835076332092</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4930616915225983</v>
+        <v>0.4931740462779999</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.447027683258057</v>
+        <v>1.447819709777832</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6085759997367859</v>
+        <v>0.6090754866600037</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.685834646224976</v>
+        <v>1.686576366424561</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9026670455932617</v>
+        <v>0.9035268425941467</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.281894326210022</v>
+        <v>1.282737970352173</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.451217412948608</v>
+        <v>1.452198266983032</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.432311654090881</v>
+        <v>1.433979749679565</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.636185526847839</v>
+        <v>1.637181520462036</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8412450551986694</v>
+        <v>0.8422433137893677</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8180023431777954</v>
+        <v>0.8190432190895081</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.697018027305603</v>
+        <v>0.6976830363273621</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.121797561645508</v>
+        <v>1.122354984283447</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5470818281173706</v>
+        <v>0.5478160977363586</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.644581317901611</v>
+        <v>1.645421862602234</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.137348532676697</v>
+        <v>1.138162612915039</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.37186861038208</v>
+        <v>2.372883558273315</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.152856707572937</v>
+        <v>1.153766751289368</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9596776962280273</v>
+        <v>0.9601163864135742</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.740443706512451</v>
+        <v>2.745014190673828</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9345481395721436</v>
+        <v>0.9351404905319214</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1039563789963722</v>
+        <v>0.1039530783891678</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.03002142906189</v>
+        <v>2.031006097793579</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.03550586104393005</v>
+        <v>0.0359424389898777</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4326415359973907</v>
+        <v>-0.4327773153781891</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1513168811798096</v>
+        <v>-0.1511023640632629</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1973962783813477</v>
+        <v>-0.1974145770072937</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.603685736656189</v>
+        <v>0.6042352318763733</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6957257390022278</v>
+        <v>0.6957713961601257</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.380059361457825</v>
+        <v>1.381069898605347</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.71186363697052</v>
+        <v>1.712402820587158</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.260903477668762</v>
+        <v>1.264147281646729</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.176685214042664</v>
+        <v>1.176990628242493</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9587545394897461</v>
+        <v>0.9591084122657776</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.501046419143677</v>
+        <v>1.501337289810181</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04712784662842751</v>
+        <v>0.04705766588449478</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7636721730232239</v>
+        <v>0.763926088809967</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8441202044487</v>
+        <v>0.8450431823730469</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.176501274108887</v>
+        <v>1.17685341835022</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8548635244369507</v>
+        <v>0.8554299473762512</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.351505845785141</v>
+        <v>0.3515810370445251</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1367603987455368</v>
+        <v>-0.1368243396282196</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7917433381080627</v>
+        <v>0.7921701669692993</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4730291366577148</v>
+        <v>0.4735280573368073</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8964394927024841</v>
+        <v>0.8966078162193298</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1414730846881866</v>
+        <v>0.1417529433965683</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.172433018684387</v>
+        <v>1.173418521881104</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7611385583877563</v>
+        <v>0.7614662647247314</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.387292146682739</v>
+        <v>1.388255834579468</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.097824454307556</v>
+        <v>1.098410606384277</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.409402132034302</v>
+        <v>1.410398602485657</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.03666948899626732</v>
+        <v>-0.0359620563685894</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.275040626525879</v>
+        <v>1.275609135627747</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.8985298871994019</v>
+        <v>0.8988208174705505</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.9729067087173462</v>
+        <v>0.973224401473999</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.022150278091431</v>
+        <v>2.024694204330444</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1207017228007317</v>
+        <v>0.1208460405468941</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3318464756011963</v>
+        <v>0.3322141468524933</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.195225596427917</v>
+        <v>1.195805191993713</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3360163271427155</v>
+        <v>-0.3359921872615814</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.118881821632385</v>
+        <v>-1.118802428245544</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2820082008838654</v>
+        <v>-0.2821948528289795</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4438854157924652</v>
+        <v>0.4440295994281769</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.085741996765137</v>
+        <v>1.086111426353455</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.505000352859497</v>
+        <v>1.505764961242676</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2524048388004303</v>
+        <v>0.2526622712612152</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.368485927581787</v>
+        <v>1.369276285171509</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.31489098072052</v>
+        <v>1.316859841346741</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1055679172277451</v>
+        <v>0.1055838540196419</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3826203346252441</v>
+        <v>-0.3832627534866333</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6951994299888611</v>
+        <v>0.6951184868812561</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.256639003753662</v>
+        <v>1.2569580078125</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.296701669692993</v>
+        <v>1.296897053718567</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.540705680847168</v>
+        <v>1.541324615478516</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.077520847320557</v>
+        <v>1.077744245529175</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9646338224411011</v>
+        <v>0.9653538465499878</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1483778655529022</v>
+        <v>-0.1487817168235779</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.430937886238098</v>
+        <v>1.431938648223877</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8564097285270691</v>
+        <v>0.8569667339324951</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.280030131340027</v>
+        <v>1.282287955284119</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4592661261558533</v>
+        <v>0.4588293135166168</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6772609353065491</v>
+        <v>0.67762690782547</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.673362255096436</v>
+        <v>1.673849582672119</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.508260190486908</v>
+        <v>0.5078873038291931</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.343719244003296</v>
+        <v>1.344073176383972</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.928528070449829</v>
+        <v>1.929135918617249</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.031757831573486</v>
+        <v>1.03195595741272</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8592965602874756</v>
+        <v>0.8594778180122375</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>0.4724223911762238</v>
+        <v>0.4722894132137299</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>1.193242430686951</v>
+        <v>1.193380355834961</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,15 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>0.8607470989227295</v>
+        <v>0.8608841300010681</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B895" t="n">
+        <v>-0.06766799092292786</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B895"/>
+  <dimension ref="A1:B896"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8071804046630859</v>
+        <v>-0.8083685636520386</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.52178692817688</v>
+        <v>-1.523664593696594</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.464308977127075</v>
+        <v>-1.465670824050903</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.8710979223251343</v>
+        <v>-0.87359219789505</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2867491841316223</v>
+        <v>0.2855012714862823</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6456372737884521</v>
+        <v>-0.6474726796150208</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.970499277114868</v>
+        <v>-1.975229024887085</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.183298587799072</v>
+        <v>-2.183958530426025</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.214242577552795</v>
+        <v>-1.215837001800537</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.936282515525818</v>
+        <v>-1.936311841011047</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.815810441970825</v>
+        <v>-1.81814181804657</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9102442860603333</v>
+        <v>-0.912107527256012</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.862187623977661</v>
+        <v>-2.864560604095459</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.973559141159058</v>
+        <v>-3.97526216506958</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.710662245750427</v>
+        <v>-1.711425542831421</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08376075327396393</v>
+        <v>-0.08618489652872086</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2128668576478958</v>
+        <v>0.2119905650615692</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6483749747276306</v>
+        <v>0.6473241448402405</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9077186584472656</v>
+        <v>-0.9118068814277649</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2348948270082474</v>
+        <v>-0.2358087450265884</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6436441540718079</v>
+        <v>-0.6433082222938538</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.699720561504364</v>
+        <v>-0.700706958770752</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.294458627700806</v>
+        <v>-1.295274138450623</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.540942668914795</v>
+        <v>-2.542304039001465</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.955630779266357</v>
+        <v>-2.957912683486938</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.887406945228577</v>
+        <v>-1.887125134468079</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.019680023193359</v>
+        <v>-2.018984079360962</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.579317331314087</v>
+        <v>-1.579103946685791</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7481938600540161</v>
+        <v>-0.7482303380966187</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7179293036460876</v>
+        <v>-0.7183444499969482</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.634993672370911</v>
+        <v>-1.640139818191528</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329874753952026</v>
+        <v>-1.329395413398743</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2519154250621796</v>
+        <v>-0.2526693940162659</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8705273866653442</v>
+        <v>-0.8721950650215149</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.126006364822388</v>
+        <v>-2.126333475112915</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3610726594924927</v>
+        <v>-0.3614166975021362</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8665933609008789</v>
+        <v>-0.8665937781333923</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.416243314743042</v>
+        <v>-1.416865825653076</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.476168036460876</v>
+        <v>-1.477455258369446</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.388374090194702</v>
+        <v>-2.391169309616089</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.623805999755859</v>
+        <v>-1.626432418823242</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.691163301467896</v>
+        <v>-1.692276239395142</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.424558043479919</v>
+        <v>-1.427468538284302</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.547795176506042</v>
+        <v>-1.550780653953552</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.699605464935303</v>
+        <v>-1.700669884681702</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.97258734703064</v>
+        <v>-1.973616480827332</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.417875528335571</v>
+        <v>-1.419014453887939</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.599669575691223</v>
+        <v>-1.601690292358398</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.33481240272522</v>
+        <v>-2.336511850357056</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.256425499916077</v>
+        <v>-1.257074952125549</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.514605522155762</v>
+        <v>-1.515398144721985</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.863201975822449</v>
+        <v>-1.86553418636322</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.190991401672363</v>
+        <v>-1.192769169807434</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.5634071230888367</v>
+        <v>-0.56427001953125</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5476071238517761</v>
+        <v>-0.5519729256629944</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8909401893615723</v>
+        <v>-0.89237380027771</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.47321343421936</v>
+        <v>-1.475186824798584</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9503061771392822</v>
+        <v>-0.9507681131362915</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.28284764289856</v>
+        <v>-2.285021305084229</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.895407319068909</v>
+        <v>-1.896669626235962</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.812098383903503</v>
+        <v>-1.812966465950012</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.421442151069641</v>
+        <v>-1.422738194465637</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.164102435112</v>
+        <v>-1.16344141960144</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.891029119491577</v>
+        <v>-1.892473936080933</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.228686809539795</v>
+        <v>-1.22924268245697</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.776153564453125</v>
+        <v>-0.7777847647666931</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.403713345527649</v>
+        <v>-1.406595468521118</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6582753658294678</v>
+        <v>-0.6597327589988708</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.39182248711586</v>
+        <v>-0.3920406401157379</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.760069727897644</v>
+        <v>-1.759674787521362</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6117738485336304</v>
+        <v>-0.6130886077880859</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.574493408203125</v>
+        <v>-1.576506018638611</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7159618139266968</v>
+        <v>-0.7146187424659729</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5891249179840088</v>
+        <v>-0.5881769061088562</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.903219699859619</v>
+        <v>-2.903974771499634</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.20623254776001</v>
+        <v>-1.207897663116455</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.007740659639239311</v>
+        <v>-0.008618385531008244</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7393088340759277</v>
+        <v>-0.7417624592781067</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8643507361412048</v>
+        <v>-0.8702313303947449</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.082223415374756</v>
+        <v>-2.083040714263916</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.004489018581807613</v>
+        <v>-0.00346476212143898</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6431763172149658</v>
+        <v>-0.6439578533172607</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.2718580365180969</v>
+        <v>0.270908534526825</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.632060050964355</v>
+        <v>-1.631710648536682</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4135213196277618</v>
+        <v>-0.4149231314659119</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5895275473594666</v>
+        <v>-0.5894305109977722</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4901463091373444</v>
+        <v>-0.4900723993778229</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8704069852828979</v>
+        <v>-0.8710718154907227</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9747807383537292</v>
+        <v>-0.9759646654129028</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7609342932701111</v>
+        <v>-0.7631964683532715</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1810103207826614</v>
+        <v>-0.1805844753980637</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.362372398376465</v>
+        <v>-2.36289119720459</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.810863196849823</v>
+        <v>-0.8105522394180298</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.404858350753784</v>
+        <v>-2.406059265136719</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.743510484695435</v>
+        <v>-1.746033668518066</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9989214539527893</v>
+        <v>-0.9978040456771851</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.576388597488403</v>
+        <v>-1.57604455947876</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.579823136329651</v>
+        <v>-1.580009818077087</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.075839161872864</v>
+        <v>-1.075955390930176</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.510082483291626</v>
+        <v>-1.512119650840759</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.175693392753601</v>
+        <v>-1.176592826843262</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1989750415086746</v>
+        <v>0.1978374868631363</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.437525868415833</v>
+        <v>-1.440188646316528</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.405022859573364</v>
+        <v>-1.4066241979599</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.113090753555298</v>
+        <v>-2.112178802490234</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.181943535804749</v>
+        <v>-1.183068633079529</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.404763579368591</v>
+        <v>-1.406635999679565</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.051784992218018</v>
+        <v>-2.054439306259155</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.917881190776825</v>
+        <v>-0.9203999042510986</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.077986717224121</v>
+        <v>-1.079579949378967</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.5098081827163696</v>
+        <v>-0.511563241481781</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.9997690916061401</v>
+        <v>-1.001909613609314</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7458372712135315</v>
+        <v>-0.7482789754867554</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.61051607131958</v>
+        <v>-1.612664937973022</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8511760234832764</v>
+        <v>-0.8476887941360474</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9942620396614075</v>
+        <v>-0.9944906830787659</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1042712479829788</v>
+        <v>-0.1048061102628708</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.553416728973389</v>
+        <v>-1.554936170578003</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.607760310173035</v>
+        <v>-1.611412763595581</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.183175206184387</v>
+        <v>-1.184576272964478</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1435845941305161</v>
+        <v>0.1427511870861053</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05342071130871773</v>
+        <v>-0.05347288399934769</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8735436797142029</v>
+        <v>-0.8753930330276489</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.059743165969849</v>
+        <v>-1.061423540115356</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7904295921325684</v>
+        <v>-0.7922789454460144</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05357161164283752</v>
+        <v>0.05289297178387642</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.454056262969971</v>
+        <v>-1.452906131744385</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.06196003407239914</v>
+        <v>-0.06279457360506058</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4554322361946106</v>
+        <v>0.4547686576843262</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3881983757019043</v>
+        <v>-0.3899149596691132</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2872563898563385</v>
+        <v>0.2873763740062714</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8705075979232788</v>
+        <v>0.8695405125617981</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3506737053394318</v>
+        <v>0.3505492806434631</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1460420042276382</v>
+        <v>-0.1468429714441299</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1422693729400635</v>
+        <v>-0.1426620185375214</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.148908972740173</v>
+        <v>-1.149056673049927</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.659417867660522</v>
+        <v>-1.660786986351013</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.8007674813270569</v>
+        <v>-0.8022164106369019</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8377277255058289</v>
+        <v>-0.8384436368942261</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.085237383842468</v>
+        <v>-1.084973812103271</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01855871453881264</v>
+        <v>0.01744868606328964</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8158248066902161</v>
+        <v>-0.815855085849762</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6385617256164551</v>
+        <v>0.6377718448638916</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4818071722984314</v>
+        <v>-0.4826696813106537</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.06944126635789871</v>
+        <v>0.06852180510759354</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0005781480576843023</v>
+        <v>-0.0009483275935053825</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3518434166908264</v>
+        <v>0.3502228856086731</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.533910989761353</v>
+        <v>-1.536077260971069</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.63578736782074</v>
+        <v>-1.638185501098633</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02615155279636383</v>
+        <v>0.0251378919929266</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4799218475818634</v>
+        <v>-0.4817767143249512</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.265800714492798</v>
+        <v>-1.26601505279541</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8931856155395508</v>
+        <v>-0.8935317993164062</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1078099682927132</v>
+        <v>-0.1075051873922348</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.1233839020133018</v>
+        <v>0.122085228562355</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.005681000649929047</v>
+        <v>0.004776067100465298</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2422856241464615</v>
+        <v>-0.2414728552103043</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8763549327850342</v>
+        <v>-0.8760917782783508</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6235073804855347</v>
+        <v>-0.6247344613075256</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7094346880912781</v>
+        <v>-0.7093476057052612</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9527089595794678</v>
+        <v>-0.954393744468689</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7945313453674316</v>
+        <v>-0.7956252694129944</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.6491370797157288</v>
+        <v>-0.647301197052002</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1335027515888214</v>
+        <v>-0.1336745917797089</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9302100539207458</v>
+        <v>-0.9289321899414062</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3875846266746521</v>
+        <v>-0.3874532580375671</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2780000567436218</v>
+        <v>0.2784649729728699</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.076340436935425</v>
+        <v>1.076325297355652</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6759290099143982</v>
+        <v>0.6758149862289429</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7778037190437317</v>
+        <v>-0.7795482277870178</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4800669252872467</v>
+        <v>-0.4813961982727051</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0682217925786972</v>
+        <v>0.06720902770757675</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5368012189865112</v>
+        <v>-0.5387974977493286</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.729090213775635</v>
+        <v>-1.730573415756226</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07776240259408951</v>
+        <v>0.07666628062725067</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2380522787570953</v>
+        <v>-0.2385169714689255</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1526089012622833</v>
+        <v>0.1519510746002197</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.030222177505493</v>
+        <v>-1.031590819358826</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.00393009185791</v>
+        <v>-1.006017684936523</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5878608226776123</v>
+        <v>0.5866119861602783</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4522449672222137</v>
+        <v>0.4528301358222961</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4819016754627228</v>
+        <v>0.4809035062789917</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05183552950620651</v>
+        <v>-0.05172797664999962</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.129302382469177</v>
+        <v>-1.131108403205872</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.006678938865662</v>
+        <v>-1.007419228553772</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.006195068359375</v>
+        <v>-1.006883025169373</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.537485480308533</v>
+        <v>-1.541423916816711</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.938222885131836</v>
+        <v>-2.938675165176392</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9794319868087769</v>
+        <v>-0.9799631834030151</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.02396508492529392</v>
+        <v>-0.02411877922713757</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.2948081493377686</v>
+        <v>-0.295091301202774</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.03294900804758072</v>
+        <v>-0.03448709473013878</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.180494904518127</v>
+        <v>-1.182592988014221</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.38637113571167</v>
+        <v>-1.386611700057983</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3969331979751587</v>
+        <v>-0.3977057635784149</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7449504137039185</v>
+        <v>-0.7452511787414551</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1482735574245453</v>
+        <v>-0.1493525356054306</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.705152750015259</v>
+        <v>-2.70458197593689</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.706618785858154</v>
+        <v>-2.715152740478516</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.526657819747925</v>
+        <v>-1.526538610458374</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08225426077842712</v>
+        <v>0.08159645646810532</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2512443959712982</v>
+        <v>-0.2528145313262939</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.147140979766846</v>
+        <v>-1.149112582206726</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.264530062675476</v>
+        <v>-1.265817046165466</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8037889003753662</v>
+        <v>-0.8042044043540955</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.040414810180664</v>
+        <v>-3.04105019569397</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9278314113616943</v>
+        <v>-0.9301213622093201</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.594247817993164</v>
+        <v>-1.594522476196289</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.112042665481567</v>
+        <v>-2.112878322601318</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1719939559698105</v>
+        <v>-0.1736729145050049</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.082396984100342</v>
+        <v>-1.079574823379517</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.206360816955566</v>
+        <v>-1.205844402313232</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7779775857925415</v>
+        <v>-0.7772749662399292</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.239461064338684</v>
+        <v>-1.238869071006775</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04746945574879646</v>
+        <v>0.04559537768363953</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.495645761489868</v>
+        <v>-1.495222568511963</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.03085842542350292</v>
+        <v>-0.03126863017678261</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9754325747489929</v>
+        <v>-0.9751837849617004</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.338038444519043</v>
+        <v>-2.338033437728882</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.196908831596375</v>
+        <v>-1.198578476905823</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.91260552406311</v>
+        <v>-1.914347410202026</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3296870589256287</v>
+        <v>0.3308839797973633</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6935072541236877</v>
+        <v>-0.6926007866859436</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06648100167512894</v>
+        <v>-0.06675495952367783</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4829580783843994</v>
+        <v>-0.48259636759758</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.06916683167219162</v>
+        <v>0.069376140832901</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.042372703552246</v>
+        <v>-1.043020725250244</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.719373881816864</v>
+        <v>-0.7195615768432617</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.764946699142456</v>
+        <v>-1.765813231468201</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6027073264122009</v>
+        <v>-0.6029865145683289</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1278068423271179</v>
+        <v>-0.1282669603824615</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.5181950926780701</v>
+        <v>-0.518721342086792</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4243433773517609</v>
+        <v>-0.4238409996032715</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2625745534896851</v>
+        <v>-0.2613152265548706</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2393963634967804</v>
+        <v>-0.2465859800577164</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1920315027236938</v>
+        <v>0.1928192973136902</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.009640445001423359</v>
+        <v>0.009387439116835594</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.00922101829200983</v>
+        <v>-0.009052583947777748</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.696519136428833</v>
+        <v>-0.6982691884040833</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4954461455345154</v>
+        <v>-0.4973463118076324</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.7010627388954163</v>
+        <v>-0.7019966244697571</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.686393141746521</v>
+        <v>-0.6876406073570251</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2963092625141144</v>
+        <v>-0.2960516214370728</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.517419815063477</v>
+        <v>-1.520386219024658</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.773279428482056</v>
+        <v>-1.775604486465454</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2974970638751984</v>
+        <v>-0.2981148660182953</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3921830058097839</v>
+        <v>0.3884680271148682</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3935284018516541</v>
+        <v>-0.3957322835922241</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.10321581363678</v>
+        <v>-1.105639815330505</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.231878280639648</v>
+        <v>-1.232953906059265</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.124471306800842</v>
+        <v>-1.126737594604492</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.435143381357193</v>
+        <v>-0.4361684620380402</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.312291622161865</v>
+        <v>-2.31357741355896</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.307185649871826</v>
+        <v>-1.307093024253845</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.006206987891346216</v>
+        <v>0.006147008389234543</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9534244537353516</v>
+        <v>-0.9545910954475403</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2215394675731659</v>
+        <v>-0.2229572683572769</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4519082009792328</v>
+        <v>-0.4520780444145203</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7509695887565613</v>
+        <v>0.7531350255012512</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4994041323661804</v>
+        <v>0.4995141625404358</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.01997258700430393</v>
+        <v>0.01861612498760223</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6462758779525757</v>
+        <v>-0.6464628577232361</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6104376316070557</v>
+        <v>0.6107309460639954</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.005495660006999969</v>
+        <v>0.003181255888193846</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.667863667011261</v>
+        <v>0.6675003170967102</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3425940573215485</v>
+        <v>0.341289609670639</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.8024098873138428</v>
+        <v>-0.8035382032394409</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2297275066375732</v>
+        <v>-0.2322814911603928</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.04017321765422821</v>
+        <v>-0.04006399586796761</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4114934206008911</v>
+        <v>0.4118277132511139</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1269646286964417</v>
+        <v>-0.1326849609613419</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.062167644500732</v>
+        <v>1.062080860137939</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4291137456893921</v>
+        <v>-0.4289523363113403</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.04038679599762</v>
+        <v>-1.041381359100342</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1615859270095825</v>
+        <v>0.1616641730070114</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.071281671524048</v>
+        <v>-1.070330500602722</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.071773886680603</v>
+        <v>-1.070409774780273</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4168975055217743</v>
+        <v>-0.4162501990795135</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3472380340099335</v>
+        <v>0.3481350243091583</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5919396281242371</v>
+        <v>-0.5927931070327759</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.186278223991394</v>
+        <v>-1.188033938407898</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3070342242717743</v>
+        <v>0.3071036040782928</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8893165588378906</v>
+        <v>-0.8909387588500977</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.2344297170639038</v>
+        <v>-0.233997568488121</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.06954240053892136</v>
+        <v>0.06946238130331039</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.009745682589709759</v>
+        <v>-0.01152135152369738</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3975630700588226</v>
+        <v>-0.3988736569881439</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.174893736839294</v>
+        <v>-1.175033688545227</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.556551814079285</v>
+        <v>-1.557996153831482</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7666802406311035</v>
+        <v>-0.7668506503105164</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7292056679725647</v>
+        <v>-0.7285740971565247</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.245058655738831</v>
+        <v>-1.247331380844116</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2876956462860107</v>
+        <v>-0.2884439527988434</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.028546810150146</v>
+        <v>-1.02981424331665</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7480002045631409</v>
+        <v>-0.7471866607666016</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.281597495079041</v>
+        <v>-1.282193064689636</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.003288498381152749</v>
+        <v>-0.00311818509362638</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2077553123235703</v>
+        <v>0.2070281058549881</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7053728103637695</v>
+        <v>0.7048041820526123</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3661986887454987</v>
+        <v>-0.3687037527561188</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2134805023670197</v>
+        <v>-0.2139405906200409</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3719233572483063</v>
+        <v>0.3720980286598206</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.020999550819397</v>
+        <v>1.019689083099365</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04318329691886902</v>
+        <v>-0.04441939294338226</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8115222454071045</v>
+        <v>-0.8132292032241821</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1565525531768799</v>
+        <v>0.1569351106882095</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.3040490448474884</v>
+        <v>0.2999449968338013</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6415315866470337</v>
+        <v>0.6414112448692322</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1436720639467239</v>
+        <v>-0.1439120769500732</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08534795790910721</v>
+        <v>0.08561869710683823</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.08923516422510147</v>
+        <v>-0.09109491854906082</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.121863842010498</v>
+        <v>1.12153685092926</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.377530425786972</v>
+        <v>-0.3768074214458466</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.791115403175354</v>
+        <v>0.7911742329597473</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6963527798652649</v>
+        <v>0.6970690488815308</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2353578507900238</v>
+        <v>-0.2365777194499969</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.05294754356145859</v>
+        <v>-0.05274635925889015</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7509025931358337</v>
+        <v>-0.7505415678024292</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09382319450378418</v>
+        <v>-0.09820389747619629</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.021385431289673</v>
+        <v>-2.021627902984619</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7088568210601807</v>
+        <v>0.7082852125167847</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5263697504997253</v>
+        <v>-0.5264696478843689</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.358312606811523</v>
+        <v>-1.358262181282043</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.272168397903442</v>
+        <v>-1.274250984191895</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9057261943817139</v>
+        <v>-0.9079102277755737</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.063611701130867</v>
+        <v>-0.06340382993221283</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.1300831139087677</v>
+        <v>-0.13051538169384</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02159672603011131</v>
+        <v>0.02050527930259705</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.850127637386322</v>
+        <v>-0.851561427116394</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.160011813044548</v>
+        <v>-0.1606284826993942</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9678119421005249</v>
+        <v>-0.9738593697547913</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7367412447929382</v>
+        <v>0.7372080683708191</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.297688722610474</v>
+        <v>1.298436164855957</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3417910635471344</v>
+        <v>0.3419572114944458</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08398362994194031</v>
+        <v>0.08324912190437317</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02288974076509476</v>
+        <v>0.02322983928024769</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6132102012634277</v>
+        <v>-0.6134746074676514</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.5224823355674744</v>
+        <v>0.522610068321228</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1096086055040359</v>
+        <v>-0.1093878820538521</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.7000019550323486</v>
+        <v>0.6987882256507874</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7790507674217224</v>
+        <v>0.7770321369171143</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.144484743475914</v>
+        <v>0.1437773704528809</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.009343180805444717</v>
+        <v>-0.005982911214232445</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04505657032132149</v>
+        <v>0.04444622248411179</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.06883382052183151</v>
+        <v>-0.0700092688202858</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6032199263572693</v>
+        <v>-0.6057429909706116</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.900468468666077</v>
+        <v>-1.902338743209839</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.053854942321777</v>
+        <v>-3.056894540786743</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.823028206825256</v>
+        <v>-1.824677705764771</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1060689613223076</v>
+        <v>0.1049687042832375</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1833411157131195</v>
+        <v>-0.1846331804990768</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7536844611167908</v>
+        <v>-0.7564125061035156</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7077836394309998</v>
+        <v>-0.7095763683319092</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5064591765403748</v>
+        <v>-0.5077645778656006</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5364105105400085</v>
+        <v>-0.5390973091125488</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6941405534744263</v>
+        <v>-0.6943988800048828</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5359023213386536</v>
+        <v>0.5345503091812134</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3776383697986603</v>
+        <v>0.3755930066108704</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4776901006698608</v>
+        <v>0.4760949313640594</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.09073253720998764</v>
+        <v>-0.09344068914651871</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.059283971786499</v>
+        <v>1.058355689048767</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2996032238006592</v>
+        <v>0.297678679227829</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2931664288043976</v>
+        <v>0.2926396131515503</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08541315793991089</v>
+        <v>-0.08817417174577713</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.3753829300403595</v>
+        <v>-0.3766950666904449</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1517585963010788</v>
+        <v>-0.1525209993124008</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.544786930084229</v>
+        <v>-1.543667197227478</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.33836841583252</v>
+        <v>1.337084293365479</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8527820110321045</v>
+        <v>0.8513780236244202</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.004286353942006826</v>
+        <v>-0.006266342010349035</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.2007778882980347</v>
+        <v>0.1990701258182526</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3207496702671051</v>
+        <v>0.3195794820785522</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6965327858924866</v>
+        <v>0.6938669681549072</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.682158887386322</v>
+        <v>0.6813894510269165</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.028273820877075</v>
+        <v>1.026776313781738</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2361234426498413</v>
+        <v>0.2329045087099075</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.224520444869995</v>
+        <v>1.223084330558777</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.810562252998352</v>
+        <v>1.809767723083496</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.841206789016724</v>
+        <v>1.846775770187378</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08776386082172394</v>
+        <v>0.08628296107053757</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8329628109931946</v>
+        <v>0.8315654993057251</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4904246628284454</v>
+        <v>0.4896523952484131</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.2429971545934677</v>
+        <v>-0.244978666305542</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1451108008623123</v>
+        <v>-0.1483910530805588</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05411433801054955</v>
+        <v>0.05248885229229927</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4926516711711884</v>
+        <v>-0.4940982758998871</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7887402772903442</v>
+        <v>-0.7906099557876587</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.176676869392395</v>
+        <v>-1.17815625667572</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4347573816776276</v>
+        <v>0.4343955516815186</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8110983967781067</v>
+        <v>0.8088861107826233</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7822921276092529</v>
+        <v>-0.7822744846343994</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.139629140496254</v>
+        <v>0.1390240639448166</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6238865256309509</v>
+        <v>-0.6258391141891479</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.035019636154175</v>
+        <v>1.033200144767761</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9396785497665405</v>
+        <v>-0.9413865804672241</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2215152233839035</v>
+        <v>-0.2229445278644562</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7900065779685974</v>
+        <v>0.7900683283805847</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5978372693061829</v>
+        <v>0.5977070331573486</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6213828325271606</v>
+        <v>-0.6228453516960144</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.054845929145813</v>
+        <v>-1.057514667510986</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.008557557128369808</v>
+        <v>-0.009416760876774788</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2557379305362701</v>
+        <v>0.2545692324638367</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.604330837726593</v>
+        <v>-0.6089146137237549</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.484855175018311</v>
+        <v>-1.485849976539612</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4410177171230316</v>
+        <v>-0.4425185322761536</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1071530729532242</v>
+        <v>-0.1084976270794868</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6987577080726624</v>
+        <v>0.6987407207489014</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.481664538383484</v>
+        <v>1.481311798095703</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07320953160524368</v>
+        <v>0.07145809382200241</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.943597137928009</v>
+        <v>0.9429095983505249</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.732391119003296</v>
+        <v>1.731401920318604</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.447478890419006</v>
+        <v>1.444269895553589</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4039647579193115</v>
+        <v>0.4017260670661926</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8519203066825867</v>
+        <v>0.8512744307518005</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.017610689625144</v>
+        <v>-0.01558706443756819</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.9591639041900635</v>
+        <v>0.958005964756012</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.525168418884277</v>
+        <v>1.523008108139038</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6838049292564392</v>
+        <v>-0.6849632263183594</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.06661457568407059</v>
+        <v>-0.067827008664608</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.199835658073425</v>
+        <v>-1.20147180557251</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4523110091686249</v>
+        <v>-0.4556201696395874</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.06953631341457367</v>
+        <v>0.06796257942914963</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8108315467834473</v>
+        <v>0.8101210594177246</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1238089501857758</v>
+        <v>0.1230939701199532</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.135297417640686</v>
+        <v>0.1354816555976868</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1832726746797562</v>
+        <v>0.1829539239406586</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6915791034698486</v>
+        <v>0.6919602155685425</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7449391484260559</v>
+        <v>0.7444102764129639</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1091459020972252</v>
+        <v>-0.1096519008278847</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.126287460327148</v>
+        <v>1.125897765159607</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.07934582233429</v>
+        <v>1.077924132347107</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.7663136720657349</v>
+        <v>0.764556884765625</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.8854961395263672</v>
+        <v>-0.8869921565055847</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4080688953399658</v>
+        <v>-0.4088378250598907</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3597186207771301</v>
+        <v>0.3582926988601685</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.2995696365833282</v>
+        <v>0.2983225286006927</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3058503568172455</v>
+        <v>-0.3044814765453339</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.928840160369873</v>
+        <v>0.9285250902175903</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.356090635061264</v>
+        <v>0.3518002331256866</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4667868912220001</v>
+        <v>-0.4681079983711243</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5099736452102661</v>
+        <v>-0.5121600031852722</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4658446311950684</v>
+        <v>0.4657142460346222</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9142424464225769</v>
+        <v>0.9135658740997314</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.668499231338501</v>
+        <v>-1.66989803314209</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.411728709936142</v>
+        <v>-0.4137603342533112</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08357057720422745</v>
+        <v>0.08289017528295517</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1896560490131378</v>
+        <v>-0.1887259483337402</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2101169377565384</v>
+        <v>0.2109086662530899</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.02258620783686638</v>
+        <v>-0.02327964082360268</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.0199114978313446</v>
+        <v>0.01731043308973312</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.579055547714233</v>
+        <v>1.580799698829651</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9644003510475159</v>
+        <v>0.9643385410308838</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.227738499641418</v>
+        <v>1.227398157119751</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6702612042427063</v>
+        <v>0.6690806746482849</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.588050723075867</v>
+        <v>1.586872935295105</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7921629548072815</v>
+        <v>0.7913014888763428</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5493072867393494</v>
+        <v>0.5488641262054443</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.264413952827454</v>
+        <v>-1.265994071960449</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.1083523631095886</v>
+        <v>0.107761338353157</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4100059270858765</v>
+        <v>0.4084823429584503</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.097433090209961</v>
+        <v>-1.098231196403503</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4916526079177856</v>
+        <v>-0.4935519397258759</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2825527191162109</v>
+        <v>0.2883993983268738</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2262946516275406</v>
+        <v>-0.2269748002290726</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.311877131462097</v>
+        <v>1.308921098709106</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4074793756008148</v>
+        <v>0.4050848186016083</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5141333341598511</v>
+        <v>0.5129047632217407</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.449211597442627</v>
+        <v>1.447871327400208</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5448058843612671</v>
+        <v>-0.5465477705001831</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.08437132090330124</v>
+        <v>-0.08748509734869003</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.2148545235395432</v>
+        <v>-0.217415526509285</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4422557353973389</v>
+        <v>0.4413740634918213</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3798971772193909</v>
+        <v>0.3790766000747681</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.1651911586523056</v>
+        <v>0.163679301738739</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8213611841201782</v>
+        <v>-0.8174225091934204</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.34549343585968</v>
+        <v>1.343305706977844</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.0784352570772171</v>
+        <v>0.07620801776647568</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6781409382820129</v>
+        <v>0.6770357489585876</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.324369072914124</v>
+        <v>1.322322487831116</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.651466965675354</v>
+        <v>0.6503557562828064</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2226754575967789</v>
+        <v>0.2223466634750366</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.6413127779960632</v>
+        <v>0.639135479927063</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08875908702611923</v>
+        <v>-0.08965971320867538</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4245287477970123</v>
+        <v>0.4243253767490387</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1216419264674187</v>
+        <v>-0.1221656128764153</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.3645510375499725</v>
+        <v>-0.3642017543315887</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.181134104728699</v>
+        <v>1.174687623977661</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.0163868609815836</v>
+        <v>0.01652831956744194</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2407893240451813</v>
+        <v>-0.2403071671724319</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.645007491111755</v>
+        <v>-1.645886063575745</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143894791603088</v>
+        <v>1.143112778663635</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.096861839294434</v>
+        <v>1.096120238304138</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1961161196231842</v>
+        <v>0.1962342262268066</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5878393650054932</v>
+        <v>0.5869596004486084</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.6420009732246399</v>
+        <v>0.642240583896637</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1518632173538208</v>
+        <v>0.1515681594610214</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.136082887649536</v>
+        <v>2.134670257568359</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.938448429107666</v>
+        <v>1.938047766685486</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.008777141571045</v>
+        <v>1.006123423576355</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.09135020524263382</v>
+        <v>-0.09230314195156097</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.3000520765781403</v>
+        <v>-0.3004219233989716</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6412569284439087</v>
+        <v>0.6397644281387329</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5423955917358398</v>
+        <v>0.5414484143257141</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2594093680381775</v>
+        <v>0.2590271532535553</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3087066411972046</v>
+        <v>0.3088656365871429</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.105320453643799</v>
+        <v>1.104307293891907</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7203524708747864</v>
+        <v>0.7201677560806274</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.334844708442688</v>
+        <v>-1.334592938423157</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.6639516949653625</v>
+        <v>-0.664883017539978</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.449343353509903</v>
+        <v>0.4471033215522766</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.450705498456955</v>
+        <v>-0.4530500769615173</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5661146640777588</v>
+        <v>0.5644501447677612</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.721559166908264</v>
+        <v>1.720235109329224</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4974874258041382</v>
+        <v>0.497346431016922</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2733127176761627</v>
+        <v>0.2732413113117218</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1192272827029228</v>
+        <v>0.1181607097387314</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.105302453041077</v>
+        <v>1.104140520095825</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.09006041288375854</v>
+        <v>-0.09197719395160675</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4957234561443329</v>
+        <v>0.4934368431568146</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1485735923051834</v>
+        <v>-0.1499070227146149</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2460439950227737</v>
+        <v>0.2445886731147766</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3609144687652588</v>
+        <v>-0.3623534739017487</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.3996222615242004</v>
+        <v>-0.4018221795558929</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9424712657928467</v>
+        <v>0.9404423832893372</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.4817762076854706</v>
+        <v>-0.4836205542087555</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.1280602216720581</v>
+        <v>0.126194030046463</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.04114881157875061</v>
+        <v>-0.04340395703911781</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.655382633209229</v>
+        <v>-1.656703114509583</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5722336173057556</v>
+        <v>0.5696906447410583</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5898206830024719</v>
+        <v>-0.5903220176696777</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2691945433616638</v>
+        <v>-0.2707225382328033</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2641420066356659</v>
+        <v>-0.2642520368099213</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9393996000289917</v>
+        <v>-0.9400377869606018</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.320895671844482</v>
+        <v>-1.321688055992126</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.463547021150589</v>
+        <v>0.4606104493141174</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3267458081245422</v>
+        <v>0.3244466781616211</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3633789122104645</v>
+        <v>0.3615266680717468</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2802117168903351</v>
+        <v>-0.2810713946819305</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2105842232704163</v>
+        <v>0.2075194865465164</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.09858759492635727</v>
+        <v>0.09714771062135696</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.211469054222107</v>
+        <v>-1.213820695877075</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3529435396194458</v>
+        <v>0.3505993783473969</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.01731647923588753</v>
+        <v>0.01502593513578176</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.529884934425354</v>
+        <v>0.5285267233848572</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.306368589401245</v>
+        <v>1.305343627929688</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.641434907913208</v>
+        <v>1.639349460601807</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.562981963157654</v>
+        <v>1.563458919525146</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.186280727386475</v>
+        <v>1.183973670005798</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.153739333152771</v>
+        <v>1.153142094612122</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.103586912155151</v>
+        <v>1.101132392883301</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5680889487266541</v>
+        <v>0.5672906637191772</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.214128732681274</v>
+        <v>1.21335780620575</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6359888911247253</v>
+        <v>0.6336243748664856</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.171045660972595</v>
+        <v>1.170828580856323</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.013495326042175</v>
+        <v>1.011886835098267</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3797093033790588</v>
+        <v>0.3777364790439606</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4592715203762054</v>
+        <v>0.4575250744819641</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8792325854301453</v>
+        <v>-0.8805121779441833</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4937261939048767</v>
+        <v>0.4958694279193878</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.742347598075867</v>
+        <v>1.741475105285645</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.517423689365387</v>
+        <v>-0.5196444392204285</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.121225893497467</v>
+        <v>0.1194025129079819</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.004587313625961542</v>
+        <v>0.002759362105280161</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.321310758590698</v>
+        <v>1.320109486579895</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.362997889518738</v>
+        <v>1.362646698951721</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8124893307685852</v>
+        <v>0.8109362125396729</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1851999461650848</v>
+        <v>0.1836640983819962</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2224618941545486</v>
+        <v>0.2205828130245209</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.54508364200592</v>
+        <v>1.54375159740448</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.1031007841229439</v>
+        <v>-0.1041602194309235</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.584993481636047</v>
+        <v>-1.587232708930969</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1696649193763733</v>
+        <v>0.1703132092952728</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.64637553691864</v>
+        <v>1.646442294120789</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3223960995674133</v>
+        <v>-0.3231675922870636</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6299324631690979</v>
+        <v>0.6294032335281372</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>0.9988247156143188</v>
+        <v>0.9964114427566528</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.0242623221129179</v>
+        <v>0.02479558624327183</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2557991445064545</v>
+        <v>-0.2549311220645905</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5310894846916199</v>
+        <v>0.5302532911300659</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6065826416015625</v>
+        <v>0.6064372062683105</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.115568518638611</v>
+        <v>1.114524722099304</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1138022392988205</v>
+        <v>0.1126074865460396</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.25099977850914</v>
+        <v>-0.2523500919342041</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.831062376499176</v>
+        <v>-0.8320292830467224</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.611528754234314</v>
+        <v>-1.6124027967453</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.110852122306824</v>
+        <v>1.110195159912109</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.238761901855469</v>
+        <v>-1.240506291389465</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.06099215149879456</v>
+        <v>0.06080502644181252</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.8365998864173889</v>
+        <v>0.837165892124176</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4109549522399902</v>
+        <v>0.4106072783470154</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9327686429023743</v>
+        <v>0.9298130869865417</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.2041504383087158</v>
+        <v>0.201984629034996</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9728193879127502</v>
+        <v>0.9710065126419067</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.183598592877388</v>
+        <v>-0.1830799430608749</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.134196758270264</v>
+        <v>1.140263438224792</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6496790647506714</v>
+        <v>0.6469950675964355</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1798743456602097</v>
+        <v>0.1804564446210861</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07309375703334808</v>
+        <v>0.07228067517280579</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.091726303100586</v>
+        <v>-1.092789888381958</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1783555299043655</v>
+        <v>0.1776549071073532</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.082573533058167</v>
+        <v>1.082636594772339</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.676941633224487</v>
+        <v>1.674496531486511</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.072154879570007</v>
+        <v>1.070778489112854</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.290735006332397</v>
+        <v>2.289116859436035</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.7059723734855652</v>
+        <v>0.704642653465271</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.519031524658203</v>
+        <v>1.518214106559753</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.759679079055786</v>
+        <v>1.752176880836487</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.234490990638733</v>
+        <v>1.236216902732849</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.8185431957244873</v>
+        <v>0.818213939666748</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8782239556312561</v>
+        <v>0.8774768710136414</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.158435583114624</v>
+        <v>1.158207535743713</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.393227338790894</v>
+        <v>1.392944812774658</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.011103272438049</v>
+        <v>1.010984301567078</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.5618377327919006</v>
+        <v>0.562153160572052</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2206327617168427</v>
+        <v>0.2202207297086716</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.402233123779297</v>
+        <v>1.399742364883423</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.497671484947205</v>
+        <v>1.496483087539673</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6672697067260742</v>
+        <v>-0.6685765981674194</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.7026341557502747</v>
+        <v>0.6989576816558838</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5362336039543152</v>
+        <v>0.5354722738265991</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3507027328014374</v>
+        <v>0.3516600131988525</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.981784343719482</v>
+        <v>1.981030106544495</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.177342891693115</v>
+        <v>1.175949931144714</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.549226999282837</v>
+        <v>1.54809558391571</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7149800658226013</v>
+        <v>0.7142361998558044</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.383634686470032</v>
+        <v>1.383350133895874</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.6320410966873169</v>
+        <v>0.631669282913208</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7423056364059448</v>
+        <v>0.7414711117744446</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.434186577796936</v>
+        <v>1.432673573493958</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6897231340408325</v>
+        <v>0.6892590522766113</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.007009013555943966</v>
+        <v>-0.009980425238609314</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1190565899014473</v>
+        <v>-0.1192937940359116</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8666684627532959</v>
+        <v>-0.8679218888282776</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6476807594299316</v>
+        <v>0.6460729241371155</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.166842699050903</v>
+        <v>-1.166699171066284</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8674637079238892</v>
+        <v>-0.8691147565841675</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5652536153793335</v>
+        <v>0.5652466416358948</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2507491409778595</v>
+        <v>-0.2509918212890625</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4848742187023163</v>
+        <v>0.4842621386051178</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.211176991462708</v>
+        <v>1.210980892181396</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1156798154115677</v>
+        <v>0.1151644960045815</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.171764612197876</v>
+        <v>1.170905470848083</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2374474406242371</v>
+        <v>-0.2360800206661224</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.004836916923523</v>
+        <v>1.002947688102722</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.157473087310791</v>
+        <v>1.156953930854797</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8811864852905273</v>
+        <v>0.8792329430580139</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.348121047019958</v>
+        <v>1.34817111492157</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6125914454460144</v>
+        <v>0.6102534532546997</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.7367444634437561</v>
+        <v>0.736053466796875</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.281682133674622</v>
+        <v>1.279827117919922</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.9049330949783325</v>
+        <v>-0.9055961966514587</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.340131551027298</v>
+        <v>0.3415157496929169</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.105819702148438</v>
+        <v>-1.106076836585999</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7533382773399353</v>
+        <v>0.7518593072891235</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07198556512594223</v>
+        <v>0.07057423144578934</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5953530669212341</v>
+        <v>0.5944792628288269</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08683984726667404</v>
+        <v>0.08544166386127472</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.896618485450745</v>
+        <v>-1.897193551063538</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3434814214706421</v>
+        <v>0.3419714868068695</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.270120978355408</v>
+        <v>1.268808007240295</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03432005643844604</v>
+        <v>-0.03512942790985107</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.02043703012168407</v>
+        <v>-0.02032403089106083</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1286470144987106</v>
+        <v>0.1271493285894394</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6894419193267822</v>
+        <v>0.6888830065727234</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9859364628791809</v>
+        <v>0.9857786893844604</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2580107152462006</v>
+        <v>-0.2597475945949554</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.037731528282166</v>
+        <v>1.035873889923096</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.5043246746063232</v>
+        <v>0.501329779624939</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2584827840328217</v>
+        <v>0.2566031515598297</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.04889857769012451</v>
+        <v>-0.05051314830780029</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07476434111595154</v>
+        <v>0.07328830659389496</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1450730413198471</v>
+        <v>-0.1447543352842331</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.017868757247925</v>
+        <v>1.015468239784241</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.2519051432609558</v>
+        <v>-0.254163384437561</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7356095314025879</v>
+        <v>0.7335070371627808</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8683656454086304</v>
+        <v>0.8683991432189941</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.007455945014954</v>
+        <v>1.005218267440796</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.004901885986328</v>
+        <v>2.003836154937744</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.256604194641113</v>
+        <v>1.258374810218811</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2845197021961212</v>
+        <v>0.2819567024707794</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.959470272064209</v>
+        <v>0.9581581950187683</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.47602179646492</v>
+        <v>0.4761554896831512</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.1757941842079163</v>
+        <v>0.173443540930748</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.403357207775116</v>
+        <v>-0.4042508900165558</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5927601456642151</v>
+        <v>0.5920888185501099</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.08654248714447</v>
+        <v>1.083421230316162</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.2614282965660095</v>
+        <v>0.260852187871933</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.213442921638489</v>
+        <v>1.211913228034973</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3020761907100677</v>
+        <v>0.3023524284362793</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2738068401813507</v>
+        <v>-0.2757063806056976</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6160521507263184</v>
+        <v>0.6146577000617981</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4352644085884094</v>
+        <v>0.4336445331573486</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8315716981887817</v>
+        <v>0.8309254050254822</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3915667235851288</v>
+        <v>0.3914127945899963</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09099563211202621</v>
+        <v>0.09003885835409164</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.192900776863098</v>
+        <v>-1.194939613342285</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.729326069355011</v>
+        <v>0.7283684611320496</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2349177002906799</v>
+        <v>0.2324457764625549</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.033432722091675</v>
+        <v>1.033743977546692</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1871870756149292</v>
+        <v>0.1847470551729202</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.328925609588623</v>
+        <v>1.325522661209106</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.210898518562317</v>
+        <v>1.208638787269592</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.025829553604126</v>
+        <v>1.028711915016174</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.6870160698890686</v>
+        <v>-0.687054455280304</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7610581517219543</v>
+        <v>0.7597548961639404</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.618161678314209</v>
+        <v>1.617156267166138</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9430791139602661</v>
+        <v>0.9423547983169556</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.00822901725769</v>
+        <v>1.00731348991394</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4837097227573395</v>
+        <v>0.4826329052448273</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6476883292198181</v>
+        <v>0.6479091644287109</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.06409115344285965</v>
+        <v>-0.06452567875385284</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04516415670514107</v>
+        <v>-0.04500824585556984</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.3732182085514069</v>
+        <v>0.37186399102211</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5330667495727539</v>
+        <v>-0.5321136713027954</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.039820432662964</v>
+        <v>-1.044763088226318</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5418684482574463</v>
+        <v>0.5422462224960327</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3358584642410278</v>
+        <v>0.3354562222957611</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2338650524616241</v>
+        <v>0.2329197525978088</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.09086158871650696</v>
+        <v>-0.09121490269899368</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.407559871673584</v>
+        <v>1.407642602920532</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.301889300346375</v>
+        <v>1.300071358680725</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.090506672859192</v>
+        <v>1.088917016983032</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.102005124092102</v>
+        <v>1.101142406463623</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6308432817459106</v>
+        <v>-0.6312270760536194</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4141770005226135</v>
+        <v>-0.4160824120044708</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.733562231063843</v>
+        <v>1.73307740688324</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.3002821207046509</v>
+        <v>0.2964773774147034</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4688386917114258</v>
+        <v>0.4686042666435242</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.286373257637024</v>
+        <v>1.284674167633057</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.913335800170898</v>
+        <v>1.912347674369812</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.209307909011841</v>
+        <v>1.207889556884766</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8963995575904846</v>
+        <v>0.8942679166793823</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.056569695472717</v>
+        <v>1.054296612739563</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9490441083908081</v>
+        <v>0.9494183659553528</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7706132531166077</v>
+        <v>0.7695112824440002</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4572773575782776</v>
+        <v>0.4547013938426971</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4521118402481079</v>
+        <v>-0.4528872966766357</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04410219565033913</v>
+        <v>-0.04510781913995743</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.0375661626458168</v>
+        <v>0.03726354241371155</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2241528928279877</v>
+        <v>-0.2252140641212463</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5272653102874756</v>
+        <v>0.5265414118766785</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2508420050144196</v>
+        <v>0.2500244677066803</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.203133344650269</v>
+        <v>-1.202639579772949</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.89511638879776</v>
+        <v>0.893787682056427</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.06423061341047287</v>
+        <v>0.0631440132856369</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02066306583583355</v>
+        <v>0.02149746008217335</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8564643859863281</v>
+        <v>0.8558337092399597</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.117987036705017</v>
+        <v>1.116678953170776</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.174288272857666</v>
+        <v>1.173399567604065</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.343355894088745</v>
+        <v>2.342838287353516</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.346169233322144</v>
+        <v>2.343408584594727</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.405431628227234</v>
+        <v>1.404492020606995</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9908771514892578</v>
+        <v>0.9901876449584961</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.182117223739624</v>
+        <v>1.181579232215881</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.380344748497009</v>
+        <v>1.379904627799988</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1057954505085945</v>
+        <v>0.1070717051625252</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1298029869794846</v>
+        <v>0.1305630505084991</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.045190095901489</v>
+        <v>1.044806361198425</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04777318984270096</v>
+        <v>0.04763622954487801</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.208745613694191</v>
+        <v>0.2085770964622498</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.184819936752319</v>
+        <v>1.183572173118591</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2032329589128494</v>
+        <v>0.2030111253261566</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3782577514648438</v>
+        <v>-0.3814687132835388</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3070651888847351</v>
+        <v>-0.3067347407341003</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2271440923213959</v>
+        <v>-0.2293599545955658</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.004405961837619543</v>
+        <v>0.004863398615270853</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.09878966212272644</v>
+        <v>-0.1002250388264656</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.679548025131226</v>
+        <v>1.679143905639648</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.322074413299561</v>
+        <v>1.320645809173584</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.278145045042038</v>
+        <v>-0.2796964049339294</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.420581579208374</v>
+        <v>0.4200821816921234</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9906228184700012</v>
+        <v>0.9903735518455505</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8645297884941101</v>
+        <v>0.8628369569778442</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4818383157253265</v>
+        <v>0.4814800024032593</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.16531765460968</v>
+        <v>1.165865182876587</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7298755049705505</v>
+        <v>0.7285419106483459</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.980675995349884</v>
+        <v>0.9802560806274414</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.4172124266624451</v>
+        <v>0.416841596364975</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.4982658922672272</v>
+        <v>-0.500221848487854</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.15117247402668</v>
+        <v>-0.1508063673973083</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7495719790458679</v>
+        <v>0.7468030452728271</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9550560116767883</v>
+        <v>0.9544516205787659</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.639536619186401</v>
+        <v>1.638141512870789</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.7209355235099792</v>
+        <v>0.719183087348938</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8470430374145508</v>
+        <v>0.8470209240913391</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1182453334331512</v>
+        <v>0.1180532276630402</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.069288372993469</v>
+        <v>1.064462065696716</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7078012228012085</v>
+        <v>-0.7091041803359985</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7595429420471191</v>
+        <v>-0.7605304718017578</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1869166791439056</v>
+        <v>0.1851322054862976</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3878018856048584</v>
+        <v>0.3878684341907501</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4940796792507172</v>
+        <v>0.4928454756736755</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1302106231451035</v>
+        <v>0.1302832067012787</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4603331089019775</v>
+        <v>0.4596057236194611</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9474533796310425</v>
+        <v>0.9470849633216858</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9857444167137146</v>
+        <v>0.9840233325958252</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.0001359946181764826</v>
+        <v>-0.0008983585867099464</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9658783674240112</v>
+        <v>0.9650700092315674</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6212555766105652</v>
+        <v>0.6237354278564453</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.252687007188797</v>
+        <v>0.2526256740093231</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3331827223300934</v>
+        <v>-0.3324619233608246</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5934835076332092</v>
+        <v>0.5922197103500366</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4931740462779999</v>
+        <v>0.4919431805610657</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.447819709777832</v>
+        <v>1.447119116783142</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6090754866600037</v>
+        <v>0.6073735356330872</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.686576366424561</v>
+        <v>1.686870932579041</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9035268425941467</v>
+        <v>0.9004930853843689</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.282737970352173</v>
+        <v>1.28059458732605</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.452198266983032</v>
+        <v>1.449897646903992</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.433979749679565</v>
+        <v>1.433762907981873</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.637181520462036</v>
+        <v>1.640766859054565</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8422433137893677</v>
+        <v>0.8409359455108643</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8190432190895081</v>
+        <v>0.8190012574195862</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.6976830363273621</v>
+        <v>0.6968960762023926</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.122354984283447</v>
+        <v>1.121309995651245</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5478160977363586</v>
+        <v>0.5462583303451538</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.645421862602234</v>
+        <v>1.643683671951294</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.138162612915039</v>
+        <v>1.137527704238892</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.372883558273315</v>
+        <v>2.371844530105591</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.153766751289368</v>
+        <v>1.151939272880554</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9601163864135742</v>
+        <v>0.9569506645202637</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.745014190673828</v>
+        <v>2.74356484413147</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9351404905319214</v>
+        <v>0.9347655177116394</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1039530783891678</v>
+        <v>0.1031228452920914</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.031006097793579</v>
+        <v>2.029145002365112</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.0359424389898777</v>
+        <v>0.03349681943655014</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4327773153781891</v>
+        <v>-0.4351055026054382</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1511023640632629</v>
+        <v>-0.1522589474916458</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1974145770072937</v>
+        <v>-0.1988160908222198</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6042352318763733</v>
+        <v>0.6026562452316284</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6957713961601257</v>
+        <v>0.6953915357589722</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.381069898605347</v>
+        <v>1.379459619522095</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.712402820587158</v>
+        <v>1.712649464607239</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.264147281646729</v>
+        <v>1.263446688652039</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.176990628242493</v>
+        <v>1.173238158226013</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9591084122657776</v>
+        <v>0.9585078954696655</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.501337289810181</v>
+        <v>1.499906778335571</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04705766588449478</v>
+        <v>0.04722510650753975</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.763926088809967</v>
+        <v>0.7645928859710693</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8450431823730469</v>
+        <v>0.8431274890899658</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.17685341835022</v>
+        <v>1.176196694374084</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8554299473762512</v>
+        <v>0.8538573384284973</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3515810370445251</v>
+        <v>0.3514355719089508</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1368243396282196</v>
+        <v>-0.1381880640983582</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7921701669692993</v>
+        <v>0.7908732891082764</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4735280573368073</v>
+        <v>0.4734877049922943</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8966078162193298</v>
+        <v>0.8925181031227112</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1417529433965683</v>
+        <v>0.1391278654336929</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.173418521881104</v>
+        <v>1.172878742218018</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7614662647247314</v>
+        <v>0.7613183856010437</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.388255834579468</v>
+        <v>1.386421203613281</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.098410606384277</v>
+        <v>1.097941279411316</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.410398602485657</v>
+        <v>1.409687161445618</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.0359620563685894</v>
+        <v>-0.03861451894044876</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.275609135627747</v>
+        <v>1.273864388465881</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.8988208174705505</v>
+        <v>0.8981679081916809</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.973224401473999</v>
+        <v>0.972851037979126</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.024694204330444</v>
+        <v>2.024824619293213</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1208460405468941</v>
+        <v>0.1141233071684837</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3322141468524933</v>
+        <v>0.3302022516727448</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.195805191993713</v>
+        <v>1.195860624313354</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3359921872615814</v>
+        <v>-0.3375861942768097</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.118802428245544</v>
+        <v>-1.12221372127533</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2821948528289795</v>
+        <v>-0.2837867438793182</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4440295994281769</v>
+        <v>0.4429470896720886</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.086111426353455</v>
+        <v>1.085469603538513</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.505764961242676</v>
+        <v>1.50411581993103</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2526622712612152</v>
+        <v>0.2502270042896271</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.369276285171509</v>
+        <v>1.367332220077515</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.316859841346741</v>
+        <v>1.317306399345398</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1055838540196419</v>
+        <v>0.1011799424886703</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3832627534866333</v>
+        <v>-0.3830349743366241</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6951184868812561</v>
+        <v>0.6961988806724548</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.2569580078125</v>
+        <v>1.2569899559021</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.296897053718567</v>
+        <v>1.295752286911011</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.541324615478516</v>
+        <v>1.540759563446045</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.077744245529175</v>
+        <v>1.077041983604431</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9653538465499878</v>
+        <v>0.9637553095817566</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.1487817168235779</v>
+        <v>-0.148944154381752</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.431938648223877</v>
+        <v>1.429017901420593</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8569667339324951</v>
+        <v>0.8550810217857361</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.282287955284119</v>
+        <v>1.281691551208496</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4588293135166168</v>
+        <v>0.4486066401004791</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.67762690782547</v>
+        <v>0.6765079498291016</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.673849582672119</v>
+        <v>1.674224138259888</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.5078873038291931</v>
+        <v>0.5087060928344727</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.344073176383972</v>
+        <v>1.343223452568054</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929135918617249</v>
+        <v>1.929010272026062</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.03195595741272</v>
+        <v>1.032756328582764</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8594778180122375</v>
+        <v>0.8593827486038208</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>0.4722894132137299</v>
+        <v>0.4731284976005554</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>1.193380355834961</v>
+        <v>1.194165349006653</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,7 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>0.8608841300010681</v>
+        <v>0.8602197766304016</v>
       </c>
     </row>
     <row r="895">
@@ -7596,7 +7596,15 @@
         <v>44713</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.06766799092292786</v>
+        <v>-0.06825152039527893</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B896" t="n">
+        <v>0.9059204459190369</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B896"/>
+  <dimension ref="A1:B897"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.8083685636520386</v>
+        <v>0.8095696568489075</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.523664593696594</v>
+        <v>1.524921655654907</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.465670824050903</v>
+        <v>1.466630816459656</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.87359219789505</v>
+        <v>0.8748762011528015</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2855012714862823</v>
+        <v>-0.2842558324337006</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6474726796150208</v>
+        <v>0.6478729248046875</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.975229024887085</v>
+        <v>1.975682377815247</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.183958530426025</v>
+        <v>2.192399501800537</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.215837001800537</v>
+        <v>1.215815305709839</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.936311841011047</v>
+        <v>1.936804413795471</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.81814181804657</v>
+        <v>1.819272518157959</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.912107527256012</v>
+        <v>0.9128183126449585</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.864560604095459</v>
+        <v>2.866816997528076</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.97526216506958</v>
+        <v>3.976141214370728</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.711425542831421</v>
+        <v>1.711538553237915</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.08618489652872086</v>
+        <v>0.08817658573389053</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2119905650615692</v>
+        <v>-0.2109447866678238</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6473241448402405</v>
+        <v>-0.6467685103416443</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.9118068814277649</v>
+        <v>0.9126628041267395</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.2358087450265884</v>
+        <v>0.2343423068523407</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6433082222938538</v>
+        <v>0.6443023085594177</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.700706958770752</v>
+        <v>0.7008227109909058</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.295274138450623</v>
+        <v>1.295111775398254</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.542304039001465</v>
+        <v>2.543570041656494</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.957912683486938</v>
+        <v>2.959375143051147</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.887125134468079</v>
+        <v>1.887456893920898</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.018984079360962</v>
+        <v>2.01904296875</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.579103946685791</v>
+        <v>1.579789876937866</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7482303380966187</v>
+        <v>0.7487064003944397</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.7183444499969482</v>
+        <v>0.7194924354553223</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.640139818191528</v>
+        <v>1.641085147857666</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.329395413398743</v>
+        <v>1.33588182926178</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2526693940162659</v>
+        <v>0.2537392973899841</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.8721950650215149</v>
+        <v>0.8718264698982239</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.126333475112915</v>
+        <v>2.12565541267395</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.3614166975021362</v>
+        <v>0.362154483795166</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.8665937781333923</v>
+        <v>0.8671391010284424</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.416865825653076</v>
+        <v>1.417555093765259</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.477455258369446</v>
+        <v>1.477922677993774</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>-2.391169309616089</v>
+        <v>2.392048597335815</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>-1.626432418823242</v>
+        <v>1.627910494804382</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>-1.692276239395142</v>
+        <v>1.693205237388611</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.427468538284302</v>
+        <v>1.427033543586731</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>-1.550780653953552</v>
+        <v>1.545071601867676</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.700669884681702</v>
+        <v>1.70208752155304</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>-1.973616480827332</v>
+        <v>1.9751136302948</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>-1.419014453887939</v>
+        <v>1.420066952705383</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.601690292358398</v>
+        <v>1.603530883789062</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>-2.336511850357056</v>
+        <v>2.33867335319519</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.257074952125549</v>
+        <v>1.257459282875061</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>-1.515398144721985</v>
+        <v>1.516340374946594</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.86553418636322</v>
+        <v>1.866783618927002</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.192769169807434</v>
+        <v>1.193974018096924</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.56427001953125</v>
+        <v>0.5657193660736084</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.5519729256629944</v>
+        <v>0.5522795915603638</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.89237380027771</v>
+        <v>0.8951159119606018</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.475186824798584</v>
+        <v>1.475950002670288</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.9507681131362915</v>
+        <v>0.9515358209609985</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.285021305084229</v>
+        <v>2.285087108612061</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.896669626235962</v>
+        <v>1.898386240005493</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.812966465950012</v>
+        <v>1.814614653587341</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.422738194465637</v>
+        <v>1.424981236457825</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>-1.16344141960144</v>
+        <v>1.16473650932312</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.892473936080933</v>
+        <v>1.89363157749176</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>-1.22924268245697</v>
+        <v>1.230023384094238</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.7777847647666931</v>
+        <v>0.7777740359306335</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.406595468521118</v>
+        <v>1.407105684280396</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6597327589988708</v>
+        <v>0.6591634750366211</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.3920406401157379</v>
+        <v>0.3934398889541626</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.759674787521362</v>
+        <v>1.759856939315796</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6130886077880859</v>
+        <v>0.6140003800392151</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>-1.576506018638611</v>
+        <v>1.576636791229248</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.7146187424659729</v>
+        <v>0.7155914306640625</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.5881769061088562</v>
+        <v>0.5883349180221558</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>-2.903974771499634</v>
+        <v>2.90451717376709</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.207897663116455</v>
+        <v>1.20868444442749</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.008618385531008244</v>
+        <v>0.009090070612728596</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.7417624592781067</v>
+        <v>0.7433735132217407</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.8702313303947449</v>
+        <v>0.8702964186668396</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>-2.083040714263916</v>
+        <v>2.085614681243896</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.00346476212143898</v>
+        <v>0.003703824942931533</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.6439578533172607</v>
+        <v>0.6437584757804871</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>0.270908534526825</v>
+        <v>-0.2715865671634674</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.631710648536682</v>
+        <v>1.631304383277893</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.4149231314659119</v>
+        <v>0.4158735275268555</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.5894305109977722</v>
+        <v>0.5898376107215881</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4900723993778229</v>
+        <v>0.490680456161499</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.8710718154907227</v>
+        <v>0.8703579306602478</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.9759646654129028</v>
+        <v>0.9765523672103882</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.7631964683532715</v>
+        <v>0.764603316783905</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.1805844753980637</v>
+        <v>0.1807204931974411</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>-2.36289119720459</v>
+        <v>2.372363567352295</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.8105522394180298</v>
+        <v>0.810639500617981</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.406059265136719</v>
+        <v>2.405565977096558</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.746033668518066</v>
+        <v>1.746843576431274</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>-0.9978040456771851</v>
+        <v>0.998360812664032</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>-1.57604455947876</v>
+        <v>1.576492428779602</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.580009818077087</v>
+        <v>1.580460071563721</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>-1.075955390930176</v>
+        <v>1.075021266937256</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>-1.512119650840759</v>
+        <v>1.511364698410034</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.176592826843262</v>
+        <v>1.175128579139709</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>0.1978374868631363</v>
+        <v>-0.1990850865840912</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.440188646316528</v>
+        <v>1.439879894256592</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.4066241979599</v>
+        <v>1.404230952262878</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>-2.112178802490234</v>
+        <v>2.11222243309021</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>-1.183068633079529</v>
+        <v>1.182688355445862</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.406635999679565</v>
+        <v>1.407086849212646</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>-2.054439306259155</v>
+        <v>2.055420875549316</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>-0.9203999042510986</v>
+        <v>0.9220441579818726</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.079579949378967</v>
+        <v>1.080304145812988</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.511563241481781</v>
+        <v>0.5116708278656006</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.001909613609314</v>
+        <v>1.003038644790649</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.7482789754867554</v>
+        <v>0.7500481009483337</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.612664937973022</v>
+        <v>1.614259362220764</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.8476887941360474</v>
+        <v>0.8483347296714783</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.9944906830787659</v>
+        <v>0.9968893527984619</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.1048061102628708</v>
+        <v>0.1053754091262817</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.554936170578003</v>
+        <v>1.557186841964722</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.611412763595581</v>
+        <v>1.612729668617249</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.184576272964478</v>
+        <v>1.186590790748596</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>0.1427511870861053</v>
+        <v>-0.1416527330875397</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.05347288399934769</v>
+        <v>0.0544232539832592</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.8753930330276489</v>
+        <v>0.8766911625862122</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.061423540115356</v>
+        <v>1.063289642333984</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.7922789454460144</v>
+        <v>0.794197678565979</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>0.05289297178387642</v>
+        <v>-0.05158471316099167</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.452906131744385</v>
+        <v>1.453696370124817</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.06279457360506058</v>
+        <v>0.06466072797775269</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>0.4547686576843262</v>
+        <v>-0.455102413892746</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.3899149596691132</v>
+        <v>0.3904458582401276</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>0.2873763740062714</v>
+        <v>-0.2872341275215149</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8695405125617981</v>
+        <v>-0.8682153224945068</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>0.3505492806434631</v>
+        <v>-0.3503579795360565</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.1468429714441299</v>
+        <v>0.148349866271019</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.1426620185375214</v>
+        <v>0.1428652554750443</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>-1.149056673049927</v>
+        <v>1.150797486305237</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.660786986351013</v>
+        <v>1.662254452705383</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.8022164106369019</v>
+        <v>0.8026490807533264</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8384436368942261</v>
+        <v>0.8401566743850708</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.084973812103271</v>
+        <v>1.08976674079895</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>0.01744868606328964</v>
+        <v>-0.01771034300327301</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.815855085849762</v>
+        <v>0.8163241147994995</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6377718448638916</v>
+        <v>-0.6370332837104797</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.4826696813106537</v>
+        <v>0.4824931621551514</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>0.06852180510759354</v>
+        <v>-0.06695700436830521</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.0009483275935053825</v>
+        <v>0.001472396426834166</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>0.3502228856086731</v>
+        <v>-0.3497758805751801</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.536077260971069</v>
+        <v>1.536712527275085</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>-1.638185501098633</v>
+        <v>1.638147354125977</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0251378919929266</v>
+        <v>-0.02444806508719921</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.4817767143249512</v>
+        <v>0.4821812808513641</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.26601505279541</v>
+        <v>1.272946715354919</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.8935317993164062</v>
+        <v>0.8925771713256836</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1075051873922348</v>
+        <v>0.1072015315294266</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>0.122085228562355</v>
+        <v>-0.1209416687488556</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.004776067100465298</v>
+        <v>-0.002840042114257812</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>-0.2414728552103043</v>
+        <v>0.2431856691837311</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.8760917782783508</v>
+        <v>0.8764582872390747</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.6247344613075256</v>
+        <v>0.625799834728241</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.7093476057052612</v>
+        <v>0.7089800238609314</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.954393744468689</v>
+        <v>0.9556423425674438</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.7956252694129944</v>
+        <v>0.7965000867843628</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.647301197052002</v>
+        <v>0.64865642786026</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.1336745917797089</v>
+        <v>0.1347542256116867</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9289321899414062</v>
+        <v>0.9293454885482788</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.3874532580375671</v>
+        <v>0.3869433999061584</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>0.2784649729728699</v>
+        <v>-0.278880387544632</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>1.076325297355652</v>
+        <v>-1.076541900634766</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6758149862289429</v>
+        <v>-0.6766542196273804</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.7795482277870178</v>
+        <v>0.7810084223747253</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.4813961982727051</v>
+        <v>0.4822837710380554</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06720902770757675</v>
+        <v>-0.06782416999340057</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5387974977493286</v>
+        <v>0.5384341478347778</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.730573415756226</v>
+        <v>1.730290412902832</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>0.07666628062725067</v>
+        <v>-0.07690947502851486</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.2385169714689255</v>
+        <v>0.2397222220897675</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>0.1519510746002197</v>
+        <v>-0.1512204110622406</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.031590819358826</v>
+        <v>1.030673503875732</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.006017684936523</v>
+        <v>1.007068037986755</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>0.5866119861602783</v>
+        <v>-0.5857955813407898</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>0.4528301358222961</v>
+        <v>-0.4522000253200531</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>0.4809035062789917</v>
+        <v>-0.4812344014644623</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.05172797664999962</v>
+        <v>0.0529441200196743</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.131108403205872</v>
+        <v>1.131791234016418</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.007419228553772</v>
+        <v>1.007594108581543</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>-1.006883025169373</v>
+        <v>1.007147073745728</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>-1.541423916816711</v>
+        <v>1.541119337081909</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.938675165176392</v>
+        <v>2.943189144134521</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.9799631834030151</v>
+        <v>0.9802048802375793</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>-0.02411877922713757</v>
+        <v>0.02526305429637432</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.295091301202774</v>
+        <v>0.2956563830375671</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>-0.03448709473013878</v>
+        <v>0.03521758690476418</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.182592988014221</v>
+        <v>1.183482885360718</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.386611700057983</v>
+        <v>1.386592149734497</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.3977057635784149</v>
+        <v>0.3981318473815918</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7452511787414551</v>
+        <v>0.7452362775802612</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>-0.1493525356054306</v>
+        <v>0.1504748910665512</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>-2.70458197593689</v>
+        <v>2.704316854476929</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>-2.715152740478516</v>
+        <v>2.714766979217529</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>-1.526538610458374</v>
+        <v>1.529156565666199</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>0.08159645646810532</v>
+        <v>-0.08105622231960297</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.2528145313262939</v>
+        <v>0.2534249722957611</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.149112582206726</v>
+        <v>1.150816679000854</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>-1.265817046165466</v>
+        <v>1.26683497428894</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.8042044043540955</v>
+        <v>0.8046886920928955</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>-3.04105019569397</v>
+        <v>3.041976451873779</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.9301213622093201</v>
+        <v>0.9301199913024902</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.594522476196289</v>
+        <v>1.595237612724304</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>-2.112878322601318</v>
+        <v>2.113660097122192</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.1736729145050049</v>
+        <v>0.1746230572462082</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>-1.079574823379517</v>
+        <v>1.080941319465637</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.205844402313232</v>
+        <v>1.211305856704712</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.7772749662399292</v>
+        <v>0.7783715724945068</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.238869071006775</v>
+        <v>1.239347815513611</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>0.04559537768363953</v>
+        <v>-0.04422350600361824</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.495222568511963</v>
+        <v>1.496297001838684</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>-0.03126863017678261</v>
+        <v>0.03253542631864548</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.9751837849617004</v>
+        <v>0.9758966565132141</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>-2.338033437728882</v>
+        <v>2.338768005371094</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.198578476905823</v>
+        <v>1.199540019035339</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.914347410202026</v>
+        <v>1.915012717247009</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>0.3308839797973633</v>
+        <v>-0.3308355510234833</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.6926007866859436</v>
+        <v>0.6928224563598633</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.06675495952367783</v>
+        <v>0.06899640709161758</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.48259636759758</v>
+        <v>0.4823206067085266</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>0.069376140832901</v>
+        <v>-0.06928177177906036</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.043020725250244</v>
+        <v>1.043739199638367</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.7195615768432617</v>
+        <v>0.7196248173713684</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>-1.765813231468201</v>
+        <v>1.76655638217926</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.6029865145683289</v>
+        <v>0.6029247641563416</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.1282669603824615</v>
+        <v>0.1276529878377914</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.518721342086792</v>
+        <v>0.5189193487167358</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.4238409996032715</v>
+        <v>0.4246795773506165</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.2613152265548706</v>
+        <v>0.2608364820480347</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.2465859800577164</v>
+        <v>0.2466265708208084</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>0.1928192973136902</v>
+        <v>-0.182338610291481</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.009387439116835594</v>
+        <v>-0.008494429290294647</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.009052583947777748</v>
+        <v>0.009878519922494888</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.6982691884040833</v>
+        <v>0.6986066102981567</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4973463118076324</v>
+        <v>0.4988938868045807</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.7019966244697571</v>
+        <v>0.7028447985649109</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.6876406073570251</v>
+        <v>0.6884688138961792</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.2960516214370728</v>
+        <v>0.2951439619064331</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.520386219024658</v>
+        <v>1.520318627357483</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>-1.775604486465454</v>
+        <v>1.775761008262634</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.2981148660182953</v>
+        <v>0.2977776527404785</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>0.3884680271148682</v>
+        <v>-0.3886738121509552</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.3957322835922241</v>
+        <v>0.3950755298137665</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>-1.105639815330505</v>
+        <v>1.10735809803009</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>-1.232953906059265</v>
+        <v>1.233331322669983</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>-1.126737594604492</v>
+        <v>1.12831711769104</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.4361684620380402</v>
+        <v>0.437544047832489</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>-2.31357741355896</v>
+        <v>2.315665245056152</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>-1.307093024253845</v>
+        <v>1.308036208152771</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.006147008389234543</v>
+        <v>-0.005044460296630859</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.9545910954475403</v>
+        <v>0.9550744891166687</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.2229572683572769</v>
+        <v>0.2242151200771332</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.4520780444145203</v>
+        <v>0.4531012177467346</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>0.7531350255012512</v>
+        <v>-0.7520628571510315</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>0.4995141625404358</v>
+        <v>-0.4935605525970459</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>0.01861612498760223</v>
+        <v>-0.01884309202432632</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.6464628577232361</v>
+        <v>0.6474470496177673</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>0.6107309460639954</v>
+        <v>-0.6105455756187439</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>0.003181255888193846</v>
+        <v>-0.002686089370399714</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>0.6675003170967102</v>
+        <v>-0.6661264300346375</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>0.341289609670639</v>
+        <v>-0.3398830592632294</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.8035382032394409</v>
+        <v>0.8051249980926514</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.2322814911603928</v>
+        <v>0.2340816855430603</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.04006399586796761</v>
+        <v>0.0406213104724884</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>0.4118277132511139</v>
+        <v>-0.4123381972312927</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.1326849609613419</v>
+        <v>0.1329433470964432</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>1.062080860137939</v>
+        <v>-1.05785059928894</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4289523363113403</v>
+        <v>0.4275978803634644</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>-1.041381359100342</v>
+        <v>1.041370987892151</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1616641730070114</v>
+        <v>-0.1626000106334686</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>-1.070330500602722</v>
+        <v>1.070755243301392</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>-1.070409774780273</v>
+        <v>1.070405006408691</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.4162501990795135</v>
+        <v>0.4159074127674103</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>0.3481350243091583</v>
+        <v>-0.3477098941802979</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.5927931070327759</v>
+        <v>0.5919453501701355</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>-1.188033938407898</v>
+        <v>1.188590407371521</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>0.3071036040782928</v>
+        <v>-0.3068390190601349</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.8909387588500977</v>
+        <v>0.8909991979598999</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.233997568488121</v>
+        <v>0.2453546822071075</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>0.06946238130331039</v>
+        <v>-0.06945309042930603</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.01152135152369738</v>
+        <v>0.01206974498927593</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3988736569881439</v>
+        <v>0.3992345035076141</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>-1.175033688545227</v>
+        <v>1.1765216588974</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>-1.557996153831482</v>
+        <v>1.560642838478088</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.7668506503105164</v>
+        <v>0.7681690454483032</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.7285740971565247</v>
+        <v>0.7288805842399597</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>-1.247331380844116</v>
+        <v>1.248698949813843</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>-0.2884439527988434</v>
+        <v>0.2902921140193939</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>-1.02981424331665</v>
+        <v>1.032288312911987</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>-0.7471866607666016</v>
+        <v>0.7481330633163452</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>-1.282193064689636</v>
+        <v>1.286425590515137</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.00311818509362638</v>
+        <v>0.004141403362154961</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>0.2070281058549881</v>
+        <v>-0.2065924555063248</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>0.7048041820526123</v>
+        <v>-0.7033088207244873</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>-0.3687037527561188</v>
+        <v>0.3708589375019073</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.2139405906200409</v>
+        <v>0.2155498266220093</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3720980286598206</v>
+        <v>-0.3710607588291168</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>1.019689083099365</v>
+        <v>-1.019502282142639</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>-0.04441939294338226</v>
+        <v>0.04671566560864449</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.8132292032241821</v>
+        <v>0.8144222497940063</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>0.1569351106882095</v>
+        <v>-0.1571370661258698</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2999449968338013</v>
+        <v>-0.3008380234241486</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6414112448692322</v>
+        <v>-0.6320228576660156</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.1439120769500732</v>
+        <v>0.144084244966507</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>0.08561869710683823</v>
+        <v>-0.08712954819202423</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.09109491854906082</v>
+        <v>0.09189808368682861</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>1.12153685092926</v>
+        <v>-1.121208429336548</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.3768074214458466</v>
+        <v>0.3770380914211273</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>0.7911742329597473</v>
+        <v>-0.7919942736625671</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>0.6970690488815308</v>
+        <v>-0.6974703073501587</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.2365777194499969</v>
+        <v>0.2362907230854034</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>-0.05274635925889015</v>
+        <v>0.05356592684984207</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>-0.7505415678024292</v>
+        <v>0.7495836019515991</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.09820389747619629</v>
+        <v>0.09834940731525421</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>-2.021627902984619</v>
+        <v>2.028119564056396</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>0.7082852125167847</v>
+        <v>-0.7078128457069397</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.5264696478843689</v>
+        <v>0.5264430046081543</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>-1.358262181282043</v>
+        <v>1.358856558799744</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>-1.274250984191895</v>
+        <v>1.275340437889099</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.9079102277755737</v>
+        <v>0.9100842475891113</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>-0.06340382993221283</v>
+        <v>0.06419934332370758</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.13051538169384</v>
+        <v>0.1300324499607086</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>0.02050527930259705</v>
+        <v>-0.02003194205462933</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.851561427116394</v>
+        <v>0.8527033925056458</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>-0.1606284826993942</v>
+        <v>0.1618569046258926</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>-0.9738593697547913</v>
+        <v>0.973548948764801</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>0.7372080683708191</v>
+        <v>-0.7332024574279785</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>1.298436164855957</v>
+        <v>-1.298183560371399</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3419572114944458</v>
+        <v>-0.3427120745182037</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>0.08324912190437317</v>
+        <v>-0.08157185465097427</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>0.02322983928024769</v>
+        <v>-0.02222343161702156</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>-0.6134746074676514</v>
+        <v>0.614530622959137</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>0.522610068321228</v>
+        <v>-0.5223895311355591</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.1093878820538521</v>
+        <v>0.1096781119704247</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>0.6987882256507874</v>
+        <v>-0.6981582045555115</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>0.7770321369171143</v>
+        <v>-0.7749954462051392</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>0.1437773704528809</v>
+        <v>-0.1422742307186127</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.005982911214232445</v>
+        <v>0.007942698895931244</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>0.04444622248411179</v>
+        <v>-0.0461605079472065</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>-0.0700092688202858</v>
+        <v>0.07184059917926788</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>-0.6057429909706116</v>
+        <v>0.6073763966560364</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>-1.902338743209839</v>
+        <v>1.902552008628845</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>-3.056894540786743</v>
+        <v>3.059481859207153</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>-1.824677705764771</v>
+        <v>1.827024936676025</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>0.1049687042832375</v>
+        <v>-0.1035445854067802</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.1846331804990768</v>
+        <v>0.1862325519323349</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>-0.7564125061035156</v>
+        <v>0.7572919726371765</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.7095763683319092</v>
+        <v>0.7104334831237793</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>-0.5077645778656006</v>
+        <v>0.5083641409873962</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>-0.5390973091125488</v>
+        <v>0.5400351881980896</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>-0.6943988800048828</v>
+        <v>0.699316680431366</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>0.5345503091812134</v>
+        <v>-0.5325219035148621</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>0.3755930066108704</v>
+        <v>-0.3742321133613586</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>0.4760949313640594</v>
+        <v>-0.4748557209968567</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.09344068914651871</v>
+        <v>0.09528166800737381</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>1.058355689048767</v>
+        <v>-1.057066321372986</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>0.297678679227829</v>
+        <v>-0.2963164746761322</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2926396131515503</v>
+        <v>-0.2916497886180878</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>-0.08817417174577713</v>
+        <v>0.08884159475564957</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.3766950666904449</v>
+        <v>0.3771431744098663</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.1525209993124008</v>
+        <v>0.1534839272499084</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>-1.543667197227478</v>
+        <v>1.544694542884827</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>1.337084293365479</v>
+        <v>-1.338341593742371</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>0.8513780236244202</v>
+        <v>-0.8515412211418152</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.006266342010349035</v>
+        <v>0.007326409220695496</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>0.1990701258182526</v>
+        <v>-0.1970299035310745</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>0.3195794820785522</v>
+        <v>-0.3186657428741455</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>0.6938669681549072</v>
+        <v>-0.6926886439323425</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>0.6813894510269165</v>
+        <v>-0.6809230446815491</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>1.026776313781738</v>
+        <v>-1.026416301727295</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>0.2329045087099075</v>
+        <v>-0.2317891269922256</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>1.223084330558777</v>
+        <v>-1.221095323562622</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>1.809767723083496</v>
+        <v>-1.808671832084656</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>1.846775770187378</v>
+        <v>-1.845185399055481</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>0.08628296107053757</v>
+        <v>-0.08836434036493301</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>0.8315654993057251</v>
+        <v>-0.8308789134025574</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4896523952484131</v>
+        <v>-0.4882502257823944</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>-0.244978666305542</v>
+        <v>0.2463299185037613</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>-0.1483910530805588</v>
+        <v>0.1506287455558777</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>0.05248885229229927</v>
+        <v>-0.05111490190029144</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>-0.4940982758998871</v>
+        <v>0.4945586323738098</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.7906099557876587</v>
+        <v>0.7935636043548584</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>-1.17815625667572</v>
+        <v>1.179748296737671</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>0.4343955516815186</v>
+        <v>-0.4336419403553009</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>0.8088861107826233</v>
+        <v>-0.8076184391975403</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.7822744846343994</v>
+        <v>0.7845158576965332</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>0.1390240639448166</v>
+        <v>-0.134620875120163</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.6258391141891479</v>
+        <v>0.6276289820671082</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>1.033200144767761</v>
+        <v>-1.033199071884155</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>-0.9413865804672241</v>
+        <v>0.9434383511543274</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>-0.2229445278644562</v>
+        <v>0.2246751189231873</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>0.7900683283805847</v>
+        <v>-0.7894831895828247</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>0.5977070331573486</v>
+        <v>-0.5977573990821838</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>-0.6228453516960144</v>
+        <v>0.6237438917160034</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>-1.057514667510986</v>
+        <v>1.058957457542419</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>-0.009416760876774788</v>
+        <v>0.01006209757179022</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>0.2545692324638367</v>
+        <v>-0.2548794150352478</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>-0.6089146137237549</v>
+        <v>0.608764111995697</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>-1.485849976539612</v>
+        <v>1.488224148750305</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>-0.4425185322761536</v>
+        <v>0.4447570145130157</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.1084976270794868</v>
+        <v>0.1097975373268127</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6987407207489014</v>
+        <v>-0.6993665099143982</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>1.481311798095703</v>
+        <v>-1.48102593421936</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>0.07145809382200241</v>
+        <v>-0.07051493972539902</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9429095983505249</v>
+        <v>-0.9426714777946472</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>1.731401920318604</v>
+        <v>-1.731581330299377</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>1.444269895553589</v>
+        <v>-1.443507790565491</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4017260670661926</v>
+        <v>-0.4005583524703979</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>0.8512744307518005</v>
+        <v>-0.850391149520874</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>-0.01558706443756819</v>
+        <v>0.01768454909324646</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>0.958005964756012</v>
+        <v>-0.9608192443847656</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>1.523008108139038</v>
+        <v>-1.521300196647644</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>-0.6849632263183594</v>
+        <v>0.6875953674316406</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.067827008664608</v>
+        <v>0.06905912607908249</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>-1.20147180557251</v>
+        <v>1.203298926353455</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.4556201696395874</v>
+        <v>0.458548903465271</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>0.06796257942914963</v>
+        <v>-0.0655047595500946</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>0.8101210594177246</v>
+        <v>-0.809078574180603</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>0.1230939701199532</v>
+        <v>-0.1224640607833862</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>0.1354816555976868</v>
+        <v>-0.1348635256290436</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>0.1829539239406586</v>
+        <v>-0.1820362955331802</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>0.6919602155685425</v>
+        <v>-0.6920767426490784</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>0.7444102764129639</v>
+        <v>-0.7397190928459167</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>-0.1096519008278847</v>
+        <v>0.1099941059947014</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>1.125897765159607</v>
+        <v>-1.125666975975037</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>1.077924132347107</v>
+        <v>-1.078891158103943</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>0.764556884765625</v>
+        <v>-0.7632174491882324</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.8869921565055847</v>
+        <v>0.8886712789535522</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.4088378250598907</v>
+        <v>0.4097380936145782</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>0.3582926988601685</v>
+        <v>-0.357655793428421</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>0.2983225286006927</v>
+        <v>-0.2972629964351654</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>-0.3044814765453339</v>
+        <v>0.3052153885364532</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>0.9285250902175903</v>
+        <v>-0.9275026917457581</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>0.3518002331256866</v>
+        <v>-0.3517424464225769</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>-0.4681079983711243</v>
+        <v>0.4737218618392944</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5121600031852722</v>
+        <v>0.5118930339813232</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>0.4657142460346222</v>
+        <v>-0.4639176726341248</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>0.9135658740997314</v>
+        <v>-0.9128866195678711</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>-1.66989803314209</v>
+        <v>1.66981053352356</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.4137603342533112</v>
+        <v>0.4144422113895416</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>0.08289017528295517</v>
+        <v>-0.08233413100242615</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>-0.1887259483337402</v>
+        <v>0.189882829785347</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>0.2109086662530899</v>
+        <v>-0.211395651102066</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>-0.02327964082360268</v>
+        <v>0.02376971021294594</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>0.01731043308973312</v>
+        <v>-0.01588326320052147</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>1.580799698829651</v>
+        <v>-1.580028176307678</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>0.9643385410308838</v>
+        <v>-0.9602451920509338</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>1.227398157119751</v>
+        <v>-1.227365016937256</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>0.6690806746482849</v>
+        <v>-0.6680925488471985</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>1.586872935295105</v>
+        <v>-1.585558414459229</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>0.7913014888763428</v>
+        <v>-0.7909119725227356</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>0.5488641262054443</v>
+        <v>-0.5479273200035095</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>-1.265994071960449</v>
+        <v>1.266985058784485</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>0.107761338353157</v>
+        <v>-0.1072420328855515</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>0.4084823429584503</v>
+        <v>-0.4075174927711487</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>-1.098231196403503</v>
+        <v>1.099783420562744</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.4935519397258759</v>
+        <v>0.4937729835510254</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>0.2883993983268738</v>
+        <v>-0.2868840396404266</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.2269748002290726</v>
+        <v>0.2253390550613403</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>1.308921098709106</v>
+        <v>-1.306865930557251</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>0.4050848186016083</v>
+        <v>-0.4039095342159271</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>0.5129047632217407</v>
+        <v>-0.5100911259651184</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>1.447871327400208</v>
+        <v>-1.446771144866943</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.5465477705001831</v>
+        <v>0.5474241375923157</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.08748509734869003</v>
+        <v>0.08978807926177979</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>-0.217415526509285</v>
+        <v>0.2193259298801422</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4413740634918213</v>
+        <v>-0.4405253231525421</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>0.3790766000747681</v>
+        <v>-0.3786828815937042</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>0.163679301738739</v>
+        <v>-0.1616744250059128</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>-0.8174225091934204</v>
+        <v>0.8192797303199768</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>1.343305706977844</v>
+        <v>-1.344043254852295</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>0.07620801776647568</v>
+        <v>-0.07308365404605865</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6770357489585876</v>
+        <v>-0.6761590242385864</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>1.322322487831116</v>
+        <v>-1.321298956871033</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>0.6503557562828064</v>
+        <v>-0.6494646668434143</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>0.2223466634750366</v>
+        <v>-0.2210716158151627</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>0.639135479927063</v>
+        <v>-0.6378877758979797</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.08965971320867538</v>
+        <v>0.09053736925125122</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4243253767490387</v>
+        <v>-0.4233646094799042</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.1221656128764153</v>
+        <v>0.1226962432265282</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.3642017543315887</v>
+        <v>0.3644443154335022</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>1.174687623977661</v>
+        <v>-1.174444317817688</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01652831956744194</v>
+        <v>-0.01174208614975214</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2403071671724319</v>
+        <v>0.2402890771627426</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.645886063575745</v>
+        <v>1.646533370018005</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>1.143112778663635</v>
+        <v>-1.143070578575134</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>1.096120238304138</v>
+        <v>-1.095993280410767</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>0.1962342262268066</v>
+        <v>-0.1963824033737183</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>0.5869596004486084</v>
+        <v>-0.5864946842193604</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>0.642240583896637</v>
+        <v>-0.6431649923324585</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>0.1515681594610214</v>
+        <v>-0.1508205533027649</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>2.134670257568359</v>
+        <v>-2.134276390075684</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>1.938047766685486</v>
+        <v>-1.937919497489929</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>1.006123423576355</v>
+        <v>-1.006302118301392</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>-0.09230314195156097</v>
+        <v>0.09502016007900238</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>-0.3004219233989716</v>
+        <v>0.3004646897315979</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>0.6397644281387329</v>
+        <v>-0.639362633228302</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>0.5414484143257141</v>
+        <v>-0.5412447452545166</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>0.2590271532535553</v>
+        <v>-0.2582786083221436</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>0.3088656365871429</v>
+        <v>-0.3077766895294189</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>1.104307293891907</v>
+        <v>-1.103848934173584</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>0.7201677560806274</v>
+        <v>-0.7195433378219604</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>-1.334592938423157</v>
+        <v>1.336128234863281</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>-0.664883017539978</v>
+        <v>0.6651962399482727</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>0.4471033215522766</v>
+        <v>-0.446211963891983</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.4530500769615173</v>
+        <v>0.4529329240322113</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>0.5644501447677612</v>
+        <v>-0.5666019916534424</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>1.720235109329224</v>
+        <v>-1.718767523765564</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>0.497346431016922</v>
+        <v>-0.4969626665115356</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>0.2732413113117218</v>
+        <v>-0.2716023921966553</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1181607097387314</v>
+        <v>-0.1168373599648476</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>1.104140520095825</v>
+        <v>-1.103175044059753</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>-0.09197719395160675</v>
+        <v>0.09256356954574585</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4934368431568146</v>
+        <v>-0.4918974637985229</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.1499070227146149</v>
+        <v>0.1515779197216034</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2445886731147766</v>
+        <v>-0.2423034459352493</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.3623534739017487</v>
+        <v>0.3645205199718475</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>-0.4018221795558929</v>
+        <v>0.4032023847103119</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9404423832893372</v>
+        <v>-0.939063549041748</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>-0.4836205542087555</v>
+        <v>0.4853048920631409</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>0.126194030046463</v>
+        <v>-0.1235164925456047</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.04340395703911781</v>
+        <v>0.04540885612368584</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.656703114509583</v>
+        <v>1.659119486808777</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>0.5696906447410583</v>
+        <v>-0.5686191916465759</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.5903220176696777</v>
+        <v>0.5922183394432068</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.2707225382328033</v>
+        <v>0.2735726535320282</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>-0.2642520368099213</v>
+        <v>0.2650121748447418</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.9400377869606018</v>
+        <v>0.9415695667266846</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>-1.321688055992126</v>
+        <v>1.323075771331787</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>0.4606104493141174</v>
+        <v>-0.4590142369270325</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>0.3244466781616211</v>
+        <v>-0.3284438252449036</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3615266680717468</v>
+        <v>-0.3603899478912354</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>-0.2810713946819305</v>
+        <v>0.2820762693881989</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>0.2075194865465164</v>
+        <v>-0.2064892500638962</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>0.09714771062135696</v>
+        <v>-0.09593101590871811</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>-1.213820695877075</v>
+        <v>1.216658473014832</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>0.3505993783473969</v>
+        <v>-0.3493211269378662</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>0.01502593513578176</v>
+        <v>-0.01276821549981833</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>0.5285267233848572</v>
+        <v>-0.5262819528579712</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>1.305343627929688</v>
+        <v>-1.30504035949707</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>1.639349460601807</v>
+        <v>-1.637984037399292</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>1.563458919525146</v>
+        <v>-1.563231945037842</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>1.183973670005798</v>
+        <v>-1.188969969749451</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>1.153142094612122</v>
+        <v>-1.151142001152039</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>1.101132392883301</v>
+        <v>-1.099205136299133</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>0.5672906637191772</v>
+        <v>-0.5661047101020813</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>1.21335780620575</v>
+        <v>-1.211851239204407</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>0.6336243748664856</v>
+        <v>-0.6326916217803955</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>1.170828580856323</v>
+        <v>-1.170145869255066</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>1.011886835098267</v>
+        <v>-1.009236693382263</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>0.3777364790439606</v>
+        <v>-0.3757493197917938</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>0.4575250744819641</v>
+        <v>-0.4554932415485382</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8805121779441833</v>
+        <v>0.8821051716804504</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>0.4958694279193878</v>
+        <v>-0.4937103092670441</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>1.741475105285645</v>
+        <v>-1.739802241325378</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.5196444392204285</v>
+        <v>0.5228139758110046</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>0.1194025129079819</v>
+        <v>-0.1170891523361206</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.002759362105280161</v>
+        <v>-0.002278531668707728</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>1.320109486579895</v>
+        <v>-1.317556023597717</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>1.362646698951721</v>
+        <v>-1.361753225326538</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8109362125396729</v>
+        <v>-0.8098518848419189</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>0.1836640983819962</v>
+        <v>-0.181863859295845</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>0.2205828130245209</v>
+        <v>-0.2210320979356766</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>1.54375159740448</v>
+        <v>-1.542826414108276</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>-0.1041602194309235</v>
+        <v>0.1056884154677391</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>-1.587232708930969</v>
+        <v>1.588632583618164</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>0.1703132092952728</v>
+        <v>-0.1672359257936478</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>1.646442294120789</v>
+        <v>-1.645372986793518</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.3231675922870636</v>
+        <v>0.3227311074733734</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>0.6294032335281372</v>
+        <v>-0.6284963488578796</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>0.9964114427566528</v>
+        <v>-0.9958748817443848</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>0.02479558624327183</v>
+        <v>-0.02488703466951847</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.2549311220645905</v>
+        <v>0.2554897964000702</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>0.5302532911300659</v>
+        <v>-0.5305225849151611</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>0.6064372062683105</v>
+        <v>-0.6064109802246094</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>1.114524722099304</v>
+        <v>-1.113582491874695</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>0.1126074865460396</v>
+        <v>-0.1120989322662354</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.2523500919342041</v>
+        <v>0.2535356879234314</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>-0.8320292830467224</v>
+        <v>0.83384108543396</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>-1.6124027967453</v>
+        <v>1.611653208732605</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>1.110195159912109</v>
+        <v>-1.110004186630249</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>-1.240506291389465</v>
+        <v>1.242151498794556</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>0.06080502644181252</v>
+        <v>-0.06030434742569923</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>0.837165892124176</v>
+        <v>-0.837493896484375</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>0.4106072783470154</v>
+        <v>-0.4102886617183685</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9298130869865417</v>
+        <v>-0.9283364415168762</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>0.201984629034996</v>
+        <v>-0.2000202238559723</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>0.9710065126419067</v>
+        <v>-0.9697321653366089</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.1830799430608749</v>
+        <v>0.1834995299577713</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>1.140263438224792</v>
+        <v>-1.137741208076477</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>0.6469950675964355</v>
+        <v>-0.6508527398109436</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>0.1804564446210861</v>
+        <v>-0.1783961206674576</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>0.07228067517280579</v>
+        <v>-0.07049815356731415</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>-1.092789888381958</v>
+        <v>1.093740105628967</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>0.1776549071073532</v>
+        <v>-0.1762857884168625</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>1.082636594772339</v>
+        <v>-1.081175208091736</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>1.674496531486511</v>
+        <v>-1.67290735244751</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>1.070778489112854</v>
+        <v>-1.070033669471741</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>2.289116859436035</v>
+        <v>-2.289236307144165</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>0.704642653465271</v>
+        <v>-0.7030070424079895</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>1.518214106559753</v>
+        <v>-1.518447518348694</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>1.752176880836487</v>
+        <v>-1.753215193748474</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>1.236216902732849</v>
+        <v>-1.228055477142334</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>0.818213939666748</v>
+        <v>-0.8181077837944031</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>0.8774768710136414</v>
+        <v>-0.8777899742126465</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>1.158207535743713</v>
+        <v>-1.15773606300354</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>1.392944812774658</v>
+        <v>-1.392197966575623</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>1.010984301567078</v>
+        <v>-1.011407375335693</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>0.562153160572052</v>
+        <v>-0.5619756579399109</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>0.2202207297086716</v>
+        <v>-0.220307320356369</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>1.399742364883423</v>
+        <v>-1.398093223571777</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>1.496483087539673</v>
+        <v>-1.497027635574341</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6685765981674194</v>
+        <v>0.6691420078277588</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>0.6989576816558838</v>
+        <v>-0.6983820796012878</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>0.5354722738265991</v>
+        <v>-0.5357803702354431</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>0.3516600131988525</v>
+        <v>-0.3511751890182495</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>1.981030106544495</v>
+        <v>-1.980795979499817</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>1.175949931144714</v>
+        <v>-1.176176905632019</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>1.54809558391571</v>
+        <v>-1.5469731092453</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7142361998558044</v>
+        <v>-0.7133395075798035</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>1.383350133895874</v>
+        <v>-1.383564233779907</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>0.631669282913208</v>
+        <v>-0.6325599551200867</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>0.7414711117744446</v>
+        <v>-0.7413505911827087</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>1.432673573493958</v>
+        <v>-1.432795286178589</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>0.6892590522766113</v>
+        <v>-0.6883206963539124</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.009980425238609314</v>
+        <v>0.009755824692547321</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.1192937940359116</v>
+        <v>0.1210572794079781</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>-0.8679218888282776</v>
+        <v>0.8694552183151245</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>0.6460729241371155</v>
+        <v>-0.6448073983192444</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>-1.166699171066284</v>
+        <v>1.167979836463928</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>-0.8691147565841675</v>
+        <v>0.8709084391593933</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>0.5652466416358948</v>
+        <v>-0.5646529793739319</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.2509918212890625</v>
+        <v>0.2512680292129517</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>0.4842621386051178</v>
+        <v>-0.4840379059314728</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>1.210980892181396</v>
+        <v>-1.210049748420715</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>0.1151644960045815</v>
+        <v>-0.1151328012347221</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>1.170905470848083</v>
+        <v>-1.169973731040955</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.2360800206661224</v>
+        <v>0.2381386905908585</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>1.002947688102722</v>
+        <v>-1.005047917366028</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>1.156953930854797</v>
+        <v>-1.157225131988525</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>0.8792329430580139</v>
+        <v>-0.8791685700416565</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>1.34817111492157</v>
+        <v>-1.348823308944702</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>0.6102534532546997</v>
+        <v>-0.6104005575180054</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>0.736053466796875</v>
+        <v>-0.7357504367828369</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>1.279827117919922</v>
+        <v>-1.279109716415405</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.9055961966514587</v>
+        <v>0.9079926609992981</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3415157496929169</v>
+        <v>-0.341566264629364</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.106076836585999</v>
+        <v>1.108918786048889</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>0.7518593072891235</v>
+        <v>-0.7501243352890015</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>0.07057423144578934</v>
+        <v>-0.06979645788669586</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>0.5944792628288269</v>
+        <v>-0.6008224487304688</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>0.08544166386127472</v>
+        <v>-0.08490028977394104</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>-1.897193551063538</v>
+        <v>1.89910101890564</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>0.3419714868068695</v>
+        <v>-0.3394819796085358</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>1.268808007240295</v>
+        <v>-1.267808318138123</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>-0.03512942790985107</v>
+        <v>0.03670415654778481</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>-0.02032403089106083</v>
+        <v>0.02050978131592274</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>0.1271493285894394</v>
+        <v>-0.1263584345579147</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>0.6888830065727234</v>
+        <v>-0.6878276467323303</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>0.9857786893844604</v>
+        <v>-0.9850082993507385</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.2597475945949554</v>
+        <v>0.2597676813602448</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>1.035873889923096</v>
+        <v>-1.035273790359497</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>0.501329779624939</v>
+        <v>-0.5049992799758911</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>0.2566031515598297</v>
+        <v>-0.2561194598674774</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.05051314830780029</v>
+        <v>0.05067028477787971</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>0.07328830659389496</v>
+        <v>-0.07141344994306564</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.1447543352842331</v>
+        <v>0.1452741324901581</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>1.015468239784241</v>
+        <v>-1.015841364860535</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>-0.254163384437561</v>
+        <v>0.2556755542755127</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>0.7335070371627808</v>
+        <v>-0.7324772477149963</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>0.8683991432189941</v>
+        <v>-0.8676841855049133</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>1.005218267440796</v>
+        <v>-1.004075527191162</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>2.003836154937744</v>
+        <v>-2.002718687057495</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>1.258374810218811</v>
+        <v>-1.258009552955627</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>0.2819567024707794</v>
+        <v>-0.288110077381134</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>0.9581581950187683</v>
+        <v>-0.9566729068756104</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>0.4761554896831512</v>
+        <v>-0.4754779934883118</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>0.173443540930748</v>
+        <v>-0.1723948270082474</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.4042508900165558</v>
+        <v>0.4053641557693481</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5920888185501099</v>
+        <v>-0.5911536812782288</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>1.083421230316162</v>
+        <v>-1.082031965255737</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>0.260852187871933</v>
+        <v>-0.2599738538265228</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>1.211913228034973</v>
+        <v>-1.210007667541504</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>0.3023524284362793</v>
+        <v>-0.3012766242027283</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.2757063806056976</v>
+        <v>0.2766356468200684</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>0.6146577000617981</v>
+        <v>-0.6132911443710327</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>0.4336445331573486</v>
+        <v>-0.4342842102050781</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>0.8309254050254822</v>
+        <v>-0.8308106660842896</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>0.3914127945899963</v>
+        <v>-0.3910907506942749</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>0.09003885835409164</v>
+        <v>-0.08817523717880249</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>-1.194939613342285</v>
+        <v>1.196447134017944</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>0.7283684611320496</v>
+        <v>-0.7282348871231079</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>0.2324457764625549</v>
+        <v>-0.2309651523828506</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>1.033743977546692</v>
+        <v>-1.033415198326111</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>0.1847470551729202</v>
+        <v>-0.1849977672100067</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>1.325522661209106</v>
+        <v>-1.325012564659119</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>1.208638787269592</v>
+        <v>-1.206910014152527</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>1.028711915016174</v>
+        <v>-1.027181506156921</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>-0.687054455280304</v>
+        <v>0.6938733458518982</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>0.7597548961639404</v>
+        <v>-0.7582343816757202</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>1.617156267166138</v>
+        <v>-1.616528153419495</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>0.9423547983169556</v>
+        <v>-0.9417039752006531</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>1.00731348991394</v>
+        <v>-1.006357669830322</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>0.4826329052448273</v>
+        <v>-0.4812541902065277</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>0.6479091644287109</v>
+        <v>-0.646686851978302</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.06452567875385284</v>
+        <v>0.06505252420902252</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.04500824585556984</v>
+        <v>0.04613856598734856</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>0.37186399102211</v>
+        <v>-0.3715806901454926</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>-0.5321136713027954</v>
+        <v>0.5330008864402771</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.044763088226318</v>
+        <v>1.045879006385803</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>0.5422462224960327</v>
+        <v>-0.5362337231636047</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>0.3354562222957611</v>
+        <v>-0.335136353969574</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>0.2329197525978088</v>
+        <v>-0.2322224229574203</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.09121490269899368</v>
+        <v>0.09263015538454056</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>1.407642602920532</v>
+        <v>-1.408197164535522</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>1.300071358680725</v>
+        <v>-1.299833655357361</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>1.088917016983032</v>
+        <v>-1.088576436042786</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>1.101142406463623</v>
+        <v>-1.101557850837708</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.6312270760536194</v>
+        <v>0.6322030425071716</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.4160824120044708</v>
+        <v>0.4174587428569794</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>1.73307740688324</v>
+        <v>-1.732682585716248</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>0.2964773774147034</v>
+        <v>-0.2961516678333282</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>0.4686042666435242</v>
+        <v>-0.4690302908420563</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>1.284674167633057</v>
+        <v>-1.28635835647583</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>1.912347674369812</v>
+        <v>-1.911992073059082</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>1.207889556884766</v>
+        <v>-1.209002614021301</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>0.8942679166793823</v>
+        <v>-0.8938696384429932</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>1.054296612739563</v>
+        <v>-1.053293228149414</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>0.9494183659553528</v>
+        <v>-0.9492344856262207</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>0.7695112824440002</v>
+        <v>-0.7694808840751648</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>0.4547013938426971</v>
+        <v>-0.4540559351444244</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.4528872966766357</v>
+        <v>0.4542210400104523</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.04510781913995743</v>
+        <v>0.04536017030477524</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>0.03726354241371155</v>
+        <v>-0.03527308627963066</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.2252140641212463</v>
+        <v>0.2313949018716812</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>0.5265414118766785</v>
+        <v>-0.5265503525733948</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>0.2500244677066803</v>
+        <v>-0.2484638243913651</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>-1.202639579772949</v>
+        <v>1.204870223999023</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>0.893787682056427</v>
+        <v>-0.8929698467254639</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>0.0631440132856369</v>
+        <v>-0.06223826855421066</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02149746008217335</v>
+        <v>-0.02057445794343948</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>0.8558337092399597</v>
+        <v>-0.8545033931732178</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>1.116678953170776</v>
+        <v>-1.116299390792847</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>1.173399567604065</v>
+        <v>-1.174111604690552</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>2.342838287353516</v>
+        <v>-2.342746734619141</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>2.343408584594727</v>
+        <v>-2.343546867370605</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>1.404492020606995</v>
+        <v>-1.400060176849365</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>0.9901876449584961</v>
+        <v>-0.9901542663574219</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>1.181579232215881</v>
+        <v>-1.183272480964661</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>1.379904627799988</v>
+        <v>-1.381041407585144</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>0.1070717051625252</v>
+        <v>-0.1086338087916374</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>0.1305630505084991</v>
+        <v>-0.1319550275802612</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>1.044806361198425</v>
+        <v>-1.046160459518433</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>0.04763622954487801</v>
+        <v>-0.04890156537294388</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>0.2085770964622498</v>
+        <v>-0.2085888534784317</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>1.183572173118591</v>
+        <v>-1.183913111686707</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>0.2030111253261566</v>
+        <v>-0.2033678144216537</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.3814687132835388</v>
+        <v>0.3815701305866241</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.3067347407341003</v>
+        <v>0.3109512031078339</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.2293599545955658</v>
+        <v>0.2305362522602081</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>0.004863398615270853</v>
+        <v>-0.006132481154054403</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.1002250388264656</v>
+        <v>0.1003544479608536</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>1.679143905639648</v>
+        <v>-1.679508090019226</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>1.320645809173584</v>
+        <v>-1.319318175315857</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.2796964049339294</v>
+        <v>0.2811225652694702</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>0.4200821816921234</v>
+        <v>-0.4197533130645752</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>0.9903735518455505</v>
+        <v>-0.9905194640159607</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>0.8628369569778442</v>
+        <v>-0.8615987300872803</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>0.4814800024032593</v>
+        <v>-0.4805507957935333</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>1.165865182876587</v>
+        <v>-1.165940403938293</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>0.7285419106483459</v>
+        <v>-0.7266312837600708</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>0.9802560806274414</v>
+        <v>-0.9798039197921753</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>0.416841596364975</v>
+        <v>-0.4155273735523224</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.500221848487854</v>
+        <v>0.5018476843833923</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>-0.1508063673973083</v>
+        <v>0.1524482816457748</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>0.7468030452728271</v>
+        <v>-0.7455267906188965</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>0.9544516205787659</v>
+        <v>-0.9531670212745667</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>1.638141512870789</v>
+        <v>-1.638181567192078</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>0.719183087348938</v>
+        <v>-0.7187152504920959</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>0.8470209240913391</v>
+        <v>-0.8463133573532104</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>0.1180532276630402</v>
+        <v>-0.1178966164588928</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>1.064462065696716</v>
+        <v>-1.064764142036438</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.7091041803359985</v>
+        <v>0.7146105766296387</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>-0.7605304718017578</v>
+        <v>0.7612125873565674</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>0.1851322054862976</v>
+        <v>-0.1839395761489868</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>0.3878684341907501</v>
+        <v>-0.3878131806850433</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>0.4928454756736755</v>
+        <v>-0.4916017055511475</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>0.1302832067012787</v>
+        <v>-0.128362700343132</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>0.4596057236194611</v>
+        <v>-0.45912104845047</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>0.9470849633216858</v>
+        <v>-0.9463538527488708</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>0.9840233325958252</v>
+        <v>-0.9843019247055054</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.0008983585867099464</v>
+        <v>0.00123758299741894</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>0.9650700092315674</v>
+        <v>-0.9651824831962585</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>0.6237354278564453</v>
+        <v>-0.6220834851264954</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>0.2526256740093231</v>
+        <v>-0.2515488266944885</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3324619233608246</v>
+        <v>0.3340901434421539</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>0.5922197103500366</v>
+        <v>-0.5903787612915039</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>0.4919431805610657</v>
+        <v>-0.4904816746711731</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>1.447119116783142</v>
+        <v>-1.446083068847656</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>0.6073735356330872</v>
+        <v>-0.605743408203125</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>1.686870932579041</v>
+        <v>-1.686172127723694</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>0.9004930853843689</v>
+        <v>-0.899267315864563</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>1.28059458732605</v>
+        <v>-1.279416561126709</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>1.449897646903992</v>
+        <v>-1.449451684951782</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>1.433762907981873</v>
+        <v>-1.432341575622559</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>1.640766859054565</v>
+        <v>-1.640223026275635</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>0.8409359455108643</v>
+        <v>-0.8455317616462708</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>0.8190012574195862</v>
+        <v>-0.8164437413215637</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>0.6968960762023926</v>
+        <v>-0.6955623030662537</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>1.121309995651245</v>
+        <v>-1.120677709579468</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>0.5462583303451538</v>
+        <v>-0.5437009930610657</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>1.643683671951294</v>
+        <v>-1.641965627670288</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>1.137527704238892</v>
+        <v>-1.136131286621094</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>2.371844530105591</v>
+        <v>-2.371770858764648</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>1.151939272880554</v>
+        <v>-1.150357365608215</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>0.9569506645202637</v>
+        <v>-0.9544587731361389</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>2.74356484413147</v>
+        <v>-2.744201421737671</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>0.9347655177116394</v>
+        <v>-0.9338314533233643</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>0.1031228452920914</v>
+        <v>-0.09890534728765488</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>2.029145002365112</v>
+        <v>-2.029071807861328</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>0.03349681943655014</v>
+        <v>-0.03283583745360374</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.4351055026054382</v>
+        <v>0.4366919100284576</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>-0.1522589474916458</v>
+        <v>0.1541053056716919</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>-0.1988160908222198</v>
+        <v>0.2004972994327545</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>0.6026562452316284</v>
+        <v>-0.6025609970092773</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>0.6953915357589722</v>
+        <v>-0.6958240866661072</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>1.379459619522095</v>
+        <v>-1.378309965133667</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>1.712649464607239</v>
+        <v>-1.712298393249512</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>1.263446688652039</v>
+        <v>-1.262868523597717</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>1.173238158226013</v>
+        <v>-1.173330903053284</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>0.9585078954696655</v>
+        <v>-0.9562793374061584</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>1.499906778335571</v>
+        <v>-1.4990154504776</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>0.04722510650753975</v>
+        <v>-0.04670183733105659</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>0.7645928859710693</v>
+        <v>-0.7637786269187927</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>0.8431274890899658</v>
+        <v>-0.8419600129127502</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>1.176196694374084</v>
+        <v>-1.175751566886902</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>0.8538573384284973</v>
+        <v>-0.8539373874664307</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>0.3514355719089508</v>
+        <v>-0.3521101176738739</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.1381880640983582</v>
+        <v>0.1390570253133774</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>0.7908732891082764</v>
+        <v>-0.7892619967460632</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>0.4734877049922943</v>
+        <v>-0.4734954535961151</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>0.8925181031227112</v>
+        <v>-0.8914079666137695</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>0.1391278654336929</v>
+        <v>-0.1372782289981842</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>1.172878742218018</v>
+        <v>-1.172916531562805</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>0.7613183856010437</v>
+        <v>-0.7604439258575439</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>1.386421203613281</v>
+        <v>-1.385748386383057</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>1.097941279411316</v>
+        <v>-1.096990346908569</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>1.409687161445618</v>
+        <v>-1.408419847488403</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>-0.03861451894044876</v>
+        <v>0.04077233001589775</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>1.273864388465881</v>
+        <v>-1.274598598480225</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>0.8981679081916809</v>
+        <v>-0.897614061832428</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>0.972851037979126</v>
+        <v>-0.9723803997039795</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>2.024824619293213</v>
+        <v>-2.02436375617981</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>0.1141233071684837</v>
+        <v>-0.1144153848290443</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>0.3302022516727448</v>
+        <v>-0.3327138125896454</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>1.195860624313354</v>
+        <v>-1.193842530250549</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>-0.3375861942768097</v>
+        <v>0.3378795683383942</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>-1.12221372127533</v>
+        <v>1.122936129570007</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.2837867438793182</v>
+        <v>0.284809410572052</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>0.4429470896720886</v>
+        <v>-0.442104309797287</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>1.085469603538513</v>
+        <v>-1.085344910621643</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>1.50411581993103</v>
+        <v>-1.503894090652466</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>0.2502270042896271</v>
+        <v>-0.2487426847219467</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>1.367332220077515</v>
+        <v>-1.366342663764954</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>1.317306399345398</v>
+        <v>-1.316813230514526</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>0.1011799424886703</v>
+        <v>-0.1002075672149658</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.3830349743366241</v>
+        <v>0.3914519250392914</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>0.6961988806724548</v>
+        <v>-0.6957177519798279</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>1.2569899559021</v>
+        <v>-1.257118821144104</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>1.295752286911011</v>
+        <v>-1.295783162117004</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>1.540759563446045</v>
+        <v>-1.540604948997498</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>1.077041983604431</v>
+        <v>-1.07689893245697</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>0.9637553095817566</v>
+        <v>-0.9633502960205078</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.148944154381752</v>
+        <v>0.1488503962755203</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>1.429017901420593</v>
+        <v>-1.428033590316772</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>0.8550810217857361</v>
+        <v>-0.8546193242073059</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>1.281691551208496</v>
+        <v>-1.283079624176025</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>0.4486066401004791</v>
+        <v>-0.4492469131946564</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>0.6765079498291016</v>
+        <v>-0.6749297380447388</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>1.674224138259888</v>
+        <v>-1.674809575080872</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>0.5087060928344727</v>
+        <v>-0.5100657343864441</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>1.343223452568054</v>
+        <v>-1.344353556632996</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>1.929010272026062</v>
+        <v>-1.928957223892212</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>1.032756328582764</v>
+        <v>-1.031903743743896</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>0.8593827486038208</v>
+        <v>-0.8592406511306763</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>0.4731284976005554</v>
+        <v>-0.4734543263912201</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>1.194165349006653</v>
+        <v>-1.19460666179657</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,7 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>0.8602197766304016</v>
+        <v>-0.8602584600448608</v>
       </c>
     </row>
     <row r="895">
@@ -7596,7 +7596,7 @@
         <v>44713</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.06825152039527893</v>
+        <v>0.06828782707452774</v>
       </c>
     </row>
     <row r="896">
@@ -7604,7 +7604,15 @@
         <v>44743</v>
       </c>
       <c r="B896" t="n">
-        <v>0.9059204459190369</v>
+        <v>-0.9060451984405518</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B897" t="n">
+        <v>-0.7742146253585815</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B897"/>
+  <dimension ref="A1:B898"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8095696568489075</v>
+        <v>0.8111293911933899</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>1.524921655654907</v>
+        <v>1.525713801383972</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>1.466630816459656</v>
+        <v>1.467166066169739</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8748762011528015</v>
+        <v>0.877308189868927</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2842558324337006</v>
+        <v>-0.2812266051769257</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6478729248046875</v>
+        <v>0.6486139297485352</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>1.975682377815247</v>
+        <v>1.974903583526611</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>2.192399501800537</v>
+        <v>2.190185546875</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>1.215815305709839</v>
+        <v>1.213530302047729</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>1.936804413795471</v>
+        <v>1.935092806816101</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>1.819272518157959</v>
+        <v>1.820675253868103</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9128183126449585</v>
+        <v>0.9145234227180481</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>2.866816997528076</v>
+        <v>2.869559764862061</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>3.976141214370728</v>
+        <v>3.974592447280884</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>1.711538553237915</v>
+        <v>1.710147142410278</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08817658573389053</v>
+        <v>0.0931035503745079</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2109447866678238</v>
+        <v>-0.2098389565944672</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6467685103416443</v>
+        <v>-0.645229697227478</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9126628041267395</v>
+        <v>0.9139201045036316</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2343423068523407</v>
+        <v>0.2358844429254532</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6443023085594177</v>
+        <v>0.642668604850769</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7008227109909058</v>
+        <v>0.6999372839927673</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>1.295111775398254</v>
+        <v>1.293427109718323</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>2.543570041656494</v>
+        <v>2.544262409210205</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>2.959375143051147</v>
+        <v>2.960927724838257</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>1.887456893920898</v>
+        <v>1.885929107666016</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>2.01904296875</v>
+        <v>2.015574932098389</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>1.579789876937866</v>
+        <v>1.579929709434509</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7487064003944397</v>
+        <v>0.7479262351989746</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7194924354553223</v>
+        <v>0.7206869721412659</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>1.641085147857666</v>
+        <v>1.641688227653503</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>1.33588182926178</v>
+        <v>1.334690570831299</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2537392973899841</v>
+        <v>0.2537449300289154</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8718264698982239</v>
+        <v>0.870347797870636</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>2.12565541267395</v>
+        <v>2.121346950531006</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>0.362154483795166</v>
+        <v>0.3633778095245361</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8671391010284424</v>
+        <v>0.8676347732543945</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>1.417555093765259</v>
+        <v>1.417606711387634</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>1.477922677993774</v>
+        <v>1.477674245834351</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>2.392048597335815</v>
+        <v>2.392877340316772</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>1.627910494804382</v>
+        <v>1.630734801292419</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>1.693205237388611</v>
+        <v>1.693515419960022</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>1.427033543586731</v>
+        <v>1.425389647483826</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>1.545071601867676</v>
+        <v>1.546433448791504</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>1.70208752155304</v>
+        <v>1.69615375995636</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>1.9751136302948</v>
+        <v>1.975765824317932</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>1.420066952705383</v>
+        <v>1.42193615436554</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>1.603530883789062</v>
+        <v>1.606298804283142</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>2.33867335319519</v>
+        <v>2.341094255447388</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>1.257459282875061</v>
+        <v>1.256081700325012</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>1.516340374946594</v>
+        <v>1.517964720726013</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>1.866783618927002</v>
+        <v>1.868095874786377</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>1.193974018096924</v>
+        <v>1.195717334747314</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5657193660736084</v>
+        <v>0.5678222179412842</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5522795915603638</v>
+        <v>0.552532434463501</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8951159119606018</v>
+        <v>0.8945682048797607</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>1.475950002670288</v>
+        <v>1.473418712615967</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9515358209609985</v>
+        <v>0.9514589309692383</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>2.285087108612061</v>
+        <v>2.282632350921631</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>1.898386240005493</v>
+        <v>1.900090575218201</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>1.814614653587341</v>
+        <v>1.816192626953125</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>1.424981236457825</v>
+        <v>1.42841625213623</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>1.16473650932312</v>
+        <v>1.165056228637695</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>1.89363157749176</v>
+        <v>1.895505905151367</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>1.230023384094238</v>
+        <v>1.230918288230896</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7777740359306335</v>
+        <v>0.7779828310012817</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>1.407105684280396</v>
+        <v>1.40837562084198</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6591634750366211</v>
+        <v>0.6610641479492188</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3934398889541626</v>
+        <v>0.3910863995552063</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>1.759856939315796</v>
+        <v>1.757050752639771</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6140003800392151</v>
+        <v>0.6157552003860474</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>1.576636791229248</v>
+        <v>1.576060056686401</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7155914306640625</v>
+        <v>0.7158194780349731</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5883349180221558</v>
+        <v>0.5866304039955139</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>2.90451717376709</v>
+        <v>2.902486324310303</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>1.20868444442749</v>
+        <v>1.210040926933289</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009090070612728596</v>
+        <v>0.01084446255117655</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7433735132217407</v>
+        <v>0.7469357252120972</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8702964186668396</v>
+        <v>0.8698698878288269</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>2.085614681243896</v>
+        <v>2.086146354675293</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>0.003703824942931533</v>
+        <v>0.003821855876594782</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6437584757804871</v>
+        <v>0.643056333065033</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2715865671634674</v>
+        <v>-0.2735893130302429</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>1.631304383277893</v>
+        <v>1.628287196159363</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4158735275268555</v>
+        <v>0.4179862439632416</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5898376107215881</v>
+        <v>0.589318573474884</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>0.490680456161499</v>
+        <v>0.4905019104480743</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8703579306602478</v>
+        <v>0.8683257102966309</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9765523672103882</v>
+        <v>0.9764081835746765</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>0.764603316783905</v>
+        <v>0.7677235007286072</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1807204931974411</v>
+        <v>0.1795829087495804</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>2.372363567352295</v>
+        <v>2.368473052978516</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>0.810639500617981</v>
+        <v>0.8098500370979309</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>2.405565977096558</v>
+        <v>2.402972459793091</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>1.746843576431274</v>
+        <v>1.748697638511658</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>0.998360812664032</v>
+        <v>0.9975878596305847</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>1.576492428779602</v>
+        <v>1.575255274772644</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>1.580460071563721</v>
+        <v>1.579077839851379</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>1.075021266937256</v>
+        <v>1.07256031036377</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>1.511364698410034</v>
+        <v>1.509584665298462</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>1.175128579139709</v>
+        <v>1.169963836669922</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.1990850865840912</v>
+        <v>-0.2014743089675903</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>1.439879894256592</v>
+        <v>1.438241958618164</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>1.404230952262878</v>
+        <v>1.405410766601562</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>2.11222243309021</v>
+        <v>2.110232830047607</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>1.182688355445862</v>
+        <v>1.180990815162659</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>1.407086849212646</v>
+        <v>1.407459735870361</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>2.055420875549316</v>
+        <v>2.057396173477173</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9220441579818726</v>
+        <v>0.9259299635887146</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>1.080304145812988</v>
+        <v>1.080903291702271</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5116708278656006</v>
+        <v>0.512273371219635</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>1.003038644790649</v>
+        <v>1.005164384841919</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7500481009483337</v>
+        <v>0.7550980448722839</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>1.614259362220764</v>
+        <v>1.618849635124207</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8483347296714783</v>
+        <v>0.8499921560287476</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9968893527984619</v>
+        <v>0.9980422258377075</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1053754091262817</v>
+        <v>0.1063611507415771</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>1.557186841964722</v>
+        <v>1.562713503837585</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>1.612729668617249</v>
+        <v>1.616464138031006</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>1.186590790748596</v>
+        <v>1.190812826156616</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1416527330875397</v>
+        <v>-0.1376944035291672</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0544232539832592</v>
+        <v>0.05637421831488609</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8766911625862122</v>
+        <v>0.8809112906455994</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>1.063289642333984</v>
+        <v>1.067836046218872</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>0.794197678565979</v>
+        <v>0.7998006343841553</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.05158471316099167</v>
+        <v>-0.04817015305161476</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>1.453696370124817</v>
+        <v>1.454697847366333</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06466072797775269</v>
+        <v>0.06745029985904694</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.455102413892746</v>
+        <v>-0.454643726348877</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3904458582401276</v>
+        <v>0.3916447758674622</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2872341275215149</v>
+        <v>-0.2857668995857239</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.8682153224945068</v>
+        <v>-0.8635761141777039</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3503579795360565</v>
+        <v>-0.3479647040367126</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>0.148349866271019</v>
+        <v>0.1529549807310104</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1428652554750443</v>
+        <v>0.1442198306322098</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>1.150797486305237</v>
+        <v>1.154525876045227</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>1.662254452705383</v>
+        <v>1.665213704109192</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8026490807533264</v>
+        <v>0.8036851286888123</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8401566743850708</v>
+        <v>0.8436080813407898</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>1.08976674079895</v>
+        <v>1.089741110801697</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01771034300327301</v>
+        <v>-0.01714408583939075</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8163241147994995</v>
+        <v>0.8163906335830688</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.6370332837104797</v>
+        <v>-0.633828341960907</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4824931621551514</v>
+        <v>0.4824248552322388</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.06695700436830521</v>
+        <v>-0.06151463091373444</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.001472396426834166</v>
+        <v>0.004172202199697495</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3497758805751801</v>
+        <v>-0.3466723263263702</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>1.536712527275085</v>
+        <v>1.538444399833679</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>1.638147354125977</v>
+        <v>1.637684345245361</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.02444806508719921</v>
+        <v>-0.02253850176930428</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4821812808513641</v>
+        <v>0.4834026694297791</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>1.272946715354919</v>
+        <v>1.272759795188904</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8925771713256836</v>
+        <v>0.8913366794586182</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1072015315294266</v>
+        <v>0.1069409400224686</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1209416687488556</v>
+        <v>-0.1175471320748329</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.002840042114257812</v>
+        <v>0.001982997171580791</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2431856691837311</v>
+        <v>0.2465115338563919</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8764582872390747</v>
+        <v>0.876177191734314</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>0.625799834728241</v>
+        <v>0.6297460794448853</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7089800238609314</v>
+        <v>0.7083606719970703</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9556423425674438</v>
+        <v>0.9586250185966492</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7965000867843628</v>
+        <v>0.7987130284309387</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>0.64865642786026</v>
+        <v>0.6512770056724548</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1347542256116867</v>
+        <v>0.1352904289960861</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9293454885482788</v>
+        <v>0.9298220276832581</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3869433999061584</v>
+        <v>0.3878276646137238</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.278880387544632</v>
+        <v>-0.2791275978088379</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.076541900634766</v>
+        <v>-1.074550747871399</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.6766542196273804</v>
+        <v>-0.6773658394813538</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7810084223747253</v>
+        <v>0.7842860817909241</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4822837710380554</v>
+        <v>0.4852189719676971</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.06782416999340057</v>
+        <v>-0.06874058395624161</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5384341478347778</v>
+        <v>0.53721022605896</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>1.730290412902832</v>
+        <v>1.730697393417358</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.07690947502851486</v>
+        <v>-0.07679722458124161</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2397222220897675</v>
+        <v>0.2402109950780869</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1512204110622406</v>
+        <v>-0.1493216305971146</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>1.030673503875732</v>
+        <v>1.028007626533508</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>1.007068037986755</v>
+        <v>1.010437607765198</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.5857955813407898</v>
+        <v>-0.5826647877693176</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4522000253200531</v>
+        <v>-0.450844019651413</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4812344014644623</v>
+        <v>-0.4804932177066803</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0529441200196743</v>
+        <v>0.05570885166525841</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>1.131791234016418</v>
+        <v>1.13331663608551</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>1.007594108581543</v>
+        <v>1.008384466171265</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>1.007147073745728</v>
+        <v>1.006715774536133</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>1.541119337081909</v>
+        <v>1.539799094200134</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>2.943189144134521</v>
+        <v>2.942008018493652</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9802048802375793</v>
+        <v>0.9787782430648804</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02526305429637432</v>
+        <v>0.02699477411806583</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2956563830375671</v>
+        <v>0.2962221205234528</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>0.03521758690476418</v>
+        <v>0.03827968239784241</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>1.183482885360718</v>
+        <v>1.185564041137695</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>1.386592149734497</v>
+        <v>1.385304570198059</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3981318473815918</v>
+        <v>0.3995774984359741</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7452362775802612</v>
+        <v>0.7445670962333679</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1504748910665512</v>
+        <v>0.1524762511253357</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>2.704316854476929</v>
+        <v>2.70021653175354</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>2.714766979217529</v>
+        <v>2.710861444473267</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>1.529156565666199</v>
+        <v>1.530600070953369</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.08105622231960297</v>
+        <v>-0.07832575589418411</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2534249722957611</v>
+        <v>0.2543630301952362</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>1.150816679000854</v>
+        <v>1.153945207595825</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>1.26683497428894</v>
+        <v>1.267702221870422</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8046886920928955</v>
+        <v>0.8049917817115784</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>3.041976451873779</v>
+        <v>3.041305303573608</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9301199913024902</v>
+        <v>0.9303992390632629</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>1.595237612724304</v>
+        <v>1.595328569412231</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>2.113660097122192</v>
+        <v>2.113457918167114</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1746230572462082</v>
+        <v>0.1778956949710846</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>1.080941319465637</v>
+        <v>1.083176255226135</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>1.211305856704712</v>
+        <v>1.209532260894775</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7783715724945068</v>
+        <v>0.7777822613716125</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>1.239347815513611</v>
+        <v>1.239359259605408</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.04422350600361824</v>
+        <v>-0.04015252739191055</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>1.496297001838684</v>
+        <v>1.497220039367676</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03253542631864548</v>
+        <v>0.03527365252375603</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9758966565132141</v>
+        <v>0.977165699005127</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>2.338768005371094</v>
+        <v>2.338268995285034</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>1.199540019035339</v>
+        <v>1.201084971427917</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>1.915012717247009</v>
+        <v>1.915322422981262</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.3308355510234833</v>
+        <v>-0.331217348575592</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6928224563598633</v>
+        <v>0.694648265838623</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06899640709161758</v>
+        <v>0.06831691414117813</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4823206067085266</v>
+        <v>0.4802521765232086</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.06928177177906036</v>
+        <v>-0.06975631415843964</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>1.043739199638367</v>
+        <v>1.04534637928009</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>0.7196248173713684</v>
+        <v>0.7196435928344727</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>1.76655638217926</v>
+        <v>1.767504692077637</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>0.6029247641563416</v>
+        <v>0.6019234657287598</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1276529878377914</v>
+        <v>0.1271108984947205</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5189193487167358</v>
+        <v>0.5194182395935059</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4246795773506165</v>
+        <v>0.4264568984508514</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2608364820480347</v>
+        <v>0.2580348253250122</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2466265708208084</v>
+        <v>0.2451666742563248</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.182338610291481</v>
+        <v>-0.1838287711143494</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.008494429290294647</v>
+        <v>-0.008148923516273499</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>0.009878519922494888</v>
+        <v>0.01168171130120754</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>0.6986066102981567</v>
+        <v>0.699902355670929</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>0.4988938868045807</v>
+        <v>0.5020487308502197</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7028447985649109</v>
+        <v>0.7054847478866577</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6884688138961792</v>
+        <v>0.6916527152061462</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2951439619064331</v>
+        <v>0.2926572263240814</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>1.520318627357483</v>
+        <v>1.519920587539673</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>1.775761008262634</v>
+        <v>1.775663495063782</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>0.2977776527404785</v>
+        <v>0.297406941652298</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.3886738121509552</v>
+        <v>-0.3887108862400055</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3950755298137665</v>
+        <v>0.3955019116401672</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>1.10735809803009</v>
+        <v>1.102777242660522</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>1.233331322669983</v>
+        <v>1.233691215515137</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>1.12831711769104</v>
+        <v>1.130776643753052</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>0.437544047832489</v>
+        <v>0.4394777417182922</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>2.315665245056152</v>
+        <v>2.318265914916992</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>1.308036208152771</v>
+        <v>1.308010458946228</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.005044460296630859</v>
+        <v>-0.003133462276309729</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9550744891166687</v>
+        <v>0.9561607241630554</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2242151200771332</v>
+        <v>0.2274308949708939</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4531012177467346</v>
+        <v>0.4549227356910706</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7520628571510315</v>
+        <v>-0.7483004927635193</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.4935605525970459</v>
+        <v>-0.4933275580406189</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01884309202432632</v>
+        <v>-0.01884144358336926</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6474470496177673</v>
+        <v>0.6492623686790466</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6105455756187439</v>
+        <v>-0.6102383732795715</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.002686089370399714</v>
+        <v>-0.0008089255425147712</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.6661264300346375</v>
+        <v>-0.6629788279533386</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.3398830592632294</v>
+        <v>-0.3359920382499695</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8051249980926514</v>
+        <v>0.8073501586914062</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>0.2340816855430603</v>
+        <v>0.239324152469635</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>0.0406213104724884</v>
+        <v>0.04112951830029488</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.4123381972312927</v>
+        <v>-0.413911372423172</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1329433470964432</v>
+        <v>0.1347810477018356</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.05785059928894</v>
+        <v>-1.056935548782349</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4275978803634644</v>
+        <v>0.430724710226059</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>1.041370987892151</v>
+        <v>1.039986252784729</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.1626000106334686</v>
+        <v>-0.1650069802999496</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>1.070755243301392</v>
+        <v>1.070156216621399</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>1.070405006408691</v>
+        <v>1.068958640098572</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4159074127674103</v>
+        <v>0.4144901931285858</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.3477098941802979</v>
+        <v>-0.3477767705917358</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5919453501701355</v>
+        <v>0.5893009901046753</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>1.188590407371521</v>
+        <v>1.188953638076782</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.3068390190601349</v>
+        <v>-0.3073389232158661</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8909991979598999</v>
+        <v>0.8904824256896973</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2453546822071075</v>
+        <v>0.2416198551654816</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06945309042930603</v>
+        <v>-0.06633633375167847</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>0.01206974498927593</v>
+        <v>0.01418414246290922</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3992345035076141</v>
+        <v>0.4000423848628998</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>1.1765216588974</v>
+        <v>1.179213047027588</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>1.560642838478088</v>
+        <v>1.564691781997681</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7681690454483032</v>
+        <v>0.7698288559913635</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7288805842399597</v>
+        <v>0.7280721068382263</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>1.248698949813843</v>
+        <v>1.251296877861023</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>0.2902921140193939</v>
+        <v>0.293715238571167</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>1.032288312911987</v>
+        <v>1.036799907684326</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7481330633163452</v>
+        <v>0.7497647404670715</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>1.286425590515137</v>
+        <v>1.285921812057495</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.004141403362154961</v>
+        <v>0.005530356429517269</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.2065924555063248</v>
+        <v>-0.2044475823640823</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.7033088207244873</v>
+        <v>-0.7011414170265198</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3708589375019073</v>
+        <v>0.3758816719055176</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2155498266220093</v>
+        <v>0.2190842628479004</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3710607588291168</v>
+        <v>-0.3693720102310181</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.019502282142639</v>
+        <v>-1.018181085586548</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>0.04671566560864449</v>
+        <v>0.05168510973453522</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8144222497940063</v>
+        <v>0.8176657557487488</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.1571370661258698</v>
+        <v>-0.1581995636224747</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.3008380234241486</v>
+        <v>-0.3032246232032776</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.6320228576660156</v>
+        <v>-0.6344584226608276</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>0.144084244966507</v>
+        <v>0.147081196308136</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.08712954819202423</v>
+        <v>-0.09116511046886444</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>0.09189808368682861</v>
+        <v>0.09259364008903503</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.121208429336548</v>
+        <v>-1.120091438293457</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3770380914211273</v>
+        <v>0.3751329183578491</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.7919942736625671</v>
+        <v>-0.7938411235809326</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.6974703073501587</v>
+        <v>-0.7003948092460632</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2362907230854034</v>
+        <v>0.2341683804988861</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>0.05356592684984207</v>
+        <v>0.05445139482617378</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>0.7495836019515991</v>
+        <v>0.7458416819572449</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>0.09834940731525421</v>
+        <v>0.09859684854745865</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>2.028119564056396</v>
+        <v>2.026018619537354</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.7078128457069397</v>
+        <v>-0.706708550453186</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>0.5264430046081543</v>
+        <v>0.5247940421104431</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>1.358856558799744</v>
+        <v>1.357494473457336</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>1.275340437889099</v>
+        <v>1.27632462978363</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9100842475891113</v>
+        <v>0.9138533473014832</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>0.06419934332370758</v>
+        <v>0.06442327797412872</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1300324499607086</v>
+        <v>0.1291486620903015</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.02003194205462933</v>
+        <v>-0.01911675743758678</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8527033925056458</v>
+        <v>0.8551565408706665</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1618569046258926</v>
+        <v>0.1635403633117676</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>0.973548948764801</v>
+        <v>0.9728402495384216</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.7332024574279785</v>
+        <v>-0.7315516471862793</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.298183560371399</v>
+        <v>-1.29385507106781</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.3427120745182037</v>
+        <v>-0.3448982238769531</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.08157185465097427</v>
+        <v>-0.07767563313245773</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.02222343161702156</v>
+        <v>-0.0200202465057373</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>0.614530622959137</v>
+        <v>0.6159412860870361</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.5223895311355591</v>
+        <v>-0.5226019620895386</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1096781119704247</v>
+        <v>0.1098986566066742</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.6981582045555115</v>
+        <v>-0.6956654787063599</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.7749954462051392</v>
+        <v>-0.7696173191070557</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1422742307186127</v>
+        <v>-0.1397256702184677</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>0.007942698895931244</v>
+        <v>0.01273081358522177</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0461605079472065</v>
+        <v>-0.0441618487238884</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>0.07184059917926788</v>
+        <v>0.06774483621120453</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>0.6073763966560364</v>
+        <v>0.610317587852478</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>1.902552008628845</v>
+        <v>1.90175187587738</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>3.059481859207153</v>
+        <v>3.06312894821167</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>1.827024936676025</v>
+        <v>1.829785108566284</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.1035445854067802</v>
+        <v>-0.1006976068019867</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1862325519323349</v>
+        <v>0.1895956993103027</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7572919726371765</v>
+        <v>0.7594360113143921</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>0.7104334831237793</v>
+        <v>0.7118426561355591</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5083641409873962</v>
+        <v>0.5097702741622925</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5400351881980896</v>
+        <v>0.5404808521270752</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>0.699316680431366</v>
+        <v>0.6986363530158997</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.5325219035148621</v>
+        <v>-0.5364024043083191</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.3742321133613586</v>
+        <v>-0.3687316179275513</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.4748557209968567</v>
+        <v>-0.4707600772380829</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>0.09528166800737381</v>
+        <v>0.09962282329797745</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.057066321372986</v>
+        <v>-1.053604125976562</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.2963164746761322</v>
+        <v>-0.2928398251533508</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.2916497886180878</v>
+        <v>-0.2898234128952026</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>0.08884159475564957</v>
+        <v>0.09064652770757675</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3771431744098663</v>
+        <v>0.3767021000385284</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1534839272499084</v>
+        <v>0.1531682461500168</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>1.544694542884827</v>
+        <v>1.546541094779968</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.338341593742371</v>
+        <v>-1.335999131202698</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.8515412211418152</v>
+        <v>-0.8492456674575806</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>0.007326409220695496</v>
+        <v>0.01087463088333607</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1970299035310745</v>
+        <v>-0.1918630003929138</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.3186657428741455</v>
+        <v>-0.3167487680912018</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.6926886439323425</v>
+        <v>-0.6885893940925598</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.6809230446815491</v>
+        <v>-0.6799963712692261</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.026416301727295</v>
+        <v>-1.024929165840149</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2317891269922256</v>
+        <v>-0.2280189990997314</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.221095323562622</v>
+        <v>-1.217115640640259</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.808671832084656</v>
+        <v>-1.80586576461792</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.845185399055481</v>
+        <v>-1.839378356933594</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.08836434036493301</v>
+        <v>-0.0866633802652359</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.8308789134025574</v>
+        <v>-0.8291328549385071</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.4882502257823944</v>
+        <v>-0.4851479530334473</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>0.2463299185037613</v>
+        <v>0.2504612803459167</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1506287455558777</v>
+        <v>0.1553980112075806</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.05111490190029144</v>
+        <v>-0.0474410243332386</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>0.4945586323738098</v>
+        <v>0.4956078231334686</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>0.7935636043548584</v>
+        <v>0.7997791767120361</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>1.179748296737671</v>
+        <v>1.18377149105072</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.4336419403553009</v>
+        <v>-0.4310246706008911</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.8076184391975403</v>
+        <v>-0.803100049495697</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>0.7845158576965332</v>
+        <v>0.7870309948921204</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.134620875120163</v>
+        <v>-0.1312055885791779</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.6276289820671082</v>
+        <v>0.628862738609314</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.033199071884155</v>
+        <v>-1.03105354309082</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>0.9434383511543274</v>
+        <v>0.947957456111908</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2246751189231873</v>
+        <v>0.2284913808107376</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.7894831895828247</v>
+        <v>-0.7884463667869568</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.5977573990821838</v>
+        <v>-0.5963484644889832</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>0.6237438917160034</v>
+        <v>0.6247433423995972</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>1.058957457542419</v>
+        <v>1.0617356300354</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>0.01006209757179022</v>
+        <v>0.01192949153482914</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.2548794150352478</v>
+        <v>-0.2552125155925751</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>0.608764111995697</v>
+        <v>0.6091567277908325</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>1.488224148750305</v>
+        <v>1.488415718078613</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4447570145130157</v>
+        <v>0.444661557674408</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1097975373268127</v>
+        <v>0.1126007437705994</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.6993665099143982</v>
+        <v>-0.7001431584358215</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.48102593421936</v>
+        <v>-1.47867476940155</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.07051493972539902</v>
+        <v>-0.06789398938417435</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.9426714777946472</v>
+        <v>-0.940551221370697</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.731581330299377</v>
+        <v>-1.73042619228363</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>-1.443507790565491</v>
+        <v>-1.438984751701355</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.4005583524703979</v>
+        <v>-0.3971174955368042</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.850391149520874</v>
+        <v>-0.848429799079895</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>0.01768454909324646</v>
+        <v>0.02096633054316044</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.9608192443847656</v>
+        <v>-0.9551249742507935</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.521300196647644</v>
+        <v>-1.520029783248901</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>0.6875953674316406</v>
+        <v>0.6916640996932983</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>0.06905912607908249</v>
+        <v>0.0734051987528801</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>1.203298926353455</v>
+        <v>1.206337690353394</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>0.458548903465271</v>
+        <v>0.4652110934257507</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.0655047595500946</v>
+        <v>-0.05906715989112854</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.809078574180603</v>
+        <v>-0.8051780462265015</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1224640607833862</v>
+        <v>-0.1216795668005943</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.1348635256290436</v>
+        <v>-0.1336996257305145</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1820362955331802</v>
+        <v>-0.1803406625986099</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.6920767426490784</v>
+        <v>-0.6920620799064636</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.7397190928459167</v>
+        <v>-0.7380198240280151</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>0.1099941059947014</v>
+        <v>0.112160436809063</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>-1.125666975975037</v>
+        <v>-1.124822378158569</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.078891158103943</v>
+        <v>-1.080100417137146</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.7632174491882324</v>
+        <v>-0.7596995830535889</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>0.8886712789535522</v>
+        <v>0.891152560710907</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>0.4097380936145782</v>
+        <v>0.4115408957004547</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.357655793428421</v>
+        <v>-0.3571195602416992</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.2972629964351654</v>
+        <v>-0.2944161891937256</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3052153885364532</v>
+        <v>0.3057749271392822</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.9275026917457581</v>
+        <v>-0.925426185131073</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.3517424464225769</v>
+        <v>-0.3522314727306366</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4737218618392944</v>
+        <v>0.4725323617458344</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>0.5118930339813232</v>
+        <v>0.5102322697639465</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.4639176726341248</v>
+        <v>-0.4601629078388214</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.9128866195678711</v>
+        <v>-0.9110698699951172</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>1.66981053352356</v>
+        <v>1.667973518371582</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4144422113895416</v>
+        <v>0.4154171645641327</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.08233413100242615</v>
+        <v>-0.08101627975702286</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>0.189882829785347</v>
+        <v>0.1908129751682281</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.211395651102066</v>
+        <v>-0.2131909132003784</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>0.02376971021294594</v>
+        <v>0.02464655041694641</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.01588326320052147</v>
+        <v>-0.01270926184952259</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.580028176307678</v>
+        <v>-1.575694680213928</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.9602451920509338</v>
+        <v>-0.9606860280036926</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.227365016937256</v>
+        <v>-1.224870920181274</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.6680925488471985</v>
+        <v>-0.6662836074829102</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.585558414459229</v>
+        <v>-1.583012461662292</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7909119725227356</v>
+        <v>-0.7897716164588928</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.5479273200035095</v>
+        <v>-0.546065628528595</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>1.266985058784485</v>
+        <v>1.268265962600708</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.1072420328855515</v>
+        <v>-0.1060635894536972</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.4075174927711487</v>
+        <v>-0.4045941829681396</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>1.099783420562744</v>
+        <v>1.101358890533447</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>0.4937729835510254</v>
+        <v>0.4946871697902679</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.2868840396404266</v>
+        <v>-0.2822181284427643</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>0.2253390550613403</v>
+        <v>0.2262196838855743</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>-1.306865930557251</v>
+        <v>-1.307664394378662</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.4039095342159271</v>
+        <v>-0.4012050628662109</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.5100911259651184</v>
+        <v>-0.5029314756393433</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.446771144866943</v>
+        <v>-1.442898631095886</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5474241375923157</v>
+        <v>0.5490385293960571</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>0.08978807926177979</v>
+        <v>0.09591774642467499</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>0.2193259298801422</v>
+        <v>0.2248382121324539</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.4405253231525421</v>
+        <v>-0.4375247061252594</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.3786828815937042</v>
+        <v>-0.3782644271850586</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.1616744250059128</v>
+        <v>-0.1575409173965454</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>0.8192797303199768</v>
+        <v>0.823271632194519</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.344043254852295</v>
+        <v>-1.341308951377869</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.07308365404605865</v>
+        <v>-0.0730939507484436</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.6761590242385864</v>
+        <v>-0.6742151379585266</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.321298956871033</v>
+        <v>-1.318011522293091</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.6494646668434143</v>
+        <v>-0.6477857232093811</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.2210716158151627</v>
+        <v>-0.2181277871131897</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.6378877758979797</v>
+        <v>-0.6349822878837585</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>0.09053736925125122</v>
+        <v>0.0910196527838707</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.4233646094799042</v>
+        <v>-0.4222489297389984</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1226962432265282</v>
+        <v>0.1217904165387154</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3644443154335022</v>
+        <v>0.3637990057468414</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.174444317817688</v>
+        <v>-1.171464204788208</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.01174208614975214</v>
+        <v>-0.01038180757313967</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>0.2402890771627426</v>
+        <v>0.2447310537099838</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>1.646533370018005</v>
+        <v>1.64749801158905</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.143070578575134</v>
+        <v>-1.142392754554749</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.095993280410767</v>
+        <v>-1.094881176948547</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.1963824033737183</v>
+        <v>-0.1973860710859299</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.5864946842193604</v>
+        <v>-0.585188627243042</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.6431649923324585</v>
+        <v>-0.6450627446174622</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.1508205533027649</v>
+        <v>-0.1497353315353394</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>-2.134276390075684</v>
+        <v>-2.131892442703247</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.937919497489929</v>
+        <v>-1.936435461044312</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.006302118301392</v>
+        <v>-1.006109595298767</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>0.09502016007900238</v>
+        <v>0.09452524781227112</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>0.3004646897315979</v>
+        <v>0.3021040558815002</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.639362633228302</v>
+        <v>-0.6379377245903015</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.5412447452545166</v>
+        <v>-0.5399900674819946</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.2582786083221436</v>
+        <v>-0.2560724020004272</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.3077766895294189</v>
+        <v>-0.305234283208847</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.103848934173584</v>
+        <v>-1.102826356887817</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.7195433378219604</v>
+        <v>-0.7181370854377747</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>1.336128234863281</v>
+        <v>1.33759343624115</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6651962399482727</v>
+        <v>0.6655578017234802</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.446211963891983</v>
+        <v>-0.442761242389679</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>0.4529329240322113</v>
+        <v>0.4540190696716309</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.5666019916534424</v>
+        <v>-0.5630873441696167</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>-1.718767523765564</v>
+        <v>-1.716551542282104</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.4969626665115356</v>
+        <v>-0.4952564537525177</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.2716023921966553</v>
+        <v>-0.2688851058483124</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.1168373599648476</v>
+        <v>-0.1132409051060677</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>-1.103175044059753</v>
+        <v>-1.100228428840637</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>0.09256356954574585</v>
+        <v>0.09472636133432388</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.4918974637985229</v>
+        <v>-0.486666202545166</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>0.1515779197216034</v>
+        <v>0.154665470123291</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.2423034459352493</v>
+        <v>-0.2361419051885605</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3645205199718475</v>
+        <v>0.3693389296531677</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>0.4032023847103119</v>
+        <v>0.4051446914672852</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.939063549041748</v>
+        <v>-0.9346876740455627</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>0.4853048920631409</v>
+        <v>0.4873735904693604</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.1235164925456047</v>
+        <v>-0.116612121462822</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>0.04540885612368584</v>
+        <v>0.04976252466440201</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>1.659119486808777</v>
+        <v>1.661994099617004</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.5686191916465759</v>
+        <v>-0.5653298497200012</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>0.5922183394432068</v>
+        <v>0.5950729846954346</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>0.2735726535320282</v>
+        <v>0.2808426320552826</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>0.2650121748447418</v>
+        <v>0.266194611787796</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9415695667266846</v>
+        <v>0.9449347853660583</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>1.323075771331787</v>
+        <v>1.325555682182312</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.4590142369270325</v>
+        <v>-0.4548233449459076</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.3284438252449036</v>
+        <v>-0.3251472413539886</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.3603899478912354</v>
+        <v>-0.3600320518016815</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>0.2820762693881989</v>
+        <v>0.2834071218967438</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.2064892500638962</v>
+        <v>-0.2030423283576965</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.09593101590871811</v>
+        <v>-0.09359273314476013</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>1.216658473014832</v>
+        <v>1.222350239753723</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.3493211269378662</v>
+        <v>-0.3454970121383667</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.01276821549981833</v>
+        <v>-0.008212471380829811</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.5262819528579712</v>
+        <v>-0.5203210115432739</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>-1.30504035949707</v>
+        <v>-1.301789879798889</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>-1.637984037399292</v>
+        <v>-1.63285493850708</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>-1.563231945037842</v>
+        <v>-1.562164902687073</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>-1.188969969749451</v>
+        <v>-1.183712005615234</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>-1.151142001152039</v>
+        <v>-1.149753093719482</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>-1.099205136299133</v>
+        <v>-1.093209624290466</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.5661047101020813</v>
+        <v>-0.5629470944404602</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.211851239204407</v>
+        <v>-1.207268476486206</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.6326916217803955</v>
+        <v>-0.6286073327064514</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>-1.170145869255066</v>
+        <v>-1.168357133865356</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.009236693382263</v>
+        <v>-1.003704905509949</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.3757493197917938</v>
+        <v>-0.3701810538768768</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.4554932415485382</v>
+        <v>-0.4489313960075378</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>0.8821051716804504</v>
+        <v>0.8845373392105103</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.4937103092670441</v>
+        <v>-0.4879383146762848</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.739802241325378</v>
+        <v>-1.737579822540283</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>0.5228139758110046</v>
+        <v>0.5214970707893372</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.1170891523361206</v>
+        <v>-0.1112694814801216</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.002278531668707728</v>
+        <v>-0.0005987571203149855</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.317556023597717</v>
+        <v>-1.31089186668396</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>-1.361753225326538</v>
+        <v>-1.359633564949036</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.8098518848419189</v>
+        <v>-0.8072800636291504</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.181863859295845</v>
+        <v>-0.1783161461353302</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.2210320979356766</v>
+        <v>-0.2202579379081726</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.542826414108276</v>
+        <v>-1.539765477180481</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>0.1056884154677391</v>
+        <v>0.108872078359127</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>1.588632583618164</v>
+        <v>1.591349482536316</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.1672359257936478</v>
+        <v>-0.1648626327514648</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>-1.645372986793518</v>
+        <v>-1.640221476554871</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3227311074733734</v>
+        <v>0.3226043581962585</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.6284963488578796</v>
+        <v>-0.6263599395751953</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.9958748817443848</v>
+        <v>-0.9939202666282654</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.02488703466951847</v>
+        <v>-0.02549627237021923</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>0.2554897964000702</v>
+        <v>0.254306823015213</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.5305225849151611</v>
+        <v>-0.5306180119514465</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.6064109802246094</v>
+        <v>-0.6062358021736145</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>-1.113582491874695</v>
+        <v>-1.111067295074463</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.1120989322662354</v>
+        <v>-0.1104085296392441</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>0.2535356879234314</v>
+        <v>0.2548618912696838</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>0.83384108543396</v>
+        <v>0.8353345990180969</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>1.611653208732605</v>
+        <v>1.613755822181702</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.110004186630249</v>
+        <v>-1.107848405838013</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>1.242151498794556</v>
+        <v>1.245024681091309</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.06030434742569923</v>
+        <v>-0.05999542027711868</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.837493896484375</v>
+        <v>-0.838726818561554</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.4102886617183685</v>
+        <v>-0.408259779214859</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.9283364415168762</v>
+        <v>-0.9235995411872864</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.2000202238559723</v>
+        <v>-0.1938093900680542</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.9697321653366089</v>
+        <v>-0.9651391506195068</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1834995299577713</v>
+        <v>0.1829134225845337</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>-1.137741208076477</v>
+        <v>-1.131621599197388</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.6508527398109436</v>
+        <v>-0.6455618143081665</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.1783961206674576</v>
+        <v>-0.1791856735944748</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.07049815356731415</v>
+        <v>-0.06689737737178802</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>1.093740105628967</v>
+        <v>1.095597863197327</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.1762857884168625</v>
+        <v>-0.172872319817543</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.081175208091736</v>
+        <v>-1.076796174049377</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>-1.67290735244751</v>
+        <v>-1.667245626449585</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>-1.070033669471741</v>
+        <v>-1.066511988639832</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>-2.289236307144165</v>
+        <v>-2.287177801132202</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.7030070424079895</v>
+        <v>-0.699421226978302</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>-1.518447518348694</v>
+        <v>-1.517717838287354</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.753215193748474</v>
+        <v>-1.753370881080627</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.228055477142334</v>
+        <v>-1.229477286338806</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.8181077837944031</v>
+        <v>-0.8145521879196167</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.8777899742126465</v>
+        <v>-0.8772658705711365</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>-1.15773606300354</v>
+        <v>-1.157133817672729</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>-1.392197966575623</v>
+        <v>-1.390126943588257</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>-1.011407375335693</v>
+        <v>-1.012085556983948</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.5619756579399109</v>
+        <v>-0.562039315700531</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.220307320356369</v>
+        <v>-0.2208013236522675</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>-1.398093223571777</v>
+        <v>-1.393845796585083</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>-1.497027635574341</v>
+        <v>-1.495290398597717</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6691420078277588</v>
+        <v>0.6695122718811035</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.6983820796012878</v>
+        <v>-0.6975154280662537</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.5357803702354431</v>
+        <v>-0.5324240922927856</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.3511751890182495</v>
+        <v>-0.3486444354057312</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>-1.980795979499817</v>
+        <v>-1.979205965995789</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.176176905632019</v>
+        <v>-1.175833940505981</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.5469731092453</v>
+        <v>-1.543900728225708</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.7133395075798035</v>
+        <v>-0.7111068964004517</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>-1.383564233779907</v>
+        <v>-1.382959127426147</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.6325599551200867</v>
+        <v>-0.6338342428207397</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.7413505911827087</v>
+        <v>-0.7406482100486755</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>-1.432795286178589</v>
+        <v>-1.43147087097168</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.6883206963539124</v>
+        <v>-0.6859678626060486</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>0.009755824692547321</v>
+        <v>0.008609538897871971</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>0.1210572794079781</v>
+        <v>0.1231981888413429</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8694552183151245</v>
+        <v>0.8710078597068787</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.6448073983192444</v>
+        <v>-0.6411147117614746</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>1.167979836463928</v>
+        <v>1.16866660118103</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>0.8709084391593933</v>
+        <v>0.8748741745948792</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.5646529793739319</v>
+        <v>-0.5623260736465454</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>0.2512680292129517</v>
+        <v>0.2521960735321045</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.4840379059314728</v>
+        <v>-0.4830917716026306</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.210049748420715</v>
+        <v>-1.207302212715149</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.1151328012347221</v>
+        <v>-0.1161682233214378</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>-1.169973731040955</v>
+        <v>-1.167253494262695</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>0.2381386905908585</v>
+        <v>0.240980863571167</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>-1.005047917366028</v>
+        <v>-1.00067126750946</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>-1.157225131988525</v>
+        <v>-1.15319836139679</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.8791685700416565</v>
+        <v>-0.8784245848655701</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>-1.348823308944702</v>
+        <v>-1.350513458251953</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.6104005575180054</v>
+        <v>-0.6089357137680054</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.7357504367828369</v>
+        <v>-0.7356895208358765</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.279109716415405</v>
+        <v>-1.2764972448349</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>0.9079926609992981</v>
+        <v>0.9125813245773315</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.341566264629364</v>
+        <v>-0.3424009680747986</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>1.108918786048889</v>
+        <v>1.113931775093079</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.7501243352890015</v>
+        <v>-0.7442851066589355</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.06979645788669586</v>
+        <v>-0.06683161854743958</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.6008224487304688</v>
+        <v>-0.5964935421943665</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.08490028977394104</v>
+        <v>-0.08351319283246994</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>1.89910101890564</v>
+        <v>1.901751518249512</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.3394819796085358</v>
+        <v>-0.3330096006393433</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>-1.267808318138123</v>
+        <v>-1.265077829360962</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>0.03670415654778481</v>
+        <v>0.03973241895437241</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>0.02050978131592274</v>
+        <v>0.02003747038543224</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.1263584345579147</v>
+        <v>-0.124553769826889</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.6878276467323303</v>
+        <v>-0.6862212419509888</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.9850082993507385</v>
+        <v>-0.9833226203918457</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>0.2597676813602448</v>
+        <v>0.2607994675636292</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>-1.035273790359497</v>
+        <v>-1.033553600311279</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.5049992799758911</v>
+        <v>-0.5025194883346558</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.2561194598674774</v>
+        <v>-0.2533658444881439</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>0.05067028477787971</v>
+        <v>0.05135053768754005</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.07141344994306564</v>
+        <v>-0.06663601100444794</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>0.1452741324901581</v>
+        <v>0.1457179188728333</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>-1.015841364860535</v>
+        <v>-1.014027237892151</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>0.2556755542755127</v>
+        <v>0.2591062188148499</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.7324772477149963</v>
+        <v>-0.7276939749717712</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.8676841855049133</v>
+        <v>-0.8653977513313293</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>-1.004075527191162</v>
+        <v>-1.000976324081421</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>-2.002718687057495</v>
+        <v>-1.997725129127502</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>-1.258009552955627</v>
+        <v>-1.254933714866638</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.288110077381134</v>
+        <v>-0.2837268114089966</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.9566729068756104</v>
+        <v>-0.9550284743309021</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.4754779934883118</v>
+        <v>-0.4742767810821533</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1723948270082474</v>
+        <v>-0.1695353388786316</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>0.4053641557693481</v>
+        <v>0.4066359102725983</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.5911536812782288</v>
+        <v>-0.5896620154380798</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>-1.082031965255737</v>
+        <v>-1.077361345291138</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.2599738538265228</v>
+        <v>-0.2582899034023285</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>-1.210007667541504</v>
+        <v>-1.204303741455078</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.3012766242027283</v>
+        <v>-0.2983861565589905</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>0.2766356468200684</v>
+        <v>0.2794675827026367</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.6132911443710327</v>
+        <v>-0.6097209453582764</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.4342842102050781</v>
+        <v>-0.4306856691837311</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.8308106660842896</v>
+        <v>-0.8266222476959229</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.3910907506942749</v>
+        <v>-0.3912328481674194</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.08817523717880249</v>
+        <v>-0.08459018915891647</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>1.196447134017944</v>
+        <v>1.19959568977356</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.7282348871231079</v>
+        <v>-0.7270260453224182</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.2309651523828506</v>
+        <v>-0.227192148566246</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>-1.033415198326111</v>
+        <v>-1.032903909683228</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.1849977672100067</v>
+        <v>-0.1851045340299606</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>-1.325012564659119</v>
+        <v>-1.321493148803711</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>-1.206910014152527</v>
+        <v>-1.202484965324402</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>-1.027181506156921</v>
+        <v>-1.023913860321045</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>0.6938733458518982</v>
+        <v>0.6961371898651123</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.7582343816757202</v>
+        <v>-0.7569845914840698</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>-1.616528153419495</v>
+        <v>-1.613521814346313</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.9417039752006531</v>
+        <v>-0.9390482902526855</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>-1.006357669830322</v>
+        <v>-1.003135442733765</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.4812541902065277</v>
+        <v>-0.4781276881694794</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.646686851978302</v>
+        <v>-0.6437721252441406</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>0.06505252420902252</v>
+        <v>0.06625955551862717</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>0.04613856598734856</v>
+        <v>0.0476248636841774</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.3715806901454926</v>
+        <v>-0.3706986010074615</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>0.5330008864402771</v>
+        <v>0.5328963398933411</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>1.045879006385803</v>
+        <v>1.046316981315613</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.5362337231636047</v>
+        <v>-0.5366182923316956</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.335136353969574</v>
+        <v>-0.329676628112793</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.2322224229574203</v>
+        <v>-0.2293662279844284</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>0.09263015538454056</v>
+        <v>0.09522318840026855</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>-1.408197164535522</v>
+        <v>-1.40847635269165</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.299833655357361</v>
+        <v>-1.297392845153809</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>-1.088576436042786</v>
+        <v>-1.087970376014709</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>-1.101557850837708</v>
+        <v>-1.101584315299988</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>0.6322030425071716</v>
+        <v>0.6331819295883179</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4174587428569794</v>
+        <v>0.4194023907184601</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>-1.732682585716248</v>
+        <v>-1.73092257976532</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.2961516678333282</v>
+        <v>-0.2957459390163422</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.4690302908420563</v>
+        <v>-0.4678428769111633</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>-1.28635835647583</v>
+        <v>-1.278418064117432</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>-1.911992073059082</v>
+        <v>-1.909567356109619</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>-1.209002614021301</v>
+        <v>-1.209359765052795</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.8938696384429932</v>
+        <v>-0.8914225101470947</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>-1.053293228149414</v>
+        <v>-1.049565076828003</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.9492344856262207</v>
+        <v>-0.9490603804588318</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.7694808840751648</v>
+        <v>-0.7688203454017639</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.4540559351444244</v>
+        <v>-0.4529615640640259</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>0.4542210400104523</v>
+        <v>0.4551449120044708</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>0.04536017030477524</v>
+        <v>0.04609415680170059</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.03527308627963066</v>
+        <v>-0.03256625309586525</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>0.2313949018716812</v>
+        <v>0.2329901605844498</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.5265503525733948</v>
+        <v>-0.5229676365852356</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.2484638243913651</v>
+        <v>-0.2461874932050705</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>1.204870223999023</v>
+        <v>1.207938194274902</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.8929698467254639</v>
+        <v>-0.8900580406188965</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.06223826855421066</v>
+        <v>-0.05962639674544334</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.02057445794343948</v>
+        <v>-0.01939927786588669</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.8545033931732178</v>
+        <v>-0.8516007661819458</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>-1.116299390792847</v>
+        <v>-1.114161014556885</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.174111604690552</v>
+        <v>-1.175135374069214</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>-2.342746734619141</v>
+        <v>-2.341694116592407</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.343546867370605</v>
+        <v>-2.341892242431641</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.400060176849365</v>
+        <v>-1.400429606437683</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.9901542663574219</v>
+        <v>-0.9848564267158508</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.183272480964661</v>
+        <v>-1.186686277389526</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>-1.381041407585144</v>
+        <v>-1.382166743278503</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.1086338087916374</v>
+        <v>-0.1121226325631142</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.1319550275802612</v>
+        <v>-0.1345636695623398</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>-1.046160459518433</v>
+        <v>-1.048474907875061</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.04890156537294388</v>
+        <v>-0.05252563208341599</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.2085888534784317</v>
+        <v>-0.2079239338636398</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>-1.183913111686707</v>
+        <v>-1.183685183525085</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.2033678144216537</v>
+        <v>-0.2038931399583817</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3815701305866241</v>
+        <v>0.38189497590065</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>0.3109512031078339</v>
+        <v>0.310387909412384</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>0.2305362522602081</v>
+        <v>0.2324440628290176</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.006132481154054403</v>
+        <v>-0.009331230074167252</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>0.1003544479608536</v>
+        <v>0.1024123653769493</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.679508090019226</v>
+        <v>-1.67953622341156</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.319318175315857</v>
+        <v>-1.313860297203064</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>0.2811225652694702</v>
+        <v>0.2846391499042511</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.4197533130645752</v>
+        <v>-0.4189545512199402</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.9905194640159607</v>
+        <v>-0.9902116656303406</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.8615987300872803</v>
+        <v>-0.8578576445579529</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.4805507957935333</v>
+        <v>-0.4779324233531952</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>-1.165940403938293</v>
+        <v>-1.164883732795715</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.7266312837600708</v>
+        <v>-0.7245556116104126</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.9798039197921753</v>
+        <v>-0.9735801815986633</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.4155273735523224</v>
+        <v>-0.4117817878723145</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>0.5018476843833923</v>
+        <v>0.5049021244049072</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>0.1524482816457748</v>
+        <v>0.1559883505105972</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.7455267906188965</v>
+        <v>-0.740448534488678</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.9531670212745667</v>
+        <v>-0.9492972493171692</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>-1.638181567192078</v>
+        <v>-1.636500000953674</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.7187152504920959</v>
+        <v>-0.7173195481300354</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.8463133573532104</v>
+        <v>-0.8459900617599487</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.1178966164588928</v>
+        <v>-0.1191384494304657</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>-1.064764142036438</v>
+        <v>-1.064372658729553</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>0.7146105766296387</v>
+        <v>0.7158892154693604</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>0.7612125873565674</v>
+        <v>0.7645325064659119</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.1839395761489868</v>
+        <v>-0.1804998368024826</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.3878131806850433</v>
+        <v>-0.3871650397777557</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.4916017055511475</v>
+        <v>-0.4878344535827637</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.128362700343132</v>
+        <v>-0.1239814907312393</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.45912104845047</v>
+        <v>-0.4569889307022095</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.9463538527488708</v>
+        <v>-0.942981481552124</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.9843019247055054</v>
+        <v>-0.9839312434196472</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.00123758299741894</v>
+        <v>0.001648758188821375</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.9651824831962585</v>
+        <v>-0.9634951949119568</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>-0.6220834851264954</v>
+        <v>-0.6173672080039978</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.2515488266944885</v>
+        <v>-0.2492802739143372</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3340901434421539</v>
+        <v>0.3381184339523315</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.5903787612915039</v>
+        <v>-0.585044801235199</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.4904816746711731</v>
+        <v>-0.4865458309650421</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>-1.446083068847656</v>
+        <v>-1.44184136390686</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.605743408203125</v>
+        <v>-0.6015787124633789</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>-1.686172127723694</v>
+        <v>-1.684147953987122</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.899267315864563</v>
+        <v>-0.8941633701324463</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>-1.279416561126709</v>
+        <v>-1.275739312171936</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>-1.449451684951782</v>
+        <v>-1.444886088371277</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>-1.432341575622559</v>
+        <v>-1.427819967269897</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>-1.640223026275635</v>
+        <v>-1.635746240615845</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>-0.8455317616462708</v>
+        <v>-0.8420147299766541</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.8164437413215637</v>
+        <v>-0.8173978924751282</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.6955623030662537</v>
+        <v>-0.6920588612556458</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.120677709579468</v>
+        <v>-1.117804288864136</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.5437009930610657</v>
+        <v>-0.5377043485641479</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>-1.641965627670288</v>
+        <v>-1.637146472930908</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>-1.136131286621094</v>
+        <v>-1.131934762001038</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>-2.371770858764648</v>
+        <v>-2.369164705276489</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>-1.150357365608215</v>
+        <v>-1.144542813301086</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.9544587731361389</v>
+        <v>-0.9480057954788208</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>-2.744201421737671</v>
+        <v>-2.742785215377808</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.9338314533233643</v>
+        <v>-0.9300240874290466</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.09890534728765488</v>
+        <v>-0.0978371798992157</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>-2.029071807861328</v>
+        <v>-2.023226022720337</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.03283583745360374</v>
+        <v>-0.02936042845249176</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>0.4366919100284576</v>
+        <v>0.4398657977581024</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>0.1541053056716919</v>
+        <v>0.1582044959068298</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>0.2004972994327545</v>
+        <v>0.2054692506790161</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.6025609970092773</v>
+        <v>-0.6002365350723267</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.6958240866661072</v>
+        <v>-0.6967946290969849</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>-1.378309965133667</v>
+        <v>-1.375375866889954</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>-1.712298393249512</v>
+        <v>-1.711384534835815</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>-1.262868523597717</v>
+        <v>-1.259435057640076</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>-1.173330903053284</v>
+        <v>-1.170613408088684</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.9562793374061584</v>
+        <v>-0.9557144641876221</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>-1.4990154504776</v>
+        <v>-1.493760585784912</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.04670183733105659</v>
+        <v>-0.04490843415260315</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.7637786269187927</v>
+        <v>-0.7635194063186646</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.8419600129127502</v>
+        <v>-0.8372635245323181</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>-1.175751566886902</v>
+        <v>-1.173628211021423</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.8539373874664307</v>
+        <v>-0.8526992201805115</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.3521101176738739</v>
+        <v>-0.3529269099235535</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>0.1390570253133774</v>
+        <v>0.1418188363313675</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.7892619967460632</v>
+        <v>-0.7852994203567505</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.4734954535961151</v>
+        <v>-0.4740621447563171</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.8914079666137695</v>
+        <v>-0.8893723487854004</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>-0.1372782289981842</v>
+        <v>-0.135965421795845</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>-1.172916531562805</v>
+        <v>-1.167990684509277</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.7604439258575439</v>
+        <v>-0.7600305676460266</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>-1.385748386383057</v>
+        <v>-1.382141590118408</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>-1.096990346908569</v>
+        <v>-1.094654679298401</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>-1.408419847488403</v>
+        <v>-1.40240740776062</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>0.04077233001589775</v>
+        <v>0.04609594121575356</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>-1.274598598480225</v>
+        <v>-1.273798823356628</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.897614061832428</v>
+        <v>-0.8955910801887512</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>-0.9723803997039795</v>
+        <v>-0.971052348613739</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>-2.02436375617981</v>
+        <v>-2.021377801895142</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.1144153848290443</v>
+        <v>-0.1144056022167206</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.3327138125896454</v>
+        <v>-0.3276773393154144</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>-1.193842530250549</v>
+        <v>-1.190259099006653</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>0.3378795683383942</v>
+        <v>0.3396501243114471</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>1.122936129570007</v>
+        <v>1.12470269203186</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>0.284809410572052</v>
+        <v>0.2872689366340637</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.442104309797287</v>
+        <v>-0.439611554145813</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.085344910621643</v>
+        <v>-1.084828019142151</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.503894090652466</v>
+        <v>-1.501368403434753</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.2487426847219467</v>
+        <v>-0.2448496371507645</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.366342663764954</v>
+        <v>-1.362996101379395</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>-1.316813230514526</v>
+        <v>-1.315679907798767</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.1002075672149658</v>
+        <v>-0.0992671474814415</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>0.3914519250392914</v>
+        <v>0.3905815780162811</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.6957177519798279</v>
+        <v>-0.6898660063743591</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.257118821144104</v>
+        <v>-1.257452487945557</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.295783162117004</v>
+        <v>-1.294031500816345</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>-1.540604948997498</v>
+        <v>-1.538438320159912</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>-1.07689893245697</v>
+        <v>-1.075186967849731</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.9633502960205078</v>
+        <v>-0.9613062143325806</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>0.1488503962755203</v>
+        <v>0.1472356915473938</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>-1.428033590316772</v>
+        <v>-1.423415660858154</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.8546193242073059</v>
+        <v>-0.8528664112091064</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>-1.283079624176025</v>
+        <v>-1.285223364830017</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.4492469131946564</v>
+        <v>-0.4499556124210358</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.6749297380447388</v>
+        <v>-0.6716173887252808</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>-1.674809575080872</v>
+        <v>-1.669115662574768</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.5100657343864441</v>
+        <v>-0.5139616727828979</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>-1.344353556632996</v>
+        <v>-1.345818519592285</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>-1.928957223892212</v>
+        <v>-1.928380846977234</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.031903743743896</v>
+        <v>-1.031307697296143</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.8592406511306763</v>
+        <v>-0.8594861030578613</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.4734543263912201</v>
+        <v>-0.4749332964420319</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>-1.19460666179657</v>
+        <v>-1.195078492164612</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,7 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.8602584600448608</v>
+        <v>-0.860014796257019</v>
       </c>
     </row>
     <row r="895">
@@ -7596,7 +7596,7 @@
         <v>44713</v>
       </c>
       <c r="B895" t="n">
-        <v>0.06828782707452774</v>
+        <v>0.06724382936954498</v>
       </c>
     </row>
     <row r="896">
@@ -7604,7 +7604,7 @@
         <v>44743</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.9060451984405518</v>
+        <v>-0.9075621962547302</v>
       </c>
     </row>
     <row r="897">
@@ -7612,7 +7612,15 @@
         <v>44774</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.7742146253585815</v>
+        <v>-0.7778293490409851</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B898" t="n">
+        <v>-1.471056222915649</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B898"/>
+  <dimension ref="A1:B899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8111293911933899</v>
+        <v>0.8135883808135986</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>1.525713801383972</v>
+        <v>1.527184963226318</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>1.467166066169739</v>
+        <v>1.469137787818909</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>0.877308189868927</v>
+        <v>0.8799645900726318</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2812266051769257</v>
+        <v>-0.2791848182678223</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6486139297485352</v>
+        <v>0.6493268609046936</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>1.974903583526611</v>
+        <v>1.975786924362183</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>2.190185546875</v>
+        <v>2.190766572952271</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>1.213530302047729</v>
+        <v>1.213474869728088</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>1.935092806816101</v>
+        <v>1.935588002204895</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>1.820675253868103</v>
+        <v>1.82268488407135</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9145234227180481</v>
+        <v>0.9156864881515503</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>2.869559764862061</v>
+        <v>2.872033596038818</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>3.974592447280884</v>
+        <v>3.975688695907593</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>1.710147142410278</v>
+        <v>1.710643649101257</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0931035503745079</v>
+        <v>0.09549219906330109</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2098389565944672</v>
+        <v>-0.2084517031908035</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.645229697227478</v>
+        <v>-0.6432968378067017</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9139201045036316</v>
+        <v>0.9162103533744812</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2358844429254532</v>
+        <v>0.2365217953920364</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>0.642668604850769</v>
+        <v>0.6439014673233032</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6999372839927673</v>
+        <v>0.6995589733123779</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>1.293427109718323</v>
+        <v>1.29364538192749</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>2.544262409210205</v>
+        <v>2.546208381652832</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>2.960927724838257</v>
+        <v>2.962985038757324</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>1.885929107666016</v>
+        <v>1.886533975601196</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>2.015574932098389</v>
+        <v>2.014981746673584</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>1.579929709434509</v>
+        <v>1.580403804779053</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7479262351989746</v>
+        <v>0.7473044395446777</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7206869721412659</v>
+        <v>0.7214980721473694</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>1.641688227653503</v>
+        <v>1.643555760383606</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>1.334690570831299</v>
+        <v>1.335372567176819</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2537449300289154</v>
+        <v>0.2548409402370453</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>0.870347797870636</v>
+        <v>0.8709370493888855</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>2.121346950531006</v>
+        <v>2.120311975479126</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3633778095245361</v>
+        <v>0.3637755811214447</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8676347732543945</v>
+        <v>0.8679683208465576</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>1.417606711387634</v>
+        <v>1.418329834938049</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>1.477674245834351</v>
+        <v>1.478955626487732</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>2.392877340316772</v>
+        <v>2.394198656082153</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>1.630734801292419</v>
+        <v>1.632486343383789</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>1.693515419960022</v>
+        <v>1.694213628768921</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>1.425389647483826</v>
+        <v>1.426790714263916</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>1.546433448791504</v>
+        <v>1.547964692115784</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>1.69615375995636</v>
+        <v>1.697738170623779</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>1.975765824317932</v>
+        <v>1.978177905082703</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>1.42193615436554</v>
+        <v>1.423924565315247</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>1.606298804283142</v>
+        <v>1.608690500259399</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>2.341094255447388</v>
+        <v>2.343947649002075</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>1.256081700325012</v>
+        <v>1.256889939308167</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>1.517964720726013</v>
+        <v>1.51944375038147</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>1.868095874786377</v>
+        <v>1.869547128677368</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>1.195717334747314</v>
+        <v>1.196020603179932</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5678222179412842</v>
+        <v>0.5689576268196106</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>0.552532434463501</v>
+        <v>0.55325847864151</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8945682048797607</v>
+        <v>0.8944531679153442</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>1.473418712615967</v>
+        <v>1.475295901298523</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9514589309692383</v>
+        <v>0.9489805102348328</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>2.282632350921631</v>
+        <v>2.283117294311523</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>1.900090575218201</v>
+        <v>1.901469469070435</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>1.816192626953125</v>
+        <v>1.818124294281006</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>1.42841625213623</v>
+        <v>1.431665182113647</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>1.165056228637695</v>
+        <v>1.165859580039978</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>1.895505905151367</v>
+        <v>1.896361589431763</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>1.230918288230896</v>
+        <v>1.232103705406189</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7779828310012817</v>
+        <v>0.7780270576477051</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>1.40837562084198</v>
+        <v>1.409870862960815</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6610641479492188</v>
+        <v>0.6620304584503174</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3910863995552063</v>
+        <v>0.3932670056819916</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>1.757050752639771</v>
+        <v>1.758129715919495</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6157552003860474</v>
+        <v>0.6173148155212402</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>1.576060056686401</v>
+        <v>1.577161312103271</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7158194780349731</v>
+        <v>0.7164506316184998</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5866304039955139</v>
+        <v>0.5865574479103088</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>2.902486324310303</v>
+        <v>2.902658224105835</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>1.210040926933289</v>
+        <v>1.210825443267822</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01084446255117655</v>
+        <v>0.01126040425151587</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7469357252120972</v>
+        <v>0.7494379281997681</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8698698878288269</v>
+        <v>0.8707733154296875</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>2.086146354675293</v>
+        <v>2.087197542190552</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>0.003821855876594782</v>
+        <v>0.004089285619556904</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>0.643056333065033</v>
+        <v>0.6452277302742004</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2735893130302429</v>
+        <v>-0.2735775411128998</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>1.628287196159363</v>
+        <v>1.628588557243347</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4179862439632416</v>
+        <v>0.4202201366424561</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>0.589318573474884</v>
+        <v>0.5901173949241638</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4905019104480743</v>
+        <v>0.4912393391132355</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8683257102966309</v>
+        <v>0.8677302002906799</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9764081835746765</v>
+        <v>0.9762758612632751</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7677235007286072</v>
+        <v>0.7696666717529297</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1795829087495804</v>
+        <v>0.1799579411745071</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>2.368473052978516</v>
+        <v>2.368394613265991</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8098500370979309</v>
+        <v>0.8103629946708679</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>2.402972459793091</v>
+        <v>2.40397572517395</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>1.748697638511658</v>
+        <v>1.750823736190796</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9975878596305847</v>
+        <v>0.9974677562713623</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>1.575255274772644</v>
+        <v>1.57583475112915</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>1.579077839851379</v>
+        <v>1.57875919342041</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>1.07256031036377</v>
+        <v>1.072727084159851</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>1.509584665298462</v>
+        <v>1.510323405265808</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>1.169963836669922</v>
+        <v>1.168401479721069</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2014743089675903</v>
+        <v>-0.2019798159599304</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>1.438241958618164</v>
+        <v>1.438589930534363</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>1.405410766601562</v>
+        <v>1.407119631767273</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>2.110232830047607</v>
+        <v>2.111413717269897</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>1.180990815162659</v>
+        <v>1.181604385375977</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>1.407459735870361</v>
+        <v>1.408437252044678</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>2.057396173477173</v>
+        <v>2.059052467346191</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9259299635887146</v>
+        <v>0.9278328418731689</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>1.080903291702271</v>
+        <v>1.081577181816101</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>0.512273371219635</v>
+        <v>0.512261688709259</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>1.005164384841919</v>
+        <v>1.005749583244324</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7550980448722839</v>
+        <v>0.7571011781692505</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>1.618849635124207</v>
+        <v>1.620391964912415</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8499921560287476</v>
+        <v>0.8512901663780212</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9980422258377075</v>
+        <v>0.9989109635353088</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1063611507415771</v>
+        <v>0.1076256260275841</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>1.562713503837585</v>
+        <v>1.564780831336975</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>1.616464138031006</v>
+        <v>1.620233654975891</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>1.190812826156616</v>
+        <v>1.193516612052917</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1376944035291672</v>
+        <v>-0.1354831457138062</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05637421831488609</v>
+        <v>0.05739006400108337</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8809112906455994</v>
+        <v>0.8830781579017639</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>1.067836046218872</v>
+        <v>1.071118235588074</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7998006343841553</v>
+        <v>0.8019657731056213</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.04817015305161476</v>
+        <v>-0.04592650011181831</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>1.454697847366333</v>
+        <v>1.455069065093994</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06745029985904694</v>
+        <v>0.06888756901025772</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.454643726348877</v>
+        <v>-0.453298956155777</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3916447758674622</v>
+        <v>0.3923228085041046</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2857668995857239</v>
+        <v>-0.2843768000602722</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.8635761141777039</v>
+        <v>-0.8618454337120056</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3479647040367126</v>
+        <v>-0.3477235436439514</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1529549807310104</v>
+        <v>0.1551264822483063</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1442198306322098</v>
+        <v>0.1445686668157578</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>1.154525876045227</v>
+        <v>1.156511545181274</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>1.665213704109192</v>
+        <v>1.667276620864868</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8036851286888123</v>
+        <v>0.8054984211921692</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8436080813407898</v>
+        <v>0.8453386425971985</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>1.089741110801697</v>
+        <v>1.090780258178711</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01714408583939075</v>
+        <v>-0.0159129723906517</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8163906335830688</v>
+        <v>0.8161875009536743</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.633828341960907</v>
+        <v>-0.6324479579925537</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4824248552322388</v>
+        <v>0.4818520545959473</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.06151463091373444</v>
+        <v>-0.05919083580374718</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.004172202199697495</v>
+        <v>0.005561522208154202</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3466723263263702</v>
+        <v>-0.3451008200645447</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>1.538444399833679</v>
+        <v>1.53874933719635</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>1.637684345245361</v>
+        <v>1.637892007827759</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.02253850176930428</v>
+        <v>-0.02147901989519596</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4834026694297791</v>
+        <v>0.4842932820320129</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>1.272759795188904</v>
+        <v>1.273548483848572</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8913366794586182</v>
+        <v>0.8905113935470581</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1069409400224686</v>
+        <v>0.1073680594563484</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1175471320748329</v>
+        <v>-0.1163446307182312</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.001982997171580791</v>
+        <v>0.003754588775336742</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2465115338563919</v>
+        <v>0.2493056356906891</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>0.876177191734314</v>
+        <v>0.876935601234436</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>0.6297460794448853</v>
+        <v>0.631443202495575</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7083606719970703</v>
+        <v>0.7087910175323486</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9586250185966492</v>
+        <v>0.9607442021369934</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7987130284309387</v>
+        <v>0.7997620105743408</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6512770056724548</v>
+        <v>0.6527647972106934</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1352904289960861</v>
+        <v>0.1352773904800415</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9298220276832581</v>
+        <v>0.9304187297821045</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3878276646137238</v>
+        <v>0.3890137374401093</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2791275978088379</v>
+        <v>-0.2786906957626343</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.074550747871399</v>
+        <v>-1.074292898178101</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.6773658394813538</v>
+        <v>-0.676949679851532</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7842860817909241</v>
+        <v>0.7864755988121033</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4852189719676971</v>
+        <v>0.4867522418498993</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.06874058395624161</v>
+        <v>-0.06748469173908234</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>0.53721022605896</v>
+        <v>0.5377346873283386</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>1.730697393417358</v>
+        <v>1.732890844345093</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.07679722458124161</v>
+        <v>-0.07557830959558487</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2402109950780869</v>
+        <v>0.241317555308342</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1493216305971146</v>
+        <v>-0.1481046825647354</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>1.028007626533508</v>
+        <v>1.027780890464783</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>1.010437607765198</v>
+        <v>1.012890934944153</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.5826647877693176</v>
+        <v>-0.5815553069114685</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.450844019651413</v>
+        <v>-0.4496150612831116</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4804932177066803</v>
+        <v>-0.4794092178344727</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05570885166525841</v>
+        <v>0.05712740868330002</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>1.13331663608551</v>
+        <v>1.135507822036743</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>1.008384466171265</v>
+        <v>1.008510231971741</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>1.006715774536133</v>
+        <v>1.007416725158691</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>1.539799094200134</v>
+        <v>1.540197134017944</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>2.942008018493652</v>
+        <v>2.942682504653931</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9787782430648804</v>
+        <v>0.979677140712738</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02699477411806583</v>
+        <v>0.02716851979494095</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2962221205234528</v>
+        <v>0.2981738448143005</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>0.03827968239784241</v>
+        <v>0.04053175449371338</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>1.185564041137695</v>
+        <v>1.187334060668945</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>1.385304570198059</v>
+        <v>1.386156678199768</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3995774984359741</v>
+        <v>0.4010413289070129</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7445670962333679</v>
+        <v>0.7443684935569763</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1524762511253357</v>
+        <v>0.1540696769952774</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>2.70021653175354</v>
+        <v>2.700250625610352</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>2.710861444473267</v>
+        <v>2.710944890975952</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>1.530600070953369</v>
+        <v>1.531654834747314</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.07832575589418411</v>
+        <v>-0.07774240523576736</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2543630301952362</v>
+        <v>0.2547205984592438</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>1.153945207595825</v>
+        <v>1.155610084533691</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>1.267702221870422</v>
+        <v>1.269311904907227</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8049917817115784</v>
+        <v>0.8060598373413086</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>3.041305303573608</v>
+        <v>3.04409384727478</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9303992390632629</v>
+        <v>0.9310104250907898</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>1.595328569412231</v>
+        <v>1.597011685371399</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>2.113457918167114</v>
+        <v>2.114431858062744</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1778956949710846</v>
+        <v>0.1801075041294098</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>1.083176255226135</v>
+        <v>1.085362076759338</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>1.209532260894775</v>
+        <v>1.20953357219696</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7777822613716125</v>
+        <v>0.7789416313171387</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>1.239359259605408</v>
+        <v>1.242117166519165</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.04015252739191055</v>
+        <v>-0.03804032877087593</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>1.497220039367676</v>
+        <v>1.498010754585266</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03527365252375603</v>
+        <v>0.03729059174656868</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>0.977165699005127</v>
+        <v>0.978084921836853</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>2.338268995285034</v>
+        <v>2.338890790939331</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>1.201084971427917</v>
+        <v>1.203263282775879</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>1.915322422981262</v>
+        <v>1.916770696640015</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.331217348575592</v>
+        <v>-0.3310794532299042</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>0.694648265838623</v>
+        <v>0.6956725716590881</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06831691414117813</v>
+        <v>0.06890679150819778</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4802521765232086</v>
+        <v>0.4793628752231598</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.06975631415843964</v>
+        <v>-0.07087114453315735</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>1.04534637928009</v>
+        <v>1.046770930290222</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>0.7196435928344727</v>
+        <v>0.7207736372947693</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>1.767504692077637</v>
+        <v>1.768527746200562</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>0.6019234657287598</v>
+        <v>0.6024974584579468</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1271108984947205</v>
+        <v>0.1267462372779846</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5194182395935059</v>
+        <v>0.5201901197433472</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4264568984508514</v>
+        <v>0.4269009232521057</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2580348253250122</v>
+        <v>0.2573428153991699</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2451666742563248</v>
+        <v>0.2452588081359863</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1838287711143494</v>
+        <v>-0.1844817698001862</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.008148923516273499</v>
+        <v>-0.007525067310780287</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>0.01168171130120754</v>
+        <v>0.01323083508759737</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>0.699902355670929</v>
+        <v>0.7010582685470581</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5020487308502197</v>
+        <v>0.5036672949790955</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7054847478866577</v>
+        <v>0.7063074111938477</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6916527152061462</v>
+        <v>0.6937530040740967</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2926572263240814</v>
+        <v>0.2913241386413574</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>1.519920587539673</v>
+        <v>1.520763754844666</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>1.775663495063782</v>
+        <v>1.775798797607422</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>0.297406941652298</v>
+        <v>0.2975564897060394</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.3887108862400055</v>
+        <v>-0.3882580697536469</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3955019116401672</v>
+        <v>0.3955729603767395</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>1.102777242660522</v>
+        <v>1.104629278182983</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>1.233691215515137</v>
+        <v>1.237538695335388</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>1.130776643753052</v>
+        <v>1.133086204528809</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4394777417182922</v>
+        <v>0.4408150315284729</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>2.318265914916992</v>
+        <v>2.320898771286011</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>1.308010458946228</v>
+        <v>1.308987975120544</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.003133462276309729</v>
+        <v>-0.002461797324940562</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9561607241630554</v>
+        <v>0.9576154351234436</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2274308949708939</v>
+        <v>0.2283298224210739</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4549227356910706</v>
+        <v>0.4563028514385223</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7483004927635193</v>
+        <v>-0.7462986707687378</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.4933275580406189</v>
+        <v>-0.4925100207328796</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01884144358336926</v>
+        <v>-0.01793509535491467</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6492623686790466</v>
+        <v>0.6515546441078186</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6102383732795715</v>
+        <v>-0.6102260947227478</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.0008089255425147712</v>
+        <v>6.634271016991988e-07</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.6629788279533386</v>
+        <v>-0.6620004177093506</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.3359920382499695</v>
+        <v>-0.334074079990387</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8073501586914062</v>
+        <v>0.8082917332649231</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>0.239324152469635</v>
+        <v>0.240985170006752</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>0.04112951830029488</v>
+        <v>0.04161814227700233</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.413911372423172</v>
+        <v>-0.4146223068237305</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1347810477018356</v>
+        <v>0.1366479396820068</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.056935548782349</v>
+        <v>-1.056784629821777</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>0.430724710226059</v>
+        <v>0.4300931990146637</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>1.039986252784729</v>
+        <v>1.041931748390198</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.1650069802999496</v>
+        <v>-0.1660089790821075</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>1.070156216621399</v>
+        <v>1.069989562034607</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>1.068958640098572</v>
+        <v>1.068324208259583</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4144901931285858</v>
+        <v>0.4138533771038055</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.3477767705917358</v>
+        <v>-0.3479008972644806</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5893009901046753</v>
+        <v>0.5885961651802063</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>1.188953638076782</v>
+        <v>1.188886284828186</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.3073389232158661</v>
+        <v>-0.3065082132816315</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8904824256896973</v>
+        <v>0.891230046749115</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2416198551654816</v>
+        <v>0.239913210272789</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06633633375167847</v>
+        <v>-0.06607362627983093</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>0.01418414246290922</v>
+        <v>0.01572474837303162</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.4000423848628998</v>
+        <v>0.3998139500617981</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>1.179213047027588</v>
+        <v>1.180003881454468</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>1.564691781997681</v>
+        <v>1.566318273544312</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7698288559913635</v>
+        <v>0.771403431892395</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7280721068382263</v>
+        <v>0.7277941107749939</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>1.251296877861023</v>
+        <v>1.253352642059326</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>0.293715238571167</v>
+        <v>0.2963426113128662</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>1.036799907684326</v>
+        <v>1.039029002189636</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7497647404670715</v>
+        <v>0.7510879635810852</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>1.285921812057495</v>
+        <v>1.286371827125549</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.005530356429517269</v>
+        <v>0.00760302972048521</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.2044475823640823</v>
+        <v>-0.2032603174448013</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.7011414170265198</v>
+        <v>-0.6999576091766357</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3758816719055176</v>
+        <v>0.3792228102684021</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2190842628479004</v>
+        <v>0.2204211503267288</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3693720102310181</v>
+        <v>-0.3691809177398682</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.018181085586548</v>
+        <v>-1.01733934879303</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>0.05168510973453522</v>
+        <v>0.05297805368900299</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8176657557487488</v>
+        <v>0.8192050457000732</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.1581995636224747</v>
+        <v>-0.1589871197938919</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.3032246232032776</v>
+        <v>-0.3040212094783783</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.6344584226608276</v>
+        <v>-0.6359309554100037</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>0.147081196308136</v>
+        <v>0.1473087519407272</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.09116511046886444</v>
+        <v>-0.09104931354522705</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>0.09259364008903503</v>
+        <v>0.09299426525831223</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.120091438293457</v>
+        <v>-1.120278000831604</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3751329183578491</v>
+        <v>0.3741331994533539</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.7938411235809326</v>
+        <v>-0.7943890690803528</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.7003948092460632</v>
+        <v>-0.7013536691665649</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2341683804988861</v>
+        <v>0.2332362979650497</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>0.05445139482617378</v>
+        <v>0.05422880128026009</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>0.7458416819572449</v>
+        <v>0.746146559715271</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>0.09859684854745865</v>
+        <v>0.09827679395675659</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>2.026018619537354</v>
+        <v>2.026490688323975</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.706708550453186</v>
+        <v>-0.7065290808677673</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>0.5247940421104431</v>
+        <v>0.526241660118103</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>1.357494473457336</v>
+        <v>1.35742461681366</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>1.27632462978363</v>
+        <v>1.277560353279114</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9138533473014832</v>
+        <v>0.915160596370697</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>0.06442327797412872</v>
+        <v>0.06533357501029968</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1291486620903015</v>
+        <v>0.1282658874988556</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.01911675743758678</v>
+        <v>-0.01795564219355583</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8551565408706665</v>
+        <v>0.8568309545516968</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1635403633117676</v>
+        <v>0.1638675481081009</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>0.9728402495384216</v>
+        <v>0.9731277227401733</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.7315516471862793</v>
+        <v>-0.7319953441619873</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.29385507106781</v>
+        <v>-1.293777346611023</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.3448982238769531</v>
+        <v>-0.3448906242847443</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.07767563313245773</v>
+        <v>-0.07652123272418976</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.0200202465057373</v>
+        <v>-0.01922845281660557</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>0.6159412860870361</v>
+        <v>0.6161531805992126</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.5226019620895386</v>
+        <v>-0.5226950645446777</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1098986566066742</v>
+        <v>0.1097627356648445</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.6956654787063599</v>
+        <v>-0.6949889659881592</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.7696173191070557</v>
+        <v>-0.7672797441482544</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1397256702184677</v>
+        <v>-0.1381089836359024</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01273081358522177</v>
+        <v>0.01557173300534487</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0441618487238884</v>
+        <v>-0.0439605712890625</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>0.06774483621120453</v>
+        <v>0.06860129535198212</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>0.610317587852478</v>
+        <v>0.6080337762832642</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>1.90175187587738</v>
+        <v>1.901949048042297</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>3.06312894821167</v>
+        <v>3.06620979309082</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>1.829785108566284</v>
+        <v>1.831670880317688</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.1006976068019867</v>
+        <v>-0.0992831289768219</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1895956993103027</v>
+        <v>0.1901430040597916</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7594360113143921</v>
+        <v>0.7616050243377686</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>0.7118426561355591</v>
+        <v>0.7122066020965576</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5097702741622925</v>
+        <v>0.5111991167068481</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>0.5404808521270752</v>
+        <v>0.541700541973114</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6986363530158997</v>
+        <v>0.6993030905723572</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.5364024043083191</v>
+        <v>-0.5345479249954224</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.3687316179275513</v>
+        <v>-0.3686905205249786</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.4707600772380829</v>
+        <v>-0.4688523709774017</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>0.09962282329797745</v>
+        <v>0.1015641316771507</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.053604125976562</v>
+        <v>-1.05240523815155</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.2928398251533508</v>
+        <v>-0.2908420860767365</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.2898234128952026</v>
+        <v>-0.2889775633811951</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>0.09064652770757675</v>
+        <v>0.09181103110313416</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3767021000385284</v>
+        <v>0.376786082983017</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1531682461500168</v>
+        <v>0.1527982950210571</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>1.546541094779968</v>
+        <v>1.547564506530762</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.335999131202698</v>
+        <v>-1.335044622421265</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.8492456674575806</v>
+        <v>-0.8490225076675415</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01087463088333607</v>
+        <v>0.01332837529480457</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1918630003929138</v>
+        <v>-0.1901039779186249</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.3167487680912018</v>
+        <v>-0.316379725933075</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.6885893940925598</v>
+        <v>-0.6866713762283325</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.6799963712692261</v>
+        <v>-0.6793854832649231</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.024929165840149</v>
+        <v>-1.024739146232605</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2280189990997314</v>
+        <v>-0.2272734642028809</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.217115640640259</v>
+        <v>-1.21611762046814</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.80586576461792</v>
+        <v>-1.805604815483093</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.839378356933594</v>
+        <v>-1.837172627449036</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.0866633802652359</v>
+        <v>-0.08535270392894745</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.8291328549385071</v>
+        <v>-0.8281087279319763</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.4851479530334473</v>
+        <v>-0.4824889898300171</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>0.2504612803459167</v>
+        <v>0.2524809837341309</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1553980112075806</v>
+        <v>0.1585158407688141</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.0474410243332386</v>
+        <v>-0.04639127478003502</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>0.4956078231334686</v>
+        <v>0.4964069724082947</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>0.7997791767120361</v>
+        <v>0.8026846647262573</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>1.18377149105072</v>
+        <v>1.185086131095886</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.4310246706008911</v>
+        <v>-0.4306060969829559</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.803100049495697</v>
+        <v>-0.8018953204154968</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>0.7870309948921204</v>
+        <v>0.7881508469581604</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.1312055885791779</v>
+        <v>-0.1296014189720154</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.628862738609314</v>
+        <v>0.6315256953239441</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.03105354309082</v>
+        <v>-1.03205931186676</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>0.947957456111908</v>
+        <v>0.9504674673080444</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2284913808107376</v>
+        <v>0.2303401082754135</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.7884463667869568</v>
+        <v>-0.7875259518623352</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.5963484644889832</v>
+        <v>-0.5965016484260559</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>0.6247433423995972</v>
+        <v>0.6258261203765869</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>1.0617356300354</v>
+        <v>1.063960433006287</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>0.01192949153482914</v>
+        <v>0.01247976161539555</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.2552125155925751</v>
+        <v>-0.2567125856876373</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>0.6091567277908325</v>
+        <v>0.609973669052124</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>1.488415718078613</v>
+        <v>1.489322900772095</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>0.444661557674408</v>
+        <v>0.4472892284393311</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1126007437705994</v>
+        <v>0.1148501560091972</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.7001431584358215</v>
+        <v>-0.700569748878479</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.47867476940155</v>
+        <v>-1.478250622749329</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.06789398938417435</v>
+        <v>-0.06648115813732147</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.940551221370697</v>
+        <v>-0.9401393532752991</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.73042619228363</v>
+        <v>-1.729991912841797</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>-1.438984751701355</v>
+        <v>-1.437103390693665</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.3971174955368042</v>
+        <v>-0.3955989181995392</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.848429799079895</v>
+        <v>-0.8478639125823975</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02096633054316044</v>
+        <v>0.02236416377127171</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.9551249742507935</v>
+        <v>-0.9525318145751953</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.520029783248901</v>
+        <v>-1.518024802207947</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>0.6916640996932983</v>
+        <v>0.6925050020217896</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>0.0734051987528801</v>
+        <v>0.07607993483543396</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>1.206337690353394</v>
+        <v>1.208235621452332</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>0.4652110934257507</v>
+        <v>0.4682409465312958</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.05906715989112854</v>
+        <v>-0.05646224319934845</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.8051780462265015</v>
+        <v>-0.8043017387390137</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1216795668005943</v>
+        <v>-0.1211811378598213</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.1336996257305145</v>
+        <v>-0.1325136125087738</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1803406625986099</v>
+        <v>-0.1795922368764877</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.6920620799064636</v>
+        <v>-0.6911235451698303</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.7380198240280151</v>
+        <v>-0.7371095418930054</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>0.112160436809063</v>
+        <v>0.1124973371624947</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>-1.124822378158569</v>
+        <v>-1.126285672187805</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.080100417137146</v>
+        <v>-1.081072211265564</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.7596995830535889</v>
+        <v>-0.7585943937301636</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>0.891152560710907</v>
+        <v>0.8920419216156006</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>0.4115408957004547</v>
+        <v>0.4130114614963531</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.3571195602416992</v>
+        <v>-0.3567262589931488</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.2944161891937256</v>
+        <v>-0.2936719059944153</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3057749271392822</v>
+        <v>0.3056813478469849</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.925426185131073</v>
+        <v>-0.9237542152404785</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.3522314727306366</v>
+        <v>-0.3518286645412445</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4725323617458344</v>
+        <v>0.4718646705150604</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>0.5102322697639465</v>
+        <v>0.5108662247657776</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.4601629078388214</v>
+        <v>-0.4609235525131226</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.9110698699951172</v>
+        <v>-0.9106313586235046</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>1.667973518371582</v>
+        <v>1.667536616325378</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4154171645641327</v>
+        <v>0.4169230759143829</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.08101627975702286</v>
+        <v>-0.07993363589048386</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>0.1908129751682281</v>
+        <v>0.1910641342401505</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.2131909132003784</v>
+        <v>-0.2142931967973709</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>0.02464655041694641</v>
+        <v>0.02487739734351635</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.01270926184952259</v>
+        <v>-0.01105444598942995</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.575694680213928</v>
+        <v>-1.574208855628967</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.9606860280036926</v>
+        <v>-0.9620246291160583</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.224870920181274</v>
+        <v>-1.224604725837708</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.6662836074829102</v>
+        <v>-0.6661006808280945</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.583012461662292</v>
+        <v>-1.582691192626953</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7897716164588928</v>
+        <v>-0.7902237176895142</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.546065628528595</v>
+        <v>-0.5462617874145508</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>1.268265962600708</v>
+        <v>1.269025206565857</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.1060635894536972</v>
+        <v>-0.1055610179901123</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.4045941829681396</v>
+        <v>-0.4030178487300873</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>1.101358890533447</v>
+        <v>1.102532982826233</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>0.4946871697902679</v>
+        <v>0.4957829415798187</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.2822181284427643</v>
+        <v>-0.2810527384281158</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>0.2262196838855743</v>
+        <v>0.2269374877214432</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>-1.307664394378662</v>
+        <v>-1.306186676025391</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.4012050628662109</v>
+        <v>-0.4025350213050842</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.5029314756393433</v>
+        <v>-0.5008139610290527</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.442898631095886</v>
+        <v>-1.442270874977112</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5490385293960571</v>
+        <v>0.5494375824928284</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>0.09591774642467499</v>
+        <v>0.09843426197767258</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>0.2248382121324539</v>
+        <v>0.2272458225488663</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.4375247061252594</v>
+        <v>-0.4365716874599457</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.3782644271850586</v>
+        <v>-0.3776059448719025</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.1575409173965454</v>
+        <v>-0.1563531458377838</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>0.823271632194519</v>
+        <v>0.825326144695282</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.341308951377869</v>
+        <v>-1.339757561683655</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.0730939507484436</v>
+        <v>-0.0700078159570694</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.6742151379585266</v>
+        <v>-0.6723349094390869</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.318011522293091</v>
+        <v>-1.317887783050537</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.6477857232093811</v>
+        <v>-0.6471632122993469</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.2181277871131897</v>
+        <v>-0.2170685678720474</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.6349822878837585</v>
+        <v>-0.6330233812332153</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>0.0910196527838707</v>
+        <v>0.0916752889752388</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.4222489297389984</v>
+        <v>-0.4216506481170654</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1217904165387154</v>
+        <v>0.1209312528371811</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3637990057468414</v>
+        <v>0.3643583953380585</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.171464204788208</v>
+        <v>-1.170456409454346</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.01038180757313967</v>
+        <v>-0.009346293285489082</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>0.2447310537099838</v>
+        <v>0.2443373054265976</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>1.64749801158905</v>
+        <v>1.652512311935425</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.142392754554749</v>
+        <v>-1.143365502357483</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.094881176948547</v>
+        <v>-1.094386577606201</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.1973860710859299</v>
+        <v>-0.197830006480217</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.585188627243042</v>
+        <v>-0.5846604108810425</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.6450627446174622</v>
+        <v>-0.6452010869979858</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.1497353315353394</v>
+        <v>-0.1503202766180038</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>-2.131892442703247</v>
+        <v>-2.131769180297852</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.936435461044312</v>
+        <v>-1.936661124229431</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.006109595298767</v>
+        <v>-1.006239533424377</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>0.09452524781227112</v>
+        <v>0.09439628571271896</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>0.3021040558815002</v>
+        <v>0.3024064898490906</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.6379377245903015</v>
+        <v>-0.6375132203102112</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.5399900674819946</v>
+        <v>-0.5393798351287842</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.2560724020004272</v>
+        <v>-0.2553573846817017</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.305234283208847</v>
+        <v>-0.30462446808815</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.102826356887817</v>
+        <v>-1.101782321929932</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.7181370854377747</v>
+        <v>-0.7173733711242676</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>1.33759343624115</v>
+        <v>1.337980389595032</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6655578017234802</v>
+        <v>0.6660855412483215</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.442761242389679</v>
+        <v>-0.4417461752891541</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>0.4540190696716309</v>
+        <v>0.4538834393024445</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.5630873441696167</v>
+        <v>-0.562967836856842</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>-1.716551542282104</v>
+        <v>-1.71456503868103</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.4952564537525177</v>
+        <v>-0.4960233271121979</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.2688851058483124</v>
+        <v>-0.2676613926887512</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.1132409051060677</v>
+        <v>-0.1117066368460655</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>-1.100228428840637</v>
+        <v>-1.09936535358429</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>0.09472636133432388</v>
+        <v>0.09560827165842056</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.486666202545166</v>
+        <v>-0.4848946928977966</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>0.154665470123291</v>
+        <v>0.1558494567871094</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.2361419051885605</v>
+        <v>-0.2344011068344116</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3693389296531677</v>
+        <v>0.3710415363311768</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>0.4051446914672852</v>
+        <v>0.4055390655994415</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.9346876740455627</v>
+        <v>-0.9333690404891968</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>0.4873735904693604</v>
+        <v>0.4892446398735046</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.116612121462822</v>
+        <v>-0.1152670308947563</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>0.04976252466440201</v>
+        <v>0.05143433436751366</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>1.661994099617004</v>
+        <v>1.663613200187683</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.5653298497200012</v>
+        <v>-0.5635387897491455</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>0.5950729846954346</v>
+        <v>0.5953003764152527</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>0.2808426320552826</v>
+        <v>0.2837068140506744</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>0.266194611787796</v>
+        <v>0.2670773267745972</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9449347853660583</v>
+        <v>0.9460045099258423</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>1.325555682182312</v>
+        <v>1.326387763023376</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.4548233449459076</v>
+        <v>-0.453013151884079</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.3251472413539886</v>
+        <v>-0.3244534134864807</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.3600320518016815</v>
+        <v>-0.3593413233757019</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>0.2834071218967438</v>
+        <v>0.283804714679718</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.2030423283576965</v>
+        <v>-0.2022372633218765</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.09359273314476013</v>
+        <v>-0.09217130392789841</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>1.222350239753723</v>
+        <v>1.225661516189575</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.3454970121383667</v>
+        <v>-0.3443876802921295</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.008212471380829811</v>
+        <v>-0.006845302879810333</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.5203210115432739</v>
+        <v>-0.5177119970321655</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>-1.301789879798889</v>
+        <v>-1.300204277038574</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>-1.63285493850708</v>
+        <v>-1.630442023277283</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>-1.562164902687073</v>
+        <v>-1.561907887458801</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>-1.183712005615234</v>
+        <v>-1.181654930114746</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>-1.149753093719482</v>
+        <v>-1.148903846740723</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>-1.093209624290466</v>
+        <v>-1.092553973197937</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.5629470944404602</v>
+        <v>-0.5612809658050537</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.207268476486206</v>
+        <v>-1.206416845321655</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.6286073327064514</v>
+        <v>-0.6273159980773926</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>-1.168357133865356</v>
+        <v>-1.168142437934875</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.003704905509949</v>
+        <v>-1.000898599624634</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.3701810538768768</v>
+        <v>-0.3668402135372162</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.4489313960075378</v>
+        <v>-0.4468507468700409</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>0.8845373392105103</v>
+        <v>0.8853228688240051</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.4879383146762848</v>
+        <v>-0.4861670434474945</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.737579822540283</v>
+        <v>-1.735952496528625</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>0.5214970707893372</v>
+        <v>0.5243026614189148</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.1112694814801216</v>
+        <v>-0.1103262677788734</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>-0.0005987571203149855</v>
+        <v>0.001153519260697067</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.31089186668396</v>
+        <v>-1.307919979095459</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>-1.359633564949036</v>
+        <v>-1.358914852142334</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.8072800636291504</v>
+        <v>-0.8057684302330017</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.1783161461353302</v>
+        <v>-0.1768439412117004</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.2202579379081726</v>
+        <v>-0.2194058001041412</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.539765477180481</v>
+        <v>-1.538790345191956</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>0.108872078359127</v>
+        <v>0.1101834252476692</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>1.591349482536316</v>
+        <v>1.591940402984619</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.1648626327514648</v>
+        <v>-0.1629532277584076</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>-1.640221476554871</v>
+        <v>-1.640004992485046</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3226043581962585</v>
+        <v>0.3244286179542542</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.6263599395751953</v>
+        <v>-0.626103937625885</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.9939202666282654</v>
+        <v>-0.9928308725357056</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.02549627237021923</v>
+        <v>-0.02574554271996021</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>0.254306823015213</v>
+        <v>0.2550663650035858</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.5306180119514465</v>
+        <v>-0.5305879712104797</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.6062358021736145</v>
+        <v>-0.6062448024749756</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>-1.111067295074463</v>
+        <v>-1.109603404998779</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.1104085296392441</v>
+        <v>-0.1104007214307785</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>0.2548618912696838</v>
+        <v>0.255162388086319</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>0.8353345990180969</v>
+        <v>0.836641788482666</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>1.613755822181702</v>
+        <v>1.613235831260681</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.107848405838013</v>
+        <v>-1.105225086212158</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>1.245024681091309</v>
+        <v>1.24653685092926</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.05999542027711868</v>
+        <v>-0.05986461043357849</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.838726818561554</v>
+        <v>-0.8389629125595093</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.408259779214859</v>
+        <v>-0.4081534743309021</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.9235995411872864</v>
+        <v>-0.9218957424163818</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.1938093900680542</v>
+        <v>-0.1906773000955582</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.9651391506195068</v>
+        <v>-0.9639133214950562</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1829134225845337</v>
+        <v>0.1845418810844421</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>-1.131621599197388</v>
+        <v>-1.129027247428894</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.6455618143081665</v>
+        <v>-0.6438789367675781</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.1791856735944748</v>
+        <v>-0.1782868504524231</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.06689737737178802</v>
+        <v>-0.06540770083665848</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>1.095597863197327</v>
+        <v>1.098320841789246</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.172872319817543</v>
+        <v>-0.1711091101169586</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.076796174049377</v>
+        <v>-1.075343489646912</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>-1.667245626449585</v>
+        <v>-1.664579629898071</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>-1.066511988639832</v>
+        <v>-1.064576745033264</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>-2.287177801132202</v>
+        <v>-2.286278963088989</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.699421226978302</v>
+        <v>-0.6980140209197998</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>-1.517717838287354</v>
+        <v>-1.518139004707336</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.753370881080627</v>
+        <v>-1.75436007976532</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.229477286338806</v>
+        <v>-1.230214715003967</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.8145521879196167</v>
+        <v>-0.8142054677009583</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.8772658705711365</v>
+        <v>-0.8750328421592712</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>-1.157133817672729</v>
+        <v>-1.157781600952148</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>-1.390126943588257</v>
+        <v>-1.38990581035614</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>-1.012085556983948</v>
+        <v>-1.013071179389954</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.562039315700531</v>
+        <v>-0.5624251365661621</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.2208013236522675</v>
+        <v>-0.2208177894353867</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>-1.393845796585083</v>
+        <v>-1.392245292663574</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>-1.495290398597717</v>
+        <v>-1.494706392288208</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6695122718811035</v>
+        <v>0.6705835461616516</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.6975154280662537</v>
+        <v>-0.6970563530921936</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.5324240922927856</v>
+        <v>-0.5312322378158569</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.3486444354057312</v>
+        <v>-0.3486132323741913</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>-1.979205965995789</v>
+        <v>-1.982072591781616</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.175833940505981</v>
+        <v>-1.176436305046082</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.543900728225708</v>
+        <v>-1.542930722236633</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.7111068964004517</v>
+        <v>-0.71012943983078</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>-1.382959127426147</v>
+        <v>-1.382613658905029</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.6338342428207397</v>
+        <v>-0.6337704658508301</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.7406482100486755</v>
+        <v>-0.7404816746711731</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>-1.43147087097168</v>
+        <v>-1.430509686470032</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.6859678626060486</v>
+        <v>-0.6844708323478699</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>0.008609538897871971</v>
+        <v>0.00851103849709034</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>0.1231981888413429</v>
+        <v>0.1227546110749245</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8710078597068787</v>
+        <v>0.8729063868522644</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.6411147117614746</v>
+        <v>-0.6393392086029053</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>1.16866660118103</v>
+        <v>1.168917894363403</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>0.8748741745948792</v>
+        <v>0.8762866258621216</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.5623260736465454</v>
+        <v>-0.5615605115890503</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>0.2521960735321045</v>
+        <v>0.2526309490203857</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.4830917716026306</v>
+        <v>-0.4837331473827362</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.207302212715149</v>
+        <v>-1.206467628479004</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.1161682233214378</v>
+        <v>-0.1162680685520172</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>-1.167253494262695</v>
+        <v>-1.166409730911255</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>0.240980863571167</v>
+        <v>0.2422849833965302</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>-1.00067126750946</v>
+        <v>-0.99970942735672</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>-1.15319836139679</v>
+        <v>-1.152868032455444</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.8784245848655701</v>
+        <v>-0.8798294067382812</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>-1.350513458251953</v>
+        <v>-1.351404786109924</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.6089357137680054</v>
+        <v>-0.6087906360626221</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.7356895208358765</v>
+        <v>-0.7355409264564514</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.2764972448349</v>
+        <v>-1.276006817817688</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>0.9125813245773315</v>
+        <v>0.9144611358642578</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.3424009680747986</v>
+        <v>-0.3422684669494629</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>1.113931775093079</v>
+        <v>1.115660309791565</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.7442851066589355</v>
+        <v>-0.7429050803184509</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.06683161854743958</v>
+        <v>-0.06529837101697922</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.5964935421943665</v>
+        <v>-0.5948477387428284</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.08351319283246994</v>
+        <v>-0.08233614265918732</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>1.901751518249512</v>
+        <v>1.906323313713074</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.3330096006393433</v>
+        <v>-0.330464094877243</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>-1.265077829360962</v>
+        <v>-1.263491272926331</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>0.03973241895437241</v>
+        <v>0.04119960963726044</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>0.02003747038543224</v>
+        <v>0.0199687797576189</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.124553769826889</v>
+        <v>-0.1242004334926605</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.6862212419509888</v>
+        <v>-0.6860976219177246</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.9833226203918457</v>
+        <v>-0.9832870364189148</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>0.2607994675636292</v>
+        <v>0.2615785300731659</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>-1.033553600311279</v>
+        <v>-1.032997608184814</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.5025194883346558</v>
+        <v>-0.501739501953125</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.2533658444881439</v>
+        <v>-0.252405196428299</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>0.05135053768754005</v>
+        <v>0.05149217694997787</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.06663601100444794</v>
+        <v>-0.06447015702724457</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>0.1457179188728333</v>
+        <v>0.1459013968706131</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>-1.014027237892151</v>
+        <v>-1.013420581817627</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>0.2591062188148499</v>
+        <v>0.2605642974376678</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.7276939749717712</v>
+        <v>-0.7264382243156433</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.8653977513313293</v>
+        <v>-0.8649250864982605</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>-1.000976324081421</v>
+        <v>-1.000884175300598</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>-1.997725129127502</v>
+        <v>-1.996646404266357</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>-1.254933714866638</v>
+        <v>-1.25330924987793</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.2837268114089966</v>
+        <v>-0.2827690541744232</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.9550284743309021</v>
+        <v>-0.953234076499939</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.4742767810821533</v>
+        <v>-0.4728755056858063</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1695353388786316</v>
+        <v>-0.1681012809276581</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>0.4066359102725983</v>
+        <v>0.407622367143631</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.5896620154380798</v>
+        <v>-0.5887876749038696</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>-1.077361345291138</v>
+        <v>-1.075849175453186</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.2582899034023285</v>
+        <v>-0.2570660710334778</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>-1.204303741455078</v>
+        <v>-1.201861023902893</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.2983861565589905</v>
+        <v>-0.296660453081131</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>0.2794675827026367</v>
+        <v>0.2799464762210846</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.6097209453582764</v>
+        <v>-0.607831597328186</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.4306856691837311</v>
+        <v>-0.4289201498031616</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.8266222476959229</v>
+        <v>-0.8271626830101013</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.3912328481674194</v>
+        <v>-0.391896516084671</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.08459018915891647</v>
+        <v>-0.08309916406869888</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>1.19959568977356</v>
+        <v>1.201234459877014</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.7270260453224182</v>
+        <v>-0.7267919182777405</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.227192148566246</v>
+        <v>-0.2250655442476273</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>-1.032903909683228</v>
+        <v>-1.032961368560791</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.1851045340299606</v>
+        <v>-0.1856275498867035</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>-1.321493148803711</v>
+        <v>-1.319442510604858</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>-1.202484965324402</v>
+        <v>-1.20037043094635</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>-1.023913860321045</v>
+        <v>-1.022231698036194</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>0.6961371898651123</v>
+        <v>0.6973925828933716</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.7569845914840698</v>
+        <v>-0.7556284070014954</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>-1.613521814346313</v>
+        <v>-1.612938761711121</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.9390482902526855</v>
+        <v>-0.938093900680542</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>-1.003135442733765</v>
+        <v>-1.001254320144653</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.4781276881694794</v>
+        <v>-0.4777673780918121</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.6437721252441406</v>
+        <v>-0.6425679922103882</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>0.06625955551862717</v>
+        <v>0.06593900918960571</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>0.0476248636841774</v>
+        <v>0.0479850061237812</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.3706986010074615</v>
+        <v>-0.3700605034828186</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>0.5328963398933411</v>
+        <v>0.5336732864379883</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>1.046316981315613</v>
+        <v>1.045847654342651</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.5366182923316956</v>
+        <v>-0.5359899997711182</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.329676628112793</v>
+        <v>-0.3297937512397766</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.2293662279844284</v>
+        <v>-0.226085364818573</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>0.09522318840026855</v>
+        <v>0.09666129946708679</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>-1.40847635269165</v>
+        <v>-1.409155964851379</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.297392845153809</v>
+        <v>-1.296840071678162</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>-1.087970376014709</v>
+        <v>-1.088013768196106</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>-1.101584315299988</v>
+        <v>-1.101828932762146</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>0.6331819295883179</v>
+        <v>0.6335673928260803</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4194023907184601</v>
+        <v>0.4212712049484253</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>-1.73092257976532</v>
+        <v>-1.729672431945801</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.2957459390163422</v>
+        <v>-0.2948192656040192</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.4678428769111633</v>
+        <v>-0.4661791324615479</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>-1.278418064117432</v>
+        <v>-1.278465628623962</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>-1.909567356109619</v>
+        <v>-1.909079670906067</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>-1.209359765052795</v>
+        <v>-1.210222482681274</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.8914225101470947</v>
+        <v>-0.8909776210784912</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>-1.049565076828003</v>
+        <v>-1.047115445137024</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.9490603804588318</v>
+        <v>-0.950006365776062</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.7688203454017639</v>
+        <v>-0.7687010169029236</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.4529615640640259</v>
+        <v>-0.452699214220047</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>0.4551449120044708</v>
+        <v>0.4565092027187347</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>0.04609415680170059</v>
+        <v>0.04538518562912941</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.03256625309586525</v>
+        <v>-0.03164707869291306</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>0.2329901605844498</v>
+        <v>0.233797013759613</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.5229676365852356</v>
+        <v>-0.524029552936554</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.2461874932050705</v>
+        <v>-0.2463534623384476</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>1.207938194274902</v>
+        <v>1.210965275764465</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.8900580406188965</v>
+        <v>-0.8878510594367981</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.05962639674544334</v>
+        <v>-0.05893423780798912</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.01939927786588669</v>
+        <v>-0.01895560510456562</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.8516007661819458</v>
+        <v>-0.8501235246658325</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>-1.114161014556885</v>
+        <v>-1.114213466644287</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.175135374069214</v>
+        <v>-1.176377773284912</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>-2.341694116592407</v>
+        <v>-2.341016054153442</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.341892242431641</v>
+        <v>-2.341679811477661</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.400429606437683</v>
+        <v>-1.400929093360901</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.9848564267158508</v>
+        <v>-0.9838529825210571</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.186686277389526</v>
+        <v>-1.185337781906128</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>-1.382166743278503</v>
+        <v>-1.381722092628479</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.1121226325631142</v>
+        <v>-0.1132276728749275</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.1345636695623398</v>
+        <v>-0.135940745472908</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>-1.048474907875061</v>
+        <v>-1.048281311988831</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.05252563208341599</v>
+        <v>-0.05329230800271034</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.2079239338636398</v>
+        <v>-0.2075726389884949</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>-1.183685183525085</v>
+        <v>-1.182487964630127</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.2038931399583817</v>
+        <v>-0.2024474442005157</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>0.38189497590065</v>
+        <v>0.3832967877388</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>0.310387909412384</v>
+        <v>0.3105871379375458</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>0.2324440628290176</v>
+        <v>0.2339226901531219</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.009331230074167252</v>
+        <v>-0.007411536760628223</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>0.1024123653769493</v>
+        <v>0.1037514358758926</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.67953622341156</v>
+        <v>-1.680218100547791</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.313860297203064</v>
+        <v>-1.312640428543091</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>0.2846391499042511</v>
+        <v>0.2859814167022705</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.4189545512199402</v>
+        <v>-0.419527143239975</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.9902116656303406</v>
+        <v>-0.9896434545516968</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.8578576445579529</v>
+        <v>-0.8563821315765381</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.4779324233531952</v>
+        <v>-0.4775035679340363</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>-1.164883732795715</v>
+        <v>-1.164083361625671</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.7245556116104126</v>
+        <v>-0.723953902721405</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.9735801815986633</v>
+        <v>-0.9734777212142944</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.4117817878723145</v>
+        <v>-0.4106711447238922</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>0.5049021244049072</v>
+        <v>0.5062013864517212</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>0.1559883505105972</v>
+        <v>0.1578739434480667</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.740448534488678</v>
+        <v>-0.739196240901947</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.9492972493171692</v>
+        <v>-0.9479135274887085</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>-1.636500000953674</v>
+        <v>-1.63663649559021</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.7173195481300354</v>
+        <v>-0.7160965204238892</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.8459900617599487</v>
+        <v>-0.8459444642066956</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.1191384494304657</v>
+        <v>-0.1193651184439659</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>-1.064372658729553</v>
+        <v>-1.064288377761841</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>0.7158892154693604</v>
+        <v>0.7164488434791565</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>0.7645325064659119</v>
+        <v>0.7645928263664246</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.1804998368024826</v>
+        <v>-0.1780457347631454</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.3871650397777557</v>
+        <v>-0.3873079121112823</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.4878344535827637</v>
+        <v>-0.4867308139801025</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.1239814907312393</v>
+        <v>-0.122396856546402</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.4569889307022095</v>
+        <v>-0.4565263688564301</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.942981481552124</v>
+        <v>-0.9418983459472656</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.9839312434196472</v>
+        <v>-0.9836750030517578</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.001648758188821375</v>
+        <v>0.002428019652143121</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.9634951949119568</v>
+        <v>-0.9626083374023438</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>-0.6173672080039978</v>
+        <v>-0.615153968334198</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.2492802739143372</v>
+        <v>-0.2469283193349838</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3381184339523315</v>
+        <v>0.3393434584140778</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.585044801235199</v>
+        <v>-0.5845191478729248</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.4865458309650421</v>
+        <v>-0.4846279919147491</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>-1.44184136390686</v>
+        <v>-1.441641688346863</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.6015787124633789</v>
+        <v>-0.6012291312217712</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>-1.684147953987122</v>
+        <v>-1.682915925979614</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.8941633701324463</v>
+        <v>-0.8922593593597412</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>-1.275739312171936</v>
+        <v>-1.274200916290283</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>-1.444886088371277</v>
+        <v>-1.443870902061462</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>-1.427819967269897</v>
+        <v>-1.426064014434814</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>-1.635746240615845</v>
+        <v>-1.633850455284119</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>-0.8420147299766541</v>
+        <v>-0.8408991694450378</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.8173978924751282</v>
+        <v>-0.8153517246246338</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.6920588612556458</v>
+        <v>-0.6896719336509705</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.117804288864136</v>
+        <v>-1.115997076034546</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.5377043485641479</v>
+        <v>-0.5358563661575317</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>-1.637146472930908</v>
+        <v>-1.635959148406982</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>-1.131934762001038</v>
+        <v>-1.13001275062561</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>-2.369164705276489</v>
+        <v>-2.368818521499634</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>-1.144542813301086</v>
+        <v>-1.142850399017334</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.9480057954788208</v>
+        <v>-0.946268618106842</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>-2.742785215377808</v>
+        <v>-2.743438243865967</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.9300240874290466</v>
+        <v>-0.9282416701316833</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.0978371798992157</v>
+        <v>-0.098260797560215</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>-2.023226022720337</v>
+        <v>-2.023353576660156</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.02936042845249176</v>
+        <v>-0.0262468010187149</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>0.4398657977581024</v>
+        <v>0.4411632120609283</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>0.1582044959068298</v>
+        <v>0.1591310799121857</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>0.2054692506790161</v>
+        <v>0.2070726007223129</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.6002365350723267</v>
+        <v>-0.599402904510498</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.6967946290969849</v>
+        <v>-0.6977761387825012</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>-1.375375866889954</v>
+        <v>-1.37426495552063</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>-1.711384534835815</v>
+        <v>-1.711326241493225</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>-1.259435057640076</v>
+        <v>-1.257925748825073</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>-1.170613408088684</v>
+        <v>-1.17012095451355</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.9557144641876221</v>
+        <v>-0.9552426934242249</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>-1.493760585784912</v>
+        <v>-1.49292004108429</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.04490843415260315</v>
+        <v>-0.0408831425011158</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.7635194063186646</v>
+        <v>-0.7634752988815308</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.8372635245323181</v>
+        <v>-0.8359946012496948</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>-1.173628211021423</v>
+        <v>-1.173213005065918</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.8526992201805115</v>
+        <v>-0.8528510332107544</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.3529269099235535</v>
+        <v>-0.3530712127685547</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>0.1418188363313675</v>
+        <v>0.1432282477617264</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.7852994203567505</v>
+        <v>-0.7835238575935364</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.4740621447563171</v>
+        <v>-0.474408358335495</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.8893723487854004</v>
+        <v>-0.8884583711624146</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>-0.135965421795845</v>
+        <v>-0.135505735874176</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>-1.167990684509277</v>
+        <v>-1.166485786437988</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.7600305676460266</v>
+        <v>-0.761645495891571</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>-1.382141590118408</v>
+        <v>-1.381802916526794</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>-1.094654679298401</v>
+        <v>-1.094316601753235</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>-1.40240740776062</v>
+        <v>-1.400919795036316</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>0.04609594121575356</v>
+        <v>0.04746118187904358</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>-1.273798823356628</v>
+        <v>-1.274354457855225</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.8955910801887512</v>
+        <v>-0.8947614431381226</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>-0.971052348613739</v>
+        <v>-0.9705961942672729</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>-2.021377801895142</v>
+        <v>-2.020679950714111</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.1144056022167206</v>
+        <v>-0.1126469597220421</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.3276773393154144</v>
+        <v>-0.3257107734680176</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>-1.190259099006653</v>
+        <v>-1.187791347503662</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>0.3396501243114471</v>
+        <v>0.3434106409549713</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>1.12470269203186</v>
+        <v>1.127030253410339</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>0.2872689366340637</v>
+        <v>0.2890319228172302</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.439611554145813</v>
+        <v>-0.4391191005706787</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.084828019142151</v>
+        <v>-1.08514928817749</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.501368403434753</v>
+        <v>-1.500993967056274</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.2448496371507645</v>
+        <v>-0.2437792867422104</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.362996101379395</v>
+        <v>-1.362465262413025</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>-1.315679907798767</v>
+        <v>-1.315059542655945</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.0992671474814415</v>
+        <v>-0.0980512797832489</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>0.3905815780162811</v>
+        <v>0.3900194466114044</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.6898660063743591</v>
+        <v>-0.6896160244941711</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.257452487945557</v>
+        <v>-1.259015440940857</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.294031500816345</v>
+        <v>-1.293518900871277</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>-1.538438320159912</v>
+        <v>-1.538239121437073</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>-1.075186967849731</v>
+        <v>-1.074885964393616</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.9613062143325806</v>
+        <v>-0.9614327549934387</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>0.1472356915473938</v>
+        <v>0.1470176428556442</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>-1.423415660858154</v>
+        <v>-1.4214026927948</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.8528664112091064</v>
+        <v>-0.8523390889167786</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>-1.285223364830017</v>
+        <v>-1.286064028739929</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.4499556124210358</v>
+        <v>-0.4515158832073212</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.6716173887252808</v>
+        <v>-0.6703823804855347</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>-1.669115662574768</v>
+        <v>-1.668834686279297</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.5139616727828979</v>
+        <v>-0.515885055065155</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>-1.345818519592285</v>
+        <v>-1.345931172370911</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>-1.928380846977234</v>
+        <v>-1.928156733512878</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.031307697296143</v>
+        <v>-1.032086730003357</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.8594861030578613</v>
+        <v>-0.8601006865501404</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.4749332964420319</v>
+        <v>-0.4756870269775391</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>-1.195078492164612</v>
+        <v>-1.195365428924561</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,7 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.860014796257019</v>
+        <v>-0.8608260750770569</v>
       </c>
     </row>
     <row r="895">
@@ -7596,7 +7596,7 @@
         <v>44713</v>
       </c>
       <c r="B895" t="n">
-        <v>0.06724382936954498</v>
+        <v>0.06772792339324951</v>
       </c>
     </row>
     <row r="896">
@@ -7604,7 +7604,7 @@
         <v>44743</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.9075621962547302</v>
+        <v>-0.9082358479499817</v>
       </c>
     </row>
     <row r="897">
@@ -7612,7 +7612,7 @@
         <v>44774</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.7778293490409851</v>
+        <v>-0.7793897986412048</v>
       </c>
     </row>
     <row r="898">
@@ -7620,7 +7620,15 @@
         <v>44805</v>
       </c>
       <c r="B898" t="n">
-        <v>-1.471056222915649</v>
+        <v>-1.473052978515625</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B899" t="n">
+        <v>-0.8028662800788879</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B899"/>
+  <dimension ref="A1:B900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8135883808135986</v>
+        <v>0.8156435489654541</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>1.527184963226318</v>
+        <v>1.528652548789978</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>1.469137787818909</v>
+        <v>1.470989584922791</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8799645900726318</v>
+        <v>0.8786640763282776</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2791848182678223</v>
+        <v>-0.2779126167297363</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6493268609046936</v>
+        <v>0.650811493396759</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>1.975786924362183</v>
+        <v>1.977275252342224</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>2.190766572952271</v>
+        <v>2.195321798324585</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>1.213474869728088</v>
+        <v>1.212973952293396</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>1.935588002204895</v>
+        <v>1.940674185752869</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>1.82268488407135</v>
+        <v>1.799950122833252</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9156864881515503</v>
+        <v>0.9148220419883728</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>2.872033596038818</v>
+        <v>2.87323784828186</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>3.975688695907593</v>
+        <v>3.974940538406372</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>1.710643649101257</v>
+        <v>1.710744738578796</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09549219906330109</v>
+        <v>0.09630324691534042</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2084517031908035</v>
+        <v>-0.2056546807289124</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6432968378067017</v>
+        <v>-0.6427652835845947</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9162103533744812</v>
+        <v>0.9169256091117859</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2365217953920364</v>
+        <v>0.2386182248592377</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6439014673233032</v>
+        <v>0.650057852268219</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6995589733123779</v>
+        <v>0.7010123729705811</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>1.29364538192749</v>
+        <v>1.278940677642822</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>2.546208381652832</v>
+        <v>2.547178745269775</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>2.962985038757324</v>
+        <v>2.963566541671753</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>1.886533975601196</v>
+        <v>1.890161871910095</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>2.014981746673584</v>
+        <v>2.019892454147339</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>1.580403804779053</v>
+        <v>1.583994269371033</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7473044395446777</v>
+        <v>0.7486790418624878</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7214980721473694</v>
+        <v>0.7254309058189392</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>1.643555760383606</v>
+        <v>1.647978663444519</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>1.335372567176819</v>
+        <v>1.342000842094421</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>0.2548409402370453</v>
+        <v>0.258071094751358</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8709370493888855</v>
+        <v>0.8727487325668335</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>2.120311975479126</v>
+        <v>2.096648931503296</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3637755811214447</v>
+        <v>0.3659231960773468</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8679683208465576</v>
+        <v>0.8706811666488647</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>1.418329834938049</v>
+        <v>1.419976353645325</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>1.478955626487732</v>
+        <v>1.480178356170654</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>2.394198656082153</v>
+        <v>2.388422727584839</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>1.632486343383789</v>
+        <v>1.63053822517395</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>1.694213628768921</v>
+        <v>1.693307757377625</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>1.426790714263916</v>
+        <v>1.425892472267151</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>1.547964692115784</v>
+        <v>1.542252540588379</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>1.697738170623779</v>
+        <v>1.702304363250732</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>1.978177905082703</v>
+        <v>1.981515526771545</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>1.423924565315247</v>
+        <v>1.413552761077881</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>1.608690500259399</v>
+        <v>1.610495567321777</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>2.343947649002075</v>
+        <v>2.346956253051758</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>1.256889939308167</v>
+        <v>1.258367419242859</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>1.51944375038147</v>
+        <v>1.520568251609802</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>1.869547128677368</v>
+        <v>1.870546340942383</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>1.196020603179932</v>
+        <v>1.194226980209351</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5689576268196106</v>
+        <v>0.570807933807373</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>0.55325847864151</v>
+        <v>0.5543327927589417</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8944531679153442</v>
+        <v>0.8938809037208557</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>1.475295901298523</v>
+        <v>1.47429621219635</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9489805102348328</v>
+        <v>0.9510483145713806</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>2.283117294311523</v>
+        <v>2.257924556732178</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>1.901469469070435</v>
+        <v>1.904140114784241</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>1.818124294281006</v>
+        <v>1.822413682937622</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>1.431665182113647</v>
+        <v>1.435028076171875</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>1.165859580039978</v>
+        <v>1.171943068504333</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>1.896361589431763</v>
+        <v>1.895261406898499</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>1.232103705406189</v>
+        <v>1.233049035072327</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7780270576477051</v>
+        <v>0.7752416729927063</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>1.409870862960815</v>
+        <v>1.408106923103333</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6620304584503174</v>
+        <v>0.6614733338356018</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3932670056819916</v>
+        <v>0.3979075253009796</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>1.758129715919495</v>
+        <v>1.762914538383484</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6173148155212402</v>
+        <v>0.6062869429588318</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>1.577161312103271</v>
+        <v>1.577202320098877</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7164506316184998</v>
+        <v>0.7244805097579956</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5865574479103088</v>
+        <v>0.5930917859077454</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>2.902658224105835</v>
+        <v>2.901114225387573</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>1.210825443267822</v>
+        <v>1.208184957504272</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01126040425151587</v>
+        <v>0.0130148995667696</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7494379281997681</v>
+        <v>0.7482994198799133</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8707733154296875</v>
+        <v>0.8726058006286621</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>2.087197542190552</v>
+        <v>2.091692209243774</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004089285619556904</v>
+        <v>0.0103280795738101</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6452277302742004</v>
+        <v>0.6479210257530212</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2735775411128998</v>
+        <v>-0.2722636759281158</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>1.628588557243347</v>
+        <v>1.630759477615356</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4202201366424561</v>
+        <v>0.4213119447231293</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5901173949241638</v>
+        <v>0.5924427509307861</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4912393391132355</v>
+        <v>0.4939772188663483</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8677302002906799</v>
+        <v>0.8677662014961243</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9762758612632751</v>
+        <v>0.9769441485404968</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7696666717529297</v>
+        <v>0.7695246338844299</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1799579411745071</v>
+        <v>0.182297483086586</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>2.368394613265991</v>
+        <v>2.366392374038696</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8103629946708679</v>
+        <v>0.8141842484474182</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>2.40397572517395</v>
+        <v>2.401638746261597</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>1.750823736190796</v>
+        <v>1.732646584510803</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9974677562713623</v>
+        <v>1.001869320869446</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>1.57583475112915</v>
+        <v>1.579443573951721</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>1.57875919342041</v>
+        <v>1.580246448516846</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>1.072727084159851</v>
+        <v>1.072578430175781</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>1.510323405265808</v>
+        <v>1.504475951194763</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>1.168401479721069</v>
+        <v>1.165585994720459</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2019798159599304</v>
+        <v>-0.2048535645008087</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>1.438589930534363</v>
+        <v>1.435471177101135</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>1.407119631767273</v>
+        <v>1.405443787574768</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>2.111413717269897</v>
+        <v>2.114179372787476</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>1.181604385375977</v>
+        <v>1.178360104560852</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>1.408437252044678</v>
+        <v>1.393821954727173</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>2.059052467346191</v>
+        <v>2.056218862533569</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9278328418731689</v>
+        <v>0.9270099401473999</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>1.081577181816101</v>
+        <v>1.081382870674133</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>0.512261688709259</v>
+        <v>0.5093916058540344</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>1.005749583244324</v>
+        <v>1.004328966140747</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7571011781692505</v>
+        <v>0.7538017630577087</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>1.620391964912415</v>
+        <v>1.622656226158142</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8512901663780212</v>
+        <v>0.8515360355377197</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9989109635353088</v>
+        <v>1.00390899181366</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1076256260275841</v>
+        <v>0.1102718487381935</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>1.564780831336975</v>
+        <v>1.566415905952454</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>1.620233654975891</v>
+        <v>1.608627200126648</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>1.193516612052917</v>
+        <v>1.197465538978577</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1354831457138062</v>
+        <v>-0.1329951733350754</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>0.05739006400108337</v>
+        <v>0.0637129619717598</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8830781579017639</v>
+        <v>0.8821213841438293</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>1.071118235588074</v>
+        <v>1.072572708129883</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8019657731056213</v>
+        <v>0.7998074889183044</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.04592650011181831</v>
+        <v>-0.04266214743256569</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>1.455069065093994</v>
+        <v>1.452067375183105</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>0.06888756901025772</v>
+        <v>0.07095822691917419</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.453298956155777</v>
+        <v>-0.4538686573505402</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3923228085041046</v>
+        <v>0.3883166313171387</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2843768000602722</v>
+        <v>-0.2778223752975464</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.8618454337120056</v>
+        <v>-0.8585968017578125</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3477235436439514</v>
+        <v>-0.3456061780452728</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1551264822483063</v>
+        <v>0.1607363820075989</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1445686668157578</v>
+        <v>0.1444968730211258</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>1.156511545181274</v>
+        <v>1.159571051597595</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>1.667276620864868</v>
+        <v>1.666796207427979</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8054984211921692</v>
+        <v>0.8097785115242004</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8453386425971985</v>
+        <v>0.8481374979019165</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>1.090780258178711</v>
+        <v>1.097522139549255</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.0159129723906517</v>
+        <v>-0.01372725609689951</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8161875009536743</v>
+        <v>0.818641722202301</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.6324479579925537</v>
+        <v>-0.619707465171814</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4818520545959473</v>
+        <v>0.483024388551712</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.05919083580374718</v>
+        <v>-0.05601402372121811</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.005561522208154202</v>
+        <v>0.005351340398192406</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3451008200645447</v>
+        <v>-0.3486962020397186</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>1.53874933719635</v>
+        <v>1.538458585739136</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>1.637892007827759</v>
+        <v>1.635869145393372</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.02147901989519596</v>
+        <v>-0.01921925134956837</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4842932820320129</v>
+        <v>0.4845472276210785</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>1.273548483848572</v>
+        <v>1.275991201400757</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8905113935470581</v>
+        <v>0.8924464583396912</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1073680594563484</v>
+        <v>0.1096513420343399</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1163446307182312</v>
+        <v>-0.1159783229231834</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.003754588775336742</v>
+        <v>0.008170034736394882</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2493056356906891</v>
+        <v>0.2563507854938507</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>0.876935601234436</v>
+        <v>0.8824529051780701</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>0.631443202495575</v>
+        <v>0.633428692817688</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7087910175323486</v>
+        <v>0.7117167711257935</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9607442021369934</v>
+        <v>0.9615497589111328</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7997620105743408</v>
+        <v>0.8010332584381104</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6527647972106934</v>
+        <v>0.6531932950019836</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1352773904800415</v>
+        <v>0.1394215673208237</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9304187297821045</v>
+        <v>0.9373475313186646</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3890137374401093</v>
+        <v>0.3920879364013672</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2786906957626343</v>
+        <v>-0.2780085802078247</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.074292898178101</v>
+        <v>-1.071092367172241</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.676949679851532</v>
+        <v>-0.6748483777046204</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7864755988121033</v>
+        <v>0.7869113683700562</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4867522418498993</v>
+        <v>0.4864820539951324</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.06748469173908234</v>
+        <v>-0.06788497418165207</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5377346873283386</v>
+        <v>0.5351661443710327</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>1.732890844345093</v>
+        <v>1.730797052383423</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.07557830959558487</v>
+        <v>-0.07574490457773209</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>0.241317555308342</v>
+        <v>0.2444670498371124</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1481046825647354</v>
+        <v>-0.1467433571815491</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>1.027780890464783</v>
+        <v>1.026294708251953</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>1.012890934944153</v>
+        <v>1.0052649974823</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.5815553069114685</v>
+        <v>-0.5768158435821533</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4496150612831116</v>
+        <v>-0.4448127746582031</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4794092178344727</v>
+        <v>-0.4792625606060028</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05712740868330002</v>
+        <v>0.05995045229792595</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>1.135507822036743</v>
+        <v>1.136348485946655</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>1.008510231971741</v>
+        <v>1.009094953536987</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>1.007416725158691</v>
+        <v>1.008039593696594</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>1.540197134017944</v>
+        <v>1.540060520172119</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>2.942682504653931</v>
+        <v>2.945103883743286</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>0.979677140712738</v>
+        <v>0.9808568358421326</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02716851979494095</v>
+        <v>0.03621102124452591</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2981738448143005</v>
+        <v>0.2950697541236877</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>0.04053175449371338</v>
+        <v>0.04216086491942406</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>1.187334060668945</v>
+        <v>1.187885165214539</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>1.386156678199768</v>
+        <v>1.389173626899719</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>0.4010413289070129</v>
+        <v>0.404127836227417</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7443684935569763</v>
+        <v>0.7470102906227112</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1540696769952774</v>
+        <v>0.1561222672462463</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>2.700250625610352</v>
+        <v>2.702714204788208</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>2.710944890975952</v>
+        <v>2.707731962203979</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>1.531654834747314</v>
+        <v>1.534878969192505</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.07774240523576736</v>
+        <v>-0.07693686336278915</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2547205984592438</v>
+        <v>0.2521943151950836</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>1.155610084533691</v>
+        <v>1.142062067985535</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>1.269311904907227</v>
+        <v>1.271217942237854</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8060598373413086</v>
+        <v>0.8062070608139038</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>3.04409384727478</v>
+        <v>3.046600580215454</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9310104250907898</v>
+        <v>0.9258486032485962</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>1.597011685371399</v>
+        <v>1.600131869316101</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>2.114431858062744</v>
+        <v>2.116434335708618</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1801075041294098</v>
+        <v>0.1789553463459015</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>1.085362076759338</v>
+        <v>1.087405443191528</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>1.20953357219696</v>
+        <v>1.212705612182617</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7789416313171387</v>
+        <v>0.7862372994422913</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>1.242117166519165</v>
+        <v>1.248862147331238</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.03804032877087593</v>
+        <v>-0.03406653180718422</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>1.498010754585266</v>
+        <v>1.503675222396851</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>0.03729059174656868</v>
+        <v>0.04278090596199036</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>0.978084921836853</v>
+        <v>0.9837716817855835</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>2.338890790939331</v>
+        <v>2.341430425643921</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>1.203263282775879</v>
+        <v>1.20241379737854</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>1.916770696640015</v>
+        <v>1.916700959205627</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.3310794532299042</v>
+        <v>-0.3261768817901611</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6956725716590881</v>
+        <v>0.6933911442756653</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>0.06890679150819778</v>
+        <v>0.07231301814317703</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4793628752231598</v>
+        <v>0.4839276075363159</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.07087114453315735</v>
+        <v>-0.0634729266166687</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>1.046770930290222</v>
+        <v>1.040026068687439</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>0.7207736372947693</v>
+        <v>0.7244077324867249</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>1.768527746200562</v>
+        <v>1.770685076713562</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>0.6024974584579468</v>
+        <v>0.607236921787262</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1267462372779846</v>
+        <v>0.1288851648569107</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5201901197433472</v>
+        <v>0.5234614014625549</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4269009232521057</v>
+        <v>0.4296428561210632</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2573428153991699</v>
+        <v>0.2639549970626831</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2452588081359863</v>
+        <v>0.2489920854568481</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1844817698001862</v>
+        <v>-0.1823910623788834</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.007525067310780287</v>
+        <v>-0.00406962912529707</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>0.01323083508759737</v>
+        <v>0.01661026105284691</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>0.7010582685470581</v>
+        <v>0.6950860023498535</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5036672949790955</v>
+        <v>0.5051882266998291</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7063074111938477</v>
+        <v>0.7065594792366028</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6937530040740967</v>
+        <v>0.6949663758277893</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2913241386413574</v>
+        <v>0.2937459647655487</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>1.520763754844666</v>
+        <v>1.51712429523468</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>1.775798797607422</v>
+        <v>1.772851228713989</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>0.2975564897060394</v>
+        <v>0.2952929437160492</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.3882580697536469</v>
+        <v>-0.3890038132667542</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3955729603767395</v>
+        <v>0.3911685347557068</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>1.104629278182983</v>
+        <v>1.105874419212341</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>1.237538695335388</v>
+        <v>1.238388776779175</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>1.133086204528809</v>
+        <v>1.117259383201599</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>0.4408150315284729</v>
+        <v>0.444221705198288</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>2.320898771286011</v>
+        <v>2.324868440628052</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>1.308987975120544</v>
+        <v>1.314517259597778</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.002461797324940562</v>
+        <v>0.003829947207123041</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9576154351234436</v>
+        <v>0.9578999280929565</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2283298224210739</v>
+        <v>0.2301816195249557</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4563028514385223</v>
+        <v>0.4588987529277802</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7462986707687378</v>
+        <v>-0.7430331707000732</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.4925100207328796</v>
+        <v>-0.486072838306427</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01793509535491467</v>
+        <v>-0.01839335821568966</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6515546441078186</v>
+        <v>0.6582850813865662</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6102260947227478</v>
+        <v>-0.6075034737586975</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>6.634271016991988e-07</v>
+        <v>-0.001246338943019509</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.6620004177093506</v>
+        <v>-0.6553228497505188</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.334074079990387</v>
+        <v>-0.3324132263660431</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8082917332649231</v>
+        <v>0.8104555010795593</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>0.240985170006752</v>
+        <v>0.2428512871265411</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>0.04161814227700233</v>
+        <v>0.04441560432314873</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.4146223068237305</v>
+        <v>-0.4141516983509064</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1366479396820068</v>
+        <v>0.1370762288570404</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.056784629821777</v>
+        <v>-1.055068016052246</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4300931990146637</v>
+        <v>0.430017352104187</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>1.041931748390198</v>
+        <v>1.043837308883667</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.1660089790821075</v>
+        <v>-0.1664813011884689</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>1.069989562034607</v>
+        <v>1.075225830078125</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>1.068324208259583</v>
+        <v>1.072704434394836</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4138533771038055</v>
+        <v>0.4165169894695282</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.3479008972644806</v>
+        <v>-0.3454769253730774</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5885961651802063</v>
+        <v>0.5908513069152832</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>1.188886284828186</v>
+        <v>1.187576055526733</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.3065082132816315</v>
+        <v>-0.303955465555191</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>0.891230046749115</v>
+        <v>0.8903928995132446</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>0.239913210272789</v>
+        <v>0.2401982992887497</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06607362627983093</v>
+        <v>-0.06495996564626694</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>0.01572474837303162</v>
+        <v>0.01270377077162266</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3998139500617981</v>
+        <v>0.3963415026664734</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>1.180003881454468</v>
+        <v>1.185474991798401</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>1.566318273544312</v>
+        <v>1.569451332092285</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>0.771403431892395</v>
+        <v>0.7772893309593201</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7277941107749939</v>
+        <v>0.7305675745010376</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>1.253352642059326</v>
+        <v>1.254268765449524</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>0.2963426113128662</v>
+        <v>0.3015962243080139</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>1.039029002189636</v>
+        <v>1.041643738746643</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7510879635810852</v>
+        <v>0.7535654902458191</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>1.286371827125549</v>
+        <v>1.286710500717163</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.00760302972048521</v>
+        <v>0.01307565625756979</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.2032603174448013</v>
+        <v>-0.1973834186792374</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.6999576091766357</v>
+        <v>-0.6930592656135559</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3792228102684021</v>
+        <v>0.3802876770496368</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2204211503267288</v>
+        <v>0.2268521934747696</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3691809177398682</v>
+        <v>-0.3619448840618134</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.01733934879303</v>
+        <v>-1.017479658126831</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>0.05297805368900299</v>
+        <v>0.05507863685488701</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8192050457000732</v>
+        <v>0.8195072412490845</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.1589871197938919</v>
+        <v>-0.1569023877382278</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.3040212094783783</v>
+        <v>-0.3042404651641846</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.6359309554100037</v>
+        <v>-0.6345505118370056</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1473087519407272</v>
+        <v>0.1510305553674698</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.09104931354522705</v>
+        <v>-0.08634987473487854</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>0.09299426525831223</v>
+        <v>0.08837554603815079</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.120278000831604</v>
+        <v>-1.117136359214783</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3741331994533539</v>
+        <v>0.3764021098613739</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.7943890690803528</v>
+        <v>-0.7930819392204285</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.7013536691665649</v>
+        <v>-0.6989311575889587</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>0.2332362979650497</v>
+        <v>0.233944371342659</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>0.05422880128026009</v>
+        <v>0.05650090426206589</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>0.746146559715271</v>
+        <v>0.7475925087928772</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>0.09827679395675659</v>
+        <v>0.09629129618406296</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>2.026490688323975</v>
+        <v>2.028325080871582</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.7065290808677673</v>
+        <v>-0.7058888077735901</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>0.526241660118103</v>
+        <v>0.5288164615631104</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>1.35742461681366</v>
+        <v>1.338306903839111</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>1.277560353279114</v>
+        <v>1.27864408493042</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>0.915160596370697</v>
+        <v>0.9172651767730713</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>0.06533357501029968</v>
+        <v>0.07213299721479416</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1282658874988556</v>
+        <v>0.1280718147754669</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.01795564219355583</v>
+        <v>-0.01549722254276276</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8568309545516968</v>
+        <v>0.8574767708778381</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1638675481081009</v>
+        <v>0.1666168719530106</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>0.9731277227401733</v>
+        <v>0.9745778441429138</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.7319953441619873</v>
+        <v>-0.7280166745185852</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.293777346611023</v>
+        <v>-1.28821849822998</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.3448906242847443</v>
+        <v>-0.3443661332130432</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.07652123272418976</v>
+        <v>-0.07509837299585342</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.01922845281660557</v>
+        <v>-0.0137688722461462</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>0.6161531805992126</v>
+        <v>0.6196519732475281</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.5226950645446777</v>
+        <v>-0.51988685131073</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1097627356648445</v>
+        <v>0.1130253523588181</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.6949889659881592</v>
+        <v>-0.6935753226280212</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.7672797441482544</v>
+        <v>-0.7645564675331116</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1381089836359024</v>
+        <v>-0.1317752748727798</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01557173300534487</v>
+        <v>0.0199164766818285</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.0439605712890625</v>
+        <v>-0.03977168351411819</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>0.06860129535198212</v>
+        <v>0.07134554535150528</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>0.6080337762832642</v>
+        <v>0.6058477163314819</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>1.901949048042297</v>
+        <v>1.883078932762146</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>3.06620979309082</v>
+        <v>3.066770553588867</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>1.831670880317688</v>
+        <v>1.833267569541931</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.0992831289768219</v>
+        <v>-0.09577023983001709</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1901430040597916</v>
+        <v>0.1941569298505783</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7616050243377686</v>
+        <v>0.7613860964775085</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>0.7122066020965576</v>
+        <v>0.7109836339950562</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5111991167068481</v>
+        <v>0.5119494795799255</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>0.541700541973114</v>
+        <v>0.548423707485199</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>0.6993030905723572</v>
+        <v>0.7034480571746826</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.5345479249954224</v>
+        <v>-0.5324963331222534</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.3686905205249786</v>
+        <v>-0.3675781488418579</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.4688523709774017</v>
+        <v>-0.4660979807376862</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>0.1015641316771507</v>
+        <v>0.1018769070506096</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.05240523815155</v>
+        <v>-1.046517133712769</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.2908420860767365</v>
+        <v>-0.288433700799942</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.2889775633811951</v>
+        <v>-0.2842239737510681</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>0.09181103110313416</v>
+        <v>0.09112777560949326</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>0.376786082983017</v>
+        <v>0.3787496984004974</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1527982950210571</v>
+        <v>0.1546909362077713</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>1.547564506530762</v>
+        <v>1.543282866477966</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.335044622421265</v>
+        <v>-1.333853006362915</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.8490225076675415</v>
+        <v>-0.8507505059242249</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01332837529480457</v>
+        <v>0.01504651084542274</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>28795</v>
       </c>
       <c r="B372" t="n">
-        <v>-0.1901039779186249</v>
+        <v>-0.1943025588989258</v>
       </c>
     </row>
     <row r="373">
@@ -3420,7 +3420,7 @@
         <v>28825</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.316379725933075</v>
+        <v>-0.3157501518726349</v>
       </c>
     </row>
     <row r="374">
@@ -3428,7 +3428,7 @@
         <v>28856</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.6866713762283325</v>
+        <v>-0.6862168908119202</v>
       </c>
     </row>
     <row r="375">
@@ -3436,7 +3436,7 @@
         <v>28887</v>
       </c>
       <c r="B375" t="n">
-        <v>-0.6793854832649231</v>
+        <v>-0.675972044467926</v>
       </c>
     </row>
     <row r="376">
@@ -3444,7 +3444,7 @@
         <v>28915</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.024739146232605</v>
+        <v>-1.026091337203979</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>28946</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.2272734642028809</v>
+        <v>-0.2296821027994156</v>
       </c>
     </row>
     <row r="378">
@@ -3460,7 +3460,7 @@
         <v>28976</v>
       </c>
       <c r="B378" t="n">
-        <v>-1.21611762046814</v>
+        <v>-1.211464643478394</v>
       </c>
     </row>
     <row r="379">
@@ -3468,7 +3468,7 @@
         <v>29007</v>
       </c>
       <c r="B379" t="n">
-        <v>-1.805604815483093</v>
+        <v>-1.798728108406067</v>
       </c>
     </row>
     <row r="380">
@@ -3476,7 +3476,7 @@
         <v>29037</v>
       </c>
       <c r="B380" t="n">
-        <v>-1.837172627449036</v>
+        <v>-1.835972547531128</v>
       </c>
     </row>
     <row r="381">
@@ -3484,7 +3484,7 @@
         <v>29068</v>
       </c>
       <c r="B381" t="n">
-        <v>-0.08535270392894745</v>
+        <v>-0.08581671118736267</v>
       </c>
     </row>
     <row r="382">
@@ -3492,7 +3492,7 @@
         <v>29099</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.8281087279319763</v>
+        <v>-0.824652373790741</v>
       </c>
     </row>
     <row r="383">
@@ -3500,7 +3500,7 @@
         <v>29129</v>
       </c>
       <c r="B383" t="n">
-        <v>-0.4824889898300171</v>
+        <v>-0.4788169264793396</v>
       </c>
     </row>
     <row r="384">
@@ -3508,7 +3508,7 @@
         <v>29160</v>
       </c>
       <c r="B384" t="n">
-        <v>0.2524809837341309</v>
+        <v>0.2526669800281525</v>
       </c>
     </row>
     <row r="385">
@@ -3516,7 +3516,7 @@
         <v>29190</v>
       </c>
       <c r="B385" t="n">
-        <v>0.1585158407688141</v>
+        <v>0.1608788073062897</v>
       </c>
     </row>
     <row r="386">
@@ -3524,7 +3524,7 @@
         <v>29221</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.04639127478003502</v>
+        <v>-0.04598623886704445</v>
       </c>
     </row>
     <row r="387">
@@ -3532,7 +3532,7 @@
         <v>29252</v>
       </c>
       <c r="B387" t="n">
-        <v>0.4964069724082947</v>
+        <v>0.4951876401901245</v>
       </c>
     </row>
     <row r="388">
@@ -3540,7 +3540,7 @@
         <v>29281</v>
       </c>
       <c r="B388" t="n">
-        <v>0.8026846647262573</v>
+        <v>0.804516613483429</v>
       </c>
     </row>
     <row r="389">
@@ -3548,7 +3548,7 @@
         <v>29312</v>
       </c>
       <c r="B389" t="n">
-        <v>1.185086131095886</v>
+        <v>1.187092661857605</v>
       </c>
     </row>
     <row r="390">
@@ -3556,7 +3556,7 @@
         <v>29342</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.4306060969829559</v>
+        <v>-0.4276981055736542</v>
       </c>
     </row>
     <row r="391">
@@ -3564,7 +3564,7 @@
         <v>29373</v>
       </c>
       <c r="B391" t="n">
-        <v>-0.8018953204154968</v>
+        <v>-0.8010450601577759</v>
       </c>
     </row>
     <row r="392">
@@ -3572,7 +3572,7 @@
         <v>29403</v>
       </c>
       <c r="B392" t="n">
-        <v>0.7881508469581604</v>
+        <v>0.7928728461265564</v>
       </c>
     </row>
     <row r="393">
@@ -3580,7 +3580,7 @@
         <v>29434</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.1296014189720154</v>
+        <v>-0.1233955100178719</v>
       </c>
     </row>
     <row r="394">
@@ -3588,7 +3588,7 @@
         <v>29465</v>
       </c>
       <c r="B394" t="n">
-        <v>0.6315256953239441</v>
+        <v>0.6349909901618958</v>
       </c>
     </row>
     <row r="395">
@@ -3596,7 +3596,7 @@
         <v>29495</v>
       </c>
       <c r="B395" t="n">
-        <v>-1.03205931186676</v>
+        <v>-1.029140472412109</v>
       </c>
     </row>
     <row r="396">
@@ -3604,7 +3604,7 @@
         <v>29526</v>
       </c>
       <c r="B396" t="n">
-        <v>0.9504674673080444</v>
+        <v>0.936755359172821</v>
       </c>
     </row>
     <row r="397">
@@ -3612,7 +3612,7 @@
         <v>29556</v>
       </c>
       <c r="B397" t="n">
-        <v>0.2303401082754135</v>
+        <v>0.234508752822876</v>
       </c>
     </row>
     <row r="398">
@@ -3620,7 +3620,7 @@
         <v>29587</v>
       </c>
       <c r="B398" t="n">
-        <v>-0.7875259518623352</v>
+        <v>-0.7816436290740967</v>
       </c>
     </row>
     <row r="399">
@@ -3628,7 +3628,7 @@
         <v>29618</v>
       </c>
       <c r="B399" t="n">
-        <v>-0.5965016484260559</v>
+        <v>-0.5947569012641907</v>
       </c>
     </row>
     <row r="400">
@@ -3636,7 +3636,7 @@
         <v>29646</v>
       </c>
       <c r="B400" t="n">
-        <v>0.6258261203765869</v>
+        <v>0.6310356855392456</v>
       </c>
     </row>
     <row r="401">
@@ -3644,7 +3644,7 @@
         <v>29677</v>
       </c>
       <c r="B401" t="n">
-        <v>1.063960433006287</v>
+        <v>1.062791347503662</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>29707</v>
       </c>
       <c r="B402" t="n">
-        <v>0.01247976161539555</v>
+        <v>0.0117269242182374</v>
       </c>
     </row>
     <row r="403">
@@ -3660,7 +3660,7 @@
         <v>29738</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.2567125856876373</v>
+        <v>-0.259542852640152</v>
       </c>
     </row>
     <row r="404">
@@ -3668,7 +3668,7 @@
         <v>29768</v>
       </c>
       <c r="B404" t="n">
-        <v>0.609973669052124</v>
+        <v>0.6068684458732605</v>
       </c>
     </row>
     <row r="405">
@@ -3676,7 +3676,7 @@
         <v>29799</v>
       </c>
       <c r="B405" t="n">
-        <v>1.489322900772095</v>
+        <v>1.489967346191406</v>
       </c>
     </row>
     <row r="406">
@@ -3684,7 +3684,7 @@
         <v>29830</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4472892284393311</v>
+        <v>0.4513321816921234</v>
       </c>
     </row>
     <row r="407">
@@ -3692,7 +3692,7 @@
         <v>29860</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1148501560091972</v>
+        <v>0.1201800554990768</v>
       </c>
     </row>
     <row r="408">
@@ -3700,7 +3700,7 @@
         <v>29891</v>
       </c>
       <c r="B408" t="n">
-        <v>-0.700569748878479</v>
+        <v>-0.6932603716850281</v>
       </c>
     </row>
     <row r="409">
@@ -3708,7 +3708,7 @@
         <v>29921</v>
       </c>
       <c r="B409" t="n">
-        <v>-1.478250622749329</v>
+        <v>-1.476017236709595</v>
       </c>
     </row>
     <row r="410">
@@ -3716,7 +3716,7 @@
         <v>29952</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.06648115813732147</v>
+        <v>-0.06597802042961121</v>
       </c>
     </row>
     <row r="411">
@@ -3724,7 +3724,7 @@
         <v>29983</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.9401393532752991</v>
+        <v>-0.9369078278541565</v>
       </c>
     </row>
     <row r="412">
@@ -3732,7 +3732,7 @@
         <v>30011</v>
       </c>
       <c r="B412" t="n">
-        <v>-1.729991912841797</v>
+        <v>-1.72917914390564</v>
       </c>
     </row>
     <row r="413">
@@ -3740,7 +3740,7 @@
         <v>30042</v>
       </c>
       <c r="B413" t="n">
-        <v>-1.437103390693665</v>
+        <v>-1.440672755241394</v>
       </c>
     </row>
     <row r="414">
@@ -3748,7 +3748,7 @@
         <v>30072</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.3955989181995392</v>
+        <v>-0.3956353366374969</v>
       </c>
     </row>
     <row r="415">
@@ -3756,7 +3756,7 @@
         <v>30103</v>
       </c>
       <c r="B415" t="n">
-        <v>-0.8478639125823975</v>
+        <v>-0.8452144265174866</v>
       </c>
     </row>
     <row r="416">
@@ -3764,7 +3764,7 @@
         <v>30133</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02236416377127171</v>
+        <v>0.02773797512054443</v>
       </c>
     </row>
     <row r="417">
@@ -3772,7 +3772,7 @@
         <v>30164</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.9525318145751953</v>
+        <v>-0.9451127052307129</v>
       </c>
     </row>
     <row r="418">
@@ -3780,7 +3780,7 @@
         <v>30195</v>
       </c>
       <c r="B418" t="n">
-        <v>-1.518024802207947</v>
+        <v>-1.515522837638855</v>
       </c>
     </row>
     <row r="419">
@@ -3788,7 +3788,7 @@
         <v>30225</v>
       </c>
       <c r="B419" t="n">
-        <v>0.6925050020217896</v>
+        <v>0.6988995671272278</v>
       </c>
     </row>
     <row r="420">
@@ -3796,7 +3796,7 @@
         <v>30256</v>
       </c>
       <c r="B420" t="n">
-        <v>0.07607993483543396</v>
+        <v>0.07415778934955597</v>
       </c>
     </row>
     <row r="421">
@@ -3804,7 +3804,7 @@
         <v>30286</v>
       </c>
       <c r="B421" t="n">
-        <v>1.208235621452332</v>
+        <v>1.210593700408936</v>
       </c>
     </row>
     <row r="422">
@@ -3812,7 +3812,7 @@
         <v>30317</v>
       </c>
       <c r="B422" t="n">
-        <v>0.4682409465312958</v>
+        <v>0.4702974259853363</v>
       </c>
     </row>
     <row r="423">
@@ -3820,7 +3820,7 @@
         <v>30348</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.05646224319934845</v>
+        <v>-0.05095837637782097</v>
       </c>
     </row>
     <row r="424">
@@ -3828,7 +3828,7 @@
         <v>30376</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.8043017387390137</v>
+        <v>-0.799500048160553</v>
       </c>
     </row>
     <row r="425">
@@ -3836,7 +3836,7 @@
         <v>30407</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.1211811378598213</v>
+        <v>-0.1174056902527809</v>
       </c>
     </row>
     <row r="426">
@@ -3844,7 +3844,7 @@
         <v>30437</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.1325136125087738</v>
+        <v>-0.1278810352087021</v>
       </c>
     </row>
     <row r="427">
@@ -3852,7 +3852,7 @@
         <v>30468</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.1795922368764877</v>
+        <v>-0.1753199696540833</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>30498</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.6911235451698303</v>
+        <v>-0.6868080496788025</v>
       </c>
     </row>
     <row r="429">
@@ -3868,7 +3868,7 @@
         <v>30529</v>
       </c>
       <c r="B429" t="n">
-        <v>-0.7371095418930054</v>
+        <v>-0.73270583152771</v>
       </c>
     </row>
     <row r="430">
@@ -3876,7 +3876,7 @@
         <v>30560</v>
       </c>
       <c r="B430" t="n">
-        <v>0.1124973371624947</v>
+        <v>0.1147391274571419</v>
       </c>
     </row>
     <row r="431">
@@ -3884,7 +3884,7 @@
         <v>30590</v>
       </c>
       <c r="B431" t="n">
-        <v>-1.126285672187805</v>
+        <v>-1.123613595962524</v>
       </c>
     </row>
     <row r="432">
@@ -3892,7 +3892,7 @@
         <v>30621</v>
       </c>
       <c r="B432" t="n">
-        <v>-1.081072211265564</v>
+        <v>-1.078493118286133</v>
       </c>
     </row>
     <row r="433">
@@ -3900,7 +3900,7 @@
         <v>30651</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.7585943937301636</v>
+        <v>-0.7561379671096802</v>
       </c>
     </row>
     <row r="434">
@@ -3908,7 +3908,7 @@
         <v>30682</v>
       </c>
       <c r="B434" t="n">
-        <v>0.8920419216156006</v>
+        <v>0.8945493102073669</v>
       </c>
     </row>
     <row r="435">
@@ -3916,7 +3916,7 @@
         <v>30713</v>
       </c>
       <c r="B435" t="n">
-        <v>0.4130114614963531</v>
+        <v>0.4154746830463409</v>
       </c>
     </row>
     <row r="436">
@@ -3924,7 +3924,7 @@
         <v>30742</v>
       </c>
       <c r="B436" t="n">
-        <v>-0.3567262589931488</v>
+        <v>-0.3549444079399109</v>
       </c>
     </row>
     <row r="437">
@@ -3932,7 +3932,7 @@
         <v>30773</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.2936719059944153</v>
+        <v>-0.2906058728694916</v>
       </c>
     </row>
     <row r="438">
@@ -3940,7 +3940,7 @@
         <v>30803</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3056813478469849</v>
+        <v>0.3126932978630066</v>
       </c>
     </row>
     <row r="439">
@@ -3948,7 +3948,7 @@
         <v>30834</v>
       </c>
       <c r="B439" t="n">
-        <v>-0.9237542152404785</v>
+        <v>-0.9166207313537598</v>
       </c>
     </row>
     <row r="440">
@@ -3956,7 +3956,7 @@
         <v>30864</v>
       </c>
       <c r="B440" t="n">
-        <v>-0.3518286645412445</v>
+        <v>-0.3491328358650208</v>
       </c>
     </row>
     <row r="441">
@@ -3964,7 +3964,7 @@
         <v>30895</v>
       </c>
       <c r="B441" t="n">
-        <v>0.4718646705150604</v>
+        <v>0.4719109237194061</v>
       </c>
     </row>
     <row r="442">
@@ -3972,7 +3972,7 @@
         <v>30926</v>
       </c>
       <c r="B442" t="n">
-        <v>0.5108662247657776</v>
+        <v>0.5068168640136719</v>
       </c>
     </row>
     <row r="443">
@@ -3980,7 +3980,7 @@
         <v>30956</v>
       </c>
       <c r="B443" t="n">
-        <v>-0.4609235525131226</v>
+        <v>-0.4563151597976685</v>
       </c>
     </row>
     <row r="444">
@@ -3988,7 +3988,7 @@
         <v>30987</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.9106313586235046</v>
+        <v>-0.9062917232513428</v>
       </c>
     </row>
     <row r="445">
@@ -3996,7 +3996,7 @@
         <v>31017</v>
       </c>
       <c r="B445" t="n">
-        <v>1.667536616325378</v>
+        <v>1.666805863380432</v>
       </c>
     </row>
     <row r="446">
@@ -4004,7 +4004,7 @@
         <v>31048</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4169230759143829</v>
+        <v>0.4172137975692749</v>
       </c>
     </row>
     <row r="447">
@@ -4012,7 +4012,7 @@
         <v>31079</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.07993363589048386</v>
+        <v>-0.07783125340938568</v>
       </c>
     </row>
     <row r="448">
@@ -4020,7 +4020,7 @@
         <v>31107</v>
       </c>
       <c r="B448" t="n">
-        <v>0.1910641342401505</v>
+        <v>0.1986131370067596</v>
       </c>
     </row>
     <row r="449">
@@ -4028,7 +4028,7 @@
         <v>31138</v>
       </c>
       <c r="B449" t="n">
-        <v>-0.2142931967973709</v>
+        <v>-0.2125005275011063</v>
       </c>
     </row>
     <row r="450">
@@ -4036,7 +4036,7 @@
         <v>31168</v>
       </c>
       <c r="B450" t="n">
-        <v>0.02487739734351635</v>
+        <v>0.02912944741547108</v>
       </c>
     </row>
     <row r="451">
@@ -4044,7 +4044,7 @@
         <v>31199</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.01105444598942995</v>
+        <v>-0.01086997054517269</v>
       </c>
     </row>
     <row r="452">
@@ -4052,7 +4052,7 @@
         <v>31229</v>
       </c>
       <c r="B452" t="n">
-        <v>-1.574208855628967</v>
+        <v>-1.574795365333557</v>
       </c>
     </row>
     <row r="453">
@@ -4060,7 +4060,7 @@
         <v>31260</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.9620246291160583</v>
+        <v>-0.9571331739425659</v>
       </c>
     </row>
     <row r="454">
@@ -4068,7 +4068,7 @@
         <v>31291</v>
       </c>
       <c r="B454" t="n">
-        <v>-1.224604725837708</v>
+        <v>-1.222931623458862</v>
       </c>
     </row>
     <row r="455">
@@ -4076,7 +4076,7 @@
         <v>31321</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.6661006808280945</v>
+        <v>-0.6638296842575073</v>
       </c>
     </row>
     <row r="456">
@@ -4084,7 +4084,7 @@
         <v>31352</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.582691192626953</v>
+        <v>-1.561819076538086</v>
       </c>
     </row>
     <row r="457">
@@ -4092,7 +4092,7 @@
         <v>31382</v>
       </c>
       <c r="B457" t="n">
-        <v>-0.7902237176895142</v>
+        <v>-0.7880384922027588</v>
       </c>
     </row>
     <row r="458">
@@ -4100,7 +4100,7 @@
         <v>31413</v>
       </c>
       <c r="B458" t="n">
-        <v>-0.5462617874145508</v>
+        <v>-0.5427067875862122</v>
       </c>
     </row>
     <row r="459">
@@ -4108,7 +4108,7 @@
         <v>31444</v>
       </c>
       <c r="B459" t="n">
-        <v>1.269025206565857</v>
+        <v>1.270067453384399</v>
       </c>
     </row>
     <row r="460">
@@ -4116,7 +4116,7 @@
         <v>31472</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.1055610179901123</v>
+        <v>-0.1020972207188606</v>
       </c>
     </row>
     <row r="461">
@@ -4124,7 +4124,7 @@
         <v>31503</v>
       </c>
       <c r="B461" t="n">
-        <v>-0.4030178487300873</v>
+        <v>-0.4011088907718658</v>
       </c>
     </row>
     <row r="462">
@@ -4132,7 +4132,7 @@
         <v>31533</v>
       </c>
       <c r="B462" t="n">
-        <v>1.102532982826233</v>
+        <v>1.108322381973267</v>
       </c>
     </row>
     <row r="463">
@@ -4140,7 +4140,7 @@
         <v>31564</v>
       </c>
       <c r="B463" t="n">
-        <v>0.4957829415798187</v>
+        <v>0.4920899569988251</v>
       </c>
     </row>
     <row r="464">
@@ -4148,7 +4148,7 @@
         <v>31594</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.2810527384281158</v>
+        <v>-0.2807677090167999</v>
       </c>
     </row>
     <row r="465">
@@ -4156,7 +4156,7 @@
         <v>31625</v>
       </c>
       <c r="B465" t="n">
-        <v>0.2269374877214432</v>
+        <v>0.2283505350351334</v>
       </c>
     </row>
     <row r="466">
@@ -4164,7 +4164,7 @@
         <v>31656</v>
       </c>
       <c r="B466" t="n">
-        <v>-1.306186676025391</v>
+        <v>-1.306630969047546</v>
       </c>
     </row>
     <row r="467">
@@ -4172,7 +4172,7 @@
         <v>31686</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.4025350213050842</v>
+        <v>-0.4044502079486847</v>
       </c>
     </row>
     <row r="468">
@@ -4180,7 +4180,7 @@
         <v>31717</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.5008139610290527</v>
+        <v>-0.4939025640487671</v>
       </c>
     </row>
     <row r="469">
@@ -4188,7 +4188,7 @@
         <v>31747</v>
       </c>
       <c r="B469" t="n">
-        <v>-1.442270874977112</v>
+        <v>-1.437394857406616</v>
       </c>
     </row>
     <row r="470">
@@ -4196,7 +4196,7 @@
         <v>31778</v>
       </c>
       <c r="B470" t="n">
-        <v>0.5494375824928284</v>
+        <v>0.5506505966186523</v>
       </c>
     </row>
     <row r="471">
@@ -4204,7 +4204,7 @@
         <v>31809</v>
       </c>
       <c r="B471" t="n">
-        <v>0.09843426197767258</v>
+        <v>0.09830251336097717</v>
       </c>
     </row>
     <row r="472">
@@ -4212,7 +4212,7 @@
         <v>31837</v>
       </c>
       <c r="B472" t="n">
-        <v>0.2272458225488663</v>
+        <v>0.227715790271759</v>
       </c>
     </row>
     <row r="473">
@@ -4220,7 +4220,7 @@
         <v>31868</v>
       </c>
       <c r="B473" t="n">
-        <v>-0.4365716874599457</v>
+        <v>-0.4325220882892609</v>
       </c>
     </row>
     <row r="474">
@@ -4228,7 +4228,7 @@
         <v>31898</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.3776059448719025</v>
+        <v>-0.3706870377063751</v>
       </c>
     </row>
     <row r="475">
@@ -4236,7 +4236,7 @@
         <v>31929</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.1563531458377838</v>
+        <v>-0.1509729027748108</v>
       </c>
     </row>
     <row r="476">
@@ -4244,7 +4244,7 @@
         <v>31959</v>
       </c>
       <c r="B476" t="n">
-        <v>0.825326144695282</v>
+        <v>0.8303086161613464</v>
       </c>
     </row>
     <row r="477">
@@ -4252,7 +4252,7 @@
         <v>31990</v>
       </c>
       <c r="B477" t="n">
-        <v>-1.339757561683655</v>
+        <v>-1.337970376014709</v>
       </c>
     </row>
     <row r="478">
@@ -4260,7 +4260,7 @@
         <v>32021</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.0700078159570694</v>
+        <v>-0.06358876824378967</v>
       </c>
     </row>
     <row r="479">
@@ -4268,7 +4268,7 @@
         <v>32051</v>
       </c>
       <c r="B479" t="n">
-        <v>-0.6723349094390869</v>
+        <v>-0.670113205909729</v>
       </c>
     </row>
     <row r="480">
@@ -4276,7 +4276,7 @@
         <v>32082</v>
       </c>
       <c r="B480" t="n">
-        <v>-1.317887783050537</v>
+        <v>-1.304893016815186</v>
       </c>
     </row>
     <row r="481">
@@ -4284,7 +4284,7 @@
         <v>32112</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.6471632122993469</v>
+        <v>-0.6446595788002014</v>
       </c>
     </row>
     <row r="482">
@@ -4292,7 +4292,7 @@
         <v>32143</v>
       </c>
       <c r="B482" t="n">
-        <v>-0.2170685678720474</v>
+        <v>-0.2079758048057556</v>
       </c>
     </row>
     <row r="483">
@@ -4300,7 +4300,7 @@
         <v>32174</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.6330233812332153</v>
+        <v>-0.6328779458999634</v>
       </c>
     </row>
     <row r="484">
@@ -4308,7 +4308,7 @@
         <v>32203</v>
       </c>
       <c r="B484" t="n">
-        <v>0.0916752889752388</v>
+        <v>0.09542544186115265</v>
       </c>
     </row>
     <row r="485">
@@ -4316,7 +4316,7 @@
         <v>32234</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.4216506481170654</v>
+        <v>-0.4145914316177368</v>
       </c>
     </row>
     <row r="486">
@@ -4324,7 +4324,7 @@
         <v>32264</v>
       </c>
       <c r="B486" t="n">
-        <v>0.1209312528371811</v>
+        <v>0.124889001250267</v>
       </c>
     </row>
     <row r="487">
@@ -4332,7 +4332,7 @@
         <v>32295</v>
       </c>
       <c r="B487" t="n">
-        <v>0.3643583953380585</v>
+        <v>0.3702440559864044</v>
       </c>
     </row>
     <row r="488">
@@ -4340,7 +4340,7 @@
         <v>32325</v>
       </c>
       <c r="B488" t="n">
-        <v>-1.170456409454346</v>
+        <v>-1.168187737464905</v>
       </c>
     </row>
     <row r="489">
@@ -4348,7 +4348,7 @@
         <v>32356</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.009346293285489082</v>
+        <v>-0.001080427435226738</v>
       </c>
     </row>
     <row r="490">
@@ -4356,7 +4356,7 @@
         <v>32387</v>
       </c>
       <c r="B490" t="n">
-        <v>0.2443373054265976</v>
+        <v>0.2495090961456299</v>
       </c>
     </row>
     <row r="491">
@@ -4364,7 +4364,7 @@
         <v>32417</v>
       </c>
       <c r="B491" t="n">
-        <v>1.652512311935425</v>
+        <v>1.654376029968262</v>
       </c>
     </row>
     <row r="492">
@@ -4372,7 +4372,7 @@
         <v>32448</v>
       </c>
       <c r="B492" t="n">
-        <v>-1.143365502357483</v>
+        <v>-1.137149691581726</v>
       </c>
     </row>
     <row r="493">
@@ -4380,7 +4380,7 @@
         <v>32478</v>
       </c>
       <c r="B493" t="n">
-        <v>-1.094386577606201</v>
+        <v>-1.091716170310974</v>
       </c>
     </row>
     <row r="494">
@@ -4388,7 +4388,7 @@
         <v>32509</v>
       </c>
       <c r="B494" t="n">
-        <v>-0.197830006480217</v>
+        <v>-0.1959867626428604</v>
       </c>
     </row>
     <row r="495">
@@ -4396,7 +4396,7 @@
         <v>32540</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.5846604108810425</v>
+        <v>-0.5836202502250671</v>
       </c>
     </row>
     <row r="496">
@@ -4404,7 +4404,7 @@
         <v>32568</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.6452010869979858</v>
+        <v>-0.6427322626113892</v>
       </c>
     </row>
     <row r="497">
@@ -4412,7 +4412,7 @@
         <v>32599</v>
       </c>
       <c r="B497" t="n">
-        <v>-0.1503202766180038</v>
+        <v>-0.1458939611911774</v>
       </c>
     </row>
     <row r="498">
@@ -4420,7 +4420,7 @@
         <v>32629</v>
       </c>
       <c r="B498" t="n">
-        <v>-2.131769180297852</v>
+        <v>-2.133135318756104</v>
       </c>
     </row>
     <row r="499">
@@ -4428,7 +4428,7 @@
         <v>32660</v>
       </c>
       <c r="B499" t="n">
-        <v>-1.936661124229431</v>
+        <v>-1.933323979377747</v>
       </c>
     </row>
     <row r="500">
@@ -4436,7 +4436,7 @@
         <v>32690</v>
       </c>
       <c r="B500" t="n">
-        <v>-1.006239533424377</v>
+        <v>-1.006680846214294</v>
       </c>
     </row>
     <row r="501">
@@ -4444,7 +4444,7 @@
         <v>32721</v>
       </c>
       <c r="B501" t="n">
-        <v>0.09439628571271896</v>
+        <v>0.09531491249799728</v>
       </c>
     </row>
     <row r="502">
@@ -4452,7 +4452,7 @@
         <v>32752</v>
       </c>
       <c r="B502" t="n">
-        <v>0.3024064898490906</v>
+        <v>0.3049303591251373</v>
       </c>
     </row>
     <row r="503">
@@ -4460,7 +4460,7 @@
         <v>32782</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.6375132203102112</v>
+        <v>-0.6391805410385132</v>
       </c>
     </row>
     <row r="504">
@@ -4468,7 +4468,7 @@
         <v>32813</v>
       </c>
       <c r="B504" t="n">
-        <v>-0.5393798351287842</v>
+        <v>-0.5380789041519165</v>
       </c>
     </row>
     <row r="505">
@@ -4476,7 +4476,7 @@
         <v>32843</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.2553573846817017</v>
+        <v>-0.252591073513031</v>
       </c>
     </row>
     <row r="506">
@@ -4484,7 +4484,7 @@
         <v>32874</v>
       </c>
       <c r="B506" t="n">
-        <v>-0.30462446808815</v>
+        <v>-0.3003019690513611</v>
       </c>
     </row>
     <row r="507">
@@ -4492,7 +4492,7 @@
         <v>32905</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.101782321929932</v>
+        <v>-1.096770524978638</v>
       </c>
     </row>
     <row r="508">
@@ -4500,7 +4500,7 @@
         <v>32933</v>
       </c>
       <c r="B508" t="n">
-        <v>-0.7173733711242676</v>
+        <v>-0.7135593891143799</v>
       </c>
     </row>
     <row r="509">
@@ -4508,7 +4508,7 @@
         <v>32964</v>
       </c>
       <c r="B509" t="n">
-        <v>1.337980389595032</v>
+        <v>1.342300772666931</v>
       </c>
     </row>
     <row r="510">
@@ -4516,7 +4516,7 @@
         <v>32994</v>
       </c>
       <c r="B510" t="n">
-        <v>0.6660855412483215</v>
+        <v>0.6690587401390076</v>
       </c>
     </row>
     <row r="511">
@@ -4524,7 +4524,7 @@
         <v>33025</v>
       </c>
       <c r="B511" t="n">
-        <v>-0.4417461752891541</v>
+        <v>-0.4412205517292023</v>
       </c>
     </row>
     <row r="512">
@@ -4532,7 +4532,7 @@
         <v>33055</v>
       </c>
       <c r="B512" t="n">
-        <v>0.4538834393024445</v>
+        <v>0.4512862265110016</v>
       </c>
     </row>
     <row r="513">
@@ -4540,7 +4540,7 @@
         <v>33086</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.562967836856842</v>
+        <v>-0.5630836486816406</v>
       </c>
     </row>
     <row r="514">
@@ -4548,7 +4548,7 @@
         <v>33117</v>
       </c>
       <c r="B514" t="n">
-        <v>-1.71456503868103</v>
+        <v>-1.709476470947266</v>
       </c>
     </row>
     <row r="515">
@@ -4556,7 +4556,7 @@
         <v>33147</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.4960233271121979</v>
+        <v>-0.4921449720859528</v>
       </c>
     </row>
     <row r="516">
@@ -4564,7 +4564,7 @@
         <v>33178</v>
       </c>
       <c r="B516" t="n">
-        <v>-0.2676613926887512</v>
+        <v>-0.2683970928192139</v>
       </c>
     </row>
     <row r="517">
@@ -4572,7 +4572,7 @@
         <v>33208</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.1117066368460655</v>
+        <v>-0.1078576594591141</v>
       </c>
     </row>
     <row r="518">
@@ -4580,7 +4580,7 @@
         <v>33239</v>
       </c>
       <c r="B518" t="n">
-        <v>-1.09936535358429</v>
+        <v>-1.097991228103638</v>
       </c>
     </row>
     <row r="519">
@@ -4588,7 +4588,7 @@
         <v>33270</v>
       </c>
       <c r="B519" t="n">
-        <v>0.09560827165842056</v>
+        <v>0.09631116688251495</v>
       </c>
     </row>
     <row r="520">
@@ -4596,7 +4596,7 @@
         <v>33298</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.4848946928977966</v>
+        <v>-0.4843860566616058</v>
       </c>
     </row>
     <row r="521">
@@ -4604,7 +4604,7 @@
         <v>33329</v>
       </c>
       <c r="B521" t="n">
-        <v>0.1558494567871094</v>
+        <v>0.1574712097644806</v>
       </c>
     </row>
     <row r="522">
@@ -4612,7 +4612,7 @@
         <v>33359</v>
       </c>
       <c r="B522" t="n">
-        <v>-0.2344011068344116</v>
+        <v>-0.2294053137302399</v>
       </c>
     </row>
     <row r="523">
@@ -4620,7 +4620,7 @@
         <v>33390</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3710415363311768</v>
+        <v>0.371621161699295</v>
       </c>
     </row>
     <row r="524">
@@ -4628,7 +4628,7 @@
         <v>33420</v>
       </c>
       <c r="B524" t="n">
-        <v>0.4055390655994415</v>
+        <v>0.40873783826828</v>
       </c>
     </row>
     <row r="525">
@@ -4636,7 +4636,7 @@
         <v>33451</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.9333690404891968</v>
+        <v>-0.9335833787918091</v>
       </c>
     </row>
     <row r="526">
@@ -4644,7 +4644,7 @@
         <v>33482</v>
       </c>
       <c r="B526" t="n">
-        <v>0.4892446398735046</v>
+        <v>0.4898968935012817</v>
       </c>
     </row>
     <row r="527">
@@ -4652,7 +4652,7 @@
         <v>33512</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.1152670308947563</v>
+        <v>-0.1120943203568459</v>
       </c>
     </row>
     <row r="528">
@@ -4660,7 +4660,7 @@
         <v>33543</v>
       </c>
       <c r="B528" t="n">
-        <v>0.05143433436751366</v>
+        <v>0.04951214417815208</v>
       </c>
     </row>
     <row r="529">
@@ -4668,7 +4668,7 @@
         <v>33573</v>
       </c>
       <c r="B529" t="n">
-        <v>1.663613200187683</v>
+        <v>1.66655695438385</v>
       </c>
     </row>
     <row r="530">
@@ -4676,7 +4676,7 @@
         <v>33604</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.5635387897491455</v>
+        <v>-0.5626047849655151</v>
       </c>
     </row>
     <row r="531">
@@ -4684,7 +4684,7 @@
         <v>33635</v>
       </c>
       <c r="B531" t="n">
-        <v>0.5953003764152527</v>
+        <v>0.598107635974884</v>
       </c>
     </row>
     <row r="532">
@@ -4692,7 +4692,7 @@
         <v>33664</v>
       </c>
       <c r="B532" t="n">
-        <v>0.2837068140506744</v>
+        <v>0.2865780591964722</v>
       </c>
     </row>
     <row r="533">
@@ -4700,7 +4700,7 @@
         <v>33695</v>
       </c>
       <c r="B533" t="n">
-        <v>0.2670773267745972</v>
+        <v>0.2718798816204071</v>
       </c>
     </row>
     <row r="534">
@@ -4708,7 +4708,7 @@
         <v>33725</v>
       </c>
       <c r="B534" t="n">
-        <v>0.9460045099258423</v>
+        <v>0.9516819715499878</v>
       </c>
     </row>
     <row r="535">
@@ -4716,7 +4716,7 @@
         <v>33756</v>
       </c>
       <c r="B535" t="n">
-        <v>1.326387763023376</v>
+        <v>1.327475309371948</v>
       </c>
     </row>
     <row r="536">
@@ -4724,7 +4724,7 @@
         <v>33786</v>
       </c>
       <c r="B536" t="n">
-        <v>-0.453013151884079</v>
+        <v>-0.4482174515724182</v>
       </c>
     </row>
     <row r="537">
@@ -4732,7 +4732,7 @@
         <v>33817</v>
       </c>
       <c r="B537" t="n">
-        <v>-0.3244534134864807</v>
+        <v>-0.3257093727588654</v>
       </c>
     </row>
     <row r="538">
@@ -4740,7 +4740,7 @@
         <v>33848</v>
       </c>
       <c r="B538" t="n">
-        <v>-0.3593413233757019</v>
+        <v>-0.3608410954475403</v>
       </c>
     </row>
     <row r="539">
@@ -4748,7 +4748,7 @@
         <v>33878</v>
       </c>
       <c r="B539" t="n">
-        <v>0.283804714679718</v>
+        <v>0.2878997623920441</v>
       </c>
     </row>
     <row r="540">
@@ -4756,7 +4756,7 @@
         <v>33909</v>
       </c>
       <c r="B540" t="n">
-        <v>-0.2022372633218765</v>
+        <v>-0.1965148597955704</v>
       </c>
     </row>
     <row r="541">
@@ -4764,7 +4764,7 @@
         <v>33939</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.09217130392789841</v>
+        <v>-0.089921735227108</v>
       </c>
     </row>
     <row r="542">
@@ -4772,7 +4772,7 @@
         <v>33970</v>
       </c>
       <c r="B542" t="n">
-        <v>1.225661516189575</v>
+        <v>1.23050332069397</v>
       </c>
     </row>
     <row r="543">
@@ -4780,7 +4780,7 @@
         <v>34001</v>
       </c>
       <c r="B543" t="n">
-        <v>-0.3443876802921295</v>
+        <v>-0.3456572294235229</v>
       </c>
     </row>
     <row r="544">
@@ -4788,7 +4788,7 @@
         <v>34029</v>
       </c>
       <c r="B544" t="n">
-        <v>-0.006845302879810333</v>
+        <v>-0.004768841434270144</v>
       </c>
     </row>
     <row r="545">
@@ -4796,7 +4796,7 @@
         <v>34060</v>
       </c>
       <c r="B545" t="n">
-        <v>-0.5177119970321655</v>
+        <v>-0.5155190825462341</v>
       </c>
     </row>
     <row r="546">
@@ -4804,7 +4804,7 @@
         <v>34090</v>
       </c>
       <c r="B546" t="n">
-        <v>-1.300204277038574</v>
+        <v>-1.298129200935364</v>
       </c>
     </row>
     <row r="547">
@@ -4812,7 +4812,7 @@
         <v>34121</v>
       </c>
       <c r="B547" t="n">
-        <v>-1.630442023277283</v>
+        <v>-1.627890229225159</v>
       </c>
     </row>
     <row r="548">
@@ -4820,7 +4820,7 @@
         <v>34151</v>
       </c>
       <c r="B548" t="n">
-        <v>-1.561907887458801</v>
+        <v>-1.558130621910095</v>
       </c>
     </row>
     <row r="549">
@@ -4828,7 +4828,7 @@
         <v>34182</v>
       </c>
       <c r="B549" t="n">
-        <v>-1.181654930114746</v>
+        <v>-1.177967071533203</v>
       </c>
     </row>
     <row r="550">
@@ -4836,7 +4836,7 @@
         <v>34213</v>
       </c>
       <c r="B550" t="n">
-        <v>-1.148903846740723</v>
+        <v>-1.141220211982727</v>
       </c>
     </row>
     <row r="551">
@@ -4844,7 +4844,7 @@
         <v>34243</v>
       </c>
       <c r="B551" t="n">
-        <v>-1.092553973197937</v>
+        <v>-1.091328024864197</v>
       </c>
     </row>
     <row r="552">
@@ -4852,7 +4852,7 @@
         <v>34274</v>
       </c>
       <c r="B552" t="n">
-        <v>-0.5612809658050537</v>
+        <v>-0.5547553896903992</v>
       </c>
     </row>
     <row r="553">
@@ -4860,7 +4860,7 @@
         <v>34304</v>
       </c>
       <c r="B553" t="n">
-        <v>-1.206416845321655</v>
+        <v>-1.201449036598206</v>
       </c>
     </row>
     <row r="554">
@@ -4868,7 +4868,7 @@
         <v>34335</v>
       </c>
       <c r="B554" t="n">
-        <v>-0.6273159980773926</v>
+        <v>-0.6268247365951538</v>
       </c>
     </row>
     <row r="555">
@@ -4876,7 +4876,7 @@
         <v>34366</v>
       </c>
       <c r="B555" t="n">
-        <v>-1.168142437934875</v>
+        <v>-1.164976239204407</v>
       </c>
     </row>
     <row r="556">
@@ -4884,7 +4884,7 @@
         <v>34394</v>
       </c>
       <c r="B556" t="n">
-        <v>-1.000898599624634</v>
+        <v>-0.9953388571739197</v>
       </c>
     </row>
     <row r="557">
@@ -4892,7 +4892,7 @@
         <v>34425</v>
       </c>
       <c r="B557" t="n">
-        <v>-0.3668402135372162</v>
+        <v>-0.361783891916275</v>
       </c>
     </row>
     <row r="558">
@@ -4900,7 +4900,7 @@
         <v>34455</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.4468507468700409</v>
+        <v>-0.4454881548881531</v>
       </c>
     </row>
     <row r="559">
@@ -4908,7 +4908,7 @@
         <v>34486</v>
       </c>
       <c r="B559" t="n">
-        <v>0.8853228688240051</v>
+        <v>0.8881784081459045</v>
       </c>
     </row>
     <row r="560">
@@ -4916,7 +4916,7 @@
         <v>34516</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.4861670434474945</v>
+        <v>-0.4812569618225098</v>
       </c>
     </row>
     <row r="561">
@@ -4924,7 +4924,7 @@
         <v>34547</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.735952496528625</v>
+        <v>-1.730289101600647</v>
       </c>
     </row>
     <row r="562">
@@ -4932,7 +4932,7 @@
         <v>34578</v>
       </c>
       <c r="B562" t="n">
-        <v>0.5243026614189148</v>
+        <v>0.5265754461288452</v>
       </c>
     </row>
     <row r="563">
@@ -4940,7 +4940,7 @@
         <v>34608</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.1103262677788734</v>
+        <v>-0.1055179014801979</v>
       </c>
     </row>
     <row r="564">
@@ -4948,7 +4948,7 @@
         <v>34639</v>
       </c>
       <c r="B564" t="n">
-        <v>0.001153519260697067</v>
+        <v>-0.004365519620478153</v>
       </c>
     </row>
     <row r="565">
@@ -4956,7 +4956,7 @@
         <v>34669</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.307919979095459</v>
+        <v>-1.300818920135498</v>
       </c>
     </row>
     <row r="566">
@@ -4964,7 +4964,7 @@
         <v>34700</v>
       </c>
       <c r="B566" t="n">
-        <v>-1.358914852142334</v>
+        <v>-1.353868722915649</v>
       </c>
     </row>
     <row r="567">
@@ -4972,7 +4972,7 @@
         <v>34731</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.8057684302330017</v>
+        <v>-0.8023271560668945</v>
       </c>
     </row>
     <row r="568">
@@ -4980,7 +4980,7 @@
         <v>34759</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.1768439412117004</v>
+        <v>-0.1739113628864288</v>
       </c>
     </row>
     <row r="569">
@@ -4988,7 +4988,7 @@
         <v>34790</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.2194058001041412</v>
+        <v>-0.2229142189025879</v>
       </c>
     </row>
     <row r="570">
@@ -4996,7 +4996,7 @@
         <v>34820</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.538790345191956</v>
+        <v>-1.535994648933411</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>34851</v>
       </c>
       <c r="B571" t="n">
-        <v>0.1101834252476692</v>
+        <v>0.1141320839524269</v>
       </c>
     </row>
     <row r="572">
@@ -5012,7 +5012,7 @@
         <v>34881</v>
       </c>
       <c r="B572" t="n">
-        <v>1.591940402984619</v>
+        <v>1.595120310783386</v>
       </c>
     </row>
     <row r="573">
@@ -5020,7 +5020,7 @@
         <v>34912</v>
       </c>
       <c r="B573" t="n">
-        <v>-0.1629532277584076</v>
+        <v>-0.1548620909452438</v>
       </c>
     </row>
     <row r="574">
@@ -5028,7 +5028,7 @@
         <v>34943</v>
       </c>
       <c r="B574" t="n">
-        <v>-1.640004992485046</v>
+        <v>-1.635517120361328</v>
       </c>
     </row>
     <row r="575">
@@ -5036,7 +5036,7 @@
         <v>34973</v>
       </c>
       <c r="B575" t="n">
-        <v>0.3244286179542542</v>
+        <v>0.3259892761707306</v>
       </c>
     </row>
     <row r="576">
@@ -5044,7 +5044,7 @@
         <v>35004</v>
       </c>
       <c r="B576" t="n">
-        <v>-0.626103937625885</v>
+        <v>-0.6224769353866577</v>
       </c>
     </row>
     <row r="577">
@@ -5052,7 +5052,7 @@
         <v>35034</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.9928308725357056</v>
+        <v>-0.9934328198432922</v>
       </c>
     </row>
     <row r="578">
@@ -5060,7 +5060,7 @@
         <v>35065</v>
       </c>
       <c r="B578" t="n">
-        <v>-0.02574554271996021</v>
+        <v>-0.02176191471517086</v>
       </c>
     </row>
     <row r="579">
@@ -5068,7 +5068,7 @@
         <v>35096</v>
       </c>
       <c r="B579" t="n">
-        <v>0.2550663650035858</v>
+        <v>0.2601243555545807</v>
       </c>
     </row>
     <row r="580">
@@ -5076,7 +5076,7 @@
         <v>35125</v>
       </c>
       <c r="B580" t="n">
-        <v>-0.5305879712104797</v>
+        <v>-0.5313832759857178</v>
       </c>
     </row>
     <row r="581">
@@ -5084,7 +5084,7 @@
         <v>35156</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.6062448024749756</v>
+        <v>-0.6045383214950562</v>
       </c>
     </row>
     <row r="582">
@@ -5092,7 +5092,7 @@
         <v>35186</v>
       </c>
       <c r="B582" t="n">
-        <v>-1.109603404998779</v>
+        <v>-1.106080532073975</v>
       </c>
     </row>
     <row r="583">
@@ -5100,7 +5100,7 @@
         <v>35217</v>
       </c>
       <c r="B583" t="n">
-        <v>-0.1104007214307785</v>
+        <v>-0.1072503626346588</v>
       </c>
     </row>
     <row r="584">
@@ -5108,7 +5108,7 @@
         <v>35247</v>
       </c>
       <c r="B584" t="n">
-        <v>0.255162388086319</v>
+        <v>0.2540261149406433</v>
       </c>
     </row>
     <row r="585">
@@ -5116,7 +5116,7 @@
         <v>35278</v>
       </c>
       <c r="B585" t="n">
-        <v>0.836641788482666</v>
+        <v>0.838046133518219</v>
       </c>
     </row>
     <row r="586">
@@ -5124,7 +5124,7 @@
         <v>35309</v>
       </c>
       <c r="B586" t="n">
-        <v>1.613235831260681</v>
+        <v>1.607704520225525</v>
       </c>
     </row>
     <row r="587">
@@ -5132,7 +5132,7 @@
         <v>35339</v>
       </c>
       <c r="B587" t="n">
-        <v>-1.105225086212158</v>
+        <v>-1.103347778320312</v>
       </c>
     </row>
     <row r="588">
@@ -5140,7 +5140,7 @@
         <v>35370</v>
       </c>
       <c r="B588" t="n">
-        <v>1.24653685092926</v>
+        <v>1.235920786857605</v>
       </c>
     </row>
     <row r="589">
@@ -5148,7 +5148,7 @@
         <v>35400</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.05986461043357849</v>
+        <v>-0.05729508027434349</v>
       </c>
     </row>
     <row r="590">
@@ -5156,7 +5156,7 @@
         <v>35431</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.8389629125595093</v>
+        <v>-0.8352823853492737</v>
       </c>
     </row>
     <row r="591">
@@ -5164,7 +5164,7 @@
         <v>35462</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.4081534743309021</v>
+        <v>-0.4078093767166138</v>
       </c>
     </row>
     <row r="592">
@@ -5172,7 +5172,7 @@
         <v>35490</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.9218957424163818</v>
+        <v>-0.9225196838378906</v>
       </c>
     </row>
     <row r="593">
@@ -5180,7 +5180,7 @@
         <v>35521</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.1906773000955582</v>
+        <v>-0.1880701184272766</v>
       </c>
     </row>
     <row r="594">
@@ -5188,7 +5188,7 @@
         <v>35551</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.9639133214950562</v>
+        <v>-0.9627851843833923</v>
       </c>
     </row>
     <row r="595">
@@ -5196,7 +5196,7 @@
         <v>35582</v>
       </c>
       <c r="B595" t="n">
-        <v>0.1845418810844421</v>
+        <v>0.1922990381717682</v>
       </c>
     </row>
     <row r="596">
@@ -5204,7 +5204,7 @@
         <v>35612</v>
       </c>
       <c r="B596" t="n">
-        <v>-1.129027247428894</v>
+        <v>-1.12262749671936</v>
       </c>
     </row>
     <row r="597">
@@ -5212,7 +5212,7 @@
         <v>35643</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.6438789367675781</v>
+        <v>-0.642523467540741</v>
       </c>
     </row>
     <row r="598">
@@ -5220,7 +5220,7 @@
         <v>35674</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.1782868504524231</v>
+        <v>-0.1682993173599243</v>
       </c>
     </row>
     <row r="599">
@@ -5228,7 +5228,7 @@
         <v>35704</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.06540770083665848</v>
+        <v>-0.05751261115074158</v>
       </c>
     </row>
     <row r="600">
@@ -5236,7 +5236,7 @@
         <v>35735</v>
       </c>
       <c r="B600" t="n">
-        <v>1.098320841789246</v>
+        <v>1.08220100402832</v>
       </c>
     </row>
     <row r="601">
@@ -5244,7 +5244,7 @@
         <v>35765</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.1711091101169586</v>
+        <v>-0.1647238731384277</v>
       </c>
     </row>
     <row r="602">
@@ -5252,7 +5252,7 @@
         <v>35796</v>
       </c>
       <c r="B602" t="n">
-        <v>-1.075343489646912</v>
+        <v>-1.068682789802551</v>
       </c>
     </row>
     <row r="603">
@@ -5260,7 +5260,7 @@
         <v>35827</v>
       </c>
       <c r="B603" t="n">
-        <v>-1.664579629898071</v>
+        <v>-1.658372521400452</v>
       </c>
     </row>
     <row r="604">
@@ -5268,7 +5268,7 @@
         <v>35855</v>
       </c>
       <c r="B604" t="n">
-        <v>-1.064576745033264</v>
+        <v>-1.061107039451599</v>
       </c>
     </row>
     <row r="605">
@@ -5276,7 +5276,7 @@
         <v>35886</v>
       </c>
       <c r="B605" t="n">
-        <v>-2.286278963088989</v>
+        <v>-2.286295890808105</v>
       </c>
     </row>
     <row r="606">
@@ -5284,7 +5284,7 @@
         <v>35916</v>
       </c>
       <c r="B606" t="n">
-        <v>-0.6980140209197998</v>
+        <v>-0.6950622200965881</v>
       </c>
     </row>
     <row r="607">
@@ -5292,7 +5292,7 @@
         <v>35947</v>
       </c>
       <c r="B607" t="n">
-        <v>-1.518139004707336</v>
+        <v>-1.515490293502808</v>
       </c>
     </row>
     <row r="608">
@@ -5300,7 +5300,7 @@
         <v>35977</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.75436007976532</v>
+        <v>-1.752082705497742</v>
       </c>
     </row>
     <row r="609">
@@ -5308,7 +5308,7 @@
         <v>36008</v>
       </c>
       <c r="B609" t="n">
-        <v>-1.230214715003967</v>
+        <v>-1.221396803855896</v>
       </c>
     </row>
     <row r="610">
@@ -5316,7 +5316,7 @@
         <v>36039</v>
       </c>
       <c r="B610" t="n">
-        <v>-0.8142054677009583</v>
+        <v>-0.8097389936447144</v>
       </c>
     </row>
     <row r="611">
@@ -5324,7 +5324,7 @@
         <v>36069</v>
       </c>
       <c r="B611" t="n">
-        <v>-0.8750328421592712</v>
+        <v>-0.8737275004386902</v>
       </c>
     </row>
     <row r="612">
@@ -5332,7 +5332,7 @@
         <v>36100</v>
       </c>
       <c r="B612" t="n">
-        <v>-1.157781600952148</v>
+        <v>-1.145017385482788</v>
       </c>
     </row>
     <row r="613">
@@ -5340,7 +5340,7 @@
         <v>36130</v>
       </c>
       <c r="B613" t="n">
-        <v>-1.38990581035614</v>
+        <v>-1.385989546775818</v>
       </c>
     </row>
     <row r="614">
@@ -5348,7 +5348,7 @@
         <v>36161</v>
       </c>
       <c r="B614" t="n">
-        <v>-1.013071179389954</v>
+        <v>-1.011788010597229</v>
       </c>
     </row>
     <row r="615">
@@ -5356,7 +5356,7 @@
         <v>36192</v>
       </c>
       <c r="B615" t="n">
-        <v>-0.5624251365661621</v>
+        <v>-0.5573809146881104</v>
       </c>
     </row>
     <row r="616">
@@ -5364,7 +5364,7 @@
         <v>36220</v>
       </c>
       <c r="B616" t="n">
-        <v>-0.2208177894353867</v>
+        <v>-0.2186255306005478</v>
       </c>
     </row>
     <row r="617">
@@ -5372,7 +5372,7 @@
         <v>36251</v>
       </c>
       <c r="B617" t="n">
-        <v>-1.392245292663574</v>
+        <v>-1.390821933746338</v>
       </c>
     </row>
     <row r="618">
@@ -5380,7 +5380,7 @@
         <v>36281</v>
       </c>
       <c r="B618" t="n">
-        <v>-1.494706392288208</v>
+        <v>-1.4929039478302</v>
       </c>
     </row>
     <row r="619">
@@ -5388,7 +5388,7 @@
         <v>36312</v>
       </c>
       <c r="B619" t="n">
-        <v>0.6705835461616516</v>
+        <v>0.6730498671531677</v>
       </c>
     </row>
     <row r="620">
@@ -5396,7 +5396,7 @@
         <v>36342</v>
       </c>
       <c r="B620" t="n">
-        <v>-0.6970563530921936</v>
+        <v>-0.6946969032287598</v>
       </c>
     </row>
     <row r="621">
@@ -5404,7 +5404,7 @@
         <v>36373</v>
       </c>
       <c r="B621" t="n">
-        <v>-0.5312322378158569</v>
+        <v>-0.5260912775993347</v>
       </c>
     </row>
     <row r="622">
@@ -5412,7 +5412,7 @@
         <v>36404</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.3486132323741913</v>
+        <v>-0.3418418765068054</v>
       </c>
     </row>
     <row r="623">
@@ -5420,7 +5420,7 @@
         <v>36434</v>
       </c>
       <c r="B623" t="n">
-        <v>-1.982072591781616</v>
+        <v>-1.978594183921814</v>
       </c>
     </row>
     <row r="624">
@@ -5428,7 +5428,7 @@
         <v>36465</v>
       </c>
       <c r="B624" t="n">
-        <v>-1.176436305046082</v>
+        <v>-1.164586305618286</v>
       </c>
     </row>
     <row r="625">
@@ -5436,7 +5436,7 @@
         <v>36495</v>
       </c>
       <c r="B625" t="n">
-        <v>-1.542930722236633</v>
+        <v>-1.540353894233704</v>
       </c>
     </row>
     <row r="626">
@@ -5444,7 +5444,7 @@
         <v>36526</v>
       </c>
       <c r="B626" t="n">
-        <v>-0.71012943983078</v>
+        <v>-0.7084999680519104</v>
       </c>
     </row>
     <row r="627">
@@ -5452,7 +5452,7 @@
         <v>36557</v>
       </c>
       <c r="B627" t="n">
-        <v>-1.382613658905029</v>
+        <v>-1.379878044128418</v>
       </c>
     </row>
     <row r="628">
@@ -5460,7 +5460,7 @@
         <v>36586</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.6337704658508301</v>
+        <v>-0.6322745084762573</v>
       </c>
     </row>
     <row r="629">
@@ -5468,7 +5468,7 @@
         <v>36617</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.7404816746711731</v>
+        <v>-0.7387487292289734</v>
       </c>
     </row>
     <row r="630">
@@ -5476,7 +5476,7 @@
         <v>36647</v>
       </c>
       <c r="B630" t="n">
-        <v>-1.430509686470032</v>
+        <v>-1.428351640701294</v>
       </c>
     </row>
     <row r="631">
@@ -5484,7 +5484,7 @@
         <v>36678</v>
       </c>
       <c r="B631" t="n">
-        <v>-0.6844708323478699</v>
+        <v>-0.6809808015823364</v>
       </c>
     </row>
     <row r="632">
@@ -5492,7 +5492,7 @@
         <v>36708</v>
       </c>
       <c r="B632" t="n">
-        <v>0.00851103849709034</v>
+        <v>0.009899649769067764</v>
       </c>
     </row>
     <row r="633">
@@ -5500,7 +5500,7 @@
         <v>36739</v>
       </c>
       <c r="B633" t="n">
-        <v>0.1227546110749245</v>
+        <v>0.1286712735891342</v>
       </c>
     </row>
     <row r="634">
@@ -5508,7 +5508,7 @@
         <v>36770</v>
       </c>
       <c r="B634" t="n">
-        <v>0.8729063868522644</v>
+        <v>0.8760937452316284</v>
       </c>
     </row>
     <row r="635">
@@ -5516,7 +5516,7 @@
         <v>36800</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.6393392086029053</v>
+        <v>-0.6379897594451904</v>
       </c>
     </row>
     <row r="636">
@@ -5524,7 +5524,7 @@
         <v>36831</v>
       </c>
       <c r="B636" t="n">
-        <v>1.168917894363403</v>
+        <v>1.156889200210571</v>
       </c>
     </row>
     <row r="637">
@@ -5532,7 +5532,7 @@
         <v>36861</v>
       </c>
       <c r="B637" t="n">
-        <v>0.8762866258621216</v>
+        <v>0.8800933957099915</v>
       </c>
     </row>
     <row r="638">
@@ -5540,7 +5540,7 @@
         <v>36892</v>
       </c>
       <c r="B638" t="n">
-        <v>-0.5615605115890503</v>
+        <v>-0.558998703956604</v>
       </c>
     </row>
     <row r="639">
@@ -5548,7 +5548,7 @@
         <v>36923</v>
       </c>
       <c r="B639" t="n">
-        <v>0.2526309490203857</v>
+        <v>0.2559407353401184</v>
       </c>
     </row>
     <row r="640">
@@ -5556,7 +5556,7 @@
         <v>36951</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.4837331473827362</v>
+        <v>-0.4814539849758148</v>
       </c>
     </row>
     <row r="641">
@@ -5564,7 +5564,7 @@
         <v>36982</v>
       </c>
       <c r="B641" t="n">
-        <v>-1.206467628479004</v>
+        <v>-1.202008128166199</v>
       </c>
     </row>
     <row r="642">
@@ -5572,7 +5572,7 @@
         <v>37012</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.1162680685520172</v>
+        <v>-0.1156939417123795</v>
       </c>
     </row>
     <row r="643">
@@ -5580,7 +5580,7 @@
         <v>37043</v>
       </c>
       <c r="B643" t="n">
-        <v>-1.166409730911255</v>
+        <v>-1.162822365760803</v>
       </c>
     </row>
     <row r="644">
@@ -5588,7 +5588,7 @@
         <v>37073</v>
       </c>
       <c r="B644" t="n">
-        <v>0.2422849833965302</v>
+        <v>0.2480992823839188</v>
       </c>
     </row>
     <row r="645">
@@ -5596,7 +5596,7 @@
         <v>37104</v>
       </c>
       <c r="B645" t="n">
-        <v>-0.99970942735672</v>
+        <v>-1.002249002456665</v>
       </c>
     </row>
     <row r="646">
@@ -5604,7 +5604,7 @@
         <v>37135</v>
       </c>
       <c r="B646" t="n">
-        <v>-1.152868032455444</v>
+        <v>-1.149707794189453</v>
       </c>
     </row>
     <row r="647">
@@ -5612,7 +5612,7 @@
         <v>37165</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.8798294067382812</v>
+        <v>-0.8837146759033203</v>
       </c>
     </row>
     <row r="648">
@@ -5620,7 +5620,7 @@
         <v>37196</v>
       </c>
       <c r="B648" t="n">
-        <v>-1.351404786109924</v>
+        <v>-1.343458294868469</v>
       </c>
     </row>
     <row r="649">
@@ -5628,7 +5628,7 @@
         <v>37226</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.6087906360626221</v>
+        <v>-0.6133456230163574</v>
       </c>
     </row>
     <row r="650">
@@ -5636,7 +5636,7 @@
         <v>37257</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.7355409264564514</v>
+        <v>-0.7365626692771912</v>
       </c>
     </row>
     <row r="651">
@@ -5644,7 +5644,7 @@
         <v>37288</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.276006817817688</v>
+        <v>-1.274624586105347</v>
       </c>
     </row>
     <row r="652">
@@ -5652,7 +5652,7 @@
         <v>37316</v>
       </c>
       <c r="B652" t="n">
-        <v>0.9144611358642578</v>
+        <v>0.9204482436180115</v>
       </c>
     </row>
     <row r="653">
@@ -5660,7 +5660,7 @@
         <v>37347</v>
       </c>
       <c r="B653" t="n">
-        <v>-0.3422684669494629</v>
+        <v>-0.3368510007858276</v>
       </c>
     </row>
     <row r="654">
@@ -5668,7 +5668,7 @@
         <v>37377</v>
       </c>
       <c r="B654" t="n">
-        <v>1.115660309791565</v>
+        <v>1.121699810028076</v>
       </c>
     </row>
     <row r="655">
@@ -5676,7 +5676,7 @@
         <v>37408</v>
       </c>
       <c r="B655" t="n">
-        <v>-0.7429050803184509</v>
+        <v>-0.7400484681129456</v>
       </c>
     </row>
     <row r="656">
@@ -5684,7 +5684,7 @@
         <v>37438</v>
       </c>
       <c r="B656" t="n">
-        <v>-0.06529837101697922</v>
+        <v>-0.06500773876905441</v>
       </c>
     </row>
     <row r="657">
@@ -5692,7 +5692,7 @@
         <v>37469</v>
       </c>
       <c r="B657" t="n">
-        <v>-0.5948477387428284</v>
+        <v>-0.5914433598518372</v>
       </c>
     </row>
     <row r="658">
@@ -5700,7 +5700,7 @@
         <v>37500</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.08233614265918732</v>
+        <v>-0.08001448959112167</v>
       </c>
     </row>
     <row r="659">
@@ -5708,7 +5708,7 @@
         <v>37530</v>
       </c>
       <c r="B659" t="n">
-        <v>1.906323313713074</v>
+        <v>1.910370111465454</v>
       </c>
     </row>
     <row r="660">
@@ -5716,7 +5716,7 @@
         <v>37561</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.330464094877243</v>
+        <v>-0.330241858959198</v>
       </c>
     </row>
     <row r="661">
@@ -5724,7 +5724,7 @@
         <v>37591</v>
       </c>
       <c r="B661" t="n">
-        <v>-1.263491272926331</v>
+        <v>-1.2596675157547</v>
       </c>
     </row>
     <row r="662">
@@ -5732,7 +5732,7 @@
         <v>37622</v>
       </c>
       <c r="B662" t="n">
-        <v>0.04119960963726044</v>
+        <v>0.04898624867200851</v>
       </c>
     </row>
     <row r="663">
@@ -5740,7 +5740,7 @@
         <v>37653</v>
       </c>
       <c r="B663" t="n">
-        <v>0.0199687797576189</v>
+        <v>0.02353428304195404</v>
       </c>
     </row>
     <row r="664">
@@ -5748,7 +5748,7 @@
         <v>37681</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.1242004334926605</v>
+        <v>-0.1224878579378128</v>
       </c>
     </row>
     <row r="665">
@@ -5756,7 +5756,7 @@
         <v>37712</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.6860976219177246</v>
+        <v>-0.6814639568328857</v>
       </c>
     </row>
     <row r="666">
@@ -5764,7 +5764,7 @@
         <v>37742</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.9832870364189148</v>
+        <v>-0.9783020615577698</v>
       </c>
     </row>
     <row r="667">
@@ -5772,7 +5772,7 @@
         <v>37773</v>
       </c>
       <c r="B667" t="n">
-        <v>0.2615785300731659</v>
+        <v>0.261730819940567</v>
       </c>
     </row>
     <row r="668">
@@ -5780,7 +5780,7 @@
         <v>37803</v>
       </c>
       <c r="B668" t="n">
-        <v>-1.032997608184814</v>
+        <v>-1.028378486633301</v>
       </c>
     </row>
     <row r="669">
@@ -5788,7 +5788,7 @@
         <v>37834</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.501739501953125</v>
+        <v>-0.5052362680435181</v>
       </c>
     </row>
     <row r="670">
@@ -5796,7 +5796,7 @@
         <v>37865</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.252405196428299</v>
+        <v>-0.2544582486152649</v>
       </c>
     </row>
     <row r="671">
@@ -5804,7 +5804,7 @@
         <v>37895</v>
       </c>
       <c r="B671" t="n">
-        <v>0.05149217694997787</v>
+        <v>0.05054187774658203</v>
       </c>
     </row>
     <row r="672">
@@ -5812,7 +5812,7 @@
         <v>37926</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.06447015702724457</v>
+        <v>-0.06498944014310837</v>
       </c>
     </row>
     <row r="673">
@@ -5820,7 +5820,7 @@
         <v>37956</v>
       </c>
       <c r="B673" t="n">
-        <v>0.1459013968706131</v>
+        <v>0.1511527597904205</v>
       </c>
     </row>
     <row r="674">
@@ -5828,7 +5828,7 @@
         <v>37987</v>
       </c>
       <c r="B674" t="n">
-        <v>-1.013420581817627</v>
+        <v>-1.015997052192688</v>
       </c>
     </row>
     <row r="675">
@@ -5836,7 +5836,7 @@
         <v>38018</v>
       </c>
       <c r="B675" t="n">
-        <v>0.2605642974376678</v>
+        <v>0.2592665553092957</v>
       </c>
     </row>
     <row r="676">
@@ -5844,7 +5844,7 @@
         <v>38047</v>
       </c>
       <c r="B676" t="n">
-        <v>-0.7264382243156433</v>
+        <v>-0.7277442812919617</v>
       </c>
     </row>
     <row r="677">
@@ -5852,7 +5852,7 @@
         <v>38078</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.8649250864982605</v>
+        <v>-0.859727680683136</v>
       </c>
     </row>
     <row r="678">
@@ -5860,7 +5860,7 @@
         <v>38108</v>
       </c>
       <c r="B678" t="n">
-        <v>-1.000884175300598</v>
+        <v>-1.000234484672546</v>
       </c>
     </row>
     <row r="679">
@@ -5868,7 +5868,7 @@
         <v>38139</v>
       </c>
       <c r="B679" t="n">
-        <v>-1.996646404266357</v>
+        <v>-1.995305776596069</v>
       </c>
     </row>
     <row r="680">
@@ -5876,7 +5876,7 @@
         <v>38169</v>
       </c>
       <c r="B680" t="n">
-        <v>-1.25330924987793</v>
+        <v>-1.252205014228821</v>
       </c>
     </row>
     <row r="681">
@@ -5884,7 +5884,7 @@
         <v>38200</v>
       </c>
       <c r="B681" t="n">
-        <v>-0.2827690541744232</v>
+        <v>-0.2829714417457581</v>
       </c>
     </row>
     <row r="682">
@@ -5892,7 +5892,7 @@
         <v>38231</v>
       </c>
       <c r="B682" t="n">
-        <v>-0.953234076499939</v>
+        <v>-0.9483832716941833</v>
       </c>
     </row>
     <row r="683">
@@ -5900,7 +5900,7 @@
         <v>38261</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.4728755056858063</v>
+        <v>-0.4679415822029114</v>
       </c>
     </row>
     <row r="684">
@@ -5908,7 +5908,7 @@
         <v>38292</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1681012809276581</v>
+        <v>-0.168009951710701</v>
       </c>
     </row>
     <row r="685">
@@ -5916,7 +5916,7 @@
         <v>38322</v>
       </c>
       <c r="B685" t="n">
-        <v>0.407622367143631</v>
+        <v>0.4093584716320038</v>
       </c>
     </row>
     <row r="686">
@@ -5924,7 +5924,7 @@
         <v>38353</v>
       </c>
       <c r="B686" t="n">
-        <v>-0.5887876749038696</v>
+        <v>-0.5833313465118408</v>
       </c>
     </row>
     <row r="687">
@@ -5932,7 +5932,7 @@
         <v>38384</v>
       </c>
       <c r="B687" t="n">
-        <v>-1.075849175453186</v>
+        <v>-1.077321171760559</v>
       </c>
     </row>
     <row r="688">
@@ -5940,7 +5940,7 @@
         <v>38412</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.2570660710334778</v>
+        <v>-0.2541979253292084</v>
       </c>
     </row>
     <row r="689">
@@ -5948,7 +5948,7 @@
         <v>38443</v>
       </c>
       <c r="B689" t="n">
-        <v>-1.201861023902893</v>
+        <v>-1.197217464447021</v>
       </c>
     </row>
     <row r="690">
@@ -5956,7 +5956,7 @@
         <v>38473</v>
       </c>
       <c r="B690" t="n">
-        <v>-0.296660453081131</v>
+        <v>-0.2946301102638245</v>
       </c>
     </row>
     <row r="691">
@@ -5964,7 +5964,7 @@
         <v>38504</v>
       </c>
       <c r="B691" t="n">
-        <v>0.2799464762210846</v>
+        <v>0.2793223857879639</v>
       </c>
     </row>
     <row r="692">
@@ -5972,7 +5972,7 @@
         <v>38534</v>
       </c>
       <c r="B692" t="n">
-        <v>-0.607831597328186</v>
+        <v>-0.6043502688407898</v>
       </c>
     </row>
     <row r="693">
@@ -5980,7 +5980,7 @@
         <v>38565</v>
       </c>
       <c r="B693" t="n">
-        <v>-0.4289201498031616</v>
+        <v>-0.4277601838111877</v>
       </c>
     </row>
     <row r="694">
@@ -5988,7 +5988,7 @@
         <v>38596</v>
       </c>
       <c r="B694" t="n">
-        <v>-0.8271626830101013</v>
+        <v>-0.8253964185714722</v>
       </c>
     </row>
     <row r="695">
@@ -5996,7 +5996,7 @@
         <v>38626</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.391896516084671</v>
+        <v>-0.3883971869945526</v>
       </c>
     </row>
     <row r="696">
@@ -6004,7 +6004,7 @@
         <v>38657</v>
       </c>
       <c r="B696" t="n">
-        <v>-0.08309916406869888</v>
+        <v>-0.08266442269086838</v>
       </c>
     </row>
     <row r="697">
@@ -6012,7 +6012,7 @@
         <v>38687</v>
       </c>
       <c r="B697" t="n">
-        <v>1.201234459877014</v>
+        <v>1.203420639038086</v>
       </c>
     </row>
     <row r="698">
@@ -6020,7 +6020,7 @@
         <v>38718</v>
       </c>
       <c r="B698" t="n">
-        <v>-0.7267919182777405</v>
+        <v>-0.7253707051277161</v>
       </c>
     </row>
     <row r="699">
@@ -6028,7 +6028,7 @@
         <v>38749</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.2250655442476273</v>
+        <v>-0.2212968021631241</v>
       </c>
     </row>
     <row r="700">
@@ -6036,7 +6036,7 @@
         <v>38777</v>
       </c>
       <c r="B700" t="n">
-        <v>-1.032961368560791</v>
+        <v>-1.028981328010559</v>
       </c>
     </row>
     <row r="701">
@@ -6044,7 +6044,7 @@
         <v>38808</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.1856275498867035</v>
+        <v>-0.1894216388463974</v>
       </c>
     </row>
     <row r="702">
@@ -6052,7 +6052,7 @@
         <v>38838</v>
       </c>
       <c r="B702" t="n">
-        <v>-1.319442510604858</v>
+        <v>-1.32266902923584</v>
       </c>
     </row>
     <row r="703">
@@ -6060,7 +6060,7 @@
         <v>38869</v>
       </c>
       <c r="B703" t="n">
-        <v>-1.20037043094635</v>
+        <v>-1.195456027984619</v>
       </c>
     </row>
     <row r="704">
@@ -6068,7 +6068,7 @@
         <v>38899</v>
       </c>
       <c r="B704" t="n">
-        <v>-1.022231698036194</v>
+        <v>-1.016011595726013</v>
       </c>
     </row>
     <row r="705">
@@ -6076,7 +6076,7 @@
         <v>38930</v>
       </c>
       <c r="B705" t="n">
-        <v>0.6973925828933716</v>
+        <v>0.7036504149436951</v>
       </c>
     </row>
     <row r="706">
@@ -6084,7 +6084,7 @@
         <v>38961</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.7556284070014954</v>
+        <v>-0.7481412887573242</v>
       </c>
     </row>
     <row r="707">
@@ -6092,7 +6092,7 @@
         <v>38991</v>
       </c>
       <c r="B707" t="n">
-        <v>-1.612938761711121</v>
+        <v>-1.608999490737915</v>
       </c>
     </row>
     <row r="708">
@@ -6100,7 +6100,7 @@
         <v>39022</v>
       </c>
       <c r="B708" t="n">
-        <v>-0.938093900680542</v>
+        <v>-0.9300151467323303</v>
       </c>
     </row>
     <row r="709">
@@ -6108,7 +6108,7 @@
         <v>39052</v>
       </c>
       <c r="B709" t="n">
-        <v>-1.001254320144653</v>
+        <v>-0.996984601020813</v>
       </c>
     </row>
     <row r="710">
@@ -6116,7 +6116,7 @@
         <v>39083</v>
       </c>
       <c r="B710" t="n">
-        <v>-0.4777673780918121</v>
+        <v>-0.4725216031074524</v>
       </c>
     </row>
     <row r="711">
@@ -6124,7 +6124,7 @@
         <v>39114</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.6425679922103882</v>
+        <v>-0.6349322199821472</v>
       </c>
     </row>
     <row r="712">
@@ -6132,7 +6132,7 @@
         <v>39142</v>
       </c>
       <c r="B712" t="n">
-        <v>0.06593900918960571</v>
+        <v>0.06754908710718155</v>
       </c>
     </row>
     <row r="713">
@@ -6140,7 +6140,7 @@
         <v>39173</v>
       </c>
       <c r="B713" t="n">
-        <v>0.0479850061237812</v>
+        <v>0.05419404432177544</v>
       </c>
     </row>
     <row r="714">
@@ -6148,7 +6148,7 @@
         <v>39203</v>
       </c>
       <c r="B714" t="n">
-        <v>-0.3700605034828186</v>
+        <v>-0.3641946911811829</v>
       </c>
     </row>
     <row r="715">
@@ -6156,7 +6156,7 @@
         <v>39234</v>
       </c>
       <c r="B715" t="n">
-        <v>0.5336732864379883</v>
+        <v>0.5394968390464783</v>
       </c>
     </row>
     <row r="716">
@@ -6164,7 +6164,7 @@
         <v>39264</v>
       </c>
       <c r="B716" t="n">
-        <v>1.045847654342651</v>
+        <v>1.052994608879089</v>
       </c>
     </row>
     <row r="717">
@@ -6172,7 +6172,7 @@
         <v>39295</v>
       </c>
       <c r="B717" t="n">
-        <v>-0.5359899997711182</v>
+        <v>-0.5313013195991516</v>
       </c>
     </row>
     <row r="718">
@@ -6180,7 +6180,7 @@
         <v>39326</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.3297937512397766</v>
+        <v>-0.3268916606903076</v>
       </c>
     </row>
     <row r="719">
@@ -6188,7 +6188,7 @@
         <v>39356</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.226085364818573</v>
+        <v>-0.224442794919014</v>
       </c>
     </row>
     <row r="720">
@@ -6196,7 +6196,7 @@
         <v>39387</v>
       </c>
       <c r="B720" t="n">
-        <v>0.09666129946708679</v>
+        <v>0.09147235006093979</v>
       </c>
     </row>
     <row r="721">
@@ -6204,7 +6204,7 @@
         <v>39417</v>
       </c>
       <c r="B721" t="n">
-        <v>-1.409155964851379</v>
+        <v>-1.407493472099304</v>
       </c>
     </row>
     <row r="722">
@@ -6212,7 +6212,7 @@
         <v>39448</v>
       </c>
       <c r="B722" t="n">
-        <v>-1.296840071678162</v>
+        <v>-1.296002864837646</v>
       </c>
     </row>
     <row r="723">
@@ -6220,7 +6220,7 @@
         <v>39479</v>
       </c>
       <c r="B723" t="n">
-        <v>-1.088013768196106</v>
+        <v>-1.088005781173706</v>
       </c>
     </row>
     <row r="724">
@@ -6228,7 +6228,7 @@
         <v>39508</v>
       </c>
       <c r="B724" t="n">
-        <v>-1.101828932762146</v>
+        <v>-1.099926710128784</v>
       </c>
     </row>
     <row r="725">
@@ -6236,7 +6236,7 @@
         <v>39539</v>
       </c>
       <c r="B725" t="n">
-        <v>0.6335673928260803</v>
+        <v>0.6394051909446716</v>
       </c>
     </row>
     <row r="726">
@@ -6244,7 +6244,7 @@
         <v>39569</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4212712049484253</v>
+        <v>0.4223832190036774</v>
       </c>
     </row>
     <row r="727">
@@ -6252,7 +6252,7 @@
         <v>39600</v>
       </c>
       <c r="B727" t="n">
-        <v>-1.729672431945801</v>
+        <v>-1.725482940673828</v>
       </c>
     </row>
     <row r="728">
@@ -6260,7 +6260,7 @@
         <v>39630</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.2948192656040192</v>
+        <v>-0.2958339750766754</v>
       </c>
     </row>
     <row r="729">
@@ -6268,7 +6268,7 @@
         <v>39661</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.4661791324615479</v>
+        <v>-0.461940735578537</v>
       </c>
     </row>
     <row r="730">
@@ -6276,7 +6276,7 @@
         <v>39692</v>
       </c>
       <c r="B730" t="n">
-        <v>-1.278465628623962</v>
+        <v>-1.280540108680725</v>
       </c>
     </row>
     <row r="731">
@@ -6284,7 +6284,7 @@
         <v>39722</v>
       </c>
       <c r="B731" t="n">
-        <v>-1.909079670906067</v>
+        <v>-1.903812527656555</v>
       </c>
     </row>
     <row r="732">
@@ -6292,7 +6292,7 @@
         <v>39753</v>
       </c>
       <c r="B732" t="n">
-        <v>-1.210222482681274</v>
+        <v>-1.196783542633057</v>
       </c>
     </row>
     <row r="733">
@@ -6300,7 +6300,7 @@
         <v>39783</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.8909776210784912</v>
+        <v>-0.8930802345275879</v>
       </c>
     </row>
     <row r="734">
@@ -6308,7 +6308,7 @@
         <v>39814</v>
       </c>
       <c r="B734" t="n">
-        <v>-1.047115445137024</v>
+        <v>-1.047697901725769</v>
       </c>
     </row>
     <row r="735">
@@ -6316,7 +6316,7 @@
         <v>39845</v>
       </c>
       <c r="B735" t="n">
-        <v>-0.950006365776062</v>
+        <v>-0.9455293416976929</v>
       </c>
     </row>
     <row r="736">
@@ -6324,7 +6324,7 @@
         <v>39873</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.7687010169029236</v>
+        <v>-0.7670679092407227</v>
       </c>
     </row>
     <row r="737">
@@ -6332,7 +6332,7 @@
         <v>39904</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.452699214220047</v>
+        <v>-0.4506070017814636</v>
       </c>
     </row>
     <row r="738">
@@ -6340,7 +6340,7 @@
         <v>39934</v>
       </c>
       <c r="B738" t="n">
-        <v>0.4565092027187347</v>
+        <v>0.4591399431228638</v>
       </c>
     </row>
     <row r="739">
@@ -6348,7 +6348,7 @@
         <v>39965</v>
       </c>
       <c r="B739" t="n">
-        <v>0.04538518562912941</v>
+        <v>0.04610714316368103</v>
       </c>
     </row>
     <row r="740">
@@ -6356,7 +6356,7 @@
         <v>39995</v>
       </c>
       <c r="B740" t="n">
-        <v>-0.03164707869291306</v>
+        <v>-0.02731623314321041</v>
       </c>
     </row>
     <row r="741">
@@ -6364,7 +6364,7 @@
         <v>40026</v>
       </c>
       <c r="B741" t="n">
-        <v>0.233797013759613</v>
+        <v>0.2330098450183868</v>
       </c>
     </row>
     <row r="742">
@@ -6372,7 +6372,7 @@
         <v>40057</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.524029552936554</v>
+        <v>-0.5220933556556702</v>
       </c>
     </row>
     <row r="743">
@@ -6380,7 +6380,7 @@
         <v>40087</v>
       </c>
       <c r="B743" t="n">
-        <v>-0.2463534623384476</v>
+        <v>-0.2410341501235962</v>
       </c>
     </row>
     <row r="744">
@@ -6388,7 +6388,7 @@
         <v>40118</v>
       </c>
       <c r="B744" t="n">
-        <v>1.210965275764465</v>
+        <v>1.19957160949707</v>
       </c>
     </row>
     <row r="745">
@@ -6396,7 +6396,7 @@
         <v>40148</v>
       </c>
       <c r="B745" t="n">
-        <v>-0.8878510594367981</v>
+        <v>-0.8833433985710144</v>
       </c>
     </row>
     <row r="746">
@@ -6404,7 +6404,7 @@
         <v>40179</v>
       </c>
       <c r="B746" t="n">
-        <v>-0.05893423780798912</v>
+        <v>-0.05809622630476952</v>
       </c>
     </row>
     <row r="747">
@@ -6412,7 +6412,7 @@
         <v>40210</v>
       </c>
       <c r="B747" t="n">
-        <v>-0.01895560510456562</v>
+        <v>-0.009565827436745167</v>
       </c>
     </row>
     <row r="748">
@@ -6420,7 +6420,7 @@
         <v>40238</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.8501235246658325</v>
+        <v>-0.8434411883354187</v>
       </c>
     </row>
     <row r="749">
@@ -6428,7 +6428,7 @@
         <v>40269</v>
       </c>
       <c r="B749" t="n">
-        <v>-1.114213466644287</v>
+        <v>-1.111030697822571</v>
       </c>
     </row>
     <row r="750">
@@ -6436,7 +6436,7 @@
         <v>40299</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.176377773284912</v>
+        <v>-1.177730917930603</v>
       </c>
     </row>
     <row r="751">
@@ -6444,7 +6444,7 @@
         <v>40330</v>
       </c>
       <c r="B751" t="n">
-        <v>-2.341016054153442</v>
+        <v>-2.336202144622803</v>
       </c>
     </row>
     <row r="752">
@@ -6452,7 +6452,7 @@
         <v>40360</v>
       </c>
       <c r="B752" t="n">
-        <v>-2.341679811477661</v>
+        <v>-2.336856365203857</v>
       </c>
     </row>
     <row r="753">
@@ -6460,7 +6460,7 @@
         <v>40391</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.400929093360901</v>
+        <v>-1.400776028633118</v>
       </c>
     </row>
     <row r="754">
@@ -6468,7 +6468,7 @@
         <v>40422</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.9838529825210571</v>
+        <v>-0.9806399345397949</v>
       </c>
     </row>
     <row r="755">
@@ -6476,7 +6476,7 @@
         <v>40452</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.185337781906128</v>
+        <v>-1.184418201446533</v>
       </c>
     </row>
     <row r="756">
@@ -6484,7 +6484,7 @@
         <v>40483</v>
       </c>
       <c r="B756" t="n">
-        <v>-1.381722092628479</v>
+        <v>-1.367823839187622</v>
       </c>
     </row>
     <row r="757">
@@ -6492,7 +6492,7 @@
         <v>40513</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.1132276728749275</v>
+        <v>-0.1099325269460678</v>
       </c>
     </row>
     <row r="758">
@@ -6500,7 +6500,7 @@
         <v>40544</v>
       </c>
       <c r="B758" t="n">
-        <v>-0.135940745472908</v>
+        <v>-0.1372580081224442</v>
       </c>
     </row>
     <row r="759">
@@ -6508,7 +6508,7 @@
         <v>40575</v>
       </c>
       <c r="B759" t="n">
-        <v>-1.048281311988831</v>
+        <v>-1.049228072166443</v>
       </c>
     </row>
     <row r="760">
@@ -6516,7 +6516,7 @@
         <v>40603</v>
       </c>
       <c r="B760" t="n">
-        <v>-0.05329230800271034</v>
+        <v>-0.05294893682003021</v>
       </c>
     </row>
     <row r="761">
@@ -6524,7 +6524,7 @@
         <v>40634</v>
       </c>
       <c r="B761" t="n">
-        <v>-0.2075726389884949</v>
+        <v>-0.2047835737466812</v>
       </c>
     </row>
     <row r="762">
@@ -6532,7 +6532,7 @@
         <v>40664</v>
       </c>
       <c r="B762" t="n">
-        <v>-1.182487964630127</v>
+        <v>-1.181907534599304</v>
       </c>
     </row>
     <row r="763">
@@ -6540,7 +6540,7 @@
         <v>40695</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.2024474442005157</v>
+        <v>-0.2004560977220535</v>
       </c>
     </row>
     <row r="764">
@@ -6548,7 +6548,7 @@
         <v>40725</v>
       </c>
       <c r="B764" t="n">
-        <v>0.3832967877388</v>
+        <v>0.3871641159057617</v>
       </c>
     </row>
     <row r="765">
@@ -6556,7 +6556,7 @@
         <v>40756</v>
       </c>
       <c r="B765" t="n">
-        <v>0.3105871379375458</v>
+        <v>0.3164182007312775</v>
       </c>
     </row>
     <row r="766">
@@ -6564,7 +6564,7 @@
         <v>40787</v>
       </c>
       <c r="B766" t="n">
-        <v>0.2339226901531219</v>
+        <v>0.2377239763736725</v>
       </c>
     </row>
     <row r="767">
@@ -6572,7 +6572,7 @@
         <v>40817</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.007411536760628223</v>
+        <v>-0.006389038637280464</v>
       </c>
     </row>
     <row r="768">
@@ -6580,7 +6580,7 @@
         <v>40848</v>
       </c>
       <c r="B768" t="n">
-        <v>0.1037514358758926</v>
+        <v>0.09718669950962067</v>
       </c>
     </row>
     <row r="769">
@@ -6588,7 +6588,7 @@
         <v>40878</v>
       </c>
       <c r="B769" t="n">
-        <v>-1.680218100547791</v>
+        <v>-1.681404232978821</v>
       </c>
     </row>
     <row r="770">
@@ -6596,7 +6596,7 @@
         <v>40909</v>
       </c>
       <c r="B770" t="n">
-        <v>-1.312640428543091</v>
+        <v>-1.31196928024292</v>
       </c>
     </row>
     <row r="771">
@@ -6604,7 +6604,7 @@
         <v>40940</v>
       </c>
       <c r="B771" t="n">
-        <v>0.2859814167022705</v>
+        <v>0.2873050570487976</v>
       </c>
     </row>
     <row r="772">
@@ -6612,7 +6612,7 @@
         <v>40969</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.419527143239975</v>
+        <v>-0.4189620912075043</v>
       </c>
     </row>
     <row r="773">
@@ -6620,7 +6620,7 @@
         <v>41000</v>
       </c>
       <c r="B773" t="n">
-        <v>-0.9896434545516968</v>
+        <v>-0.9862048625946045</v>
       </c>
     </row>
     <row r="774">
@@ -6628,7 +6628,7 @@
         <v>41030</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.8563821315765381</v>
+        <v>-0.8541527390480042</v>
       </c>
     </row>
     <row r="775">
@@ -6636,7 +6636,7 @@
         <v>41061</v>
       </c>
       <c r="B775" t="n">
-        <v>-0.4775035679340363</v>
+        <v>-0.4736162424087524</v>
       </c>
     </row>
     <row r="776">
@@ -6644,7 +6644,7 @@
         <v>41091</v>
       </c>
       <c r="B776" t="n">
-        <v>-1.164083361625671</v>
+        <v>-1.158766746520996</v>
       </c>
     </row>
     <row r="777">
@@ -6652,7 +6652,7 @@
         <v>41122</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.723953902721405</v>
+        <v>-0.7266221642494202</v>
       </c>
     </row>
     <row r="778">
@@ -6660,7 +6660,7 @@
         <v>41153</v>
       </c>
       <c r="B778" t="n">
-        <v>-0.9734777212142944</v>
+        <v>-0.9697418212890625</v>
       </c>
     </row>
     <row r="779">
@@ -6668,7 +6668,7 @@
         <v>41183</v>
       </c>
       <c r="B779" t="n">
-        <v>-0.4106711447238922</v>
+        <v>-0.4059404134750366</v>
       </c>
     </row>
     <row r="780">
@@ -6676,7 +6676,7 @@
         <v>41214</v>
       </c>
       <c r="B780" t="n">
-        <v>0.5062013864517212</v>
+        <v>0.4990102648735046</v>
       </c>
     </row>
     <row r="781">
@@ -6684,7 +6684,7 @@
         <v>41244</v>
       </c>
       <c r="B781" t="n">
-        <v>0.1578739434480667</v>
+        <v>0.1662340760231018</v>
       </c>
     </row>
     <row r="782">
@@ -6692,7 +6692,7 @@
         <v>41275</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.739196240901947</v>
+        <v>-0.7384366393089294</v>
       </c>
     </row>
     <row r="783">
@@ -6700,7 +6700,7 @@
         <v>41306</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.9479135274887085</v>
+        <v>-0.9426655769348145</v>
       </c>
     </row>
     <row r="784">
@@ -6708,7 +6708,7 @@
         <v>41334</v>
       </c>
       <c r="B784" t="n">
-        <v>-1.63663649559021</v>
+        <v>-1.63538920879364</v>
       </c>
     </row>
     <row r="785">
@@ -6716,7 +6716,7 @@
         <v>41365</v>
       </c>
       <c r="B785" t="n">
-        <v>-0.7160965204238892</v>
+        <v>-0.7156113982200623</v>
       </c>
     </row>
     <row r="786">
@@ -6724,7 +6724,7 @@
         <v>41395</v>
       </c>
       <c r="B786" t="n">
-        <v>-0.8459444642066956</v>
+        <v>-0.8403550982475281</v>
       </c>
     </row>
     <row r="787">
@@ -6732,7 +6732,7 @@
         <v>41426</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.1193651184439659</v>
+        <v>-0.1157320141792297</v>
       </c>
     </row>
     <row r="788">
@@ -6740,7 +6740,7 @@
         <v>41456</v>
       </c>
       <c r="B788" t="n">
-        <v>-1.064288377761841</v>
+        <v>-1.059307336807251</v>
       </c>
     </row>
     <row r="789">
@@ -6748,7 +6748,7 @@
         <v>41487</v>
       </c>
       <c r="B789" t="n">
-        <v>0.7164488434791565</v>
+        <v>0.7167356610298157</v>
       </c>
     </row>
     <row r="790">
@@ -6756,7 +6756,7 @@
         <v>41518</v>
       </c>
       <c r="B790" t="n">
-        <v>0.7645928263664246</v>
+        <v>0.7667230367660522</v>
       </c>
     </row>
     <row r="791">
@@ -6764,7 +6764,7 @@
         <v>41548</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.1780457347631454</v>
+        <v>-0.1759262084960938</v>
       </c>
     </row>
     <row r="792">
@@ -6772,7 +6772,7 @@
         <v>41579</v>
       </c>
       <c r="B792" t="n">
-        <v>-0.3873079121112823</v>
+        <v>-0.3839021325111389</v>
       </c>
     </row>
     <row r="793">
@@ -6780,7 +6780,7 @@
         <v>41609</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.4867308139801025</v>
+        <v>-0.4835414290428162</v>
       </c>
     </row>
     <row r="794">
@@ -6788,7 +6788,7 @@
         <v>41640</v>
       </c>
       <c r="B794" t="n">
-        <v>-0.122396856546402</v>
+        <v>-0.1174268946051598</v>
       </c>
     </row>
     <row r="795">
@@ -6796,7 +6796,7 @@
         <v>41671</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.4565263688564301</v>
+        <v>-0.454660952091217</v>
       </c>
     </row>
     <row r="796">
@@ -6804,7 +6804,7 @@
         <v>41699</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.9418983459472656</v>
+        <v>-0.9376130700111389</v>
       </c>
     </row>
     <row r="797">
@@ -6812,7 +6812,7 @@
         <v>41730</v>
       </c>
       <c r="B797" t="n">
-        <v>-0.9836750030517578</v>
+        <v>-0.984961211681366</v>
       </c>
     </row>
     <row r="798">
@@ -6820,7 +6820,7 @@
         <v>41760</v>
       </c>
       <c r="B798" t="n">
-        <v>0.002428019652143121</v>
+        <v>0.005559633485972881</v>
       </c>
     </row>
     <row r="799">
@@ -6828,7 +6828,7 @@
         <v>41791</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.9626083374023438</v>
+        <v>-0.9600954651832581</v>
       </c>
     </row>
     <row r="800">
@@ -6836,7 +6836,7 @@
         <v>41821</v>
       </c>
       <c r="B800" t="n">
-        <v>-0.615153968334198</v>
+        <v>-0.6152704954147339</v>
       </c>
     </row>
     <row r="801">
@@ -6844,7 +6844,7 @@
         <v>41852</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.2469283193349838</v>
+        <v>-0.2386540025472641</v>
       </c>
     </row>
     <row r="802">
@@ -6852,7 +6852,7 @@
         <v>41883</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3393434584140778</v>
+        <v>0.346513956785202</v>
       </c>
     </row>
     <row r="803">
@@ -6860,7 +6860,7 @@
         <v>41913</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.5845191478729248</v>
+        <v>-0.5803300738334656</v>
       </c>
     </row>
     <row r="804">
@@ -6868,7 +6868,7 @@
         <v>41944</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.4846279919147491</v>
+        <v>-0.4836295247077942</v>
       </c>
     </row>
     <row r="805">
@@ -6876,7 +6876,7 @@
         <v>41974</v>
       </c>
       <c r="B805" t="n">
-        <v>-1.441641688346863</v>
+        <v>-1.438313484191895</v>
       </c>
     </row>
     <row r="806">
@@ -6884,7 +6884,7 @@
         <v>42005</v>
       </c>
       <c r="B806" t="n">
-        <v>-0.6012291312217712</v>
+        <v>-0.5998116731643677</v>
       </c>
     </row>
     <row r="807">
@@ -6892,7 +6892,7 @@
         <v>42036</v>
       </c>
       <c r="B807" t="n">
-        <v>-1.682915925979614</v>
+        <v>-1.677763819694519</v>
       </c>
     </row>
     <row r="808">
@@ -6900,7 +6900,7 @@
         <v>42064</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.8922593593597412</v>
+        <v>-0.8950348496437073</v>
       </c>
     </row>
     <row r="809">
@@ -6908,7 +6908,7 @@
         <v>42095</v>
       </c>
       <c r="B809" t="n">
-        <v>-1.274200916290283</v>
+        <v>-1.271929860115051</v>
       </c>
     </row>
     <row r="810">
@@ -6916,7 +6916,7 @@
         <v>42125</v>
       </c>
       <c r="B810" t="n">
-        <v>-1.443870902061462</v>
+        <v>-1.442952394485474</v>
       </c>
     </row>
     <row r="811">
@@ -6924,7 +6924,7 @@
         <v>42156</v>
       </c>
       <c r="B811" t="n">
-        <v>-1.426064014434814</v>
+        <v>-1.418522834777832</v>
       </c>
     </row>
     <row r="812">
@@ -6932,7 +6932,7 @@
         <v>42186</v>
       </c>
       <c r="B812" t="n">
-        <v>-1.633850455284119</v>
+        <v>-1.632097125053406</v>
       </c>
     </row>
     <row r="813">
@@ -6940,7 +6940,7 @@
         <v>42217</v>
       </c>
       <c r="B813" t="n">
-        <v>-0.8408991694450378</v>
+        <v>-0.8389124274253845</v>
       </c>
     </row>
     <row r="814">
@@ -6948,7 +6948,7 @@
         <v>42248</v>
       </c>
       <c r="B814" t="n">
-        <v>-0.8153517246246338</v>
+        <v>-0.805756151676178</v>
       </c>
     </row>
     <row r="815">
@@ -6956,7 +6956,7 @@
         <v>42278</v>
       </c>
       <c r="B815" t="n">
-        <v>-0.6896719336509705</v>
+        <v>-0.6805481910705566</v>
       </c>
     </row>
     <row r="816">
@@ -6964,7 +6964,7 @@
         <v>42309</v>
       </c>
       <c r="B816" t="n">
-        <v>-1.115997076034546</v>
+        <v>-1.107184052467346</v>
       </c>
     </row>
     <row r="817">
@@ -6972,7 +6972,7 @@
         <v>42339</v>
       </c>
       <c r="B817" t="n">
-        <v>-0.5358563661575317</v>
+        <v>-0.5306681990623474</v>
       </c>
     </row>
     <row r="818">
@@ -6980,7 +6980,7 @@
         <v>42370</v>
       </c>
       <c r="B818" t="n">
-        <v>-1.635959148406982</v>
+        <v>-1.631886720657349</v>
       </c>
     </row>
     <row r="819">
@@ -6988,7 +6988,7 @@
         <v>42401</v>
       </c>
       <c r="B819" t="n">
-        <v>-1.13001275062561</v>
+        <v>-1.124675273895264</v>
       </c>
     </row>
     <row r="820">
@@ -6996,7 +6996,7 @@
         <v>42430</v>
       </c>
       <c r="B820" t="n">
-        <v>-2.368818521499634</v>
+        <v>-2.36797308921814</v>
       </c>
     </row>
     <row r="821">
@@ -7004,7 +7004,7 @@
         <v>42461</v>
       </c>
       <c r="B821" t="n">
-        <v>-1.142850399017334</v>
+        <v>-1.138344526290894</v>
       </c>
     </row>
     <row r="822">
@@ -7012,7 +7012,7 @@
         <v>42491</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.946268618106842</v>
+        <v>-0.947843074798584</v>
       </c>
     </row>
     <row r="823">
@@ -7020,7 +7020,7 @@
         <v>42522</v>
       </c>
       <c r="B823" t="n">
-        <v>-2.743438243865967</v>
+        <v>-2.743705987930298</v>
       </c>
     </row>
     <row r="824">
@@ -7028,7 +7028,7 @@
         <v>42552</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.9282416701316833</v>
+        <v>-0.9278398752212524</v>
       </c>
     </row>
     <row r="825">
@@ -7036,7 +7036,7 @@
         <v>42583</v>
       </c>
       <c r="B825" t="n">
-        <v>-0.098260797560215</v>
+        <v>-0.09374259412288666</v>
       </c>
     </row>
     <row r="826">
@@ -7044,7 +7044,7 @@
         <v>42614</v>
       </c>
       <c r="B826" t="n">
-        <v>-2.023353576660156</v>
+        <v>-2.024278402328491</v>
       </c>
     </row>
     <row r="827">
@@ -7052,7 +7052,7 @@
         <v>42644</v>
       </c>
       <c r="B827" t="n">
-        <v>-0.0262468010187149</v>
+        <v>-0.02822265401482582</v>
       </c>
     </row>
     <row r="828">
@@ -7060,7 +7060,7 @@
         <v>42675</v>
       </c>
       <c r="B828" t="n">
-        <v>0.4411632120609283</v>
+        <v>0.4297735095024109</v>
       </c>
     </row>
     <row r="829">
@@ -7068,7 +7068,7 @@
         <v>42705</v>
       </c>
       <c r="B829" t="n">
-        <v>0.1591310799121857</v>
+        <v>0.164678767323494</v>
       </c>
     </row>
     <row r="830">
@@ -7076,7 +7076,7 @@
         <v>42736</v>
       </c>
       <c r="B830" t="n">
-        <v>0.2070726007223129</v>
+        <v>0.207680806517601</v>
       </c>
     </row>
     <row r="831">
@@ -7084,7 +7084,7 @@
         <v>42767</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.599402904510498</v>
+        <v>-0.5993502736091614</v>
       </c>
     </row>
     <row r="832">
@@ -7092,7 +7092,7 @@
         <v>42795</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.6977761387825012</v>
+        <v>-0.69330233335495</v>
       </c>
     </row>
     <row r="833">
@@ -7100,7 +7100,7 @@
         <v>42826</v>
       </c>
       <c r="B833" t="n">
-        <v>-1.37426495552063</v>
+        <v>-1.371307849884033</v>
       </c>
     </row>
     <row r="834">
@@ -7108,7 +7108,7 @@
         <v>42856</v>
       </c>
       <c r="B834" t="n">
-        <v>-1.711326241493225</v>
+        <v>-1.705908536911011</v>
       </c>
     </row>
     <row r="835">
@@ -7116,7 +7116,7 @@
         <v>42887</v>
       </c>
       <c r="B835" t="n">
-        <v>-1.257925748825073</v>
+        <v>-1.252412676811218</v>
       </c>
     </row>
     <row r="836">
@@ -7124,7 +7124,7 @@
         <v>42917</v>
       </c>
       <c r="B836" t="n">
-        <v>-1.17012095451355</v>
+        <v>-1.17065703868866</v>
       </c>
     </row>
     <row r="837">
@@ -7132,7 +7132,7 @@
         <v>42948</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.9552426934242249</v>
+        <v>-0.9546406269073486</v>
       </c>
     </row>
     <row r="838">
@@ -7140,7 +7140,7 @@
         <v>42979</v>
       </c>
       <c r="B838" t="n">
-        <v>-1.49292004108429</v>
+        <v>-1.494643449783325</v>
       </c>
     </row>
     <row r="839">
@@ -7148,7 +7148,7 @@
         <v>43009</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.0408831425011158</v>
+        <v>-0.03570910915732384</v>
       </c>
     </row>
     <row r="840">
@@ -7156,7 +7156,7 @@
         <v>43040</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.7634752988815308</v>
+        <v>-0.7575687170028687</v>
       </c>
     </row>
     <row r="841">
@@ -7164,7 +7164,7 @@
         <v>43070</v>
       </c>
       <c r="B841" t="n">
-        <v>-0.8359946012496948</v>
+        <v>-0.8334197402000427</v>
       </c>
     </row>
     <row r="842">
@@ -7172,7 +7172,7 @@
         <v>43101</v>
       </c>
       <c r="B842" t="n">
-        <v>-1.173213005065918</v>
+        <v>-1.17244827747345</v>
       </c>
     </row>
     <row r="843">
@@ -7180,7 +7180,7 @@
         <v>43132</v>
       </c>
       <c r="B843" t="n">
-        <v>-0.8528510332107544</v>
+        <v>-0.8536686301231384</v>
       </c>
     </row>
     <row r="844">
@@ -7188,7 +7188,7 @@
         <v>43160</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.3530712127685547</v>
+        <v>-0.3506848514080048</v>
       </c>
     </row>
     <row r="845">
@@ -7196,7 +7196,7 @@
         <v>43191</v>
       </c>
       <c r="B845" t="n">
-        <v>0.1432282477617264</v>
+        <v>0.1446281671524048</v>
       </c>
     </row>
     <row r="846">
@@ -7204,7 +7204,7 @@
         <v>43221</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.7835238575935364</v>
+        <v>-0.7794445157051086</v>
       </c>
     </row>
     <row r="847">
@@ -7212,7 +7212,7 @@
         <v>43252</v>
       </c>
       <c r="B847" t="n">
-        <v>-0.474408358335495</v>
+        <v>-0.4681695401668549</v>
       </c>
     </row>
     <row r="848">
@@ -7220,7 +7220,7 @@
         <v>43282</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.8884583711624146</v>
+        <v>-0.8875709176063538</v>
       </c>
     </row>
     <row r="849">
@@ -7228,7 +7228,7 @@
         <v>43313</v>
       </c>
       <c r="B849" t="n">
-        <v>-0.135505735874176</v>
+        <v>-0.1379527747631073</v>
       </c>
     </row>
     <row r="850">
@@ -7236,7 +7236,7 @@
         <v>43344</v>
       </c>
       <c r="B850" t="n">
-        <v>-1.166485786437988</v>
+        <v>-1.163788795471191</v>
       </c>
     </row>
     <row r="851">
@@ -7244,7 +7244,7 @@
         <v>43374</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.761645495891571</v>
+        <v>-0.754115879535675</v>
       </c>
     </row>
     <row r="852">
@@ -7252,7 +7252,7 @@
         <v>43405</v>
       </c>
       <c r="B852" t="n">
-        <v>-1.381802916526794</v>
+        <v>-1.370083212852478</v>
       </c>
     </row>
     <row r="853">
@@ -7260,7 +7260,7 @@
         <v>43435</v>
       </c>
       <c r="B853" t="n">
-        <v>-1.094316601753235</v>
+        <v>-1.089929938316345</v>
       </c>
     </row>
     <row r="854">
@@ -7268,7 +7268,7 @@
         <v>43466</v>
       </c>
       <c r="B854" t="n">
-        <v>-1.400919795036316</v>
+        <v>-1.395852327346802</v>
       </c>
     </row>
     <row r="855">
@@ -7276,7 +7276,7 @@
         <v>43497</v>
       </c>
       <c r="B855" t="n">
-        <v>0.04746118187904358</v>
+        <v>0.05326970666646957</v>
       </c>
     </row>
     <row r="856">
@@ -7284,7 +7284,7 @@
         <v>43525</v>
       </c>
       <c r="B856" t="n">
-        <v>-1.274354457855225</v>
+        <v>-1.273961544036865</v>
       </c>
     </row>
     <row r="857">
@@ -7292,7 +7292,7 @@
         <v>43556</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.8947614431381226</v>
+        <v>-0.8896420001983643</v>
       </c>
     </row>
     <row r="858">
@@ -7300,7 +7300,7 @@
         <v>43586</v>
       </c>
       <c r="B858" t="n">
-        <v>-0.9705961942672729</v>
+        <v>-0.9654812216758728</v>
       </c>
     </row>
     <row r="859">
@@ -7308,7 +7308,7 @@
         <v>43617</v>
       </c>
       <c r="B859" t="n">
-        <v>-2.020679950714111</v>
+        <v>-2.015770196914673</v>
       </c>
     </row>
     <row r="860">
@@ -7316,7 +7316,7 @@
         <v>43647</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.1126469597220421</v>
+        <v>-0.1104408204555511</v>
       </c>
     </row>
     <row r="861">
@@ -7324,7 +7324,7 @@
         <v>43678</v>
       </c>
       <c r="B861" t="n">
-        <v>-0.3257107734680176</v>
+        <v>-0.3197297751903534</v>
       </c>
     </row>
     <row r="862">
@@ -7332,7 +7332,7 @@
         <v>43709</v>
       </c>
       <c r="B862" t="n">
-        <v>-1.187791347503662</v>
+        <v>-1.178191423416138</v>
       </c>
     </row>
     <row r="863">
@@ -7340,7 +7340,7 @@
         <v>43739</v>
       </c>
       <c r="B863" t="n">
-        <v>0.3434106409549713</v>
+        <v>0.3456914126873016</v>
       </c>
     </row>
     <row r="864">
@@ -7348,7 +7348,7 @@
         <v>43770</v>
       </c>
       <c r="B864" t="n">
-        <v>1.127030253410339</v>
+        <v>1.107300043106079</v>
       </c>
     </row>
     <row r="865">
@@ -7356,7 +7356,7 @@
         <v>43800</v>
       </c>
       <c r="B865" t="n">
-        <v>0.2890319228172302</v>
+        <v>0.2917999923229218</v>
       </c>
     </row>
     <row r="866">
@@ -7364,7 +7364,7 @@
         <v>43831</v>
       </c>
       <c r="B866" t="n">
-        <v>-0.4391191005706787</v>
+        <v>-0.4341566562652588</v>
       </c>
     </row>
     <row r="867">
@@ -7372,7 +7372,7 @@
         <v>43862</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.08514928817749</v>
+        <v>-1.079505920410156</v>
       </c>
     </row>
     <row r="868">
@@ -7380,7 +7380,7 @@
         <v>43891</v>
       </c>
       <c r="B868" t="n">
-        <v>-1.500993967056274</v>
+        <v>-1.500223159790039</v>
       </c>
     </row>
     <row r="869">
@@ -7388,7 +7388,7 @@
         <v>43922</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.2437792867422104</v>
+        <v>-0.2428624182939529</v>
       </c>
     </row>
     <row r="870">
@@ -7396,7 +7396,7 @@
         <v>43952</v>
       </c>
       <c r="B870" t="n">
-        <v>-1.362465262413025</v>
+        <v>-1.358035326004028</v>
       </c>
     </row>
     <row r="871">
@@ -7404,7 +7404,7 @@
         <v>43983</v>
       </c>
       <c r="B871" t="n">
-        <v>-1.315059542655945</v>
+        <v>-1.309350848197937</v>
       </c>
     </row>
     <row r="872">
@@ -7412,7 +7412,7 @@
         <v>44013</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.0980512797832489</v>
+        <v>-0.090206079185009</v>
       </c>
     </row>
     <row r="873">
@@ -7420,7 +7420,7 @@
         <v>44044</v>
       </c>
       <c r="B873" t="n">
-        <v>0.3900194466114044</v>
+        <v>0.3943820297718048</v>
       </c>
     </row>
     <row r="874">
@@ -7428,7 +7428,7 @@
         <v>44075</v>
       </c>
       <c r="B874" t="n">
-        <v>-0.6896160244941711</v>
+        <v>-0.6819323897361755</v>
       </c>
     </row>
     <row r="875">
@@ -7436,7 +7436,7 @@
         <v>44105</v>
       </c>
       <c r="B875" t="n">
-        <v>-1.259015440940857</v>
+        <v>-1.253712058067322</v>
       </c>
     </row>
     <row r="876">
@@ -7444,7 +7444,7 @@
         <v>44136</v>
       </c>
       <c r="B876" t="n">
-        <v>-1.293518900871277</v>
+        <v>-1.280395865440369</v>
       </c>
     </row>
     <row r="877">
@@ -7452,7 +7452,7 @@
         <v>44166</v>
       </c>
       <c r="B877" t="n">
-        <v>-1.538239121437073</v>
+        <v>-1.534561038017273</v>
       </c>
     </row>
     <row r="878">
@@ -7460,7 +7460,7 @@
         <v>44197</v>
       </c>
       <c r="B878" t="n">
-        <v>-1.074885964393616</v>
+        <v>-1.073460698127747</v>
       </c>
     </row>
     <row r="879">
@@ -7468,7 +7468,7 @@
         <v>44228</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.9614327549934387</v>
+        <v>-0.9611202478408813</v>
       </c>
     </row>
     <row r="880">
@@ -7476,7 +7476,7 @@
         <v>44256</v>
       </c>
       <c r="B880" t="n">
-        <v>0.1470176428556442</v>
+        <v>0.1476325690746307</v>
       </c>
     </row>
     <row r="881">
@@ -7484,7 +7484,7 @@
         <v>44287</v>
       </c>
       <c r="B881" t="n">
-        <v>-1.4214026927948</v>
+        <v>-1.421805381774902</v>
       </c>
     </row>
     <row r="882">
@@ -7492,7 +7492,7 @@
         <v>44317</v>
       </c>
       <c r="B882" t="n">
-        <v>-0.8523390889167786</v>
+        <v>-0.8499832153320312</v>
       </c>
     </row>
     <row r="883">
@@ -7500,7 +7500,7 @@
         <v>44348</v>
       </c>
       <c r="B883" t="n">
-        <v>-1.286064028739929</v>
+        <v>-1.285870552062988</v>
       </c>
     </row>
     <row r="884">
@@ -7508,7 +7508,7 @@
         <v>44378</v>
       </c>
       <c r="B884" t="n">
-        <v>-0.4515158832073212</v>
+        <v>-0.4517409801483154</v>
       </c>
     </row>
     <row r="885">
@@ -7516,7 +7516,7 @@
         <v>44409</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.6703823804855347</v>
+        <v>-0.6672725677490234</v>
       </c>
     </row>
     <row r="886">
@@ -7524,7 +7524,7 @@
         <v>44440</v>
       </c>
       <c r="B886" t="n">
-        <v>-1.668834686279297</v>
+        <v>-1.664941906929016</v>
       </c>
     </row>
     <row r="887">
@@ -7532,7 +7532,7 @@
         <v>44470</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.515885055065155</v>
+        <v>-0.5133048892021179</v>
       </c>
     </row>
     <row r="888">
@@ -7540,7 +7540,7 @@
         <v>44501</v>
       </c>
       <c r="B888" t="n">
-        <v>-1.345931172370911</v>
+        <v>-1.332894086837769</v>
       </c>
     </row>
     <row r="889">
@@ -7548,7 +7548,7 @@
         <v>44531</v>
       </c>
       <c r="B889" t="n">
-        <v>-1.928156733512878</v>
+        <v>-1.925783395767212</v>
       </c>
     </row>
     <row r="890">
@@ -7556,7 +7556,7 @@
         <v>44562</v>
       </c>
       <c r="B890" t="n">
-        <v>-1.032086730003357</v>
+        <v>-1.025413751602173</v>
       </c>
     </row>
     <row r="891">
@@ -7564,7 +7564,7 @@
         <v>44593</v>
       </c>
       <c r="B891" t="n">
-        <v>-0.8601006865501404</v>
+        <v>-0.8562835454940796</v>
       </c>
     </row>
     <row r="892">
@@ -7572,7 +7572,7 @@
         <v>44621</v>
       </c>
       <c r="B892" t="n">
-        <v>-0.4756870269775391</v>
+        <v>-0.4723010063171387</v>
       </c>
     </row>
     <row r="893">
@@ -7580,7 +7580,7 @@
         <v>44652</v>
       </c>
       <c r="B893" t="n">
-        <v>-1.195365428924561</v>
+        <v>-1.19051730632782</v>
       </c>
     </row>
     <row r="894">
@@ -7588,7 +7588,7 @@
         <v>44682</v>
       </c>
       <c r="B894" t="n">
-        <v>-0.8608260750770569</v>
+        <v>-0.8573505282402039</v>
       </c>
     </row>
     <row r="895">
@@ -7596,7 +7596,7 @@
         <v>44713</v>
       </c>
       <c r="B895" t="n">
-        <v>0.06772792339324951</v>
+        <v>0.07082072645425797</v>
       </c>
     </row>
     <row r="896">
@@ -7604,7 +7604,7 @@
         <v>44743</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.9082358479499817</v>
+        <v>-0.9018397331237793</v>
       </c>
     </row>
     <row r="897">
@@ -7612,7 +7612,7 @@
         <v>44774</v>
       </c>
       <c r="B897" t="n">
-        <v>-0.7793897986412048</v>
+        <v>-0.77854984998703</v>
       </c>
     </row>
     <row r="898">
@@ -7620,7 +7620,7 @@
         <v>44805</v>
       </c>
       <c r="B898" t="n">
-        <v>-1.473052978515625</v>
+        <v>-1.470389127731323</v>
       </c>
     </row>
     <row r="899">
@@ -7628,7 +7628,15 @@
         <v>44835</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.8028662800788879</v>
+        <v>-0.8008039593696594</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B900" t="n">
+        <v>-1.799059152603149</v>
       </c>
     </row>
   </sheetData>

--- a/SAM/data_ncep/SAM_pc.xlsx
+++ b/SAM/data_ncep/SAM_pc.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B900"/>
+  <dimension ref="A1:B901"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         <v>17533</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8156435489654541</v>
+        <v>0.8178420662879944</v>
       </c>
     </row>
     <row r="3">
@@ -460,7 +460,7 @@
         <v>17564</v>
       </c>
       <c r="B3" t="n">
-        <v>1.528652548789978</v>
+        <v>1.530362129211426</v>
       </c>
     </row>
     <row r="4">
@@ -468,7 +468,7 @@
         <v>17593</v>
       </c>
       <c r="B4" t="n">
-        <v>1.470989584922791</v>
+        <v>1.473100662231445</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         <v>17624</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8786640763282776</v>
+        <v>0.8812884092330933</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>17654</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2779126167297363</v>
+        <v>-0.2747179865837097</v>
       </c>
     </row>
     <row r="7">
@@ -492,7 +492,7 @@
         <v>17685</v>
       </c>
       <c r="B7" t="n">
-        <v>0.650811493396759</v>
+        <v>0.6529301404953003</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         <v>17715</v>
       </c>
       <c r="B8" t="n">
-        <v>1.977275252342224</v>
+        <v>1.978148698806763</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>17746</v>
       </c>
       <c r="B9" t="n">
-        <v>2.195321798324585</v>
+        <v>2.195774793624878</v>
       </c>
     </row>
     <row r="10">
@@ -516,7 +516,7 @@
         <v>17777</v>
       </c>
       <c r="B10" t="n">
-        <v>1.212973952293396</v>
+        <v>1.213222503662109</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +524,7 @@
         <v>17807</v>
       </c>
       <c r="B11" t="n">
-        <v>1.940674185752869</v>
+        <v>1.941889643669128</v>
       </c>
     </row>
     <row r="12">
@@ -532,7 +532,7 @@
         <v>17838</v>
       </c>
       <c r="B12" t="n">
-        <v>1.799950122833252</v>
+        <v>1.800997376441956</v>
       </c>
     </row>
     <row r="13">
@@ -540,7 +540,7 @@
         <v>17868</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9148220419883728</v>
+        <v>0.9086887240409851</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>17899</v>
       </c>
       <c r="B14" t="n">
-        <v>2.87323784828186</v>
+        <v>2.87403678894043</v>
       </c>
     </row>
     <row r="15">
@@ -556,7 +556,7 @@
         <v>17930</v>
       </c>
       <c r="B15" t="n">
-        <v>3.974940538406372</v>
+        <v>3.97533130645752</v>
       </c>
     </row>
     <row r="16">
@@ -564,7 +564,7 @@
         <v>17958</v>
       </c>
       <c r="B16" t="n">
-        <v>1.710744738578796</v>
+        <v>1.710816860198975</v>
       </c>
     </row>
     <row r="17">
@@ -572,7 +572,7 @@
         <v>17989</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09630324691534042</v>
+        <v>0.09929228574037552</v>
       </c>
     </row>
     <row r="18">
@@ -580,7 +580,7 @@
         <v>18019</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2056546807289124</v>
+        <v>-0.2036822885274887</v>
       </c>
     </row>
     <row r="19">
@@ -588,7 +588,7 @@
         <v>18050</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.6427652835845947</v>
+        <v>-0.6401382088661194</v>
       </c>
     </row>
     <row r="20">
@@ -596,7 +596,7 @@
         <v>18080</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9169256091117859</v>
+        <v>0.9192507266998291</v>
       </c>
     </row>
     <row r="21">
@@ -604,7 +604,7 @@
         <v>18111</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2386182248592377</v>
+        <v>0.2403739839792252</v>
       </c>
     </row>
     <row r="22">
@@ -612,7 +612,7 @@
         <v>18142</v>
       </c>
       <c r="B22" t="n">
-        <v>0.650057852268219</v>
+        <v>0.6520393490791321</v>
       </c>
     </row>
     <row r="23">
@@ -620,7 +620,7 @@
         <v>18172</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7010123729705811</v>
+        <v>0.7020950317382812</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>18203</v>
       </c>
       <c r="B24" t="n">
-        <v>1.278940677642822</v>
+        <v>1.279070734977722</v>
       </c>
     </row>
     <row r="25">
@@ -636,7 +636,7 @@
         <v>18233</v>
       </c>
       <c r="B25" t="n">
-        <v>2.547178745269775</v>
+        <v>2.542048215866089</v>
       </c>
     </row>
     <row r="26">
@@ -644,7 +644,7 @@
         <v>18264</v>
       </c>
       <c r="B26" t="n">
-        <v>2.963566541671753</v>
+        <v>2.964091777801514</v>
       </c>
     </row>
     <row r="27">
@@ -652,7 +652,7 @@
         <v>18295</v>
       </c>
       <c r="B27" t="n">
-        <v>1.890161871910095</v>
+        <v>1.891176819801331</v>
       </c>
     </row>
     <row r="28">
@@ -660,7 +660,7 @@
         <v>18323</v>
       </c>
       <c r="B28" t="n">
-        <v>2.019892454147339</v>
+        <v>2.019805431365967</v>
       </c>
     </row>
     <row r="29">
@@ -668,7 +668,7 @@
         <v>18354</v>
       </c>
       <c r="B29" t="n">
-        <v>1.583994269371033</v>
+        <v>1.584520936012268</v>
       </c>
     </row>
     <row r="30">
@@ -676,7 +676,7 @@
         <v>18384</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7486790418624878</v>
+        <v>0.7482842206954956</v>
       </c>
     </row>
     <row r="31">
@@ -684,7 +684,7 @@
         <v>18415</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7254309058189392</v>
+        <v>0.725926399230957</v>
       </c>
     </row>
     <row r="32">
@@ -692,7 +692,7 @@
         <v>18445</v>
       </c>
       <c r="B32" t="n">
-        <v>1.647978663444519</v>
+        <v>1.64996063709259</v>
       </c>
     </row>
     <row r="33">
@@ -700,7 +700,7 @@
         <v>18476</v>
       </c>
       <c r="B33" t="n">
-        <v>1.342000842094421</v>
+        <v>1.343533396720886</v>
       </c>
     </row>
     <row r="34">
@@ -708,7 +708,7 @@
         <v>18507</v>
       </c>
       <c r="B34" t="n">
-        <v>0.258071094751358</v>
+        <v>0.2602162957191467</v>
       </c>
     </row>
     <row r="35">
@@ -716,7 +716,7 @@
         <v>18537</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8727487325668335</v>
+        <v>0.8736381530761719</v>
       </c>
     </row>
     <row r="36">
@@ -724,7 +724,7 @@
         <v>18568</v>
       </c>
       <c r="B36" t="n">
-        <v>2.096648931503296</v>
+        <v>2.095166444778442</v>
       </c>
     </row>
     <row r="37">
@@ -732,7 +732,7 @@
         <v>18598</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3659231960773468</v>
+        <v>0.3636257946491241</v>
       </c>
     </row>
     <row r="38">
@@ -740,7 +740,7 @@
         <v>18629</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8706811666488647</v>
+        <v>0.8710482120513916</v>
       </c>
     </row>
     <row r="39">
@@ -748,7 +748,7 @@
         <v>18660</v>
       </c>
       <c r="B39" t="n">
-        <v>1.419976353645325</v>
+        <v>1.420834064483643</v>
       </c>
     </row>
     <row r="40">
@@ -756,7 +756,7 @@
         <v>18688</v>
       </c>
       <c r="B40" t="n">
-        <v>1.480178356170654</v>
+        <v>1.480941534042358</v>
       </c>
     </row>
     <row r="41">
@@ -764,7 +764,7 @@
         <v>18719</v>
       </c>
       <c r="B41" t="n">
-        <v>2.388422727584839</v>
+        <v>2.387945413589478</v>
       </c>
     </row>
     <row r="42">
@@ -772,7 +772,7 @@
         <v>18749</v>
       </c>
       <c r="B42" t="n">
-        <v>1.63053822517395</v>
+        <v>1.632404088973999</v>
       </c>
     </row>
     <row r="43">
@@ -780,7 +780,7 @@
         <v>18780</v>
       </c>
       <c r="B43" t="n">
-        <v>1.693307757377625</v>
+        <v>1.693422436714172</v>
       </c>
     </row>
     <row r="44">
@@ -788,7 +788,7 @@
         <v>18810</v>
       </c>
       <c r="B44" t="n">
-        <v>1.425892472267151</v>
+        <v>1.427940726280212</v>
       </c>
     </row>
     <row r="45">
@@ -796,7 +796,7 @@
         <v>18841</v>
       </c>
       <c r="B45" t="n">
-        <v>1.542252540588379</v>
+        <v>1.543008327484131</v>
       </c>
     </row>
     <row r="46">
@@ -804,7 +804,7 @@
         <v>18872</v>
       </c>
       <c r="B46" t="n">
-        <v>1.702304363250732</v>
+        <v>1.704383611679077</v>
       </c>
     </row>
     <row r="47">
@@ -812,7 +812,7 @@
         <v>18902</v>
       </c>
       <c r="B47" t="n">
-        <v>1.981515526771545</v>
+        <v>1.982918739318848</v>
       </c>
     </row>
     <row r="48">
@@ -820,7 +820,7 @@
         <v>18933</v>
       </c>
       <c r="B48" t="n">
-        <v>1.413552761077881</v>
+        <v>1.415905475616455</v>
       </c>
     </row>
     <row r="49">
@@ -828,7 +828,7 @@
         <v>18963</v>
       </c>
       <c r="B49" t="n">
-        <v>1.610495567321777</v>
+        <v>1.604967951774597</v>
       </c>
     </row>
     <row r="50">
@@ -836,7 +836,7 @@
         <v>18994</v>
       </c>
       <c r="B50" t="n">
-        <v>2.346956253051758</v>
+        <v>2.349781036376953</v>
       </c>
     </row>
     <row r="51">
@@ -844,7 +844,7 @@
         <v>19025</v>
       </c>
       <c r="B51" t="n">
-        <v>1.258367419242859</v>
+        <v>1.260292410850525</v>
       </c>
     </row>
     <row r="52">
@@ -852,7 +852,7 @@
         <v>19054</v>
       </c>
       <c r="B52" t="n">
-        <v>1.520568251609802</v>
+        <v>1.522209882736206</v>
       </c>
     </row>
     <row r="53">
@@ -860,7 +860,7 @@
         <v>19085</v>
       </c>
       <c r="B53" t="n">
-        <v>1.870546340942383</v>
+        <v>1.872715592384338</v>
       </c>
     </row>
     <row r="54">
@@ -868,7 +868,7 @@
         <v>19115</v>
       </c>
       <c r="B54" t="n">
-        <v>1.194226980209351</v>
+        <v>1.195013046264648</v>
       </c>
     </row>
     <row r="55">
@@ -876,7 +876,7 @@
         <v>19146</v>
       </c>
       <c r="B55" t="n">
-        <v>0.570807933807373</v>
+        <v>0.5726880431175232</v>
       </c>
     </row>
     <row r="56">
@@ -884,7 +884,7 @@
         <v>19176</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5543327927589417</v>
+        <v>0.5555872917175293</v>
       </c>
     </row>
     <row r="57">
@@ -892,7 +892,7 @@
         <v>19207</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8938809037208557</v>
+        <v>0.89454585313797</v>
       </c>
     </row>
     <row r="58">
@@ -900,7 +900,7 @@
         <v>19238</v>
       </c>
       <c r="B58" t="n">
-        <v>1.47429621219635</v>
+        <v>1.475733041763306</v>
       </c>
     </row>
     <row r="59">
@@ -908,7 +908,7 @@
         <v>19268</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9510483145713806</v>
+        <v>0.9525375366210938</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>19299</v>
       </c>
       <c r="B60" t="n">
-        <v>2.257924556732178</v>
+        <v>2.257546424865723</v>
       </c>
     </row>
     <row r="61">
@@ -924,7 +924,7 @@
         <v>19329</v>
       </c>
       <c r="B61" t="n">
-        <v>1.904140114784241</v>
+        <v>1.895880579948425</v>
       </c>
     </row>
     <row r="62">
@@ -932,7 +932,7 @@
         <v>19360</v>
       </c>
       <c r="B62" t="n">
-        <v>1.822413682937622</v>
+        <v>1.824631929397583</v>
       </c>
     </row>
     <row r="63">
@@ -940,7 +940,7 @@
         <v>19391</v>
       </c>
       <c r="B63" t="n">
-        <v>1.435028076171875</v>
+        <v>1.438056230545044</v>
       </c>
     </row>
     <row r="64">
@@ -948,7 +948,7 @@
         <v>19419</v>
       </c>
       <c r="B64" t="n">
-        <v>1.171943068504333</v>
+        <v>1.174120306968689</v>
       </c>
     </row>
     <row r="65">
@@ -956,7 +956,7 @@
         <v>19450</v>
       </c>
       <c r="B65" t="n">
-        <v>1.895261406898499</v>
+        <v>1.896130442619324</v>
       </c>
     </row>
     <row r="66">
@@ -964,7 +964,7 @@
         <v>19480</v>
       </c>
       <c r="B66" t="n">
-        <v>1.233049035072327</v>
+        <v>1.23432719707489</v>
       </c>
     </row>
     <row r="67">
@@ -972,7 +972,7 @@
         <v>19511</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7752416729927063</v>
+        <v>0.7762708067893982</v>
       </c>
     </row>
     <row r="68">
@@ -980,7 +980,7 @@
         <v>19541</v>
       </c>
       <c r="B68" t="n">
-        <v>1.408106923103333</v>
+        <v>1.410451173782349</v>
       </c>
     </row>
     <row r="69">
@@ -988,7 +988,7 @@
         <v>19572</v>
       </c>
       <c r="B69" t="n">
-        <v>0.6614733338356018</v>
+        <v>0.6634687781333923</v>
       </c>
     </row>
     <row r="70">
@@ -996,7 +996,7 @@
         <v>19603</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3979075253009796</v>
+        <v>0.4009945690631866</v>
       </c>
     </row>
     <row r="71">
@@ -1004,7 +1004,7 @@
         <v>19633</v>
       </c>
       <c r="B71" t="n">
-        <v>1.762914538383484</v>
+        <v>1.763901472091675</v>
       </c>
     </row>
     <row r="72">
@@ -1012,7 +1012,7 @@
         <v>19664</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6062869429588318</v>
+        <v>0.6089968085289001</v>
       </c>
     </row>
     <row r="73">
@@ -1020,7 +1020,7 @@
         <v>19694</v>
       </c>
       <c r="B73" t="n">
-        <v>1.577202320098877</v>
+        <v>1.570154309272766</v>
       </c>
     </row>
     <row r="74">
@@ -1028,7 +1028,7 @@
         <v>19725</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7244805097579956</v>
+        <v>0.7260415554046631</v>
       </c>
     </row>
     <row r="75">
@@ -1036,7 +1036,7 @@
         <v>19756</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5930917859077454</v>
+        <v>0.5954688787460327</v>
       </c>
     </row>
     <row r="76">
@@ -1044,7 +1044,7 @@
         <v>19784</v>
       </c>
       <c r="B76" t="n">
-        <v>2.901114225387573</v>
+        <v>2.900985240936279</v>
       </c>
     </row>
     <row r="77">
@@ -1052,7 +1052,7 @@
         <v>19815</v>
       </c>
       <c r="B77" t="n">
-        <v>1.208184957504272</v>
+        <v>1.209455013275146</v>
       </c>
     </row>
     <row r="78">
@@ -1060,7 +1060,7 @@
         <v>19845</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0130148995667696</v>
+        <v>0.01446251757442951</v>
       </c>
     </row>
     <row r="79">
@@ -1068,7 +1068,7 @@
         <v>19876</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7482994198799133</v>
+        <v>0.7507829070091248</v>
       </c>
     </row>
     <row r="80">
@@ -1076,7 +1076,7 @@
         <v>19906</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8726058006286621</v>
+        <v>0.873394787311554</v>
       </c>
     </row>
     <row r="81">
@@ -1084,7 +1084,7 @@
         <v>19937</v>
       </c>
       <c r="B81" t="n">
-        <v>2.091692209243774</v>
+        <v>2.093210697174072</v>
       </c>
     </row>
     <row r="82">
@@ -1092,7 +1092,7 @@
         <v>19968</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0103280795738101</v>
+        <v>0.01221437938511372</v>
       </c>
     </row>
     <row r="83">
@@ -1100,7 +1100,7 @@
         <v>19998</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6479210257530212</v>
+        <v>0.6504480242729187</v>
       </c>
     </row>
     <row r="84">
@@ -1108,7 +1108,7 @@
         <v>20029</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.2722636759281158</v>
+        <v>-0.2714190483093262</v>
       </c>
     </row>
     <row r="85">
@@ -1116,7 +1116,7 @@
         <v>20059</v>
       </c>
       <c r="B85" t="n">
-        <v>1.630759477615356</v>
+        <v>1.625032424926758</v>
       </c>
     </row>
     <row r="86">
@@ -1124,7 +1124,7 @@
         <v>20090</v>
       </c>
       <c r="B86" t="n">
-        <v>0.4213119447231293</v>
+        <v>0.4238934516906738</v>
       </c>
     </row>
     <row r="87">
@@ -1132,7 +1132,7 @@
         <v>20121</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5924427509307861</v>
+        <v>0.5937900543212891</v>
       </c>
     </row>
     <row r="88">
@@ -1140,7 +1140,7 @@
         <v>20149</v>
       </c>
       <c r="B88" t="n">
-        <v>0.4939772188663483</v>
+        <v>0.4947424829006195</v>
       </c>
     </row>
     <row r="89">
@@ -1148,7 +1148,7 @@
         <v>20180</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8677662014961243</v>
+        <v>0.8677042126655579</v>
       </c>
     </row>
     <row r="90">
@@ -1156,7 +1156,7 @@
         <v>20210</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9769441485404968</v>
+        <v>0.977192759513855</v>
       </c>
     </row>
     <row r="91">
@@ -1164,7 +1164,7 @@
         <v>20241</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7695246338844299</v>
+        <v>0.7707296013832092</v>
       </c>
     </row>
     <row r="92">
@@ -1172,7 +1172,7 @@
         <v>20271</v>
       </c>
       <c r="B92" t="n">
-        <v>0.182297483086586</v>
+        <v>0.1831437349319458</v>
       </c>
     </row>
     <row r="93">
@@ -1180,7 +1180,7 @@
         <v>20302</v>
       </c>
       <c r="B93" t="n">
-        <v>2.366392374038696</v>
+        <v>2.366044759750366</v>
       </c>
     </row>
     <row r="94">
@@ -1188,7 +1188,7 @@
         <v>20333</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8141842484474182</v>
+        <v>0.8149554133415222</v>
       </c>
     </row>
     <row r="95">
@@ -1196,7 +1196,7 @@
         <v>20363</v>
       </c>
       <c r="B95" t="n">
-        <v>2.401638746261597</v>
+        <v>2.400388717651367</v>
       </c>
     </row>
     <row r="96">
@@ -1204,7 +1204,7 @@
         <v>20394</v>
       </c>
       <c r="B96" t="n">
-        <v>1.732646584510803</v>
+        <v>1.733580470085144</v>
       </c>
     </row>
     <row r="97">
@@ -1212,7 +1212,7 @@
         <v>20424</v>
       </c>
       <c r="B97" t="n">
-        <v>1.001869320869446</v>
+        <v>0.9981824159622192</v>
       </c>
     </row>
     <row r="98">
@@ -1220,7 +1220,7 @@
         <v>20455</v>
       </c>
       <c r="B98" t="n">
-        <v>1.579443573951721</v>
+        <v>1.57940149307251</v>
       </c>
     </row>
     <row r="99">
@@ -1228,7 +1228,7 @@
         <v>20486</v>
       </c>
       <c r="B99" t="n">
-        <v>1.580246448516846</v>
+        <v>1.579076170921326</v>
       </c>
     </row>
     <row r="100">
@@ -1236,7 +1236,7 @@
         <v>20515</v>
       </c>
       <c r="B100" t="n">
-        <v>1.072578430175781</v>
+        <v>1.072706699371338</v>
       </c>
     </row>
     <row r="101">
@@ -1244,7 +1244,7 @@
         <v>20546</v>
       </c>
       <c r="B101" t="n">
-        <v>1.504475951194763</v>
+        <v>1.504862666130066</v>
       </c>
     </row>
     <row r="102">
@@ -1252,7 +1252,7 @@
         <v>20576</v>
       </c>
       <c r="B102" t="n">
-        <v>1.165585994720459</v>
+        <v>1.162927508354187</v>
       </c>
     </row>
     <row r="103">
@@ -1260,7 +1260,7 @@
         <v>20607</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.2048535645008087</v>
+        <v>-0.2046736627817154</v>
       </c>
     </row>
     <row r="104">
@@ -1268,7 +1268,7 @@
         <v>20637</v>
       </c>
       <c r="B104" t="n">
-        <v>1.435471177101135</v>
+        <v>1.434400916099548</v>
       </c>
     </row>
     <row r="105">
@@ -1276,7 +1276,7 @@
         <v>20668</v>
       </c>
       <c r="B105" t="n">
-        <v>1.405443787574768</v>
+        <v>1.406527280807495</v>
       </c>
     </row>
     <row r="106">
@@ -1284,7 +1284,7 @@
         <v>20699</v>
       </c>
       <c r="B106" t="n">
-        <v>2.114179372787476</v>
+        <v>2.114156007766724</v>
       </c>
     </row>
     <row r="107">
@@ -1292,7 +1292,7 @@
         <v>20729</v>
       </c>
       <c r="B107" t="n">
-        <v>1.178360104560852</v>
+        <v>1.177783727645874</v>
       </c>
     </row>
     <row r="108">
@@ -1300,7 +1300,7 @@
         <v>20760</v>
       </c>
       <c r="B108" t="n">
-        <v>1.393821954727173</v>
+        <v>1.393913745880127</v>
       </c>
     </row>
     <row r="109">
@@ -1308,7 +1308,7 @@
         <v>20790</v>
       </c>
       <c r="B109" t="n">
-        <v>2.056218862533569</v>
+        <v>2.049001216888428</v>
       </c>
     </row>
     <row r="110">
@@ -1316,7 +1316,7 @@
         <v>20821</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9270099401473999</v>
+        <v>0.9289097785949707</v>
       </c>
     </row>
     <row r="111">
@@ -1324,7 +1324,7 @@
         <v>20852</v>
       </c>
       <c r="B111" t="n">
-        <v>1.081382870674133</v>
+        <v>1.081212759017944</v>
       </c>
     </row>
     <row r="112">
@@ -1332,7 +1332,7 @@
         <v>20880</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5093916058540344</v>
+        <v>0.509615421295166</v>
       </c>
     </row>
     <row r="113">
@@ -1340,7 +1340,7 @@
         <v>20911</v>
       </c>
       <c r="B113" t="n">
-        <v>1.004328966140747</v>
+        <v>1.005343556404114</v>
       </c>
     </row>
     <row r="114">
@@ -1348,7 +1348,7 @@
         <v>20941</v>
       </c>
       <c r="B114" t="n">
-        <v>0.7538017630577087</v>
+        <v>0.7559606432914734</v>
       </c>
     </row>
     <row r="115">
@@ -1356,7 +1356,7 @@
         <v>20972</v>
       </c>
       <c r="B115" t="n">
-        <v>1.622656226158142</v>
+        <v>1.624356150627136</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>21002</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8515360355377197</v>
+        <v>0.8526239991188049</v>
       </c>
     </row>
     <row r="117">
@@ -1372,7 +1372,7 @@
         <v>21033</v>
       </c>
       <c r="B117" t="n">
-        <v>1.00390899181366</v>
+        <v>1.004698634147644</v>
       </c>
     </row>
     <row r="118">
@@ -1380,7 +1380,7 @@
         <v>21064</v>
       </c>
       <c r="B118" t="n">
-        <v>0.1102718487381935</v>
+        <v>0.1116271466016769</v>
       </c>
     </row>
     <row r="119">
@@ -1388,7 +1388,7 @@
         <v>21094</v>
       </c>
       <c r="B119" t="n">
-        <v>1.566415905952454</v>
+        <v>1.569164872169495</v>
       </c>
     </row>
     <row r="120">
@@ -1396,7 +1396,7 @@
         <v>21125</v>
       </c>
       <c r="B120" t="n">
-        <v>1.608627200126648</v>
+        <v>1.612953662872314</v>
       </c>
     </row>
     <row r="121">
@@ -1404,7 +1404,7 @@
         <v>21155</v>
       </c>
       <c r="B121" t="n">
-        <v>1.197465538978577</v>
+        <v>1.19543981552124</v>
       </c>
     </row>
     <row r="122">
@@ -1412,7 +1412,7 @@
         <v>21186</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.1329951733350754</v>
+        <v>-0.129396989941597</v>
       </c>
     </row>
     <row r="123">
@@ -1420,7 +1420,7 @@
         <v>21217</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0637129619717598</v>
+        <v>0.0670449361205101</v>
       </c>
     </row>
     <row r="124">
@@ -1428,7 +1428,7 @@
         <v>21245</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8821213841438293</v>
+        <v>0.8843563199043274</v>
       </c>
     </row>
     <row r="125">
@@ -1436,7 +1436,7 @@
         <v>21276</v>
       </c>
       <c r="B125" t="n">
-        <v>1.072572708129883</v>
+        <v>1.075688362121582</v>
       </c>
     </row>
     <row r="126">
@@ -1444,7 +1444,7 @@
         <v>21306</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7998074889183044</v>
+        <v>0.8021168112754822</v>
       </c>
     </row>
     <row r="127">
@@ -1452,7 +1452,7 @@
         <v>21337</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.04266214743256569</v>
+        <v>-0.03973871842026711</v>
       </c>
     </row>
     <row r="128">
@@ -1460,7 +1460,7 @@
         <v>21367</v>
       </c>
       <c r="B128" t="n">
-        <v>1.452067375183105</v>
+        <v>1.451414823532104</v>
       </c>
     </row>
     <row r="129">
@@ -1468,7 +1468,7 @@
         <v>21398</v>
       </c>
       <c r="B129" t="n">
-        <v>0.07095822691917419</v>
+        <v>0.07321885973215103</v>
       </c>
     </row>
     <row r="130">
@@ -1476,7 +1476,7 @@
         <v>21429</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.4538686573505402</v>
+        <v>-0.4516538083553314</v>
       </c>
     </row>
     <row r="131">
@@ -1484,7 +1484,7 @@
         <v>21459</v>
       </c>
       <c r="B131" t="n">
-        <v>0.3883166313171387</v>
+        <v>0.3887249231338501</v>
       </c>
     </row>
     <row r="132">
@@ -1492,7 +1492,7 @@
         <v>21490</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.2778223752975464</v>
+        <v>-0.2749661505222321</v>
       </c>
     </row>
     <row r="133">
@@ -1500,7 +1500,7 @@
         <v>21520</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.8585968017578125</v>
+        <v>-0.8517323732376099</v>
       </c>
     </row>
     <row r="134">
@@ -1508,7 +1508,7 @@
         <v>21551</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.3456061780452728</v>
+        <v>-0.344458281993866</v>
       </c>
     </row>
     <row r="135">
@@ -1516,7 +1516,7 @@
         <v>21582</v>
       </c>
       <c r="B135" t="n">
-        <v>0.1607363820075989</v>
+        <v>0.1644413322210312</v>
       </c>
     </row>
     <row r="136">
@@ -1524,7 +1524,7 @@
         <v>21610</v>
       </c>
       <c r="B136" t="n">
-        <v>0.1444968730211258</v>
+        <v>0.1454707980155945</v>
       </c>
     </row>
     <row r="137">
@@ -1532,7 +1532,7 @@
         <v>21641</v>
       </c>
       <c r="B137" t="n">
-        <v>1.159571051597595</v>
+        <v>1.161179065704346</v>
       </c>
     </row>
     <row r="138">
@@ -1540,7 +1540,7 @@
         <v>21671</v>
       </c>
       <c r="B138" t="n">
-        <v>1.666796207427979</v>
+        <v>1.667880296707153</v>
       </c>
     </row>
     <row r="139">
@@ -1548,7 +1548,7 @@
         <v>21702</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8097785115242004</v>
+        <v>0.8126277327537537</v>
       </c>
     </row>
     <row r="140">
@@ -1556,7 +1556,7 @@
         <v>21732</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8481374979019165</v>
+        <v>0.8500217199325562</v>
       </c>
     </row>
     <row r="141">
@@ -1564,7 +1564,7 @@
         <v>21763</v>
       </c>
       <c r="B141" t="n">
-        <v>1.097522139549255</v>
+        <v>1.099112391471863</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>21794</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.01372725609689951</v>
+        <v>-0.0111874844878912</v>
       </c>
     </row>
     <row r="143">
@@ -1580,7 +1580,7 @@
         <v>21824</v>
       </c>
       <c r="B143" t="n">
-        <v>0.818641722202301</v>
+        <v>0.8193032145500183</v>
       </c>
     </row>
     <row r="144">
@@ -1588,7 +1588,7 @@
         <v>21855</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.619707465171814</v>
+        <v>-0.6166187524795532</v>
       </c>
     </row>
     <row r="145">
@@ -1596,7 +1596,7 @@
         <v>21885</v>
       </c>
       <c r="B145" t="n">
-        <v>0.483024388551712</v>
+        <v>0.4822861552238464</v>
       </c>
     </row>
     <row r="146">
@@ -1604,7 +1604,7 @@
         <v>21916</v>
       </c>
       <c r="B146" t="n">
-        <v>-0.05601402372121811</v>
+        <v>-0.05296910926699638</v>
       </c>
     </row>
     <row r="147">
@@ -1612,7 +1612,7 @@
         <v>21947</v>
       </c>
       <c r="B147" t="n">
-        <v>0.005351340398192406</v>
+        <v>0.007782053202390671</v>
       </c>
     </row>
     <row r="148">
@@ -1620,7 +1620,7 @@
         <v>21976</v>
       </c>
       <c r="B148" t="n">
-        <v>-0.3486962020397186</v>
+        <v>-0.3470817506313324</v>
       </c>
     </row>
     <row r="149">
@@ -1628,7 +1628,7 @@
         <v>22007</v>
       </c>
       <c r="B149" t="n">
-        <v>1.538458585739136</v>
+        <v>1.538996458053589</v>
       </c>
     </row>
     <row r="150">
@@ -1636,7 +1636,7 @@
         <v>22037</v>
       </c>
       <c r="B150" t="n">
-        <v>1.635869145393372</v>
+        <v>1.635747075080872</v>
       </c>
     </row>
     <row r="151">
@@ -1644,7 +1644,7 @@
         <v>22068</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.01921925134956837</v>
+        <v>-0.01742553152143955</v>
       </c>
     </row>
     <row r="152">
@@ -1652,7 +1652,7 @@
         <v>22098</v>
       </c>
       <c r="B152" t="n">
-        <v>0.4845472276210785</v>
+        <v>0.4864945411682129</v>
       </c>
     </row>
     <row r="153">
@@ -1660,7 +1660,7 @@
         <v>22129</v>
       </c>
       <c r="B153" t="n">
-        <v>1.275991201400757</v>
+        <v>1.27665638923645</v>
       </c>
     </row>
     <row r="154">
@@ -1668,7 +1668,7 @@
         <v>22160</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8924464583396912</v>
+        <v>0.8925361037254333</v>
       </c>
     </row>
     <row r="155">
@@ -1676,7 +1676,7 @@
         <v>22190</v>
       </c>
       <c r="B155" t="n">
-        <v>0.1096513420343399</v>
+        <v>0.1113185882568359</v>
       </c>
     </row>
     <row r="156">
@@ -1684,7 +1684,7 @@
         <v>22221</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.1159783229231834</v>
+        <v>-0.1142611503601074</v>
       </c>
     </row>
     <row r="157">
@@ -1692,7 +1692,7 @@
         <v>22251</v>
       </c>
       <c r="B157" t="n">
-        <v>0.008170034736394882</v>
+        <v>0.01267168950289488</v>
       </c>
     </row>
     <row r="158">
@@ -1700,7 +1700,7 @@
         <v>22282</v>
       </c>
       <c r="B158" t="n">
-        <v>0.2563507854938507</v>
+        <v>0.2587437331676483</v>
       </c>
     </row>
     <row r="159">
@@ -1708,7 +1708,7 @@
         <v>22313</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8824529051780701</v>
+        <v>0.8846468329429626</v>
       </c>
     </row>
     <row r="160">
@@ -1716,7 +1716,7 @@
         <v>22341</v>
       </c>
       <c r="B160" t="n">
-        <v>0.633428692817688</v>
+        <v>0.6358140707015991</v>
       </c>
     </row>
     <row r="161">
@@ -1724,7 +1724,7 @@
         <v>22372</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7117167711257935</v>
+        <v>0.7132092714309692</v>
       </c>
     </row>
     <row r="162">
@@ -1732,7 +1732,7 @@
         <v>22402</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9615497589111328</v>
+        <v>0.9638984203338623</v>
       </c>
     </row>
     <row r="163">
@@ -1740,7 +1740,7 @@
         <v>22433</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8010332584381104</v>
+        <v>0.8027905821800232</v>
       </c>
     </row>
     <row r="164">
@@ -1748,7 +1748,7 @@
         <v>22463</v>
       </c>
       <c r="B164" t="n">
-        <v>0.6531932950019836</v>
+        <v>0.6544763445854187</v>
       </c>
     </row>
     <row r="165">
@@ -1756,7 +1756,7 @@
         <v>22494</v>
       </c>
       <c r="B165" t="n">
-        <v>0.1394215673208237</v>
+        <v>0.1398239433765411</v>
       </c>
     </row>
     <row r="166">
@@ -1764,7 +1764,7 @@
         <v>22525</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9373475313186646</v>
+        <v>0.9385149478912354</v>
       </c>
     </row>
     <row r="167">
@@ -1772,7 +1772,7 @@
         <v>22555</v>
       </c>
       <c r="B167" t="n">
-        <v>0.3920879364013672</v>
+        <v>0.3944936096668243</v>
       </c>
     </row>
     <row r="168">
@@ -1780,7 +1780,7 @@
         <v>22586</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.2780085802078247</v>
+        <v>-0.275470495223999</v>
       </c>
     </row>
     <row r="169">
@@ -1788,7 +1788,7 @@
         <v>22616</v>
       </c>
       <c r="B169" t="n">
-        <v>-1.071092367172241</v>
+        <v>-1.066337823867798</v>
       </c>
     </row>
     <row r="170">
@@ -1796,7 +1796,7 @@
         <v>22647</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.6748483777046204</v>
+        <v>-0.6728792786598206</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>22678</v>
       </c>
       <c r="B171" t="n">
-        <v>0.7869113683700562</v>
+        <v>0.7886096835136414</v>
       </c>
     </row>
     <row r="172">
@@ -1812,7 +1812,7 @@
         <v>22706</v>
       </c>
       <c r="B172" t="n">
-        <v>0.4864820539951324</v>
+        <v>0.4880013465881348</v>
       </c>
     </row>
     <row r="173">
@@ -1820,7 +1820,7 @@
         <v>22737</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.06788497418165207</v>
+        <v>-0.06611958891153336</v>
       </c>
     </row>
     <row r="174">
@@ -1828,7 +1828,7 @@
         <v>22767</v>
       </c>
       <c r="B174" t="n">
-        <v>0.5351661443710327</v>
+        <v>0.5353062152862549</v>
       </c>
     </row>
     <row r="175">
@@ -1836,7 +1836,7 @@
         <v>22798</v>
       </c>
       <c r="B175" t="n">
-        <v>1.730797052383423</v>
+        <v>1.732503294944763</v>
       </c>
     </row>
     <row r="176">
@@ -1844,7 +1844,7 @@
         <v>22828</v>
       </c>
       <c r="B176" t="n">
-        <v>-0.07574490457773209</v>
+        <v>-0.07370088994503021</v>
       </c>
     </row>
     <row r="177">
@@ -1852,7 +1852,7 @@
         <v>22859</v>
       </c>
       <c r="B177" t="n">
-        <v>0.2444670498371124</v>
+        <v>0.246701180934906</v>
       </c>
     </row>
     <row r="178">
@@ -1860,7 +1860,7 @@
         <v>22890</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.1467433571815491</v>
+        <v>-0.1455077975988388</v>
       </c>
     </row>
     <row r="179">
@@ -1868,7 +1868,7 @@
         <v>22920</v>
       </c>
       <c r="B179" t="n">
-        <v>1.026294708251953</v>
+        <v>1.026825308799744</v>
       </c>
     </row>
     <row r="180">
@@ -1876,7 +1876,7 @@
         <v>22951</v>
       </c>
       <c r="B180" t="n">
-        <v>1.0052649974823</v>
+        <v>1.006890535354614</v>
       </c>
     </row>
     <row r="181">
@@ -1884,7 +1884,7 @@
         <v>22981</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.5768158435821533</v>
+        <v>-0.5733423233032227</v>
       </c>
     </row>
     <row r="182">
@@ -1892,7 +1892,7 @@
         <v>23012</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.4448127746582031</v>
+        <v>-0.4429983794689178</v>
       </c>
     </row>
     <row r="183">
@@ -1900,7 +1900,7 @@
         <v>23043</v>
       </c>
       <c r="B183" t="n">
-        <v>-0.4792625606060028</v>
+        <v>-0.477034330368042</v>
       </c>
     </row>
     <row r="184">
@@ -1908,7 +1908,7 @@
         <v>23071</v>
       </c>
       <c r="B184" t="n">
-        <v>0.05995045229792595</v>
+        <v>0.0622316375374794</v>
       </c>
     </row>
     <row r="185">
@@ -1916,7 +1916,7 @@
         <v>23102</v>
       </c>
       <c r="B185" t="n">
-        <v>1.136348485946655</v>
+        <v>1.137712478637695</v>
       </c>
     </row>
     <row r="186">
@@ -1924,7 +1924,7 @@
         <v>23132</v>
       </c>
       <c r="B186" t="n">
-        <v>1.009094953536987</v>
+        <v>1.009655117988586</v>
       </c>
     </row>
     <row r="187">
@@ -1932,7 +1932,7 @@
         <v>23163</v>
       </c>
       <c r="B187" t="n">
-        <v>1.008039593696594</v>
+        <v>1.008371233940125</v>
       </c>
     </row>
     <row r="188">
@@ -1940,7 +1940,7 @@
         <v>23193</v>
       </c>
       <c r="B188" t="n">
-        <v>1.540060520172119</v>
+        <v>1.539925098419189</v>
       </c>
     </row>
     <row r="189">
@@ -1948,7 +1948,7 @@
         <v>23224</v>
       </c>
       <c r="B189" t="n">
-        <v>2.945103883743286</v>
+        <v>2.944870710372925</v>
       </c>
     </row>
     <row r="190">
@@ -1956,7 +1956,7 @@
         <v>23255</v>
       </c>
       <c r="B190" t="n">
-        <v>0.9808568358421326</v>
+        <v>0.9820595383644104</v>
       </c>
     </row>
     <row r="191">
@@ -1964,7 +1964,7 @@
         <v>23285</v>
       </c>
       <c r="B191" t="n">
-        <v>0.03621102124452591</v>
+        <v>0.03965702280402184</v>
       </c>
     </row>
     <row r="192">
@@ -1972,7 +1972,7 @@
         <v>23316</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2950697541236877</v>
+        <v>0.297638863325119</v>
       </c>
     </row>
     <row r="193">
@@ -1980,7 +1980,7 @@
         <v>23346</v>
       </c>
       <c r="B193" t="n">
-        <v>0.04216086491942406</v>
+        <v>0.04473603516817093</v>
       </c>
     </row>
     <row r="194">
@@ -1988,7 +1988,7 @@
         <v>23377</v>
       </c>
       <c r="B194" t="n">
-        <v>1.187885165214539</v>
+        <v>1.190423965454102</v>
       </c>
     </row>
     <row r="195">
@@ -1996,7 +1996,7 @@
         <v>23408</v>
       </c>
       <c r="B195" t="n">
-        <v>1.389173626899719</v>
+        <v>1.390133500099182</v>
       </c>
     </row>
     <row r="196">
@@ -2004,7 +2004,7 @@
         <v>23437</v>
       </c>
       <c r="B196" t="n">
-        <v>0.404127836227417</v>
+        <v>0.4064793884754181</v>
       </c>
     </row>
     <row r="197">
@@ -2012,7 +2012,7 @@
         <v>23468</v>
       </c>
       <c r="B197" t="n">
-        <v>0.7470102906227112</v>
+        <v>0.7473856806755066</v>
       </c>
     </row>
     <row r="198">
@@ -2020,7 +2020,7 @@
         <v>23498</v>
       </c>
       <c r="B198" t="n">
-        <v>0.1561222672462463</v>
+        <v>0.1582957208156586</v>
       </c>
     </row>
     <row r="199">
@@ -2028,7 +2028,7 @@
         <v>23529</v>
       </c>
       <c r="B199" t="n">
-        <v>2.702714204788208</v>
+        <v>2.701689720153809</v>
       </c>
     </row>
     <row r="200">
@@ -2036,7 +2036,7 @@
         <v>23559</v>
       </c>
       <c r="B200" t="n">
-        <v>2.707731962203979</v>
+        <v>2.706179141998291</v>
       </c>
     </row>
     <row r="201">
@@ -2044,7 +2044,7 @@
         <v>23590</v>
       </c>
       <c r="B201" t="n">
-        <v>1.534878969192505</v>
+        <v>1.536015510559082</v>
       </c>
     </row>
     <row r="202">
@@ -2052,7 +2052,7 @@
         <v>23621</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.07693686336278915</v>
+        <v>-0.07520024478435516</v>
       </c>
     </row>
     <row r="203">
@@ -2060,7 +2060,7 @@
         <v>23651</v>
       </c>
       <c r="B203" t="n">
-        <v>0.2521943151950836</v>
+        <v>0.2520240843296051</v>
       </c>
     </row>
     <row r="204">
@@ -2068,7 +2068,7 @@
         <v>23682</v>
       </c>
       <c r="B204" t="n">
-        <v>1.142062067985535</v>
+        <v>1.14409065246582</v>
       </c>
     </row>
     <row r="205">
@@ -2076,7 +2076,7 @@
         <v>23712</v>
       </c>
       <c r="B205" t="n">
-        <v>1.271217942237854</v>
+        <v>1.270067811012268</v>
       </c>
     </row>
     <row r="206">
@@ -2084,7 +2084,7 @@
         <v>23743</v>
       </c>
       <c r="B206" t="n">
-        <v>0.8062070608139038</v>
+        <v>0.806668758392334</v>
       </c>
     </row>
     <row r="207">
@@ -2092,7 +2092,7 @@
         <v>23774</v>
       </c>
       <c r="B207" t="n">
-        <v>3.046600580215454</v>
+        <v>3.048423528671265</v>
       </c>
     </row>
     <row r="208">
@@ -2100,7 +2100,7 @@
         <v>23802</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9258486032485962</v>
+        <v>0.9264287352561951</v>
       </c>
     </row>
     <row r="209">
@@ -2108,7 +2108,7 @@
         <v>23833</v>
       </c>
       <c r="B209" t="n">
-        <v>1.600131869316101</v>
+        <v>1.601380944252014</v>
       </c>
     </row>
     <row r="210">
@@ -2116,7 +2116,7 @@
         <v>23863</v>
       </c>
       <c r="B210" t="n">
-        <v>2.116434335708618</v>
+        <v>2.117857456207275</v>
       </c>
     </row>
     <row r="211">
@@ -2124,7 +2124,7 @@
         <v>23894</v>
       </c>
       <c r="B211" t="n">
-        <v>0.1789553463459015</v>
+        <v>0.1814824938774109</v>
       </c>
     </row>
     <row r="212">
@@ -2132,7 +2132,7 @@
         <v>23924</v>
       </c>
       <c r="B212" t="n">
-        <v>1.087405443191528</v>
+        <v>1.089191198348999</v>
       </c>
     </row>
     <row r="213">
@@ -2140,7 +2140,7 @@
         <v>23955</v>
       </c>
       <c r="B213" t="n">
-        <v>1.212705612182617</v>
+        <v>1.212794661521912</v>
       </c>
     </row>
     <row r="214">
@@ -2148,7 +2148,7 @@
         <v>23986</v>
       </c>
       <c r="B214" t="n">
-        <v>0.7862372994422913</v>
+        <v>0.7884410619735718</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>24016</v>
       </c>
       <c r="B215" t="n">
-        <v>1.248862147331238</v>
+        <v>1.251222968101501</v>
       </c>
     </row>
     <row r="216">
@@ -2164,7 +2164,7 @@
         <v>24047</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.03406653180718422</v>
+        <v>-0.03079863451421261</v>
       </c>
     </row>
     <row r="217">
@@ -2172,7 +2172,7 @@
         <v>24077</v>
       </c>
       <c r="B217" t="n">
-        <v>1.503675222396851</v>
+        <v>1.500825762748718</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>24108</v>
       </c>
       <c r="B218" t="n">
-        <v>0.04278090596199036</v>
+        <v>0.04629037529230118</v>
       </c>
     </row>
     <row r="219">
@@ -2188,7 +2188,7 @@
         <v>24139</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9837716817855835</v>
+        <v>0.9860498905181885</v>
       </c>
     </row>
     <row r="220">
@@ -2196,7 +2196,7 @@
         <v>24167</v>
       </c>
       <c r="B220" t="n">
-        <v>2.341430425643921</v>
+        <v>2.342200994491577</v>
       </c>
     </row>
     <row r="221">
@@ -2204,7 +2204,7 @@
         <v>24198</v>
       </c>
       <c r="B221" t="n">
-        <v>1.20241379737854</v>
+        <v>1.204432368278503</v>
       </c>
     </row>
     <row r="222">
@@ -2212,7 +2212,7 @@
         <v>24228</v>
       </c>
       <c r="B222" t="n">
-        <v>1.916700959205627</v>
+        <v>1.917351484298706</v>
       </c>
     </row>
     <row r="223">
@@ -2220,7 +2220,7 @@
         <v>24259</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.3261768817901611</v>
+        <v>-0.323984682559967</v>
       </c>
     </row>
     <row r="224">
@@ -2228,7 +2228,7 @@
         <v>24289</v>
       </c>
       <c r="B224" t="n">
-        <v>0.6933911442756653</v>
+        <v>0.6946313977241516</v>
       </c>
     </row>
     <row r="225">
@@ -2236,7 +2236,7 @@
         <v>24320</v>
       </c>
       <c r="B225" t="n">
-        <v>0.07231301814317703</v>
+        <v>0.07386219501495361</v>
       </c>
     </row>
     <row r="226">
@@ -2244,7 +2244,7 @@
         <v>24351</v>
       </c>
       <c r="B226" t="n">
-        <v>0.4839276075363159</v>
+        <v>0.4845263659954071</v>
       </c>
     </row>
     <row r="227">
@@ -2252,7 +2252,7 @@
         <v>24381</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.0634729266166687</v>
+        <v>-0.06146156415343285</v>
       </c>
     </row>
     <row r="228">
@@ -2260,7 +2260,7 @@
         <v>24412</v>
       </c>
       <c r="B228" t="n">
-        <v>1.040026068687439</v>
+        <v>1.041601538658142</v>
       </c>
     </row>
     <row r="229">
@@ -2268,7 +2268,7 @@
         <v>24442</v>
       </c>
       <c r="B229" t="n">
-        <v>0.7244077324867249</v>
+        <v>0.7260658144950867</v>
       </c>
     </row>
     <row r="230">
@@ -2276,7 +2276,7 @@
         <v>24473</v>
       </c>
       <c r="B230" t="n">
-        <v>1.770685076713562</v>
+        <v>1.771490216255188</v>
       </c>
     </row>
     <row r="231">
@@ -2284,7 +2284,7 @@
         <v>24504</v>
       </c>
       <c r="B231" t="n">
-        <v>0.607236921787262</v>
+        <v>0.6091731786727905</v>
       </c>
     </row>
     <row r="232">
@@ -2292,7 +2292,7 @@
         <v>24532</v>
       </c>
       <c r="B232" t="n">
-        <v>0.1288851648569107</v>
+        <v>0.1297774016857147</v>
       </c>
     </row>
     <row r="233">
@@ -2300,7 +2300,7 @@
         <v>24563</v>
       </c>
       <c r="B233" t="n">
-        <v>0.5234614014625549</v>
+        <v>0.5247308015823364</v>
       </c>
     </row>
     <row r="234">
@@ -2308,7 +2308,7 @@
         <v>24593</v>
       </c>
       <c r="B234" t="n">
-        <v>0.4296428561210632</v>
+        <v>0.430413156747818</v>
       </c>
     </row>
     <row r="235">
@@ -2316,7 +2316,7 @@
         <v>24624</v>
       </c>
       <c r="B235" t="n">
-        <v>0.2639549970626831</v>
+        <v>0.2642159461975098</v>
       </c>
     </row>
     <row r="236">
@@ -2324,7 +2324,7 @@
         <v>24654</v>
       </c>
       <c r="B236" t="n">
-        <v>0.2489920854568481</v>
+        <v>0.2497366815805435</v>
       </c>
     </row>
     <row r="237">
@@ -2332,7 +2332,7 @@
         <v>24685</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.1823910623788834</v>
+        <v>-0.1815909892320633</v>
       </c>
     </row>
     <row r="238">
@@ -2340,7 +2340,7 @@
         <v>24716</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.00406962912529707</v>
+        <v>-0.002726391656324267</v>
       </c>
     </row>
     <row r="239">
@@ -2348,7 +2348,7 @@
         <v>24746</v>
       </c>
       <c r="B239" t="n">
-        <v>0.01661026105284691</v>
+        <v>0.01910679414868355</v>
       </c>
     </row>
     <row r="240">
@@ -2356,7 +2356,7 @@
         <v>24777</v>
       </c>
       <c r="B240" t="n">
-        <v>0.6950860023498535</v>
+        <v>0.696830689907074</v>
       </c>
     </row>
     <row r="241">
@@ -2364,7 +2364,7 @@
         <v>24807</v>
       </c>
       <c r="B241" t="n">
-        <v>0.5051882266998291</v>
+        <v>0.5057843327522278</v>
       </c>
     </row>
     <row r="242">
@@ -2372,7 +2372,7 @@
         <v>24838</v>
       </c>
       <c r="B242" t="n">
-        <v>0.7065594792366028</v>
+        <v>0.7081536054611206</v>
       </c>
     </row>
     <row r="243">
@@ -2380,7 +2380,7 @@
         <v>24869</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6949663758277893</v>
+        <v>0.6979947090148926</v>
       </c>
     </row>
     <row r="244">
@@ -2388,7 +2388,7 @@
         <v>24898</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2937459647655487</v>
+        <v>0.2939868569374084</v>
       </c>
     </row>
     <row r="245">
@@ -2396,7 +2396,7 @@
         <v>24929</v>
       </c>
       <c r="B245" t="n">
-        <v>1.51712429523468</v>
+        <v>1.516944527626038</v>
       </c>
     </row>
     <row r="246">
@@ -2404,7 +2404,7 @@
         <v>24959</v>
       </c>
       <c r="B246" t="n">
-        <v>1.772851228713989</v>
+        <v>1.772278904914856</v>
       </c>
     </row>
     <row r="247">
@@ -2412,7 +2412,7 @@
         <v>24990</v>
       </c>
       <c r="B247" t="n">
-        <v>0.2952929437160492</v>
+        <v>0.2952797114849091</v>
       </c>
     </row>
     <row r="248">
@@ -2420,7 +2420,7 @@
         <v>25020</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.3890038132667542</v>
+        <v>-0.3880570232868195</v>
       </c>
     </row>
     <row r="249">
@@ -2428,7 +2428,7 @@
         <v>25051</v>
       </c>
       <c r="B249" t="n">
-        <v>0.3911685347557068</v>
+        <v>0.3918375670909882</v>
       </c>
     </row>
     <row r="250">
@@ -2436,7 +2436,7 @@
         <v>25082</v>
       </c>
       <c r="B250" t="n">
-        <v>1.105874419212341</v>
+        <v>1.10821545124054</v>
       </c>
     </row>
     <row r="251">
@@ -2444,7 +2444,7 @@
         <v>25112</v>
       </c>
       <c r="B251" t="n">
-        <v>1.238388776779175</v>
+        <v>1.241442084312439</v>
       </c>
     </row>
     <row r="252">
@@ -2452,7 +2452,7 @@
         <v>25143</v>
       </c>
       <c r="B252" t="n">
-        <v>1.117259383201599</v>
+        <v>1.119770288467407</v>
       </c>
     </row>
     <row r="253">
@@ -2460,7 +2460,7 @@
         <v>25173</v>
       </c>
       <c r="B253" t="n">
-        <v>0.444221705198288</v>
+        <v>0.4439105093479156</v>
       </c>
     </row>
     <row r="254">
@@ -2468,7 +2468,7 @@
         <v>25204</v>
       </c>
       <c r="B254" t="n">
-        <v>2.324868440628052</v>
+        <v>2.327361583709717</v>
       </c>
     </row>
     <row r="255">
@@ -2476,7 +2476,7 @@
         <v>25235</v>
       </c>
       <c r="B255" t="n">
-        <v>1.314517259597778</v>
+        <v>1.315660715103149</v>
       </c>
     </row>
     <row r="256">
@@ -2484,7 +2484,7 @@
         <v>25263</v>
       </c>
       <c r="B256" t="n">
-        <v>0.003829947207123041</v>
+        <v>0.006605965550988913</v>
       </c>
     </row>
     <row r="257">
@@ -2492,7 +2492,7 @@
         <v>25294</v>
       </c>
       <c r="B257" t="n">
-        <v>0.9578999280929565</v>
+        <v>0.9597816467285156</v>
       </c>
     </row>
     <row r="258">
@@ -2500,7 +2500,7 @@
         <v>25324</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2301816195249557</v>
+        <v>0.2316486984491348</v>
       </c>
     </row>
     <row r="259">
@@ -2508,7 +2508,7 @@
         <v>25355</v>
       </c>
       <c r="B259" t="n">
-        <v>0.4588987529277802</v>
+        <v>0.4603972733020782</v>
       </c>
     </row>
     <row r="260">
@@ -2516,7 +2516,7 @@
         <v>25385</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.7430331707000732</v>
+        <v>-0.7392582893371582</v>
       </c>
     </row>
     <row r="261">
@@ -2524,7 +2524,7 @@
         <v>25416</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.486072838306427</v>
+        <v>-0.4832850396633148</v>
       </c>
     </row>
     <row r="262">
@@ -2532,7 +2532,7 @@
         <v>25447</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.01839335821568966</v>
+        <v>-0.01664567925035954</v>
       </c>
     </row>
     <row r="263">
@@ -2540,7 +2540,7 @@
         <v>25477</v>
       </c>
       <c r="B263" t="n">
-        <v>0.6582850813865662</v>
+        <v>0.6613391041755676</v>
       </c>
     </row>
     <row r="264">
@@ -2548,7 +2548,7 @@
         <v>25508</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6075034737586975</v>
+        <v>-0.6053464412689209</v>
       </c>
     </row>
     <row r="265">
@@ -2556,7 +2556,7 @@
         <v>25538</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.001246338943019509</v>
+        <v>-0.002592887729406357</v>
       </c>
     </row>
     <row r="266">
@@ -2564,7 +2564,7 @@
         <v>25569</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.6553228497505188</v>
+        <v>-0.6524101495742798</v>
       </c>
     </row>
     <row r="267">
@@ -2572,7 +2572,7 @@
         <v>25600</v>
       </c>
       <c r="B267" t="n">
-        <v>-0.3324132263660431</v>
+        <v>-0.3300005793571472</v>
       </c>
     </row>
     <row r="268">
@@ -2580,7 +2580,7 @@
         <v>25628</v>
       </c>
       <c r="B268" t="n">
-        <v>0.8104555010795593</v>
+        <v>0.811636209487915</v>
       </c>
     </row>
     <row r="269">
@@ -2588,7 +2588,7 @@
         <v>25659</v>
       </c>
       <c r="B269" t="n">
-        <v>0.2428512871265411</v>
+        <v>0.2456559240818024</v>
       </c>
     </row>
     <row r="270">
@@ -2596,7 +2596,7 @@
         <v>25689</v>
       </c>
       <c r="B270" t="n">
-        <v>0.04441560432314873</v>
+        <v>0.04534382745623589</v>
       </c>
     </row>
     <row r="271">
@@ -2604,7 +2604,7 @@
         <v>25720</v>
       </c>
       <c r="B271" t="n">
-        <v>-0.4141516983509064</v>
+        <v>-0.4137962758541107</v>
       </c>
     </row>
     <row r="272">
@@ -2612,7 +2612,7 @@
         <v>25750</v>
       </c>
       <c r="B272" t="n">
-        <v>0.1370762288570404</v>
+        <v>0.1406394392251968</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>25781</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.055068016052246</v>
+        <v>-1.052994132041931</v>
       </c>
     </row>
     <row r="274">
@@ -2628,7 +2628,7 @@
         <v>25812</v>
       </c>
       <c r="B274" t="n">
-        <v>0.430017352104187</v>
+        <v>0.4303402900695801</v>
       </c>
     </row>
     <row r="275">
@@ -2636,7 +2636,7 @@
         <v>25842</v>
       </c>
       <c r="B275" t="n">
-        <v>1.043837308883667</v>
+        <v>1.044575452804565</v>
       </c>
     </row>
     <row r="276">
@@ -2644,7 +2644,7 @@
         <v>25873</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.1664813011884689</v>
+        <v>-0.1660715192556381</v>
       </c>
     </row>
     <row r="277">
@@ -2652,7 +2652,7 @@
         <v>25903</v>
       </c>
       <c r="B277" t="n">
-        <v>1.075225830078125</v>
+        <v>1.074519634246826</v>
       </c>
     </row>
     <row r="278">
@@ -2660,7 +2660,7 @@
         <v>25934</v>
       </c>
       <c r="B278" t="n">
-        <v>1.072704434394836</v>
+        <v>1.072172045707703</v>
       </c>
     </row>
     <row r="279">
@@ -2668,7 +2668,7 @@
         <v>25965</v>
       </c>
       <c r="B279" t="n">
-        <v>0.4165169894695282</v>
+        <v>0.4160036444664001</v>
       </c>
     </row>
     <row r="280">
@@ -2676,7 +2676,7 @@
         <v>25993</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.3454769253730774</v>
+        <v>-0.3455428779125214</v>
       </c>
     </row>
     <row r="281">
@@ -2684,7 +2684,7 @@
         <v>26024</v>
       </c>
       <c r="B281" t="n">
-        <v>0.5908513069152832</v>
+        <v>0.5912015438079834</v>
       </c>
     </row>
     <row r="282">
@@ -2692,7 +2692,7 @@
         <v>26054</v>
       </c>
       <c r="B282" t="n">
-        <v>1.187576055526733</v>
+        <v>1.187129855155945</v>
       </c>
     </row>
     <row r="283">
@@ -2700,7 +2700,7 @@
         <v>26085</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.303955465555191</v>
+        <v>-0.3026072382926941</v>
       </c>
     </row>
     <row r="284">
@@ -2708,7 +2708,7 @@
         <v>26115</v>
       </c>
       <c r="B284" t="n">
-        <v>0.8903928995132446</v>
+        <v>0.8907305598258972</v>
       </c>
     </row>
     <row r="285">
@@ -2716,7 +2716,7 @@
         <v>26146</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2401982992887497</v>
+        <v>0.2397637963294983</v>
       </c>
     </row>
     <row r="286">
@@ -2724,7 +2724,7 @@
         <v>26177</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.06495996564626694</v>
+        <v>-0.06373415142297745</v>
       </c>
     </row>
     <row r="287">
@@ -2732,7 +2732,7 @@
         <v>26207</v>
       </c>
       <c r="B287" t="n">
-        <v>0.01270377077162266</v>
+        <v>0.01295562274754047</v>
       </c>
     </row>
     <row r="288">
@@ -2740,7 +2740,7 @@
         <v>26238</v>
       </c>
       <c r="B288" t="n">
-        <v>0.3963415026664734</v>
+        <v>0.3959012925624847</v>
       </c>
     </row>
     <row r="289">
@@ -2748,7 +2748,7 @@
         <v>26268</v>
       </c>
       <c r="B289" t="n">
-        <v>1.185474991798401</v>
+        <v>1.184615969657898</v>
       </c>
     </row>
     <row r="290">
@@ -2756,7 +2756,7 @@
         <v>26299</v>
       </c>
       <c r="B290" t="n">
-        <v>1.569451332092285</v>
+        <v>1.570454955101013</v>
       </c>
     </row>
     <row r="291">
@@ -2764,7 +2764,7 @@
         <v>26330</v>
       </c>
       <c r="B291" t="n">
-        <v>0.7772893309593201</v>
+        <v>0.7787190675735474</v>
       </c>
     </row>
     <row r="292">
@@ -2772,7 +2772,7 @@
         <v>26359</v>
       </c>
       <c r="B292" t="n">
-        <v>0.7305675745010376</v>
+        <v>0.7309492230415344</v>
       </c>
     </row>
     <row r="293">
@@ -2780,7 +2780,7 @@
         <v>26390</v>
       </c>
       <c r="B293" t="n">
-        <v>1.254268765449524</v>
+        <v>1.255933046340942</v>
       </c>
     </row>
     <row r="294">
@@ -2788,7 +2788,7 @@
         <v>26420</v>
       </c>
       <c r="B294" t="n">
-        <v>0.3015962243080139</v>
+        <v>0.3049267530441284</v>
       </c>
     </row>
     <row r="295">
@@ -2796,7 +2796,7 @@
         <v>26451</v>
       </c>
       <c r="B295" t="n">
-        <v>1.041643738746643</v>
+        <v>1.042975306510925</v>
       </c>
     </row>
     <row r="296">
@@ -2804,7 +2804,7 @@
         <v>26481</v>
       </c>
       <c r="B296" t="n">
-        <v>0.7535654902458191</v>
+        <v>0.7554635405540466</v>
       </c>
     </row>
     <row r="297">
@@ -2812,7 +2812,7 @@
         <v>26512</v>
       </c>
       <c r="B297" t="n">
-        <v>1.286710500717163</v>
+        <v>1.286496162414551</v>
       </c>
     </row>
     <row r="298">
@@ -2820,7 +2820,7 @@
         <v>26543</v>
       </c>
       <c r="B298" t="n">
-        <v>0.01307565625756979</v>
+        <v>0.01660869456827641</v>
       </c>
     </row>
     <row r="299">
@@ -2828,7 +2828,7 @@
         <v>26573</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.1973834186792374</v>
+        <v>-0.193928450345993</v>
       </c>
     </row>
     <row r="300">
@@ -2836,7 +2836,7 @@
         <v>26604</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.6930592656135559</v>
+        <v>-0.6900839805603027</v>
       </c>
     </row>
     <row r="301">
@@ -2844,7 +2844,7 @@
         <v>26634</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3802876770496368</v>
+        <v>0.3807461559772491</v>
       </c>
     </row>
     <row r="302">
@@ -2852,7 +2852,7 @@
         <v>26665</v>
       </c>
       <c r="B302" t="n">
-        <v>0.2268521934747696</v>
+        <v>0.2300172597169876</v>
       </c>
     </row>
     <row r="303">
@@ -2860,7 +2860,7 @@
         <v>26696</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.3619448840618134</v>
+        <v>-0.3596433699131012</v>
       </c>
     </row>
     <row r="304">
@@ -2868,7 +2868,7 @@
         <v>26724</v>
       </c>
       <c r="B304" t="n">
-        <v>-1.017479658126831</v>
+        <v>-1.014633655548096</v>
       </c>
     </row>
     <row r="305">
@@ -2876,7 +2876,7 @@
         <v>26755</v>
       </c>
       <c r="B305" t="n">
-        <v>0.05507863685488701</v>
+        <v>0.05752427875995636</v>
       </c>
     </row>
     <row r="306">
@@ -2884,7 +2884,7 @@
         <v>26785</v>
       </c>
       <c r="B306" t="n">
-        <v>0.8195072412490845</v>
+        <v>0.8214642405509949</v>
       </c>
     </row>
     <row r="307">
@@ -2892,7 +2892,7 @@
         <v>26816</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.1569023877382278</v>
+        <v>-0.1562339216470718</v>
       </c>
     </row>
     <row r="308">
@@ -2900,7 +2900,7 @@
         <v>26846</v>
       </c>
       <c r="B308" t="n">
-        <v>-0.3042404651641846</v>
+        <v>-0.3045880198478699</v>
       </c>
     </row>
     <row r="309">
@@ -2908,7 +2908,7 @@
         <v>26877</v>
       </c>
       <c r="B309" t="n">
-        <v>-0.6345505118370056</v>
+        <v>-0.6349018812179565</v>
       </c>
     </row>
     <row r="310">
@@ -2916,7 +2916,7 @@
         <v>26908</v>
       </c>
       <c r="B310" t="n">
-        <v>0.1510305553674698</v>
+        <v>0.1523443460464478</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>26938</v>
       </c>
       <c r="B311" t="n">
-        <v>-0.08634987473487854</v>
+        <v>-0.08490100502967834</v>
       </c>
     </row>
     <row r="312">
@@ -2932,7 +2932,7 @@
         <v>26969</v>
       </c>
       <c r="B312" t="n">
-        <v>0.08837554603815079</v>
+        <v>0.0893787294626236</v>
       </c>
     </row>
     <row r="313">
@@ -2940,7 +2940,7 @@
         <v>26999</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.117136359214783</v>
+        <v>-1.113172769546509</v>
       </c>
     </row>
     <row r="314">
@@ -2948,7 +2948,7 @@
         <v>27030</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3764021098613739</v>
+        <v>0.3749400079250336</v>
       </c>
     </row>
     <row r="315">
@@ -2956,7 +2956,7 @@
         <v>27061</v>
       </c>
       <c r="B315" t="n">
-        <v>-0.7930819392204285</v>
+        <v>-0.7923870086669922</v>
       </c>
     </row>
     <row r="316">
@@ -2964,7 +2964,7 @@
         <v>27089</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.6989311575889587</v>
+        <v>-0.6992698907852173</v>
       </c>
     </row>
     <row r="317">
@@ -2972,7 +2972,7 @@
         <v>27120</v>
       </c>
       <c r="B317" t="n">
-        <v>0.233944371342659</v>
+        <v>0.2332939952611923</v>
       </c>
     </row>
     <row r="318">
@@ -2980,7 +2980,7 @@
         <v>27150</v>
       </c>
       <c r="B318" t="n">
-        <v>0.05650090426206589</v>
+        <v>0.05623620375990868</v>
       </c>
     </row>
     <row r="319">
@@ -2988,7 +2988,7 @@
         <v>27181</v>
       </c>
       <c r="B319" t="n">
-        <v>0.7475925087928772</v>
+        <v>0.7473853230476379</v>
       </c>
     </row>
     <row r="320">
@@ -2996,7 +2996,7 @@
         <v>27211</v>
       </c>
       <c r="B320" t="n">
-        <v>0.09629129618406296</v>
+        <v>0.09666425734758377</v>
       </c>
     </row>
     <row r="321">
@@ -3004,7 +3004,7 @@
         <v>27242</v>
       </c>
       <c r="B321" t="n">
-        <v>2.028325080871582</v>
+        <v>2.028071165084839</v>
       </c>
     </row>
     <row r="322">
@@ -3012,7 +3012,7 @@
         <v>27273</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.7058888077735901</v>
+        <v>-0.7047392129898071</v>
       </c>
     </row>
     <row r="323">
@@ -3020,7 +3020,7 @@
         <v>27303</v>
       </c>
       <c r="B323" t="n">
-        <v>0.5288164615631104</v>
+        <v>0.5285589098930359</v>
       </c>
     </row>
     <row r="324">
@@ -3028,7 +3028,7 @@
         <v>27334</v>
       </c>
       <c r="B324" t="n">
-        <v>1.338306903839111</v>
+        <v>1.338630557060242</v>
       </c>
     </row>
     <row r="325">
@@ -3036,7 +3036,7 @@
         <v>27364</v>
       </c>
       <c r="B325" t="n">
-        <v>1.27864408493042</v>
+        <v>1.274860858917236</v>
       </c>
     </row>
     <row r="326">
@@ -3044,7 +3044,7 @@
         <v>27395</v>
       </c>
       <c r="B326" t="n">
-        <v>0.9172651767730713</v>
+        <v>0.9186448454856873</v>
       </c>
     </row>
     <row r="327">
@@ -3052,7 +3052,7 @@
         <v>27426</v>
       </c>
       <c r="B327" t="n">
-        <v>0.07213299721479416</v>
+        <v>0.07445202022790909</v>
       </c>
     </row>
     <row r="328">
@@ -3060,7 +3060,7 @@
         <v>27454</v>
       </c>
       <c r="B328" t="n">
-        <v>0.1280718147754669</v>
+        <v>0.1287738680839539</v>
       </c>
     </row>
     <row r="329">
@@ -3068,7 +3068,7 @@
         <v>27485</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.01549722254276276</v>
+        <v>-0.01366976462304592</v>
       </c>
     </row>
     <row r="330">
@@ -3076,7 +3076,7 @@
         <v>27515</v>
       </c>
       <c r="B330" t="n">
-        <v>0.8574767708778381</v>
+        <v>0.8596248626708984</v>
       </c>
     </row>
     <row r="331">
@@ -3084,7 +3084,7 @@
         <v>27546</v>
       </c>
       <c r="B331" t="n">
-        <v>0.1666168719530106</v>
+        <v>0.1667724698781967</v>
       </c>
     </row>
     <row r="332">
@@ -3092,7 +3092,7 @@
         <v>27576</v>
       </c>
       <c r="B332" t="n">
-        <v>0.9745778441429138</v>
+        <v>0.9756597876548767</v>
       </c>
     </row>
     <row r="333">
@@ -3100,7 +3100,7 @@
         <v>27607</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.7280166745185852</v>
+        <v>-0.7266711592674255</v>
       </c>
     </row>
     <row r="334">
@@ -3108,7 +3108,7 @@
         <v>27638</v>
       </c>
       <c r="B334" t="n">
-        <v>-1.28821849822998</v>
+        <v>-1.286404609680176</v>
       </c>
     </row>
     <row r="335">
@@ -3116,7 +3116,7 @@
         <v>27668</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.3443661332130432</v>
+        <v>-0.3444241583347321</v>
       </c>
     </row>
     <row r="336">
@@ -3124,7 +3124,7 @@
         <v>27699</v>
       </c>
       <c r="B336" t="n">
-        <v>-0.07509837299585342</v>
+        <v>-0.0730646550655365</v>
       </c>
     </row>
     <row r="337">
@@ -3132,7 +3132,7 @@
         <v>27729</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.0137688722461462</v>
+        <v>-0.01223209593445063</v>
       </c>
     </row>
     <row r="338">
@@ -3140,7 +3140,7 @@
         <v>27760</v>
       </c>
       <c r="B338" t="n">
-        <v>0.6196519732475281</v>
+        <v>0.6205581426620483</v>
       </c>
     </row>
     <row r="339">
@@ -3148,7 +3148,7 @@
         <v>27791</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.51988685131073</v>
+        <v>-0.5192530155181885</v>
       </c>
     </row>
     <row r="340">
@@ -3156,7 +3156,7 @@
         <v>27820</v>
       </c>
       <c r="B340" t="n">
-        <v>0.1130253523588181</v>
+        <v>0.1136125028133392</v>
       </c>
     </row>
     <row r="341">
@@ -3164,7 +3164,7 @@
         <v>27851</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.6935753226280212</v>
+        <v>-0.6920222640037537</v>
       </c>
     </row>
     <row r="342">
@@ -3172,7 +3172,7 @@
         <v>27881</v>
       </c>
       <c r="B342" t="n">
-        <v>-0.7645564675331116</v>
+        <v>-0.7612370252609253</v>
       </c>
     </row>
     <row r="343">
@@ -3180,7 +3180,7 @@
         <v>27912</v>
       </c>
       <c r="B343" t="n">
-        <v>-0.1317752748727798</v>
+        <v>-0.1289266645908356</v>
       </c>
     </row>
     <row r="344">
@@ -3188,7 +3188,7 @@
         <v>27942</v>
       </c>
       <c r="B344" t="n">
-        <v>0.0199164766818285</v>
+        <v>0.02402156218886375</v>
       </c>
     </row>
     <row r="345">
@@ -3196,7 +3196,7 @@
         <v>27973</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.03977168351411819</v>
+        <v>-0.03833360970020294</v>
       </c>
     </row>
     <row r="346">
@@ -3204,7 +3204,7 @@
         <v>28004</v>
       </c>
       <c r="B346" t="n">
-        <v>0.07134554535150528</v>
+        <v>0.07233068346977234</v>
       </c>
     </row>
     <row r="347">
@@ -3212,7 +3212,7 @@
         <v>28034</v>
       </c>
       <c r="B347" t="n">
-        <v>0.6058477163314819</v>
+        <v>0.6067873239517212</v>
       </c>
     </row>
     <row r="348">
@@ -3220,7 +3220,7 @@
         <v>28065</v>
       </c>
       <c r="B348" t="n">
-        <v>1.883078932762146</v>
+        <v>1.882632374763489</v>
       </c>
     </row>
     <row r="349">
@@ -3228,7 +3228,7 @@
         <v>28095</v>
       </c>
       <c r="B349" t="n">
-        <v>3.066770553588867</v>
+        <v>3.060006380081177</v>
       </c>
     </row>
     <row r="350">
@@ -3236,7 +3236,7 @@
         <v>28126</v>
       </c>
       <c r="B350" t="n">
-        <v>1.833267569541931</v>
+        <v>1.834673523902893</v>
       </c>
     </row>
     <row r="351">
@@ -3244,7 +3244,7 @@
         <v>28157</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.09577023983001709</v>
+        <v>-0.09364516288042068</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>28185</v>
       </c>
       <c r="B352" t="n">
-        <v>0.1941569298505783</v>
+        <v>0.1956915557384491</v>
       </c>
     </row>
     <row r="353">
@@ -3260,7 +3260,7 @@
         <v>28216</v>
       </c>
       <c r="B353" t="n">
-        <v>0.7613860964775085</v>
+        <v>0.7642496228218079</v>
       </c>
     </row>
     <row r="354">
@@ -3268,7 +3268,7 @@
         <v>28246</v>
       </c>
       <c r="B354" t="n">
-        <v>0.7109836339950562</v>
+        <v>0.7120002508163452</v>
       </c>
     </row>
     <row r="355">
@@ -3276,7 +3276,7 @@
         <v>28277</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5119494795799255</v>
+        <v>0.5138250589370728</v>
       </c>
     </row>
     <row r="356">
@@ -3284,7 +3284,7 @@
         <v>28307</v>
       </c>
       <c r="B356" t="n">
-        <v>0.548423707485199</v>
+        <v>0.5504705309867859</v>
       </c>
     </row>
     <row r="357">
@@ -3292,7 +3292,7 @@
         <v>28338</v>
       </c>
       <c r="B357" t="n">
-        <v>0.7034480571746826</v>
+        <v>0.7048174142837524</v>
       </c>
     </row>
     <row r="358">
@@ -3300,7 +3300,7 @@
         <v>28369</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.5324963331222534</v>
+        <v>-0.5297707915306091</v>
       </c>
     </row>
     <row r="359">
@@ -3308,7 +3308,7 @@
         <v>28399</v>
       </c>
       <c r="B359" t="n">
-        <v>-0.3675781488418579</v>
+        <v>-0.3629715740680695</v>
       </c>
     </row>
     <row r="360">
@@ -3316,7 +3316,7 @@
         <v>28430</v>
       </c>
       <c r="B360" t="n">
-        <v>-0.4660979807376862</v>
+        <v>-0.462425172328949</v>
       </c>
     </row>
     <row r="361">
@@ -3324,7 +3324,7 @@
         <v>28460</v>
       </c>
       <c r="B361" t="n">
-        <v>0.1018769070506096</v>
+        <v>0.1019666865468025</v>
       </c>
     </row>
     <row r="362">
@@ -3332,7 +3332,7 @@
         <v>28491</v>
       </c>
       <c r="B362" t="n">
-        <v>-1.046517133712769</v>
+        <v>-1.043129444122314</v>
       </c>
     </row>
     <row r="363">
@@ -3340,7 +3340,7 @@
         <v>28522</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.288433700799942</v>
+        <v>-0.2847380340099335</v>
       </c>
     </row>
     <row r="364">
@@ -3348,7 +3348,7 @@
         <v>28550</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.2842239737510681</v>
+        <v>-0.2812855839729309</v>
       </c>
     </row>
     <row r="365">
@@ -3356,7 +3356,7 @@
         <v>28581</v>
       </c>
       <c r="B365" t="n">
-        <v>0.09112777560949326</v>
+        <v>0.09199045598506927</v>
       </c>
     </row>
     <row r="366">
@@ -3364,7 +3364,7 @@
         <v>28611</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3787496984004974</v>
+        <v>0.37924724817276</v>
       </c>
     </row>
     <row r="367">
@@ -3372,7 +3372,7 @@
         <v>28642</v>
       </c>
       <c r="B367" t="n">
-        <v>0.1546909362077713</v>
+        <v>0.1545561403036118</v>
       </c>
     </row>
     <row r="368">
@@ -3380,7 +3380,7 @@
         <v>28672</v>
       </c>
       <c r="B368" t="n">
-        <v>1.543282866477966</v>
+        <v>1.542773127555847</v>
       </c>
     </row>
     <row r="369">
@@ -3388,7 +3388,7 @@
         <v>28703</v>
       </c>
       <c r="B369" t="n">
-        <v>-1.333853006362915</v>
+        <v>-1.331045150756836</v>
       </c>
     </row>
     <row r="370">
@@ -3396,7 +3396,7 @@
         <v>28734</v>
       </c>
       <c r="B370" t="n">
-        <v>-0.8507505059242249</v>
+        <v>-0.8494606018066406</v>
       </c>
     </row>
     <row r="371">
@@ -3404,7 +3404,7 @@
         <v>28764</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01504651084542274</v>
+        <v>0.0187405776232481</v>
       <